--- a/examples/Canada OGD/upper Canada Land Petitions/profile.xlsx
+++ b/examples/Canada OGD/upper Canada Land Petitions/profile.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +435,30 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>default_count</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>default_value</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>most_frequent_value</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -508,18 +517,22 @@
       <c r="P2" t="n">
         <v>2</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>9999</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
         <v>405180</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>83258</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>['0', '1', '10', '100', '1000', '10000', '10001', '10002', '10003', '10004', '10005', '10006', '10007', '10008', '10009', '1001', '10010', '10011', '10012', '10013', '10014', '10015', '10016', '10017', '10018', '10019', '1002', '10020', '10021', '10022', '10023', '10024', '10025', '10026', '10027', '10028', '10029', '1003', '10030', '10031', '10032', '10033', '10034', '10035', '10036', '10037', '10038', '10039', '1004', '10040', '10041', '10042', '10043', '10044', '10045', '10046', '10047', '10048', '10049', '1005', '10050', '10051', '10052', '10053', '10054', '10055', '10056', '10057', '10058', '10059', '1006', '10060', '10061', '10062', '10063', '10064', '10065', '10066', '10067', '10068', '10069', '1007', '10070', '10071', '10072', '10073', '10074', '10075', '10076', '10077', '10078', '10079', '1008', '10080', '10081', '10082', '10083', '10084', '10085', '10086', '10087', '10088', '10089', '1009', '10090', '10091', '10092', '10093', '10094', '10095', '10096', '10097', '10098', '10099', '101', '1010', '10100', '10101', '10102', '10103', '10104', '10105', '10106', '10107', '10108', '10109', '1011', '10110', '10111', '10112', '10113', '10114', '10115', '10116', '10117', '10118', '10119', '1012', '10120', '10121', '10122', '10123', '10124', '10125', '10126', '10127', '10128', '10129', '1013', '10130', '10131', '10132', '10133', '10134', '10135', '10136', '10137', '10138', '10139', '1014', '10140', '10141', '10142', '10143', '10144', '10145', '10146', '10147', '10148', '10149', '1015', '10150', '10151', '10152', '10153', '10154', '10155', '10156', '10157', '10158', '10159', '1016', '10160', '10161', '10162', '10163', '10164', '10165', '10166', '10167', '10168', '10169', '1017', '10170', '10171', '10172', '10173', '10174', '10175', '10176', '10177', '10178', '10179', '1018', '10180', '10181', '10182', '10183', '10184', '10185', '10186', '10187', '10188', '10189', '1019', '10190', '10191', '10192', '10193', '10194', '10195', '10196', '10197', '10198', '10199', '102', '1020', '10200', '10201', '10202', '10203', '10204', '10205', '10206', '10207', '10208', '10209', '1021', '10210', '10211', '10212', '10213', '10214', '10215', '10216', '10217', '10218', '10219', '1022', '10220', '10221', '10222', '10223', '10224', '10225', '10226', '10227', '10228', '10229', '1023', '10230', '10231', '10232', '10233', '10234', '10235', '10236', '10237', '10238', '10239', '1024', '10240', '10241', '10242', '10243', '10244', '10245', '10246', '10247', '10248', '10249', '1025', '10250', '10251', '10252', '10253', '10254', '10255', '10256', '10257', '10258', '10259', '1026', '10260', '10261', '10262', '10263', '10264', '10265', '10266', '10267', '10268', '10269', '1027', '10270', '10271', '10272', '10273', '10274', '10275', '10276', '10277', '10278', '10279', '1028', '10280', '10281', '10282', '10283', '10284', '10285', '10286', '10287', '10288', '10289', '1029', '10290', '10291', '10292', '10293', '10294', '10295', '10296', '10297', '10298', '10299', '103', '1030', '10300', '10301', '10302', '10303', '10304', '10305', '10306', '10307', '10308', '10309', '1031', '10310', '10311', '10312', '10313', '10314', '10315', '10316', '10317', '10318', '10319', '1032', '10320', '10321', '10322', '10323', '10324', '10325', '10326', '10327', '10328', '10329', '1033', '10330', '10331', '10332', '10333', '10334', '10335', '10336', '10337', '10338', '10339', '1034', '10340', '10341', '10342', '10343', '10344', '10345', '10346', '10347', '10348', '10349', '1035', '10350', '10351', '10352', '10353', '10354', '10355', '10356', '10357', '10358', '10359', '1036', '10360', '10361', '10362', '10363', '10364', '10365', '10366', '10367', '10368', '10369', '1037', '10370', '10371', '10372', '10373', '10374', '10375', '10376', '10377', '10378', '10379', '1038', '10380', '10381', '10382', '10383', '10384', '10385', '10386', '10387', '10388', '10389', '1039', '10390', '10391', '10392', '10393', '10394', '10395', '10396', '10397', '10398', '10399', '104', '1040', '10400', '10401', '10402', '10403', '10404', '10405', '10406', '10407', '10408', '10409', '1041', '10410', '10411', '10412', '10413', '10414', '10415', '10416', '10417', '10418', '10419', '1042', '10420', '10421', '10422', '10423', '10424', '10425', '10426', '10427', '10428', '10429', '1043', '10430', '10431', '10432', '10433', '10434', '10435', '10436', '10437', '10438', '10439', '1044', '10440', '10441', '10442', '10443', '10444', '10445', '10446', '10447', '10448', '10449', '1045', '10450', '10451', '10452', '10453', '10454', '10455', '10456', '10457', '10458', '10459', '1046', '10460', '10461', '10462', '10463', '10464', '10465', '10466', '10467', '10468', '10469', '1047', '10470', '10471', '10472', '10473', '10474', '10475', '10476', '10477', '10478', '10479', '1048', '10480', '10481', '10482', '10483', '10484', '10485', '10486', '10487', '10488', '10489', '1049', '10490', '10491', '10492', '10493', '10494', '10495', '10496', '10497', '10498', '10499', '105', '1050', '10500', '10501', '10502', '10503', '10504', '10505', '10506', '10507', '10508', '10509', '1051', '10510', '10511', '10512', '10513', '10514', '10515', '10516', '10517', '10518', '10519', '1052', '10520', '10521', '10522', '10523', '10524', '10525', '10526', '10527', '10528', '10529', '1053', '10530', '10531', '10532', '10533', '10534', '10535', '10536', '10537', '10538', '10539', '1054', '10540', '10541', '10542', '10543', '10544', '10545', '10546', '10547', '10548', '10549', '1055', '10550', '10551', '10552', '10553', '10554', '10555', '10556', '10557', '10558', '10559', '1056', '10560', '10561', '10562', '10563', '10564', '10565', '10566', '10567', '10568', '10569', '1057', '10570', '10571', '10572', '10573', '10574', '10575', '10576', '10577', '10578', '10579', '1058', '10580', '10581', '10582', '10583', '10584', '10585', '10586', '10587', '10588', '10589', '1059', '10590', '10591', '10592', '10593', '10594', '10595', '10596', '10597', '10598', '10599', '106', '1060', '10600', '10601', '10602', '10603', '10604', '10605', '10606', '10607', '10608', '10609', '1061', '10610', '10611', '10612', '10613', '10614', '10615', '10616', '10617', '10618', '10619', '1062', '10620', '10621', '10622', '10623', '10624', '10625', '10626', '10627', '10628', '10629', '1063', '10630', '10631', '10632', '10633', '10634', '10635', '10636', '10637', '10638', '10639', '1064', '10640', '10641', '10642', '10643', '10644', '10645', '10646', '10647', '10648', '10649', '1065', '10650', '10651', '10652', '10653', '10654', '10655', '10656', '10657', '10658', '10659', '1066', '10660', '10661', '10662', '10663', '10664', '10665', '10666', '10667', '10668', '10669', '1067', '10670', '10671', '10672', '10673', '10674', '10675', '10676', '10677', '10678', '10679', '1068', '10680', '10681', '10682', '10683', '10684', '10685', '10686', '10687', '10688', '10689', '1069', '10690', '10691', '10692', '10693', '10694', '10695', '10696', '10697', '10698', '10699', '107', '1070', '10700', '10701', '10702', '10703', '10704', '10705', '10706', '10707', '10708', '10709', '1071', '10710', '10711', '10712', '10713', '10714', '10715', '10716', '10717', '10718', '10719', '1072', '10720', '10721', '10722', '10723', '10724', '10725', '10726', '10727', '10728', '10729', '1073', '10730', '10731', '10732', '10733', '10734', '10735', '10736', '10737', '10738', '10739', '1074', '10740', '10741', '10742', '10743', '10744', '10745', '10746', '10747', '10748', '10749', '1075', '10750', '10751', '10752', '10753', '10754', '10755', '10756', '10757', '10758', '10759', '1076', '10760', '10761', '10762', '10763', '10764', '10765', '10766', '10767', '10768', '10769', '1077', '10770', '10771', '10772', '10773', '10774', '10775', '10776', '10777', '10778', '10779', '1078', '10780', '10781', '10782', '10783', '10784', '10785', '10786', '10787', '10788', '10789', '1079', '10790', '10791', '10792', '10793', '10794', '10795', '10796', '10797', '10798', '10799', '108', '1080', '10800', '10801', '10802', '10803', '10804', '10805', '10806', '10807', '10808', '10809', '1081', '10810', '10811', '10812', '10813', '10814', '10815', '10816', '10817', '10818', '10819', '1082', '10820', '10821', '10822', '10823', '10824', '10825', '10826', '10827', '10828', '10829', '1083', '10830', '10831', '10832', '10833', '10834', '10835', '10836', '10837', '10838', '10839', '1084', '10840', '10841', '10842', '10843', '10844', '10845', '10846', '10847', '10848', '10849', '1085', '10850', '10851', '10852', '10853', '10854', '10855', '10856', '10857', '10858', '10859', '1086', '10860', '10861', '10862', '10863', '10864', '10865', '10866', '10867', '10868', '10869', '1087', '10870', '10871', '10872', '10873', '10874', '10875', '10876', '10877', '10878', '10879', '1088', '10880', '10881', '10882', '10883', '10884', '10885', '10886', '10887', '10888', '10889', '1089', '10890', '10891', '10892', '10893', '10894', '10895', '10896', '10897', '10898', '10899', '109', '1090', '10900', '10901', '10902', '10903', '10904', '10905', '10906', '10907', '10908', '10909', '1091', '10910', '10911', '10912', '10913', '10914', '10915', '10916', '10917', '10918', '10919', '1092', '10920', '10921', '10922', '10923', '10924', '10925', '10926', '10927', '10928', '10929', '1093', '10930', '10931', '10932', '10933', '10934', '10935', '10936', '10937', '10938', '10939', '1094', '10940', '10941', '10942', '10943', '10944', '10945', '10946', '10947', '10948', '10949', '1095', '10950', '10951', '10952', '10953', '10954', '10955', '10956', '10957', '10958', '10959', '1096', '10960', '10961', '10962', '10963', '10964', '10965', '10966', '10967', '10968', '10969', '1097', '10970', '10971', '10972', '10973', '10974', '10975', '10976', '10977', '10978', '10979', '1098', '10980', '10981', '10982', '10983', '10984', '10985', '10986', '10987', '10988', '10989', '1099', '10990', '10991', '10992', '10993', '10994', '10995', '10996', '10997', '10998', '10999', '11', '110', '1100', '11000', '11001', '11002', '11003', '11004', '11005', '11006', '11007', '11008', '11009', '1101', '11010', '11011', '11012', '11013', '11014', '11015', '11016', '11017', '11018', '11019', '1102', '11020', '11021', '11022', '11023', '11024', '11025', '11026', '11027', '11028', '11029', '1103', '11030', '11031', '11032', '11033', '11034', '11035', '11036', '11037', '11038', '11039', '1104', '11040', '11041', '11042', '11043', '11044', '11045', '11046', '11047', '11048', '11049', '1105', '11050', '11051', '11052', '11053', '11054', '11055', '11056', '11057', '11058', '11059', '1106', '11060', '11061', '11062', '11063', '11064', '11065', '11066', '11067', '11068', '11069', '1107', '11070', '11071', '11072', '11073', '11074', '11075', '11076', '11077', '11078', '11079', '1108', '11080', '11081', '11082', '11083', '11084', '11085', '11086', '11087', '11088', '11089', '1109', '11090', '11091', '11092', '11093', '11094', '11095', '11096', '11097', '11098', '11099', '111', '1110', '11100', '11101', '11102', '11103', '11104', '11105', '11106', '11107', '11108', '11109', '1111', '11110', '11111', '11112', '11113', '11114', '11115', '11116', '11117', '11118', '11119', '1112', '11120', '11121', '11122', '11123', '11124', '11125', '11126', '11127', '11128', '11129', '1113', '11130', '11131', '11132', '11133', '11134', '11135', '11136', '11137', '11138', '11139', '1114', '11140', '11141', '11142', '11143', '11144', '11145', '11146', '11147', '11148', '11149', '1115', '11150', '11151', '11152', '11153', '11154', '11155', '11156', '11157', '11158', '11159', '1116', '11160', '11161', '11162', '11163', '11164', '11165', '11166', '11167', '11168', '11169', '1117', '11170', '11171', '11172', '11173', '11174', '11175', '11176', '11177', '11178', '11179', '1118', '11180', '11181', '11182', '11183', '11184', '11185', '11186', '11187', '11188', '11189', '1119', '11190', '11191', '11192', '11193', '11194', '11195', '11196', '11197', '11198', '11199', '112', '1120', '11200', '11201', '11202', '11203', '11204', '11205', '11206', '11207', '11208', '11209', '1121', '11210', '11211', '11212', '11213', '11214', '11215', '11216', '11217', '11218', '11219', '1122', '11220', '11221', '11222', '11223', '11224', '11225', '11226', '11227', '11228', '11229', '1123', '11230', '11231', '11232', '11233', '11234', '11235', '11236', '11237', '11238', '11239', '1124', '11240', '11241', '11242', '11243', '11244', '11245', '11246', '11247', '11248', '11249', '1125', '11250', '11251', '11252', '11253', '11254', '11255', '11256', '11257', '11258', '11259', '1126', '11260', '11261', '11262', '11263', '11264', '11265', '11266', '11267', '11268', '11269', '1127', '11270', '11271', '11272', '11273', '11274', '11275', '11276', '11277', '11278', '11279', '1128', '11280', '11281', '11282', '11283', '11284', '11285', '11286', '11287', '11288', '11289', '1129', '11290', '11291', '11292', '11293', '11294', '11295', '11296', '11297', '11298', '11299', '113', '1130', '11300', '11301', '11302', '11303', '11304', '11305', '11306', '11307', '11308', '11309', '1131', '11310', '11311', '11312', '11313', '11314', '11315', '11316', '11317', '11318', '11319', '1132', '11320', '11321', '11322', '11323', '11324', '11325', '11326', '11327', '11328', '11329', '1133', '11330', '11331', '11332', '11333', '11334', '11335', '11336', '11337', '11338', '11339', '1134', '11340', '11341', '11342', '11343', '11344', '11345', '11346', '11347', '11348', '11349', '1135', '11350', '11351', '11352', '11353', '11354', '11355', '11356', '11357', '11358', '11359', '1136', '11360', '11361', '11362', '11363', '11364', '11365', '11366', '11367', '11368', '11369', '1137', '11370', '11371', '11372', '11373', '11374', '11375', '11376', '11377', '11378', '11379', '1138', '11380', '11381', '11382', '11383', '11384', '11385', '11386', '11387', '11388', '11389', '1139', '11390', '11391', '11392', '11393', '11394', '11395', '11396', '11397', '11398', '11399', '114', '1140', '11400', '11401', '11402', '11403', '11404', '11405', '11406', '11407', '11408', '11409', '1141', '11410', '11411', '11412', '11413', '11414', '11415', '11416', '11417', '11418', '11419', '1142', '11420', '11421', '11422', '11423', '11424', '11425', '11426', '11427', '11428', '11429', '1143', '11430', '11431', '11432', '11433', '11434', '11435', '11436', '11437', '11438', '11439', '1144', '11440', '11441', '11442', '11443', '11444', '11445', '11446', '11447', '11448', '11449', '1145', '11450', '11451', '11452', '11453', '11454', '11455', '11456', '11457', '11458', '11459', '1146', '11460', '11461', '11462', '11463', '11464', '11465', '11466', '11467', '11468', '11469', '1147', '11470', '11471', '11472', '11473', '11474', '11475', '11476', '11477', '11478', '11479', '1148', '11480', '11481', '11482', '11483', '11484', '11485', '11486', '11487', '11488', '11489', '1149', '11490', '11491', '11492', '11493', '11494', '11495', '11496', '11497', '11498', '11499', '115', '1150', '11500', '11501', '11502', '11503', '11504', '11505', '11506', '11507', '11508', '11509', '1151', '11510', '11511', '11512', '11513', '11514', '11515', '11516', '11517', '11518', '11519', '1152', '11520', '11521', '11522', '11523', '11524', '11525', '11526', '11527', '11528', '11529', '1153', '11530', '11531', '11532', '11533', '11534', '11535', '11536', '11537', '11538', '11539', '1154', '11540', '11541', '11542', '11543', '11544', '11545', '11546', '11547', '11548', '11549', '1155', '11550', '11551', '11552', '11553', '11554', '11555', '11556', '11557', '11558', '11559', '1156', '11560', '11561', '11562', '11563', '11564', '11565', '11566', '11567', '11568', '11569', '1157', '11570', '11571', '11572', '11573', '11574', '11575', '11576', '11577', '11578', '11579', '1158', '11580', '11581', '11582', '11583', '11584', '11585', '11586', '11587', '11588', '11589', '1159', '11590', '11591', '11592', '11593', '11594', '11595', '11596', '11597', '11598', '11599', '116', '1160', '11600', '11601', '11602', '11603', '11604', '11605', '11606', '11607', '11608', '11609', '1161', '11610', '11611', '11612', '11613', '11614', '11615', '11616', '11617', '11618', '11619', '1162', '11620', '11621', '11622', '11623', '11624', '11625', '11626', '11627', '11628', '11629', '1163', '11630', '11631', '11632', '11633', '11634', '11635', '11636', '11637', '11638', '11639', '1164', '11640', '11641', '11642', '11643', '11644', '11645', '11646', '11647', '11648', '11649', '1165', '11650', '11651', '11652', '11653', '11654', '11655', '11656', '11657', '11658', '11659', '1166', '11660', '11661', '11662', '11663', '11664', '11665', '11666', '11667', '11668', '11669', '1167', '11670', '11671', '11672', '11673', '11674', '11675', '11676', '11677', '11678', '11679', '1168', '11680', '11681', '11682', '11683', '11684', '11685', '11686', '11687', '11688', '11689', '1169', '11690', '11691', '11692', '11693', '11694', '11695', '11696', '11697', '11698', '11699', '117', '1170', '11700', '11701', '11702', '11703', '11704', '11705', '11706', '11707', '11708', '11709', '1171', '11710', '11711', '11712', '11713', '11714', '11715', '11716', '11717', '11718', '11719', '1172', '11720', '11721', '11722', '11723', '11724', '11725', '11726', '11727', '11728', '11729', '1173', '11730', '11731', '11732', '11733', '11734', '11735', '11736', '11737', '11738', '11739', '1174', '11740', '11741', '11742', '11743', '11744', '11745', '11746', '11747', '11748', '11749', '1175', '11750', '11751', '11752', '11753', '11754', '11755', '11756', '11757', '11758', '11759', '1176', '11760', '11761', '11762', '11763', '11764', '11765', '11766', '11767', '11768', '11769', '1177', '11770', '11771', '11772', '11773', '11774', '11775', '11776', '11777', '11778', '11779', '1178', '11780', '11781', '11782', '11783', '11784', '11785', '11786', '11787', '11788', '11789', '1179', '11790', '11791', '11792', '11793', '11794', '11795', '11796', '11797', '11798', '11799', '118', '1180', '11800', '11801', '11802', '11803', '11804', '11805', '11806', '11807', '11808', '11809', '1181', '11810', '11811', '11812', '11813', '11814', '11815', '11816', '11817', '11818', '11819', '1182', '11820', '11821', '11822', '11823', '11824', '11825', '11826', '11827', '11828', '11829', '1183', '11830', '11831', '11832', '11833', '11834', '11835', '11836', '11837', '11838', '11839', '1184', '11840', '11841', '11842', '11843', '11844', '11845', '11846', '11847', '11848', '11849', '1185', '11850', '11851', '11852', '11853', '11854', '11855', '11856', '11857', '11858', '11859', '1186', '11860', '11861', '11862', '11863', '11864', '11865', '11866', '11867', '11868', '11869', '1187', '11870', '11871', '11872', '11873', '11874', '11875', '11876', '11877', '11878', '11879', '1188', '11880', '11881', '11882', '11883', '11884', '11885', '11886', '11887', '11888', '11889', '1189', '11890', '11891', '11892', '11893', '11894', '11895', '11896', '11897', '11898', '11899', '119', '1190', '11900', '11901', '11902', '11903', '11904', '11905', '11906', '11907', '11908', '11909', '1191', '11910', '11911', '11912', '11913', '11914', '11915', '11916', '11917', '11918', '11919', '1192', '11920', '11921', '11922', '11923', '11924', '11925', '11926', '11927', '11928', '11929', '1193', '11930', '11931', '11932', '11933', '11934', '11935', '11936', '11937', '11938', '11939', '1194', '11940', '11941', '11942', '11943', '11944', '11945', '11946', '11947', '11948', '11949', '1195', '11950', '11951', '11952', '11953', '11954', '11955', '11956', '11957', '11958', '11959', '1196', '11960', '11961', '11962', '11963', '11964', '11965', '11966', '11967', '11968', '11969', '1197', '11970', '11971', '11972', '11973', '11974', '11975', '11976', '11977', '11978', '11979', '1198', '11980', '11981', '11982', '11983', '11984', '11985', '11986', '11987', '11988', '11989', '1199', '11990', '11991', '11992', '11993', '11994', '11995', '11996', '11997', '11998', '11999', '12', '120', '1200', '12000', '12001', '12002', '12003', '12004', '12005', '12006', '12007', '12008', '12009', '1201', '12010', '12011', '12012', '12013', '12014', '12015', '12016', '12017', '12018', '12019', '1202', '12020', '12021', '12022', '12023', '12024', '12025', '12026', '12027', '12028', '12029', '1203', '12030', '12031', '12032', '12033', '12034', '12035', '12036', '12037', '12038', '12039', '1204', '12040', '12041', '12042', '12043', '12044', '12045', '12046', '12047', '12048', '12049', '1205', '12050', '12051', '12052', '12053', '12054', '12055', '12056', '12057', '12058', '12059', '1206', '12060', '12061', '12062', '12063', '12064', '12065', '12066', '12067', '12068', '12069', '1207', '12070', '12071', '12072', '12073', '12074', '12075', '12076', '12077', '12078', '12079', '1208', '12080', '12081', '12082', '12083', '12084', '12085', '12086', '12087', '12088', '12089', '1209', '12090', '12091', '12092', '12093', '12094', '12095', '12096', '12097', '12098', '12099', '121', '1210', '12100', '12101', '12102', '12103', '12104', '12105', '12106', '12107', '12108', '12109', '1211', '12110', '12111', '12112', '12113', '12114', '12115', '12116', '12117', '12118', '12119', '1212', '12120', '12121', '12122', '12123', '12124', '12125', '12126', '12127', '12128', '12129', '1213', '12130', '12131', '12132', '12133', '12134', '12135', '12136', '12137', '12138', '12139', '1214', '12140', '12141', '12142', '12143', '12144', '12145', '12146', '12147', '12148', '12149', '1215', '12150', '12151', '12152', '12153', '12154', '12155', '12156', '12157', '12158', '12159', '1216', '12160', '12161', '12162', '12163', '12164', '12165', '12166', '12167', '12168', '12169', '1217', '12170', '12171', '12172', '12173', '12174', '12175', '12176', '12177', '12178', '12179', '1218', '12180', '12181', '12182', '12183', '12184', '12185', '12186', '12187', '12188', '12189', '1219', '12190', '12191', '12192', '12193', '12194', '12195', '12196', '12197', '12198', '12199', '122', '1220', '12200', '12201', '12202', '12203', '12204', '12205', '12206', '12207', '12208', '12209', '1221', '12210', '12211', '12212', '12213', '12214', '12215', '12216', '12217', '12218', '12219', '1222', '12220', '12221', '12222', '12223', '12224', '12225', '12226', '12227', '12228', '12229', '1223', '12230', '12231', '12232', '12233', '12234', '12235', '12236', '12237', '12238', '12239', '1224', '12240', '12241', '12242', '12243', '12244', '12245', '12246', '12247', '12248', '12249', '1225', '12250', '12251', '12252', '12253', '12254', '12255', '12256', '12257', '12258', '12259', '1226', '12260', '12261', '12262', '12263', '12264', '12265', '12266', '12267', '12268', '12269', '1227', '12270', '12271', '12272', '12273', '12274', '12275', '12276', '12277', '12278', '12279', '1228', '12280', '12281', '12282', '12283', '12284', '12285', '12286', '12287', '12288', '12289', '1229', '12290', '12291', '12292', '12293', '12294', '12295', '12296', '12297', '12298', '12299', '123', '1230', '12300', '12301', '12302', '12303', '12304', '12305', '12306', '12307', '12308', '12309', '1231', '12310', '12311', '12312', '12313', '12314', '12315', '12316', '12317', '12318', '12319', '1232', '12320', '12321', '12322', '12323', '12324', '12325', '12326', '12327', '12328', '12329', '1233', '12330', '12331', '12332', '12333', '12334', '12335', '12336', '12337', '12338', '12339', '1234', '12340', '12341', '12342', '12343', '12344', '12345', '12346', '12347', '12348', '12349', '1235', '12350', '12351', '12352', '12353', '12354', '12355', '12356', '12357', '12358', '12359', '1236', '12360', '12361', '12362', '12363', '12364', '12365', '12366', '12367', '12368', '12369', '1237', '12370', '12371', '12372', '12373', '12374', '12375', '12376', '12377', '12378', '12379', '1238', '12380', '12381', '12382', '12383', '12384', '12385', '12386', '12387', '12388', '12389', '1239', '12390', '12391', '12392', '12393', '12394', '12395', '12396', '12397', '12398', '12399', '124', '1240', '12400', '12401', '12402', '12403', '12404', '12405', '12406', '12407', '12408', '12409', '1241', '12410', '12411', '12412', '12413', '12414', '12415', '12416', '12417', '12418', '12419', '1242', '12420', '12421', '12422', '12423', '12424', '12425', '12426', '12427', '12428', '12429', '1243', '12430', '12431', '12432', '12433', '12434', '12435', '12436', '12437', '12438', '12439', '1244', '12440', '12441', '12442', '12443', '12444', '12445', '12446', '12447', '12448', '12449', '1245', '12450', '12451', '12452', '12453', '12454', '12455', '12456', '12457', '12458', '12459', '1246', '12460', '12461', '12462', '12463', '12464', '12465', '12466', '12467', '12468', '12469', '1247', '12470', '12471', '12472', '12473', '12474', '12475', '12476', '12477', '12478', '12479', '1248', '12480', '12481', '12482', '12483', '12484', '12485', '12486', '12487', '12488', '12489', '1249', '12490', '12491', '12492', '12493', '12494', '12495', '12496', '12497', '12498', '12499', '125', '1250', '12500', '12501', '12502', '12503', '12504', '12505', '12506', '12507', '12508', '12509', '1251', '12510', '12511', '12512', '12513', '12514', '12515', '12516', '12517', '12518', '12519', '1252', '12520', '12521', '12522', '12523', '12524', '12525', '12526', '12527', '12528', '12529', '1253', '12530', '12531', '12532', '12533', '12534', '12535', '12536', '12537', '12538', '12539', '1254', '12540', '12541', '12542', '12543', '12544', '12545', '12546', '12547', '12548', '12549', '1255', '12550', '12551', '12552', '12553', '12554', '12555', '12556', '12557', '12558', '12559', '1256', '12560', '12561', '12562', '12563', '12564', '12565', '12566', '12567', '12568', '12569', '1257', '12570', '12571', '12572', '12573', '12574', '12575', '12576', '12577', '12578', '12579', '1258', '12580', '12581', '12582', '12583', '12584', '12585', '12586', '12587', '12588', '12589', '1259', '12590', '12591', '12592', '12593', '12594', '12595', '12596', '12597', '12598', '12599', '126', '1260', '12600', '12601', '12602', '12603', '12604', '12605', '12606', '12607', '12608', '12609', '1261', '12610', '12611', '12612', '12613', '12614', '12615', '12616', '12617', '12618', '12619', '1262', '12620', '12621', '12622', '12623', '12624', '12625', '12626', '12627', '12628', '12629', '1263', '12630', '12631', '12632', '12633', '12634', '12635', '12636', '12637', '12638', '12639', '1264', '12640', '12641', '12642', '12643', '12644', '12645', '12646', '12647', '12648', '12649', '1265', '12650', '12651', '12652', '12653', '12654', '12655', '12656', '12657', '12658', '12659', '1266', '12660', '12661', '12662', '12663', '12664', '12665', '12666', '12667', '12668', '12669', '1267', '12670', '12671', '12672', '12673', '12674', '12675', '12676', '12677', '12678', '12679', '1268', '12680', '12681', '12682', '12683', '12684', '12685', '12686', '12687', '12688', '12689', '1269', '12690', '12691', '12692', '12693', '12694', '12695', '12696', '12697', '12698', '12699', '127', '1270', '12700', '12701', '12702', '12703', '12704', '12705', '12706', '12707', '12708', '12709', '1271', '12710', '12711', '12712', '12713', '12714', '12715', '12716', '12717', '12718', '12719', '1272', '12720', '12721', '12722', '12723', '12724', '12725', '12726', '12727', '12728', '12729', '1273', '12730', '12731', '12732', '12733', '12734', '12735', '12736', '12737', '12738', '12739', '1274', '12740', '12741', '12742', '12743', '12744', '12745', '12746', '12747', '12748', '12749', '1275', '12750', '12751', '12752', '12753', '12754', '12755', '12756', '12757', '12758', '12759', '1276', '12760', '12761', '12762', '12763', '12764', '12765', '12766', '12767', '12768', '12769', '1277', '12770', '12771', '12772', '12773', '12774', '12775', '12776', '12777', '12778', '12779', '1278', '12780', '12781', '12782', '12783', '12784', '12785', '12786', '12787', '12788', '12789', '1279', '12790', '12791', '12792', '12793', '12794', '12795', '12796', '12797', '12798', '12799', '128', '1280', '12800', '12801', '12802', '12803', '12804', '12805', '12806', '12807', '12808', '12809', '1281', '12810', '12811', '12812', '12813', '12814', '12815', '12816', '12817', '12818', '12819', '1282', '12820', '12821', '12822', '12823', '12824', '12825', '12826', '12827', '12828', '12829', '1283', '12830', '12831', '12832', '12833', '12834', '12835', '12836', '12837', '12838', '12839', '1284', '12840', '12841', '12842', '12843', '12844', '12845', '12846', '12847', '12848', '12849', '1285', '12850', '12851', '12852', '12853', '12854', '12855', '12856', '12857', '12858', '12859', '1286', '12860', '12861', '12862', '12863', '12864', '12865', '12866', '12867', '12868', '12869', '1287', '12870', '12871', '12872', '12873', '12874', '12875', '12876', '12877', '12878', '12879', '1288', '12880', '12881', '12882', '12883', '12884', '12885', '12886', '12887', '12888', '12889', '1289', '12890', '12891', '12892', '12893', '12894', '12895', '12896', '12897', '12898', '12899', '129', '1290', '12900', '12901', '12902', '12903', '12904', '12905', '12906', '12907', '12908', '12909', '1291', '12910', '12911', '12912', '12913', '12914', '12915', '12916', '12917', '12918', '12919', '1292', '12920', '12921', '12922', '12923', '12924', '12925', '12926', '12927', '12928', '12929', '1293', '12930', '12931', '12932', '12933', '12934', '12935', '12936', '12937', '12938', '12939', '1294', '12940', '12941', '12942', '12943', '12944', '12945', '12946', '12947', '12948', '12949', '1295', '12950', '12951', '12952', '12953', '12954', '12955', '12956', '12957', '12958', '12959', '1296', '12960', '12961', '12962', '12963', '12964', '12965', '12966', '12967', '12968', '12969', '1297', '12970', '12971', '12972', '12973', '12974', '12975', '12976', '12977', '12978', '12979', '1298', '12980', '12981', '12982', '12983', '12984', '12985', '12986', '12987', '12988', '12989', '1299', '12990', '12991', '12992', '12993', '12994', '12995', '12996', '12997', '12998', '12999', '13', '130', '1300', '13000', '13001', '13002', '13003', '13004', '13005', '13006', '13007', '13008', '13009', '1301', '13010', '13011', '13012', '13013', '13014', '13015', '13016', '13017', '13018', '13019', '1302', '13020', '13021', '13022', '13023', '13024', '13025', '13026', '13027', '13028', '13029', '1303', '13030', '13031', '13032', '13033', '13034', '13035', '13036', '13037', '13038', '13039', '1304', '13040', '13041', '13042', '13043', '13044', '13045', '13046', '13047', '13048', '13049', '1305', '13050', '13051', '13052', '13053', '13054', '13055', '13056', '13057', '13058', '13059', '1306', '13060', '13061', '13062', '13063', '13064', '13065', '13066', '13067', '13068', '13069', '1307', '13070', '13071', '13072', '13073', '13074', '13075', '13076', '13077', '13078', '13079', '1308', '13080', '13081', '13082', '13083', '13084', '13085', '13086', '13087', '13088', '13089', '1309', '13090', '13091', '13092', '13093', '13094', '13095', '13096', '13097', '13098', '13099', '131', '1310', '13100', '13101', '13102', '13103', '13104', '13105', '13106', '13107', '13108', '13109', '1311', '13110', '13111', '13112', '13113', '13114', '13115', '13116', '13117', '13118', '13119', '1312', '13120', '13121', '13122', '13123', '13124', '13125', '13126', '13127', '13128', '13129', '1313', '13130', '13131', '13132', '13133', '13134', '13135', '13136', '13137', '13138', '13139', '1314', '13140', '13141', '13142', '13143', '13144', '13145', '13146', '13147', '13148', '13149', '1315', '13150', '13151', '13152', '13153', '13154', '13155', '13156', '13157', '13158', '13159', '1316', '13160', '13161', '13162', '13163', '13164', '13165', '13166', '13167', '13168', '13169', '1317', '13170', '13171', '13172', '13173', '13174', '13175', '13176', '13177', '13178', '13179', '1318', '13180', '13181', '13182', '13183', '13184', '13185', '13186', '13187', '13188', '13189', '1319', '13190', '13191', '13192', '13193', '13194', '13195', '13196', '13197', '13198', '13199', '132', '1320', '13200', '13201', '13202', '13203', '13204', '13205', '13206', '13207', '13208', '13209', '1321', '13210', '13211', '13212', '13213', '13214', '13215', '13216', '13217', '13218', '13219', '1322', '13220', '13221', '13222', '13223', '13224', '13225', '13226', '13227', '13228', '13229', '1323', '13230', '13231', '13232', '13233', '13234', '13235', '13236', '13237', '13238', '13239', '1324', '13240', '13241', '13242', '13243', '13244', '13245', '13246', '13247', '13248', '13249', '1325', '13250', '13251', '13252', '13253', '13254', '13255', '13256', '13257', '13258', '13259', '1326', '13260', '13261', '13262', '13263', '13264', '13265', '13266', '13267', '13268', '13269', '1327', '13270', '13271', '13272', '13273', '13274', '13275', '13276', '13277', '13278', '13279', '1328', '13280', '13281', '13282', '13283', '13284', '13285', '13286', '13287', '13288', '13289', '1329', '13290', '13291', '13292', '13293', '13294', '13295', '13296', '13297', '13298', '13299', '133', '1330', '13300', '13301', '13302', '13303', '13304', '13305', '13306', '13307', '13308', '13309', '1331', '13310', '13311', '13312', '13313', '13314', '13</t>
         </is>
@@ -578,18 +591,26 @@
       <c r="P3" t="n">
         <v>2</v>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>proctor</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>File missing</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
         <v>654899</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>21926</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>['0', '100 Acres Lots', '8th range of Grenville', 'ABBA', 'ABBE', 'ABBEE', 'ABBOT', 'ABBOTT', 'ABBY', 'ABEL', 'ABER', 'ABERCROMBIE', 'ABERNATHER', 'ABERNETHY', 'ABRAHAM', 'ABRAHAM/COLE', 'ABRAHAMS', 'ABRAHAMS/COLE', 'ABRAM', 'ABRAMS', 'ABRAMS/SNYDER', 'ABRAY', 'ABURNATHY', 'ACCARMAN', 'ACHESON', 'ACHISON', 'ACKER', 'ACKLAND', 'ACKLEY', 'ACKMAN', 'ACOR', 'ACRE', 'ACTON', 'ADAIR', 'ADAIR/CRAWLEY', 'ADAM', 'ADAM/LARAMEY', 'ADAMS', 'ADAMS/ADNANS', 'ADAMS/CLIFFORD', 'ADAMS/COONS', 'ADAMSON', 'ADDISON', 'ADKINS', 'ADKINSON', 'ADSIT/HAIRLAND', 'ADY', 'ADZIT', 'AGER', 'AGLER', 'AGLOR/ACHLER', 'AGNEW', 'AHIER/ALICER', 'AHSMAN', 'AHSTON', 'AICKMAN', 'AIKEN', 'AIKIN', 'AIKINS', 'AIKMAN', 'AILEY', 'AINLAY', 'AINSE', 'AINSE/MONTURE', 'AINSLEY', 'AINSLIE', 'AINSWORTH', 'AIRD', 'AIREY', 'AIREYS', 'AIRHART', 'AIRHEART', 'AIRTH', 'AISSANCE', 'AITCHISON', 'AITHENS', 'AITKEN', 'AITKENS', 'AITKIN', 'AITKINS', 'AKE', 'AKERLY', 'AKEY', 'AKIN', 'AKINS', 'AKROYD', 'ALAN', 'ALBERSON', 'ALBERT', 'ALBERTSON', 'ALBERTSON/POWELL/POWLY', 'ALBRANT', 'ALBRIGHT', 'ALCOCK', 'ALCOMBRACK', 'ALCORN', 'ALDER', 'ALDERICE', 'ALDERTON', 'ALDGEO', 'ALDRICH', 'ALDRICK', 'ALDWORTH', 'ALEAY', 'ALEXANDER', 'ALFORD', 'ALGAE', 'ALGEA', 'ALGEO', 'ALGER', 'ALGIER', 'ALGIO', 'ALGIRE', 'ALGOE', 'ALGUINE', 'ALGUIRE', 'ALISON', 'ALLAIR', 'ALLAN', 'ALLARD', 'ALLAWAY', 'ALLBRIGHT', 'ALLCOCK', 'ALLCOMBRACK', 'ALLCOTT', 'ALLCOX', 'ALLD', 'ALLEN', 'ALLEN/COLE', 'ALLEN/COOPER', 'ALLEN/CUMMING', 'ALLEN/MOSHER', 'ALLENDER', 'ALLEY', 'ALLGER', 'ALLIBONE', 'ALLICE', 'ALLIN', 'ALLIS', 'ALLISON', 'ALLPORT', 'ALLRIGHT', 'ALLSOP', 'ALLWOOD', 'ALMAS', 'ALMIS', 'ALMS', 'ALPHOUGH', 'ALSTEN', 'ALSTON', 'ALT', 'ALTENBURG', 'ALTHOUSE', 'ALTHOUSER', 'ALTON', 'ALWARD', 'ALWAY', 'ALWOOD', 'ALYEA', 'AMABLE', 'AMAN', 'AMBLER', 'AMBRIDGE', 'AMBROSE', 'AMELYER', 'AMERY', 'AMES', 'AMEY', 'AMEY/BAKER', 'AMIOTTE', 'AMLEA', 'AMLIN', 'AMMERMAN', 'AMMON', 'AMOR', 'AMORY', 'AMOS', 'AMPHLETT', 'AMSTED', 'AMUS', 'AMY', 'AMY/DAVY', 'ANABELD', 'ANCASTER', 'ANCASTER/CROOKS', 'ANCASTER/CRYSLER', 'ANDERSON', 'ANDERSON/CLARKE', 'ANDERSON/CRYDERMAN', 'ANDERSON/CUMMINGS', 'ANDERSON/CURTIS', "ANDERSON/M'BEAN", 'ANDERSON/McGRATH', 'ANDERTON', 'ANDRASS', 'ANDRES', 'ANDRESS', 'ANDREW', 'ANDREWS', 'ANDRICK', 'ANDRUS', 'ANDRUSS', 'ANGELL', 'ANGER', 'ANGLEMIRE', 'ANGUISH', 'ANNABLE', 'ANNANCE', 'ANNAND', 'ANNET', 'ANNETT', 'ANNIS', 'ANSLEY', 'ANSON', 'ANTAILLA', 'ANTALIA', 'ANTALLIA', 'ANTAYA', 'ANTHON', 'ANTHONY', 'APPELBEE', 'APPELLEE', 'APPLEBEE', 'APPLEBY', 'APPLEGARTH', 'APPLETON', 'APRIL', 'ARBURTHNOT', 'ARBUTHNOT', 'ARCHAMBAULT', 'ARCHBOLD', 'ARCHDEKEN/ARCHDEKIN', 'ARCHER', 'ARCHIBALD', 'ARCONAITE', 'ARDAGH', 'ARDELL', 'ARDIEL', 'ARDIELL', 'ARDILL', 'ARDLE', 'ARGUE', 'ARHART', 'ARIVISON', 'ARKELL', 'ARKENBRACK', 'ARKLAND', 'ARLESS', 'ARLINGTON', 'ARLSHOW', 'ARMISTEAD', 'ARMITAGE', 'ARMON', 'ARMOUR', 'ARMS', 'ARMSON', 'ARMSTRONG', 'ARMSTRONG/DOPP', 'ARNER', 'ARNISON', 'ARNIT', 'ARNOLD', 'ARNOLD/CLOWES', 'ARNOLDI', 'ARNOT', 'ARNOTE', 'ARNOTT', 'ARQUART', 'ARROWSMITH', 'ARTER/ARTIS', 'ARTHUR', 'ARTHUR/GIBSON', 'ARTHURS', 'ARVISON', 'ASBURN', 'ASH', 'ASHBAUGH', 'ASHBLAUGH', 'ASHBOUGH', 'ASHBRIDGE', 'ASHBURN', 'ASHBURRY', 'ASHBY', 'ASHFIELD', 'ASHFORD', 'ASHFORD/CROSS', 'ASHLEY', 'ASHMAN', 'ASHTON', 'ASHWELL', 'ASHWORTH', 'ASKEW', 'ASKIN', 'ASKINS', 'ASKWITH', 'ASLEY', 'ASOPH', 'ASPREY', 'ASSEKINACK', 'ASSELIN', 'ASSELSBYNE/CORBAN', 'ASSELSTINE', 'ASSELSTINE/DAVY', 'ASSELTINE', 'ASTON', 'ATCHESON', 'ATCHISON', 'ATKIN', 'ATKINS', 'ATKINSON', 'ATTHILL', 'ATTWELL', 'ATTWOOD', 'ATWOOD', 'AUBERRY', 'AUBERT', 'AUGER', 'AUGER/ANGER', 'AUGUSTIN', 'AUGUSTINE', 'AULDJO', 'AULDJO &amp; MAITLAND', 'AULDJO/McDONELL', 'AULIN', 'AULT', 'AULT/LOUCKS', 'AUMOND', 'AUREY', 'AURT', 'AUSEM', 'AUSMAN', 'AUSTEN', 'AUSTIN', 'AUTIN', 'AUTINO', 'AVERILL', 'AVERY', 'AVISON', 'AVRILL', 'AWREY', 'AXFORD', 'AXHAM', 'AYER', 'AYLBOYNE', 'AYLEN', 'AYLMER', 'AYLSWORTH', 'AYLUM', 'AYLWARD', 'AYNGE', 'AYOTT', 'AYRES', 'Abbot', 'Abbott', 'Abell', 'Abrams/Lockwood', 'Ackler/Warren', 'Ackley/Meritt', 'Acque', 'Acre/Oswald', 'Acre/Trowbridge', 'Acres', 'Acton', 'Adair/Springsteen', 'Adair/Ward', 'Adam', 'Adam/Mattice', 'Adams', 'Adams/McNeil', 'Adams/Nudle', 'Adams/Sage', 'Adams/Snider', 'Adams/Willson', 'Adamson', 'Affairs of the Canada Company with Government.', 'African Baptist Church', 'Agency of the Seigniory of Lauzon', 'Agricultural Society', 'Agricultural Society Middlesex', 'Ahern', 'Aidel', 'Aird', 'Airhash/Wager', 'Airth', 'Aitkin', 'Aker/Jones', 'Albrant/Statard', 'Albrant/Stodard', 'Albright', 'Alderson', 'Aldridge', 'Algeor', 'Alger', 'Alger/Mosher', 'Alger/Van Blarcom', 'Algie', 'Algire', 'Algire/Van Blarcom', 'Alguira/Jacocks', 'Alguire/Loucks', 'Alguire/Stallmayer', 'Alguire/Wallisoe', 'Allair', 'Allan', 'Allan/Wintermute', 'Allbright/Albright', 'Allen', 'Allen/Mirick', 'Allen/Vanalstine', 'Allen/Watson', 'Allison', 'Allison/McTaggart', 'Alphin', 'Alston', 'Altemas', 'Althouse/Van Buren', 'Alvord', 'Alway', 'Alyea', 'Amalicite Indians', 'Amey/Snyder', 'Amory', 'Anable', 'Anderson', 'Anderson/LaCompte', 'Anderson/Lundy', 'Anderson/Macdonell', 'Anderson/Main', 'Anderson/McCuen', 'Anderson/Reid', 'Anderson/Ruderback', 'Anderson/Secord', 'Andrew', 'Andrews', 'Andrews/Morrill', 'Andrews/Mott', 'Andrews/Wright', 'Angell', 'Anger/House', 'Anger/McClintock', 'Anglican Church and Church Wardens', 'Anglican Presbyterians', 'Angst', 'Anguish/Lane', 'Angus', 'Annabel', 'Annable', 'Annable/Rowley', 'Anneser/Gibson', 'Annible/Wagner', 'Ansley/Merrill', 'Anson', 'Anton/Molyneux', 'Apostolic Missionary Church Wardens', 'Applegarth', 'Applicants for Clergy Reserves', 'Applicants for free grants', 'Applicants of Niagara', 'Application for Deeds, township of Arthur.', 'Application for lease of occupation of a certain block', 'Application for the Township of Grantham', 'Application for the concession of "Dewar Island"', 'Application of settlers for survey of Somerset, Stanfold and Maddington', 'Application to purchase Clergy Reserves in the County of Carleton.', 'Application to purchase lands in the township of Inverness', 'Application to purchase lot', 'Application to purchase lots in Orillia', 'Applications For the purchase of certain Clergy Reserved in Amaranth and Melancthon.', 'Applications for Lot 31 in 13 Concession in Zorra Township', 'Applications for grants', 'Applications for land', 'Applications for land script of officers', 'Applications for mining', 'Applications for purchase of Crown lands in Zone', 'Applications of the municipality of St. Vincent', 'Applications to buy lots', 'Applications to purchase land in -', 'Applications to purchase land in Sheffield', 'Applications to purchase lands', 'Applications to purchase lands in Gore of Somerset', 'Applications to purchase lots 26 &amp; 27', 'Appointment of Inspectors of Land in Upper and Lower Canada', 'Archar', 'Archbishop of Quebec', 'Archer', 'Archibald', 'Archiepiscopal Corporation of Quebec', 'Ardill', 'Argue', 'Arkell', 'Arkland', 'Arkley', 'Armatage', 'Armour', 'Armstrong', 'Armstrong/Marlett', "Armstrong/O'Neill", 'Armstrong/Welch', 'Arner/Whittle', 'Arnold', 'Arnold/Munson', 'Arnot', 'Arrangements proposed by the Receiver General (Peter Russell) For sending of patents to the different districts.', 'Arundel in relation to survey', 'Ash', 'Ashford/Mallery', 'Ashley', 'Ashman', 'Ashton', 'Askin', 'Askin/Richardson', 'Askins/Weatherhead', 'Aspenwall', 'Asselstine', 'Asselstine/Lessard', 'Asselstine/Watson', 'Association of Bellechasse.', 'Association of Bellechasse; relative to lands in Buckland.', 'Asten/Snitzinger', 'Atchison', 'Atkins', 'Atkinson', 'Attorney General issue of a fiat dispensed with in certain cases.', 'Attorney General re Church Land', 'Attorney General respecting Survey near Niagara Falls.', 'Attorney General respecting leases of the Crown and Clergy Reserves.', 'Attorney General respecting surrender of certain patents in the township of Hope.', "Attorney General's report", 'Attorney General, opinion land set apart for Government House had been promised as an endowment for hospital.', 'Attorney General, opinion respecting delivery of Patent Deeds.', 'Auction', 'Auger/Near', 'Ault/Redmond', 'Ault/Snider', 'Ault/Thomb', 'Ault/Weart', 'Austin/Marr', 'Authority for verification of outlines of Shawenagan', 'Authority to advertise lots', 'Authority to perform Surveys', 'Avery', 'Awrey', 'Aynge', 'Ayotte', 'Ayrs', 'Ayton', 'Azereas', 'BAAR', 'BABBIT', 'BABCOCK', 'BABCOCK/AYNHART', 'BABCOCK/CLEVELAND', 'BABCOCK/COLE', 'BABCOCK/COOK', 'BABCOCK/HARPELL', 'BABCOCK/SNIDER', 'BABCUCK', 'BABESK/COLE', 'BABINEAU', 'BABY', 'BACH', 'BACHAMAN', 'BACHE', 'BACHUS', 'BACKEN/BACON', 'BACKER', 'BACKHOUSE', 'BACKHOUSE/McMICHAEL', 'BACKSTER', 'BACKUS', 'BACON', 'BADDELEY', 'BADDER', 'BADGELY', 'BADGEN', 'BADGER', 'BADGERON', 'BADGLEY', 'BADICHON', 'BAGE', 'BAGERO', 'BAGG', 'BAGLEY', 'BAGSHAW', 'BAGSLEY', 'BAGWELL', 'BAID', 'BAIL/PRETEUS', 'BAILEY', 'BAILEY/BALEY', 'BAILEY/DOVER', 'BAILEY/WINTERMULER', 'BAILIE', 'BAILLIE', 'BAILLY', 'BAILY', 'BAIN', 'BAINES', 'BAIRD', 'BAIRDEN', 'BAITS', 'BAITSON', 'BAKEN', 'BAKEN/SMITH', 'BAKER', 'BAKER/CARPENTER', 'BAKER/COOK', 'BAKER/DAVY', 'BAKER/FRANKLIN', 'BAKER/FRANKS', 'BAKER/MILLARD', 'BAKER/McARTHUR', 'BAKER/NOODLE', 'BAKEWELL', 'BALANCE', 'BALCH', 'BALDERSON', 'BALDWIN', 'BALDWIN/SERVICE', 'BALDWIN/SHAW', 'BALDWINS', 'BALDWYN', 'BALEY', 'BALFOUR', 'BALIE', 'BALKE', 'BALKWELL', 'BALKWILL', 'BALL', 'BALL/CREEN', 'BALL/CRYSLER', 'BALLANTYNE', 'BALLARD', 'BALLENTINE', 'BALM/DOCHSTADER', 'BALMER', 'BALTEEL', 'BALTY', 'BAMBER', 'BAMBRIDGE/BAMBIDGE', 'BAMFORD', 'BANCK', 'BANCRAFT', 'BANCROFT', 'BANCROFT/BENCROFT', 'BANDER', 'BANE', 'BANER', 'BANFIELD', 'BANGHART', 'BANGHART/BAUGHART', 'BANGS', 'BANKER', 'BANKS', 'BANNEAU', 'BANNERMAN', 'BANNERMAN/BOWERMAN', 'BANNISTER', 'BANNON', 'BANTA', 'BAPTIST', 'BARABE', 'BARBAR', 'BARBARE', 'BARBAREE', 'BARBEAU', 'BARBER', 'BARBER/PELLET', 'BARBERE', 'BARBO', 'BARBOUR', 'BARBU', 'BARCHKLY', 'BARCHLE', 'BARCKLEY', 'BARCKLY', 'BARCLAY', 'BARCLEY', 'BARCLEY/BARKELLEY', 'BARDAN/CLARK', 'BARDBURN', 'BARDEN', 'BARDIN/McNIEL', 'BARDON', 'BARDSLEE', 'BAREFOOT', 'BARGAR', 'BARGER', 'BARGER/FOSTER', 'BARHLEY', 'BARIL', 'BARJARO', 'BARK', 'BARKALEY', 'BARKELLY', 'BARKER', 'BARKHOUSE', 'BARKLAY', 'BARKLEY', 'BARKLEY/AULT', 'BARKLEY/GARLOUGH', 'BARKLEY/MARKLEY', 'BARKLEY/STRADER', 'BARKLEY/UTTMAN', 'BARLEY', 'BARLINGER', 'BARLOU/BAILIE', 'BARLOW', 'BARLOWE', 'BARNAM', 'BARNARD', 'BARNELL', 'BARNES', 'BARNET', 'BARNET/LANDON', 'BARNETT', 'BARNEY', 'BARNHAM', 'BARNHAM/DACHSTEDER', 'BARNHARD', 'BARNHART', 'BARNHART/MARSH', 'BARNHART/PRENTICE', 'BARNHART/RAMBOUGH', 'BARNHART/SILLS', 'BARNHART/WAGER', 'BARNIER', 'BARNS', 'BARNSIDE', 'BARNUM', 'BARNUM/CLARYSDALE', 'BARNUM/HAME', 'BARO', 'BARON', 'BARON/LAFRENIERE', 'BARR', 'BARRACLOUGH', 'BARRAGER/LEE', 'BARREL', 'BARRELL', 'BARRET', 'BARRETT', 'BARRETT/WALKER', 'BARRETTE', 'BARRICHER/STRADER', 'BARRIE', 'BARRIER', 'BARRIGER', 'BARRIL', 'BARRITT', 'BARRON', 'BARROWMAN', 'BARRY', 'BART', 'BARTCH', 'BARTELEY', 'BARTELL/CARSCALLEN', 'BARTELS', 'BARTEN', 'BARTEN/DIXON', 'BARTH', 'BARTHE', 'BARTHOL', 'BARTHOLD', 'BARTHOLEMEW', 'BARTHOLOMAY', 'BARTHOLOMEW', 'BARTHOLOMEY', 'BARTHY', 'BARTLEMAN', 'BARTLES', 'BARTLES/McDOUGAL', 'BARTLET', 'BARTLET, SMITH &amp; others', 'BARTLETT', 'BARTLETT/DINGMAN', 'BARTLEY', 'BARTLY', 'BARTLY/NICHOLSON', 'BARTON', 'BARTON/BARTIN', 'BARTON/BOURDETT', 'BARTON/McCORD', 'BARTON/SMADES', 'BARTOW', 'BARTRON', 'BARWICK', 'BARWIS', 'BARY', 'BASKERRIL/BASKERVIL', 'BASKERVILLE', 'BASS', 'BASS/AMEY', 'BASSELL', 'BASSET', 'BASSETT', 'BASSETT/HOPPLE', 'BASSEY', 'BASSEY/SMITH', 'BASTABLE', 'BASTEDO', 'BASTIEN', 'BATE', 'BATEMAN', 'BATER', 'BATES', 'BATES/MATTICE', 'BATESON', 'BATHGATE', 'BATHIE', 'BATHURST', 'BATIE', 'BATNAN', 'BATTAM', 'BATTAY', 'BATTER', 'BATTER/BEDFORD', 'BATTER/POTTER', 'BATTER/WRIGHT', 'BATTERHAM', 'BATTERS', 'BATTERSBY', 'BATTGER', 'BATTIE', 'BATTLE', 'BATTY', 'BATTY/LOYST', 'BATY', 'BAUBIN', 'BAUGH', 'BAUGHANAN', 'BAUMES', 'BAUMSTARK', 'BAVENS', 'BAXTER', 'BAXTER/BINDER', 'BAXTER/MILLER', 'BAXTER/OATMAN', 'BAXTER/SHIPMAN', 'BAXTON', 'BAYCROFT', 'BAYER', 'BAYEUR', 'BAYLEY', 'BAYLY', 'BAYMAN', 'BAYMON', 'BAYNE', 'BAYNES', 'BEACH', 'BEACH/FREO', 'BEACH/SEELYE', 'BEACHER', 'BEACON', 'BEADFORD', 'BEADLE', 'BEADSTEAD', 'BEAGLE', 'BEAKON', 'BEAL', 'BEALE', 'BEALEY', 'BEALL', 'BEALSEY', 'BEAM', 'BEAM/MAY', 'BEAM/MILLS', 'BEAMAN', 'BEAMER', 'BEAMER/DOYLE', 'BEAMISH', 'BEAN', 'BEANE', 'BEARD', 'BEARD/STRADER', 'BEARDSLEY', 'BEARDSLEY/BANKER', 'BEARE', 'BEARMAN', 'BEARSS', 'BEARSS/STEEL', 'BEASLEY', 'BEASTED/FRYMIRE', 'BEATIE', 'BEATON', 'BEATRIE', 'BEATSKE', 'BEATSY', 'BEATTEY', 'BEATTIE', 'BEATTIE/SCRAM', 'BEATTON', 'BEATTY', 'BEATY', 'BEATYS', 'BEAUBIEN', 'BEAUCHAMP', 'BEAUDET', 'BEAUDRY', 'BEAUGRAND', 'BEAUMON', 'BEAUPORT', 'BEAUPR?', 'BEAUPR?/BOUPRIE', 'BEAUPRE', 'BEAUREGARD', 'BEAVIS', 'BEBEE', 'BEBEE/GROOMS', 'BEBEE/SEELY', 'BECHER', 'BECHSTED', 'BECHTEL', 'BECHTELL', 'BECK', 'BECKER', 'BECKER/BAKER', 'BECKERSTAFF', 'BECKERTON', 'BECKETT', 'BECKETT/BOWMAN', 'BECKFORD', 'BECKON', 'BECKON/BACON', 'BECKON/SKINNER', 'BECKOR', 'BECKWITH', 'BECKWITH/SILLS', 'BECKWORTH', 'BEDAL', 'BEDARD', 'BEDELL', 'BEDFORD', 'BEDICK/BEDSTED', 'BEDSTEAD/CASSELMAN', 'BEDSTED', 'BEDSTED/HANESTER', 'BEE', 'BEEBE', 'BEEBE/HART', 'BEECH', 'BEECHER', 'BEEDELL', 'BEEDLE', 'BEEMAN', 'BEEMER', 'BEER', 'BEERS', 'BEESON', 'BEETEN', 'BEETHAM', 'BEETON', 'BEEVAN', 'BEGG', 'BEGG/STAG', 'BEGHAN', 'BEGUE', 'BEIKIE', 'BEITH', 'BELANGER', 'BELCHER', 'BELCOUR', 'BELFORD', 'BELISLE', 'BELKNAP', 'BELL', 'BELL/CARSCALLEN', 'BELL/FINKLE', 'BELL/FRALIC', 'BELL/HARNES', 'BELL/HITCHCOCK', 'BELL/MERKLEY', 'BELL/PALMER', 'BELLAIRE', 'BELLAMY', 'BELLAN', 'BELLANT', 'BELLARD', 'BELLECK', 'BELLECOUR', 'BELLEFEUILLE', 'BELLEPERCHE', 'BELLER', 'BELLERE', 'BELLINGER', 'BELLINGER/OBERHOLD', 'BELLINGER/SLINGERLAND', 'BELLINGHAM', 'BELLIVEAU', 'BELLOWS', 'BELLUE', 'BELNAP', 'BELNAP/MASTERS', 'BELONGE', 'BELROSE', 'BELTON', 'BELTZ', 'BELYEA', 'BEM', 'BEMAN', 'BEMER', 'BEN', 'BENAC', 'BENCH', 'BENCROFT', 'BENDER', 'BENDER/COLLINGER', 'BENDER/WAIT', 'BENDER/WOOD', 'BENECKER', 'BENEDICK', 'BENEDICT', 'BENEDICT/COLE', 'BENEDICT/COVERLY', 'BENEDICT/CRAWFORD', 'BENEDICT/DAFOE', 'BENEKER', 'BENERDICT', 'BENERE', 'BENETEAU', 'BENETEAU/LABALEINE', 'BENFORD', 'BENHAM', 'BENINGER', 'BENITEAU', 'BENJAMIN', 'BENKER', 'BENKLEY', 'BENLEY', 'BENN', 'BENN/BEHN', 'BENN/FITCHETE', 'BENNER', 'BENNER/HOUCK', 'BENNET', 'BENNETT', 'BENNIER', 'BENNINGER', 'BENNINGHAM', 'BENNINGTON', 'BENNITT', 'BENNS', 'BENO', 'BENOIT', 'BENSACK', 'BENSEN', 'BENSON', 'BENSON/SAMSON', 'BENSON/SCHARAMAHAN', 'BENSON/SHEA', 'BENTLEY', 'BENTON', 'BENVILL', 'BENVILLE', 'BERCKLY', 'BERCSY', 'BERCY', 'BERCZY', 'BERDAN', 'BERDAN/McKENZIE', 'BERDEBT/STEEL', 'BERDEN', 'BERFORD', 'BERGAR', 'BERGEN', 'BERGER', 'BERGER/TINKLE', 'BERGIN', 'BERGON', 'BERHAM', 'BERINGER', 'BERISFORD', 'BERKEY', 'BERKLES', 'BERN', 'BERN/BEN', 'BERNARD', 'BERNARD/LARIVI?RE', 'BERNARDIN', 'BERNASH', 'BERNER', 'BERNIER', 'BERNINGER', 'BERO', 'BERREL', 'BERRIE', 'BERRY', 'BERTHEAUME', 'BERTHELET', 'BERTHIAUME', 'BERTLE', 'BERTLES', 'BERTRAND', 'BERTRAND/BERTRAN', 'BERTRON', 'BERUBE', 'BERY', 'BESENERE', 'BESENET', 'BESSE', 'BESSEE', 'BESSEY', 'BESSEY/BESSY', 'BESSIGER/BOSSIGER', 'BEST', 'BESWETHERICK', 'BESWICK', 'BESWICKE', 'BETHAN', 'BETHUME', 'BETHUNE', 'BETHUNE/SMITH', 'BETRON', 'BETRY', 'BETTERIDGE', 'BETTES', 'BETTIE', 'BETTIS', 'BETTON', 'BETTRIDGE', 'BETTS', 'BETTUNE', 'BETTY', 'BETTY/ORSER', 'BETTYS', 'BETZNER', 'BEVANS', 'BEVEAY', 'BEVEN', 'BEVERIDGE', 'BEVIS', 'BEWELL', 'BEWLEY', 'BEYERS', 'BEYNON', 'BEZER', 'BICE', 'BICE/UMPHRY', 'BICKELL', 'BICKERSON', 'BICKET', 'BICKFORD', 'BICKHAM', 'BIDOUT', 'BIDWELL', 'BIEKIE', 'BIGCRAFT', 'BIGCROFT', 'BIGELOW', 'BIGELOW/COLE', 'BIGFORD', 'BIGGAR', 'BIGGAR/COLTMAN', 'BIGGER', 'BIGGINS', 'BIGHAM', 'BIGNELL', 'BIGRAS', 'BILES', 'BILLEDEAUX', 'BILLIDOE', 'BILLIET', 'BILLING', 'BILLINGS', 'BILLINGS/DAVY', 'BILLINGS/GRAHAM', 'BILLINGSBY', 'BILLOPP', 'BILLS', 'BILOW/ALGIRE', 'BILROSE/BONESTEEL', 'BILTON', 'BINAULT', 'BINGHAM', 'BINGHAM/BOWMAN', 'BINGHAM/HUFFMAN', 'BINGHAM/LAPTHORNE', 'BINGLE', 'BINIKER/BINICHER', 'BINKLY', 'BIRCH', 'BIRD', 'BIRD/CARSON', 'BIRDS', 'BIRDSALL', 'BIRDSELL', 'BIRMINGHAM', 'BIRNEY', 'BIRNIE', 'BIRRELL', 'BISHOP', 'BISLEY/BISBEE', 'BISSEL', 'BISSELL', 'BISSELL/CLARK', 'BISSET', 'BISSETT', 'BISSIL', 'BISSONET', 'BISSONNETTE', 'BLACK', 'BLACK/CROSS', 'BLACK/PICKLE', 'BLACKBURN', 'BLACKBURN/BAKER', 'BLACKBURNE', 'BLACKBURNS', 'BLACKELY', 'BLACKER', 'BLACKER/MEYERS', 'BLACKIE', 'BLACKLEY', 'BLACKLOCK', 'BLACKLY', 'BLACKLY/COLE', 'BLACKMAN', 'BLACKMOR', 'BLACKNEY', 'BLACKSOCK', 'BLACKSTOCK', 'BLACKWAY', 'BLACKWELL', 'BLACKWOOD', 'BLADGEN', 'BLADGET', 'BLAIR', 'BLAIR/ORO', 'BLAIR/YOUNG', 'BLAKE', 'BLAKE/ADAMS', 'BLAKELEY', 'BLAKELY', 'BLAKEMORE', 'BLAKENEY', 'BLAKER', 'BLAKER/BLEECKER', 'BLAKER/MEYERS', 'BLAKESBY', 'BLAKESLEY', 'BLAKEY', 'BLAKLEY', 'BLAKLEY/BENNIT', 'BLAKLY', 'BLAKNEY', 'BLAM', 'BLANCHARD', 'BLANCHARD/RUSH', 'BLANCHER', 'BLANCHET', 'BLANCHFILL', 'BLANCO', 'BLAND/CAMPBELL', 'BLANEY', 'BLANN', 'BLASDELL', 'BLAUVELT', 'BLAYLOCK', 'BLEACHUM', 'BLEAKLY', 'BLEAM', 'BLEECKER', 'BLEEKER', 'BLEEKER/MEYERS', 'BLENEY', 'BLETCHER', 'BLEVINS', 'BLEW', 'BLEWETT', 'BLEWITT', 'BLEZARD', 'BLINN', 'BLISS', 'BLIZARD', 'BLODGET/WHEELER', 'BLODGETT', 'BLOM', 'BLOOM', 'BLOOMFIELD', 'BLOOR', 'BLOSDOLL', 'BLOUNT', 'BLOVIN', 'BLUCHERS', 'BLUCKER', 'BLUE', 'BLUEMAN', 'BLUETT', 'BLUM', 'BLUNDEN', 'BLUNT', 'BLYTH', 'BLYTH/CORBMAN', 'BOALAN', 'BOARDMAN/WINTERS', 'BOBIER', 'BOCAUT', 'BOCHET', 'BOCHUS', 'BOCKUS', 'BOCKUS/SHAVER', 'BODDINGTON', 'BODDY', 'BODIN', 'BODINE', 'BODY', 'BOG', 'BOGARD', 'BOGART', 'BOGART/BENEDICT', 'BOGERT', 'BOGGS', 'BOGUE', 'BOHAN', 'BOHANNON', 'BOICE', 'BOICE/AMEY', 'BOICE/CUSHMAN', 'BOICE/SCHRIVER', 'BOID', 'BOILS', 'BOIRE', 'BOISE', 'BOISEAU', 'BOISMIER', 'BOISNISER', 'BOISVERT', 'BOITON', 'BOLAND', 'BOLBY', 'BOLDUC', 'BOLE', 'BOLES', 'BOLLARD', 'BOLSTER', 'BOLTE', 'BOLTON', 'BOLTON/BOULTON', 'BOLTON/BUELL', 'BOLWELL', 'BOMBARDIER', 'BONBERGIER', 'BOND', 'BOND/PATTERSON', 'BONDIE', 'BONDRAY', 'BONDY', 'BONE', 'BONEAU', 'BONER', 'BONESTEAL', 'BONESTEEL', 'BONESTIEL', 'BONGARD', 'BONKER', 'BONKER/CORTEN', 'BONNELL', 'BONNER', 'BONNET', 'BONNETT', 'BONNEY', 'BONNYCASTLE', 'BONSACK', 'BONSER', 'BONSTED', 'BONSTEEL', 'BONSTEEL/CONWAY', 'BONTER', 'BONTER/DEMPSEY', 'BONTER/PEAK', 'BONYARD', 'BOODLE', 'BOODY', 'BOOK', 'BOOMER', 'BOORDEN', 'BOORMAN', 'BOOS', 'BOOTH', 'BOOTH/DALY', 'BOOTH/NORMAN', 'BOOTHROYD', 'BORCKHOLDER', 'BORDEN', 'BORDEN/SEELEY', 'BORGHONDER', 'BORING', 'BORKHOLDER', 'BORLAND', 'BORNUM', 'BORPY', 'BORRELLY', 'BORRIE', 'BORUGHTON/DENNIS', 'BOSQUET', 'BOSQUET/COX', 'BOSS', 'BOSS/AINSLEY', 'BOSSE', 'BOSSENIE', 'BOSSET/SMITH', 'BOSSU/LEONNAIS', 'BOSTICK', 'BOSTLY', 'BOSTON', 'BOSTWICK', 'BOSTWICKS', 'BOSWELL', 'BOSWICK', 'BOTHWELL', 'BOTSFORD', 'BOTTERILL', 'BOTTOM', 'BOTTON', 'BOTTON/CURRY', 'BOTTUM', 'BOUCH', 'BOUCH?', 'BOUCHE', 'BOUCHER', 'BOUCHER DE BOUCHERVILLE', 'BOUCHERVILLE', 'BOUCHETTE', 'BOUCHETTE/BERTHELET', 'BOUCHNER', 'BOUCK', 'BOUCK/DILLABAUGH', 'BOUCKE', 'BOUDETTE', 'BOUDREAU', 'BOUET', 'BOUFFARD', 'BOUGENER', 'BOUGHMAN', 'BOUGHNER', 'BOUGHNER/GLOVER', 'BOUGHNER/MATHEWS', 'BOUGHSLAUCH', 'BOUKE', 'BOUKER', 'BOULANGER', 'BOULBY', 'BOULD', 'BOULGER', 'BOULLARD', 'BOULT', 'BOULTER/PEACK', 'BOULTON', 'BOULTON/BELLANY', 'BOULTON/BOTTON', 'BOULTON/CURRY', 'BOULTON/ELLIOT', 'BOULTON/ELLIOTT', 'BOULTON/JONES', 'BOULTON/REDMAN', 'BOURASSA', 'BOURBONNIER', 'BOURCHIER', 'BOURDETT', 'BOURDETT/STEEL', 'BOURDETTE', 'BOURGET', 'BOURJOTTE/LESPERANCE', 'BOURK', 'BOURKE', 'BOURNS', 'BOUS', 'BOUSLAUGH', 'BOUSSEY', 'BOUTHELLIER', 'BOUTHILLIER', 'BOUTILLET', 'BOUTILLIER', 'BOUTIN', 'BOVARD', 'BOWAN', 'BOWBEER', 'BOWBEER/BREWER', 'BOWBIER', 'BOWDEN', 'BOWEN', 'BOWEN/CARMAN', 'BOWEN/CULBERTSON', 'BOWEN/DEMOREST', 'BOWEN/DIMONT', 'BOWEN/KIMMERLY', 'BOWEN/PALMER', 'BOWEN/PORT', 'BOWEN/RISELAY', 'BOWEN/SHAVER', 'BOWENS', 'BOWER', 'BOWERMAN', 'BOWERMAN/MORDEN', 'BOWERS', 'BOWES', 'BOWIE', 'BOWIE/BUIES', 'BOWKER', 'BOWKET', 'BOWKETT', 'BOWLBY', 'BOWLES', 'BOWLEY', 'BOWLING', 'BOWMAN', 'BOWMAN/BELLINGER', 'BOWMAN/BOUKE', 'BOWMAN/CLARK', 'BOWMAN/DEFOREST', 'BOWMAN/MATLACK', 'BOWN', 'BOWNEY', 'BOWRON', 'BOWSER/BOWSEN', 'BOWSFIELD', 'BOXALL', 'BOYCE', 'BOYCE/HARTMAN', 'BOYD', 'BOYD/McINTIRE', 'BOYDE', 'BOYEA', 'BOYER', 'BOYER/COMER', 'BOYERS', 'BOYES', 'BOYL', 'BOYLAN', 'BOYLE', 'BOYLES', 'BOYS', 'BOYSEE', 'BOYTON', 'BRACK', 'BRACKBILL', 'BRACKEN', 'BRACKENREED', 'BRACKENRIDGE', 'BRACKETT', 'BRACKIN', 'BRACKLEY', 'BRADBENT', 'BRADBURN', 'BRADBURNE', 'BRADEY', 'BRADFORD', 'BRADFORD/SELEE', 'BRADISH', 'BRADLEY', 'BRADLEY/MOOR', 'BRADLY', 'BRADNER', 'BRADNOCK', 'BRADSHAW', 'BRADSHAW/COLLINS', 'BRADSHAW/DIAMOND', 'BRADSHAW/LARUE', 'BRADSHAW/VANDERLISS', 'BRADSTEAD/AULT', 'BRADT', 'BRADT/BENDER', 'BRADT/HAINER', 'BRADT/YOUNG', 'BRADWELL', 'BRADY', 'BRAGG', 'BRAILY', 'BRAKENRIDGE', 'BRALY', 'BRAMORSKEY', 'BRAMORSKY', 'BRAMOUSKY', 'BRANAGAN', 'BRANAN', 'BRANDON', 'BRANDT', 'BRANDTS', 'BRANDTS/BRANTS', 'BRANDYMAN', 'BRANDYMANN', 'BRANIGAN', 'BRANNAGH', 'BRANNAH', 'BRANNAN', 'BRANNEGAN', 'BRANNEN', 'BRANNON', 'BRANT', 'BRANT/DESERONTWE', 'BRANTFORD/REED', 'BRANTS', 'BRASH', 'BRASS', 'BRASS/MATTICE', 'BRASS/MATTIN', 'BRASS/ROUSEHORNE', 'BRATH', 'BRATT', 'BRAUNCIS', 'BRAY', 'BRAY/ANDERSON', 'BRAYLEY', 'BRAYLEY/LAW', 'BRAYTON', 'BRAYTON/WEART', 'BRAZEY', 'BRAZIL', 'BRAZLE', 'BREAD', 'BREADEN', 'BREADNER', 'BREADON', 'BREADY', 'BREAK', 'BREAKENRIDGE', 'BREAKENRIGHT', 'BREAKY', 'BREARLY', 'BREATHWAITE', 'BREAULT', 'BREBNER', 'BRECKAN', 'BRECKON', 'BREEN', 'BREGARE', 'BREINICH', 'BREMBLE', 'BREMICH', 'BREMMER', 'BREMNER', 'BRENAGH', 'BRENAN', 'BRENEMAN', 'BRENNAN', 'BRENNAN/PETERSON', 'BRENNEN', 'BRENT', 'BRENTON', 'BRESEE', 'BRESNAHAN', 'BRESSE', 'BRESSEE', 'BRETHWAITH', 'BRETNER', 'BRETT', 'BREWER', 'BREWERTON', 'BREZE', 'BREZEE', 'BRIAN', 'BRICE', 'BRICK', 'BRICKER', 'BRICKMAN', 'BRICOT', 'BRIDGAM', 'BRIDGE', 'BRIDGEFORD', 'BRIDGEMAN', 'BRIDGES', 'BRIDGEWATER', 'BRIDGLAND', 'BRIDGMAN', 'BRIEN', 'BRIENLY', 'BRIERLY', 'BRIGGS', 'BRIGHAM', 'BRIGHAM/BREWSTER', 'BRIGHT', 'BRIGS', 'BRIKIE', 'BRILL', 'BRILLARD', 'BRILLINGER', 'BRIMMER', 'BRINDLEY', 'BRINK', 'BRINK/BRADT', 'BRINKERHOOF', 'BRINKMAN', 'BRINLEY', 'BRINSMEAD', 'BRINTNALL', 'BRIODY', 'BRISARD', 'BRISBOIS', 'BRISCO', 'BRISCOE', 'BRISCOE/BELL', 'BRISLANE', 'BRISON', 'BRISTOE', 'BRISTOL', 'BRITAIN', 'BRITAIN/BRITTIN', 'BRITTON', 'BROAD', 'BROADBANT', 'BROADBENT', 'BROADIE', 'BROADWICK', 'BROCK', 'BRODAY', 'BRODDY', 'BRODEUR', 'BRODIE', 'BRODRICK', 'BRODY', 'BROEFFEL/BREEFFEL', 'BROFFEL', 'BROFFEY', 'BROGDEN', 'BROGDIN', 'BROGDON', 'BROMLY/ROSS', 'BROOK', 'BROOKE', 'BROOKER', 'BROOKES', 'BROOKING', 'BROOKS', 'BROOKS/BARRETT', 'BROOKS/BENEDICT', 'BROOKS/COCKMAN', 'BROOKS/COLE', 'BROOKS/CORBMAN', 'BROOKS/MEDDAUGH', 'BROOKS/TURGERSON', 'BROOKSBANK', 'BROOME', 'BROOMHEAD', 'BROONER', 'BROPHEY', 'BROPHY', 'BROSE', 'BROTHERS', 'BROTHERSTON', 'BROUGH', 'BROUGHMAN', 'BROUGHTON', 'BROUK', 'BROUSE', 'BROUSE/ADAMS', 'BROUSE/BOUCK', 'BROUSE/CARMAN', 'BROUSE/KARMAN', 'BROUSE/PARLOW', 'BROUSE/SHAVER', 'BROUSTER', 'BROWCE', 'BROWCE/COON', 'BROWDERS', 'BROWER', 'BROWN', 'BROWN/COON', 'BROWN/FAIRFIELD', 'BROWN/FERGUSON', 'BROWN/FREEMAN', 'BROWN/HAWEN', 'BROWN/HURLBURT', 'BROWN/JUDSON', 'BROWN/MATICE', 'BROWN/MCILMOYLE', 'BROWN/MCLEAN', 'BROWN/MOTT', 'BROWN/MULLOY', 'BROWN/McINTIRE', 'BROWN/NICHOLSON', 'BROWN/ROBBINS', 'BROWN/SNIDER', 'BROWNE', 'BROWNELL', 'BROWNELL/CLINE', 'BROWNELL/COUNTRY', 'BROWNELL/SERVICE', 'BROWNELLE/BROWNHILL', 'BROWNLEE', 'BROWNLEY', 'BROWNLIE', 'BROWNLY', 'BROWNSON', 'BROWNSON/HAFFMAN', 'BROWNWICK', 'BROWSE', 'BRUCE', 'BRUCE/DAVY', 'BRUCK', 'BRUEN', 'BRUGERE', 'BRULE', 'BRUMGET', 'BRUMIGEM', 'BRUMIGEM/BRUMIGEN', 'BRUMWELL', 'BRUND', 'BRUNDAGE', 'BRUNDAGE/YOUREX', 'BRUNDEGE', 'BRUNDICH', 'BRUNDIDGE', 'BRUNDIGE', 'BRUNDREDGE', 'BRUNDRIDGE', 'BRUNELLE', 'BRUNER', 'BRUNGER', 'BRUNHERD', 'BRUNK', 'BRUNSON', 'BRUSH', 'BRUSH/CURRY', 'BRUSSEAUX', 'BRUSTER', 'BRUTON', 'BRUTON/FINNERON', 'BRYAN', 'BRYANS', 'BRYANT', 'BRYANT/McLEAN', 'BRYCE', 'BRYDEN', 'BRYDON', 'BRYDONE', 'BRYERS', 'BRYNES', 'BRYSON', 'BUCANNAN/BUCHANNAN/BUCKANNAN', 'BUCH', 'BUCHAM', 'BUCHAN', 'BUCHANAN', 'BUCHANAN &amp; BARKER', 'BUCHANAN/CRAWFORD', 'BUCHANAN/CRYSLER', 'BUCHANNAN', 'BUCHLEY', 'BUCHNER', 'BUCHNER/BOUGENER', 'BUCHNER/BOUGHNER', 'BUCHNER/BOUGHNER/AINSLEY', 'BUCHNER/BOUGNER', 'BUCHNER/BUGHGONER', 'BUCHNER/GRAHAM', 'BUCK', 'BUCK/BALDWIN', 'BUCK/BOUCH', 'BUCK/HAGERMAN', 'BUCK/HAGGART', 'BUCK/ORSER', 'BUCK/SNUKE', 'BUCKBOROUGH', 'BUCKHAM', 'BUCKHANAN/McDONELL', 'BUCKLEY', 'BUCKLEY/THOMAS', 'BUCKNER', 'BUCKNER/McGAN', 'BUDD', 'BUELL', 'BUELL/BAUCKE', 'BUELL/SHERWOOD', 'BUFFA', 'BUGBEE', 'BUGG', 'BUGGENER', 'BUGGIE', 'BUGIN', 'BUGLE LE', 'BUIE', 'BUIS', 'BUIS/AMEY', 'BUIS/BICE', 'BUISE', 'BUKER/BAKER', 'BUKER/FRENCH', 'BULEY', 'BULGER', 'BULHAM', 'BULKELEY', 'BULL', 'BULL/CLEMENT', 'BULLARD', 'BULLEN', 'BULLER', 'BULLES', 'BULLESS', 'BULLEY', 'BULLIN', 'BULLISS', 'BULLIVET', 'BULLIVIT', 'BULLOCK', 'BULLY', 'BULMAN', 'BULMER', 'BULSON', 'BULTEEL', 'BUMP', 'BUNBURRY', 'BUNBURY', 'BUNCE', 'BUNDIGE', 'BUNFIELD', 'BUNKER', 'BUNN', 'BUNTING', 'BUNTING/MARCKLE', 'BUNTON', 'BUNYAN', 'BURBANK', 'BURBANKS', 'BURBY', 'BURCH', 'BURCH/BIRCH', 'BURCHELL', 'BURCHILL', 'BURCK', 'BURCKHOLDER', 'BURD', 'BURDEN', 'BURDETT', 'BURDETT/BOURDETT', 'BURDICK', 'BURDOCK', 'BURDON', 'BURDS', 'BURDSELL', 'BURDSLEE', 'BUREAU', 'BURGAR', 'BURGART', 'BURGER', 'BURGES', 'BURGESS', 'BURGHAM', 'BURGHER', 'BURGHMANN', 'BURGIS', 'BURGISS', 'BURGOINE', 'BURGOYNE', 'BURK', 'BURKE', 'BURKET', 'BURKHOLDER', 'BURLEIGH', 'BURLEY', 'BURLEY/BALDWIN', 'BURLEY/LEE', 'BURLEY/SNIDER', 'BURLINGAME', 'BURLINGHAM/TANKEN', 'BURN', 'BURNELL', 'BURNES', 'BURNET', 'BURNET/VANARDEN', 'BURNETT', 'BURNETT/BAKER', 'BURNETT/COLLINGWOOD', 'BURNHAM', 'BURNHAM/AUGER', 'BURNHAM/CLAWSON', 'BURNHAM/FERGUSON', 'BURNHAM/HUFF', 'BURNITT', 'BURNS', 'BURNS/BYRNE', 'BURNSIDE', 'BURNSIDE/BROUSE', 'BURON', 'BURR', 'BURRELL', 'BURRETT', 'BURRILL', 'BURRISON', 'BURRISON/JOHNSTOWN', 'BURRIT', 'BURRIT/DULMAGE', 'BURRITT', 'BURROWES', 'BURROWS', 'BURRY', 'BURST', 'BURSTELL', 'BURT', 'BURTCH', 'BURTCH/BRADT', 'BURTCH/CORLIS', 'BURTCH/SEHRAM', 'BURTON', 'BURTON/ALGUIRE', 'BURWELL', 'BURWELL/BENEDICT', 'BURWELL/BISSELL', 'BURY', 'BUSCH', 'BUSH', 'BUSH/CROWDER', 'BUSHBY', 'BUSHEY', 'BUSHNELL', 'BUSNEY', 'BUSSELL', 'BUSVAK', 'BUTCH', 'BUTCHART', 'BUTCHER', 'BUTH', 'BUTLER', 'BUTLER/BERRIE', 'BUTLER/BOURDETT', 'BUTLER/COLTMAN', 'BUTLER/CROOKS', 'BUTLER/DAYTON', 'BUTLER/MATTHEWS', 'BUTLER/SLEMENT', 'BUTLER/STEVENS', 'BUTLER/WOOD', 'BUTTER', 'BUTTERFIELD', 'BUTTERFIELD/CLARK', 'BUTTERWORTH', 'BUTTLER', 'BUTTON', 'BUTTS', 'BUXTON', 'BUZBY', 'BY', 'BYAN', 'BYARD', 'BYARS', 'BYCRAFT', 'BYER', 'BYERLAY', 'BYERS', 'BYRNE', 'BYRNES', 'BYRNS', 'Babcock', 'Babcock/Lewis', 'Babcock/Ransier', 'Babcock/Scott', 'Babcock/Shannon', 'Babcock/Smith', 'Babcock/Wannamaker', 'Babcock/Wannomaker', 'Babcock/Weese', 'Babcook/Scott', 'Bachman', 'Bacon', 'Badcock', 'Badger', 'Badgerow', 'Badgley', 'Badichon/Labadie', 'Badwin', 'Bag', 'Bagley', 'Baice/Langhorn', 'Bailey', 'Bailey/McCarthy', 'Bailey/Sawyers', 'Baily', 'Bain', 'Baine', 'Baker', 'Baker/Miller', 'Baker/Skinner', 'Baker/Smith', 'Baker/Snyder', 'Baker/Wade', 'Baker/Waldorff', 'Baker/Young', 'Balance of land', 'Balderson', 'Baldwin', 'Baldwin/Webster', 'Bale', 'Ball', 'Ball/Long', 'Ball/Servos', 'Ball/Sweep', 'Ball/Walker', 'Ball/Wilkeson', 'Balmain/McDonell', 'Balton/Rose', 'Bamber', 'Banal Grist Mill', 'Banal Mill', 'Bannerman', 'Bannister', 'Banta/Vanwyck', 'Banter', 'Baptist Church', 'Baptist Church at Amherstburg.', 'Baptist Society', 'Baptists of the township of Artemesia.', 'Barber', 'Barckley/Outerkirk', 'Barckly/Markle', 'Barclay', 'Barclough', 'Barden', 'Barhigt', 'Bark/Lyons', 'Barkely/Shell', 'Barkley/Whiteker', 'Barkley/Witticker', 'Barkly/Marcellia/Massales', 'Barlow', 'Barnard/Nichols', 'Barnard/Randell', 'Barnard/Thomas', 'Barnard/Walker', 'Barnet/Landon', 'Barnet/Rood', 'Barnhart/Gallingher', 'Barnhart/MacDaniel', 'Barnhart/Marks', 'Barnhart/Rombough', 'Barnhart/Sills', 'Barnhart/Stinehoof', 'Barnhart/Stringer', 'Barnhart/Tilton', 'Barnheart/Runion', 'Barnheart/Waldenbarger', 'Barnrom', 'Barns', 'Barr', 'Barrie', 'Barrie &amp; Kempenfeldt Park Lots', 'Barrie (Market House Simco Dist.)', 'Barrie (Town lots for Jail &amp; Court House)', 'Barrie (Wesleyan Methodists Soc.)', 'Barrie (Wesleyan Methodists Society)', 'Barrie Members of the church of Scotland', 'Barrington', 'Barron', 'Barry', 'Bart', 'Bartels', 'Bartholomew', 'Bartlett', 'Bartley/Green', 'Bartley/Lyst', 'Bartley/Nicholson', 'Bartley/Shewman', 'Bartlough', 'Bartly/Green', 'Barton', 'Barton/Shatford', 'Barton/Smades', 'Barton/Smedes', 'Barton/Thomson', 'Barton/Wiley', 'Bartram', 'Baseer', 'Basset', 'Bassey/Smith', 'Bastedo', 'Bastedo/Rogers', 'Bastian/Stewart', 'Bates/Ghent', 'Bath Circuit, Wesleyan Methodist Church', 'Bathurst', 'Bathurst District Clergy Reserves', 'Batter/Merkley', 'Batter/Wright', 'Battiam', 'Battian', 'Baxter', 'Bay Indians', 'Bay de Chaleur (Timber Agency)', 'Bay of Quinte', 'Bayeaux/Vincent', 'Beach', 'Beach Lots', 'Beaches in Quebec', 'Beal', 'Beaman', 'Beard', 'Bearman', 'Beasley/Stegman', 'Beasley/Van Every', 'Beatie', 'Beatson', 'Beatys', 'BeauSoleil', 'Beaugrand', 'Beaumont', 'Beaver', 'Bebee/Smith', 'Becker', 'Becket', 'Beckwith', 'Bedal', 'Bedell', 'Bedford &amp; Sheffield (Clergy Reserves &amp; School lands)', 'Bedford, Reservation for Schools', 'Bedstead', 'Beeman', 'Beick', 'Beikie', 'Belding', 'Bell', 'Bell/Huff', 'Bell/Scott', 'Bell/Sharp', 'Bell/Sills', 'Bell/Switzer', 'Bell/Taylor', 'Bellamy', 'Bellar/Le Motte', 'Bellau', 'Bellaw', 'Belleperche', 'Belleville (Moira River)', 'Belleville town', 'Belleville, Minister &amp; Church Wardens of C. of E.', 'Belleville, President and Board of Police.', 'Belleville, Rev. Campbell for parsonage and glebe (C. of E.)', 'Belleville, church of England, parsonage and glebe (Rev. Thomas Campbell)', 'Bellows', 'Beman', 'Bencroft', 'Bender', 'Bender/Murry', 'Bender/Stelmayon', 'Bender/Wood', 'Benedict/Lossee', 'Benet', 'Benett', 'Benidick/Olds', 'Benn/Sills', 'Benn/Simmons', 'Benn/Soles', 'Bennet', 'Bennett', 'Bennitt', 'Benson', 'Benson/Richardson', 'Benson/Steel', 'Benson/Terell', 'Bent', 'Bentinck &amp; Glenelg School Section', 'Bentinck School Trustees', 'Bentley/Jayne', 'Benton', 'Berczy', 'Berdan/Thomson', 'Bergeron', 'Bernard', 'Berney', 'Bernier', 'Berry', 'Berry/Ulman', 'Berry/Willman', 'Bertram', 'Besserer', 'Bessey', 'Bessey/Price', 'Bessil/Michel', 'Bessy/Newkirk/Newcark', 'Best', 'Bethune', 'Bethune/McKenzie', 'Bethune/Wilkinson', 'Bettys', 'Bettys/Mahon', 'Bieges', 'Biggars', 'Bighard', 'Bignal', 'Bigsby', 'Bill', 'Billows', 'Bills', 'Birch', 'Birch/Rowel', 'Bird', 'Birdsale/McDonald', 'Birdsall', 'Birdsall/Shotwell', 'Birmingham', 'Birn', 'Bisco', 'Bishop', 'Bishop of Nova Scotia', 'Bishop of Quebec', 'Bishop of Toronto', 'Bishop of York', 'Bishop, Coadjutor and Administrator of Regiopolis', 'Bissell/Landon', 'Black', 'Black/Sparks', 'Black/Umphrey', 'Blackburn', 'Blackley/Murrison', 'Blackman', 'Blackwell', 'Blackwood', 'Blades', 'Blain', 'Blair', 'Blake', 'Blakeby/McDonald', 'Blakely/Mix', 'Blakely/Toppin', 'Blaker/Ripsom', 'Blakley/Ruscow', 'Blan', 'Blanchard', 'Blandford, Brock District (Purchase of Clergy Reserve)', 'Blasdell', 'Bleecker', 'Bleex', 'Blond', 'Blondheim', 'Board for Education', 'Board of Ordnance', 'Board of Police', 'Board of Police of town of Belleville.', 'Board of School Trustees', 'Board of Trustees of the Thomas County Grammar School', 'Board of Trustees, Grammar School', 'Board of Works', 'Boardman', 'Bodart', 'Bogart', 'Bogart/Spicer', 'Bogert/Matheson', 'Boice/McGuire', 'Boice/Springer', 'Boice/Van Wicklin', 'Boid/Shipman', 'Boies/Leonard', 'Boisbouscache village plot', 'Bolduc', 'Bolton', 'Bolton/Sax', 'Bond', 'Bone', 'Bonesteell/Willcox', 'Bonet', 'Bonnycastle', 'Bonsteel/Laushway', 'Bonsteel/Smith', 'Booth', 'Booth/Stalker', 'Booth/Terry', 'Boreson/Manhart', 'Borrat', 'Borrie', 'Borrit/Wright', 'Boshart', 'Bostwick', 'Bosworth', 'Botsford', 'Boucher', 'Boucher/Loucks', 'Bouchette/Reynolds', 'Bouchier', 'Bouchner/Willson', 'Bouchuer/Stringer', 'Bouck', 'Bouck/Garlough', 'Bouck/Reid', 'Boughner/Owen', 'Boughner/Willson', 'Boulton', 'Boulton/McMurphy', 'Boundary Commission', 'Boundary Lines', 'Boundary line the township Beverly', 'Boundary lines of lots', 'Bourne', 'Boutlon/Rawley', 'Bowac/Markle', 'Bowdish', 'Bowen', 'Bowen/More', 'Bowen/Sager', 'Bowen/Shaver', 'Bower/Scott', 'Bower/Worden', 'Bowerman', 'Bowers/Scott', 'Bowes', 'Bowie', 'Bowling/Goslee', 'Bowman', 'Bowman/Gisso', 'Bowman/Schram', 'Bowman/Scott', 'Bowman/Snure'</t>
         </is>
@@ -648,18 +669,26 @@
       <c r="P4" t="n">
         <v>4826</v>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>widow of James</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
         <v>495737</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>6664</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>['4824', '?tienne', 'A', 'A.', 'A. &amp; others', 'A. A.', 'A. B.', 'A. F.', 'A. G.', 'A. H.', 'A. J.', 'A. M.', 'A. M. I.', 'A. M. J.', 'A. N.', 'A. R.', 'A. W.', 'A. Y.', 'A., Lt Col.', 'A.C.', 'A.D.', 'A.F.', 'A.H. &amp; others', 'A.J.', 'A.L.', 'A.M.', 'A.N.', 'A.S.', 'A.W.', 'Aaron', 'Aaron Bryer Andrew', 'Aaron C.', 'Aaron F.', 'Aaron J.', 'Aaron Jr.', 'Aaron L.', 'Aaron P.', 'Aaron Sr.', 'Aaron and 5 sons', 'Aaron jr.', 'Aaron junior', 'Abadiah', 'Abagail', 'Abagill', 'Abbe', 'Abbey', 'Abby', 'Abeb', 'Abednego', 'Abel', 'Abel &amp; others', 'Abel D.', 'Abel E.', 'Abel H.', 'Abel Lewis', 'Abel R.', 'Abel Waters', 'Abel sr.', 'Abelu', 'Abiah', 'Abiel', 'Abifail', 'Abigah', 'Abigail', 'Abigail &amp; Son', 'Abigail &amp; others', 'Abigail jr.', 'Abigal', 'Abijah', 'Abijah jr.', 'Abizail', 'Able', 'Abner', 'Abner &amp; others', 'Abner Jr.', 'Abnor', 'Abnor jr.', 'Abra', 'Abraham', 'Abraham &amp; others', 'Abraham A.', 'Abraham D.', 'Abraham Gilbert', 'Abraham H.', 'Abraham Jr.', 'Abraham L.', 'Abraham Sr.', 'Abraham W.', 'Abraham Wartman', 'Abraham and others', 'Abraham jr.', 'Abraham junior', 'Abraham senior', 'Abraham sr.', 'Abrahim', 'Abram', 'Abram L.', 'Abrams', 'Absalom', 'Absalon', 'Absolem', 'Absolom', 'Absolum', 'Acessah', 'Acy', 'Ada', 'Adam', 'Adam &amp; others', 'Adam B.', 'Adam C.', 'Adam F.', 'Adam H.', 'Adam Henry', 'Adam I.', 'Adam J.', 'Adam Jehiel', 'Adam Jr.', 'Adam K.', 'Adam Nelson', 'Adam P.', 'Adam Sr.', 'Adam T.', 'Adam Williamson', 'Adam jr.', 'Adan', 'Adane F.', 'Adanijah', 'Addison', 'Adelaide', 'Adelaide Ann', 'Adelia', 'Adeline', 'Adhemar', 'Adiel', 'Adin', 'Adington', 'Adjt. L.', 'Adna', 'Adney', 'Adolphus', 'Adolphus F.', 'Adomjak', 'Adonijah', 'Adoniram', 'Adoram', 'Adrian', 'Adrien', 'Aemeas', 'Aeneas', 'Affa', 'Agar', 'Agatha', 'Agens', 'Agnes', 'Agnes &amp; others', 'Agnes E.', 'Agnes S.', 'Agnew P.', 'Agnus', 'Agustus', 'Ahab', 'Ahimazry', 'Ahimazry jr.', 'Airl', 'Alada', 'Alada junior', 'Aladah', 'Alanson', 'Alathan', 'Albelu', 'Albert', 'Albert  Jr.', 'Albert B.', 'Albert Jr.', 'Albert Jurn', 'Albert P.', 'Albert Scriver', 'Albright', 'Aldert', 'Aldridge', 'Aleazer', 'Alem', 'Alen', 'Alenyth', 'Alescis F.', 'Alex', 'Alex &amp; others', 'Alex N.', 'Alex William', 'Alex.', 'Alex. &amp; others', 'Alex. Sr.', 'Alex. T. E.', 'Alexander', 'Alexander &amp; others', 'Alexander A.', 'Alexander Browne', 'Alexander C.', 'Alexander Clifton', 'Alexander Craig', 'Alexander Daniel', 'Alexander David', 'Alexander F.', 'Alexander George', 'Alexander Hamilton', 'Alexander Howe', 'Alexander John', 'Alexander Johnstone', 'Alexander Jr.', 'Alexander L.', 'Alexander Lockhart', 'Alexander M.', 'Alexander McQueen', 'Alexander Mordaunt', 'Alexander N.', 'Alexander Oliphant', 'Alexander Peter', 'Alexander R.', 'Alexander Robert', 'Alexander S.', 'Alexander Sr.', 'Alexander T.E.', 'Alexander Thomas', 'Alexander Whalley', 'Alexander William', 'Alexander and others', 'Alexander jr.', 'Alexander junior', 'Alexander sr.', 'Alexander: Agent', 'Alexanders &amp; others', 'Alexandre', 'Alexandrew', 'Alexis', 'Alexis &amp; four others', 'Alexis &amp; others', 'Alexis Luc', 'Alexis Sr.', 'Alexis Theophile', 'Aley', 'Alfred', 'Alfred Alpheus', 'Alfred Francis', 'Alice', 'Alicia', 'Alicia Fenton', 'Alida', 'Allada', 'Allada and others', 'Allan', 'Allan &amp; Co.', 'Allan &amp; others', 'Allan Ban', 'Allan Jr.', 'Allan N.', 'Allan Napier', 'Allan R.', 'Allan W.', 'Allany', 'Allbartis', 'Alledy', 'Allen', 'Allen &amp; Cie', 'Allen &amp; others', 'Allen Ban', 'Allen Cameron', 'Allen S.', 'Alley', 'Allida', 'Allin', 'Allin Cammeron', 'Allmira', 'Alloisy', 'Ally', 'Almena', 'Almerin', 'Almerrin', 'Almira', 'Almirah', 'Alneas', 'Aloma', 'Alonzo', 'Alonzo Dyington', 'Alpha', 'Alphes', 'Alpheus', 'Alphius', 'Alpin', 'Alpine', 'Alsent', 'Alson', 'Alva', 'Alva Scofield', 'Alvah', 'Alvan', 'Alvaro', 'Alvin', 'Amable', 'Aman', 'Amanda', 'Amariah', 'Amarilla', 'Amasa', 'Amaser', 'Amasiah', 'Amazrah', 'Amber', 'Amberson', 'Ambroise', 'Ambrose', 'Ame', 'Amelia', 'Amelia Maria', 'Amelia Rosahha', 'Amelia Sophia', 'Amerilla', 'Ames Sr.', 'Amey', 'Amherst', 'Amia', 'Amie', 'Amiley', 'Amisa', 'Ammarilla', 'Ammi', 'Amoriah', 'Amos', 'Amos H.', 'Amos J.', 'Amos Jenkins', 'Amos Jr.', 'Amos L.', 'Amos M.', 'Amos R.', 'Amos jr.', 'Amos sr.', 'Amosa', 'Amsa', 'Amy', 'Amy Tamer', 'Amzi L.', 'Anan', 'Ananios', 'Anasa', 'Anay', 'Ande', 'Anderson', 'Andew', 'Andios', 'Andre', 'Andrea William', 'Andreas', 'Andress', 'Andrew', 'Andrew &amp; others', 'Andrew Alexander', 'Andrew Charles', 'Andrew D.', 'Andrew E.', 'Andrew F.', 'Andrew H.', 'Andrew John', 'Andrew Jr.', 'Andrew M.', 'Andrew M. I.', 'Andrew McKenzie', 'Andrew N.', 'Andrew P.', 'Andrew S.', 'Andrew T.', 'Andrew Todd', 'Andrew W.', 'Andrew William', 'Andrew Wilson', 'Andrew jr.', 'Andrew junior', 'Andrew sr.', 'Andrews', 'Andrue', 'Andr~', 'Andr~ Larieniette', 'Andr~ Raphael', 'Aner', 'Ang_le', 'Angel', 'Angelec', 'Angelica', 'Angeline', 'Angelique', 'Angelo', 'Angus', 'Angus B.', 'Angus Jr.', 'Angus Roy', 'Ang~lique', 'Ann', 'Ann &amp; others', 'Ann (Meridith)', 'Ann B.', 'Ann C.', 'Ann Dorcus', 'Ann E.', 'Ann Eliza', 'Ann Elizabeth', 'Ann Eve', 'Ann Isabel', 'Ann Isabella', 'Ann Kerr', 'Ann Maria', 'Ann Mary', 'Ann/Anne', 'Anna', 'Anna Christine', 'Anna Eliza', 'Anna Eve', 'Anna Ham', 'Anna I.', 'Anna Margaret', 'Anna Maria', 'Anna Marie', 'Annabel', 'Annah', 'Annas', 'Annay', 'Anne', 'Anne &amp; others', 'Anne (Mrs.)', 'Anne E.', 'Anne Elisa', 'Anne Elizabeth', 'Anne Frances', 'Anne Maria', 'Anne and others', 'Annet', 'Anneuer', 'Anney', 'Annis', 'Anny', 'Anselm', 'Anselm &amp; others', 'Anselme', 'Anslem', 'Anson', 'Anson B.', 'Anson H.', 'Anson Harley', 'Ant.', 'Anthony', 'Anthony &amp; others', 'Anthony Descompte', 'Anthony Jr.', 'Antoina', 'Antoine', 'Antoine Descomptes', 'Antoine German', 'Anton', 'Antony', 'Anty', 'Apollas', 'Apulet', 'Aquila M.', 'Aquila Mitchell', 'Aquilla', 'Arba', 'Arch.', 'ArchArch', 'Archabald', 'Archabel', 'Archange', 'Archd', 'Archd.', 'Archelaus', 'Archeleus', 'Archibal', 'Archibald', 'Archibald Charles', 'Archibald D.', 'Archibald Garret', 'Archibald H.', 'Archibald John', 'Archibald Jr.', 'Archibald Kenny', 'Archibald McLean', 'Archibald Norman', 'Archibald Roy', 'Archibald and others', 'Archibald jr.', 'Archie', 'Archilaus', 'Archy', 'Ard.', 'Ardagh', 'Arent', 'Arent Butler', 'Arent Schyler de Puyster', 'Arial', 'Arilla', 'Arima', 'Ariste', 'Armon', 'Armstrong', 'Arna', 'Arne', 'Arnish', 'Arnold', 'Arnoldi', 'Arnon', 'Arnot', 'Aron', 'Arra', 'Arskat', 'Artaxerxes', 'Artemas', 'Artemus', 'Arthur', 'Arthur &amp; others', 'Arthur C.', 'Arthur Francis', 'Arthur Greg', 'Arthur H.', 'Arthur Jr.', 'Arthur William', 'Artimas', 'Arza', 'Asa', 'Asa &amp; others', 'Asa Aldis', 'Asa Bell', 'Asa Bill', 'Asa G.', 'Asa H.', 'Asa Jr.', 'Asa K.', 'Asa Sr.', 'Asa Z.', 'Asa junior', 'Asabel', 'Asachel', 'Asahel', 'Asaiah', 'Asal', 'Asaph', 'Aseaneth', 'Asel', 'Asel (Asahel)', 'Asel (asahel)', 'Asenath', 'Aseneth', 'Ashael', 'Ashbel', 'Ashel', 'Ashell', 'Asher', 'Ashman', 'Askman', 'Asoph', 'Asoph jr.', 'Asubah', 'Asy', 'Athel C.', 'Augusta', 'Augusta G.', 'Augusta Honorina', 'Auguste', 'Augustin', 'Augustin &amp; others', 'Augustine', 'Augustine Jean', 'Augustus', 'Augustus Baron', 'Augustus Fred', 'Augustus Frederick', 'Augustus Jr.', 'Augustus Theodore', 'Aully', 'Aurelia', 'Auselin', 'Auson', 'Austin', 'Averhart', 'Averhat', 'Avery', 'Axford', 'Azahel', 'Azariah', 'Azuba', 'Azubah', 'B.', 'B. C.', 'B. Crannell', 'B. F.', 'B. J.', 'B. James', 'B. R.', 'B.C.', 'B.C.A.', 'Babington', 'Baker', 'Baliate', 'Balsar', 'Baltas', 'Baltazar', 'Baltes', 'Balthazar', 'Bamlet', 'Banj. Austin', 'Banjamin', 'Baptist', 'Baptiste', 'Baptiste &amp; others', 'Baptist~', 'Baranett', 'Barbara', 'Barbara Hulde', 'Barbara M.', 'Barbary', 'Barbry', 'Barce', 'Barclay', 'Barent', 'Barint', 'Barna', 'Barnab', 'Barnabas', 'Barnabas &amp; others', 'BarnabasJr.', 'Barnabee Jr.', 'Barnabus', 'Barnaby', 'Barnard', 'Barnebas', 'Barnet', 'Barney', 'Barnhard', 'Barnhart', 'Barny', 'Baron', 'Baroness de', 'Barraclough', 'Barret', 'Barrett', 'Barss', 'Barth.', 'Barthelomew', 'Bartholamew', 'Bartholemew', 'Bartholemew Jr.', 'Bartholomew', 'Bartholomew &amp; Others', 'Bartholomew Jr.', 'Bartholomy', 'Bartimis', 'Barton', 'Barzillai', 'Bashaba', 'Basil', 'Basil R.', 'Basnett', 'Bastean', 'Basten', 'Bastian', 'Bastion', 'Bathiah', 'Batholomew', 'Bathsana', 'Bathsheba', 'Bays Manchester', 'Bazil', 'Bazile', 'Bazille', 'Beamsler', 'Beata', 'Beecham', 'Bela', 'Bela Brewster', 'Beldin', 'Beleg', 'Bell', 'Bella', 'Bella Brewster', 'Belley', 'Belnap', 'Belyut', 'Bemslee', 'Bemslee Jr.', 'Bemus', 'Benaiah', 'Benaijah', 'Benajah', 'Bendict', 'Benedict', 'Benedict (sons of)', 'Benegas', 'Benejamin', 'Benham', 'Beniah', 'Benj', 'Benj.', 'Benj. G.', 'Benjamen', 'Benjamen &amp; others', 'Benjamin', 'Benjamin &amp; others', 'Benjamin A.', 'Benjamin B.', 'Benjamin Buggles', 'Benjamin C,', 'Benjamin C.', 'Benjamin Conger', 'Benjamin D.', 'Benjamin E.', 'Benjamin F.', 'Benjamin G.', 'Benjamin J.', 'Benjamin James', 'Benjamin Jones', 'Benjamin Jr.', 'Benjamin M.', 'Benjamin O.', 'Benjamin P.', 'Benjamin Paul', 'Benjamin Small', 'Benjamin Sr.', 'Benjamin Sr. &amp; sons', 'Benjamin V.', 'Benjamin W.', 'Benjamin Walker', 'Benjamin and others', 'Benjamin jr.', 'Benjamin junior', 'Benjamin sr.', 'Benjmain', 'Benjmain junior', 'Benjn', 'Benjn Halaway', 'Benoit', 'Benona', 'Benoni', 'Benonie', 'Benony', 'Bergette', 'Beriah', 'Bernard', 'Bernard B.', 'Bernard I.', 'Bernard Millar', 'Bertha', 'Beteas', 'Betey', 'Bethamy', 'Bethel', 'Betheuel', 'Bethia', 'Bethia (Meredith)', 'Bethier', 'Bethsheba', 'Bethuel', 'Betsey', 'Betsey Anne', 'Betsey D.', 'Betsey/Betcy', 'Betsey/Elizabeth', 'Betsor', 'Betsy', 'Bettsey', 'Bettsy', 'Betty', 'Betty (Betsy)', 'Beulah', 'Bigleow junior', 'Bildad', 'Bildad jr.', 'Bill', 'Bill William', 'Billa', 'Billon &amp; others', 'Billy', 'Blackly', 'Blackwood James', 'Blanch', 'Blanche', 'Blandine', 'Blonden', 'Blyth', 'Boardman', 'Bogart', 'Bolsan', 'Bolser', 'Boltes', 'Boltis', 'Bolton', 'Boltus', 'Boniface', 'Bonnavanture', 'Borden', 'Bosteyon', 'Boston', 'Boulton', 'Bowers', 'Bowfender', 'Bowley', 'Boyle', 'Boys M.', 'Braddish', 'Bradford', 'Bradford A.', 'Bradford G.', 'Bradish', 'Bradock', 'Bradshaw', 'Braithwaite', 'Braman', 'Breakey', 'Brevet Major James', 'Brian', 'Briant', 'Brice', 'Bridget', 'Bridgett', 'Bridgit', 'Brien', 'Brinsmaid jr.', 'Brinsmede', 'Brinton', 'Brisery', 'Britain', 'Britannia', 'Brockway', 'Brooke', 'Brothers', 'Bruce', 'Bruce and others', 'Bruin', 'Bruine', 'Bruneau', 'Brush junior', 'Bryan', 'Bryant', 'Bryen', 'Bryer', 'Bryon', 'Buck', 'Bulah', 'Bulkley', 'Bunyan', 'Burdine', 'Burgers', 'Burges', 'Burgess', 'Burgoyne', 'Burleigh', 'Burras', 'Burrell', 'Burton', 'Busted', 'Buttle', 'C.', 'C. &amp; J. &amp; Co.', 'C. &amp; son', 'C. H.', 'C. J.', 'C. Jas.', 'C. N.', 'C. R.', 'C. W.', 'C., M. D.', 'C.B.', 'C.E.', 'C.F.', 'C.G.', 'C.H.', 'C.J.', 'C.O. &amp; others', 'C.S.', 'Caborne', 'Cadeb', 'Cadet', 'Cading', 'Caesar', 'Caesar L.', 'Cain', 'Calab', 'Caldwell', 'Caleay', 'Caleb', 'Caleb &amp; others', 'Caleb L.', 'Caleb R.', 'Caleb Raymond', 'Caleb Robin', 'Caleb S.', 'Caley', 'Calin', 'Calista', 'Calixte', 'Callaghan', 'Calrien', 'Calso', 'Calvim', 'Calvin', 'Calvin &amp; others', 'Caly', 'Camilla', 'Campbell', 'Caniff', 'Capt.', 'Capt. A.', 'Capt. Alexander', 'Capt. Babington', 'Capt. C.', 'Capt. D.', 'Capt. Edward', 'Capt. George', 'Capt. J.', 'Capt. J. M.', 'Capt. John', 'Capt. Joseph', 'Capt. M.', 'Capt. Robert E.', 'Capt. S. A. H.', 'Capt. Thomas', 'Capt. William', 'Capt. William J.', 'Captain', 'Captain &amp; other Loyalists', 'Captain &amp; others', 'Captain Jacob', 'Captain John', 'Captain Thomas', 'Captain William', 'Carberry', 'Carew', 'Carey', 'Carleton', 'Carlina', 'Carlo', 'Carlton', 'Carman', 'Carolina', 'Caroline', 'Caroline A.', 'Caroline M.', 'Carolus', 'Carrol', 'Carry', 'Carsan', 'Caruth', 'Cary', 'Casan', 'Casiah', 'Casimir T.', 'Caspar', 'Caspart', 'Casparus', 'Casper', 'Casper H.', 'Caspor', 'Cassan', 'Cassius', 'Caster', 'Catareen', 'Cate', 'Catereane', 'Caterin', 'Catey', 'Cath.', 'Catharina', 'Catharinae', 'Catharine', 'Catharine Ann', 'Catharine Cynthia', 'Catharine Eliza', 'Catharine H.', 'Catharine Hill', 'Catharine Jr.', 'Catharine/Caty', 'Catheren', 'Catherice', 'Catherin', 'Catherina', 'Catherine', 'Catherine &amp; others', 'Catherine Eve', 'Catherine Hannah', 'Catherine/Kitty', 'Cathetine', 'Cathrine', 'Cathrinea', 'Cathy', 'Catlina', 'Caton', 'Catp.', 'Catran', 'Catrine', 'Cattan', 'Cattern', 'Caty', 'Causon', 'Caziah', 'Ceasor', 'Cecilia', 'Celestin', 'Celina', 'Cepheran', 'Cephrenus', 'Cerille', 'Cerphrenus/Cerfrenas Jr.', 'Cesar', 'Ch.-Alex.', 'Champion', 'Chancery', 'Chancey', 'Chandler', 'Channey', 'Chanty', 'Chaple', 'Chapman', 'Charety', 'Charity', 'Charity C.', 'Charle', 'Charles', 'Charles &amp; Co.', 'Charles &amp; Others', 'Charles &amp; brothers', 'Charles &amp; his 4 sons', 'Charles &amp; others', 'Charles A.', 'Charles Andrew', 'Charles Arthur', 'Charles B.', 'Charles Barker', 'Charles Blaker', 'Charles Burton', 'Charles C.', 'Charles Coxwell', 'Charles Dean', 'Charles Douglas', 'Charles E.', 'Charles Earl', 'Charles G.', 'Charles G. A.', 'Charles George', 'Charles Gotthill', 'Charles Gustavus Adolphus', 'Charles H.', 'Charles Hadfield', 'Charles Henry', 'Charles Henry, M. D.', 'Charles Hibbert', 'Charles Hide', 'Charles Isaac', 'Charles J.', 'Charles James', 'Charles Jasper', 'Charles Jeffery', 'Charles Joseph', 'Charles Jr.', 'Charles Justin &amp; others', 'Charles K.', 'Charles Kinsey', 'Charles L.', 'Charles Lewis', 'Charles M.', 'Charles McDonald', 'Charles O.', 'Charles Oakes', 'Charles P.', 'Charles Platt', 'Charles R.', 'Charles R.P.', 'Charles Robert', 'Charles Rodney', 'Charles S.', 'Charles Seldon &amp; others', 'Charles Sr.', 'Charles Stanley', 'Charles Stuart', 'Charles W.', 'Charles Wells', 'Charles Westly', 'Charles Wiliam', 'Charles William', 'Charles and Co.', 'Charles and others', 'CharlesG.A.', 'Charley', 'Charlotte', 'Charlotte Augusta', 'Charlotte Jean', 'Charlotte Montague', 'Charlotte Stuart', 'Charlottee', 'Chas. S.', 'Chattevill', 'Chattwell', 'Chattwill', 'Chatwell', 'Chauncey', 'Cheesman', 'Cheesmand', 'Chelsey', 'Chester', 'Chevalier', 'Chichester', 'Chief', 'Chief Justice', 'Children of Michel', 'Chimham', 'Chirk', 'Chloe', 'Christ-Ann', 'Christain', 'Christeen', 'Christena', 'Christeneh', 'Christian', 'Christian &amp; others', 'Christian C.', 'Christian Frederick', 'Christian Igratius &amp; others', 'Christian Jr.', 'Christiana', 'Christiana Jr.', 'Christianna', 'Christianne', 'Christie', 'Christie Ann', 'Christien', 'Christina', 'Christine', 'Christoper', 'Christophe', 'Christopher', 'Christopher &amp; others', 'Christopher A.', 'Christopher Alex.', 'Christopher Babaty', 'Christopher Babety', 'Christopher C.', 'Christopher E.', 'Christopher G.', 'Christopher H.', 'Christopher J.', 'Christopher James', 'Christopher John', 'Christopher Jr.', 'Christopher L.', 'Christopher R.', 'Christopher jr.', 'Christy', 'Christy (widow)', 'Christy Ann', 'Christyann', 'Chritstian', 'Chuney &amp; others', 'Churhilly', 'Cignac &amp; other inhabitants', 'Cinnamond', 'Clara', 'Clarecy', 'Clarenda', 'Claress', 'Clarinda', 'Clarissa', 'Clarissa Ann', 'Clarissa/Eliza', 'Clarisse', 'Clarisson', 'Clark', 'Clark Rice', 'Clarke', 'Clarkson', 'Clarry', 'Clary', 'Claude', 'Claude Louis', 'Claudias', 'Claudius', 'Clavin', 'Clayton', 'Clement', 'Clement Charles', 'Clementine', 'Clements', 'Cleo', 'Clinton', 'Cloe', 'Clossin', 'Clovice', 'Clovis', 'Cloy', 'Cluathau', 'Co.', 'Col.', 'Col. A. W.', 'Col. D.', 'Col. E. B.', 'Col. J. R.', 'Col. James', 'Col. Thomas', 'Col. W.', 'Col. William', 'Colan', 'Colclough', 'Coleman', 'Colin', 'Coll', 'Coll.', 'Colley L.', 'Collin', 'Collins', 'Colonel', 'Colonel &amp; others', 'Colonel C. B.', 'Colonel E.B.', 'Colonel Thomas', 'Colquhoun', 'Comfort', 'Comfort Martin', 'Commodore', 'Commodore Robert', 'Comte de', 'Conard', 'Concurence', 'Connel I.', 'Connell J.', 'Connell James', 'Conrad', 'Conrad B.', 'Conrad Joseph', 'Conrade', 'Conradt', 'Conraudt', 'Conrod', 'Constant', 'Constantine', 'Content', 'Conway', 'Cooley', 'Coonrad', 'Coonrade', 'Coonrod', 'Coonrodt', 'Coonroudt', 'Coonroy', 'Cooper', 'Cooper James', 'Coplin', 'Cordelia', 'Corey', 'Cormack', 'Cormick', 'Cornelia', 'Cornelious', 'Cornelius', 'Cornelius C.', 'Cornelius Jr.', 'Cornelius P.', 'Cornelius Sr.', 'Cornelius V.', 'Cornelius William', 'Cornelius jr.', 'Cornet Thomas', 'Cornilious', 'Cornin', 'Cornwall', 'Cornwell', 'Corporation of', 'Corry', 'Corstean', 'Cortland', 'Cortlandt', 'Corus', 'Cossen', 'Cottrel', 'Cottrell', 'Cottrill', 'Count', 'Count De', 'Courtland', 'Coventry', 'Craig', 'Crane &amp; Co.', 'Criness', 'Crispus', 'Cristy', 'Cronomous', 'Crowell', 'Cruth', 'Culla', 'Cullo', 'Culow', 'Culver', 'Cunrod', 'Curate &amp; Church Wardens of the Church of Njotre Dame in the Parish of', 'Curran John', 'Curtis', 'Curtis Jr.', 'Curtiss', 'Cur~', 'Cusham', 'Cuthbert', 'Cuthbert M.', 'Cuthbert Marshall', 'Cutlip', 'Cynthia', 'Cyprien', 'Cyrene', 'Cyrenius', 'Cyrenus', 'Cyriac', 'Cyril', 'Cyrille', 'Cyrus', 'Cyrus R.', 'C~lestin', 'D', "D'Agneau", "D'Arcy", "D'Arcy Jr.", 'D.', 'D. A.', 'D. B.', 'D. Emily', 'D. M.', 'D.A.', 'D.B.', 'D.C.', 'D.E.', 'D.G.', 'D.K.', 'D.M.G.', 'D.S.', 'D.V.', 'D.W.', 'DAvid', 'Dabby', 'Daily', 'Daiv', 'Daley', 'Daleya', 'Dalilah', 'Dalton', 'Damase', 'Dame D.', 'Dame Luce G.', 'Damiel', 'Dan', 'Dan Jr.', 'Dan W.', 'Dan jr.', 'Dana', 'Danal', 'Daneil', 'Daniel', 'Daniel &amp; Others', 'Daniel &amp; brothers', 'Daniel &amp; others', 'Daniel A.', 'Daniel Allen', 'Daniel Anson', 'Daniel B.', 'Daniel B. &amp; others', 'Daniel Bedell', 'Daniel E.', 'Daniel Ewen', 'Daniel Ewin', 'Daniel F.', 'Daniel Freeman', 'Daniel H.', 'Daniel J. B. W.', 'Daniel John', 'Daniel Jr.', 'Daniel K.', 'Daniel L.', 'Daniel M.', 'Daniel Merritt', 'Daniel N.', 'Daniel P.', 'Daniel Rose', 'Daniel S.', 'Daniel Shipman', 'Daniel Smith', 'Daniel Sr.', 'Daniel W.', 'Daniel Way', 'Daniel Y.', 'Daniel jr.', 'Daniel junior', 'Daniel/Donald', 'Danise', 'Darby', 'Darby jr.', 'Darby sr.', 'Darcus', 'Darcy', 'Darien', 'Darius', 'Darius C.', 'Darius D.', 'Darius T.', 'Darkis', 'Darvis', 'Dave', 'Davenport', 'David', 'David &amp; Others', 'David &amp; brothers &amp; sisters', 'David &amp; others', 'David Alexander', 'David B.', 'David Balter', 'David Bishop', 'David Byron', 'David C.', 'David Charles', 'David Clark', 'David D.', 'David Dunham', 'David E.', 'David Edward', 'David Frederick', 'David H.', 'David Henry', 'David J.', 'David John', 'David Jr.', 'David L.', 'David M.', 'David M.G.R.', 'David Macgregore', 'David McG.', 'David McGregor', 'David McGregor &amp; others', 'David McGregore', 'David Oakes', 'David Palmer', 'David R.', 'David Rees', 'David S.', 'David S. R.', 'David Scott', 'David Secord', 'David Sr.', 'David V.', 'David W.', 'David William', 'David and others', 'David jr.', 'David junior', 'David sr.', 'David the 3rd', 'Davidson', 'Davis', 'Davis Jr.', 'Davit', 'Davsd', 'Dawson', 'Dayle', 'Dean', 'Debbora', 'Debera', 'Debora', 'Deborah', 'Deborah Augusta', 'Deborah Casper', 'Decier', 'Dederick', 'Deger', 'Deidama', 'Delia', 'Delia H.', 'Deliah', 'Delight', 'Delilah', 'Delpha', 'Demetrius', 'Denis', 'Denn', 'Dennes', 'Dennis', 'Dennis &amp; others', 'Dennis Fred', 'Dennison', 'Dependence', 'Derick', 'Derick L.', 'Derk', 'Derrick', 'Desire', 'Despard', 'Detrick', 'Devina', 'Dewey', 'Deyer', 'Diadama', 'Diana', 'Dianah', 'Dideme', 'Diederick', 'Dieudonn~', 'Dimon', 'Dinah', 'Ditmar (Dilman)', 'Doctor', 'Dolbey', 'Dolly', 'Dolphus', 'Dominic', 'Dominick', 'Dominie', 'Dominions', 'Dominique', 'Don', 'Don Carlos', 'Donald', 'Donald &amp; others', 'Donald (Duncan)', 'Donald (heirs of)', 'Donald A.', 'Donald Aenas', 'Donald Aeneas', 'Donald Alexander', 'Donald E.', 'Donald Jr.', 'Donald McDonald', 'Donald P.', 'Donald Sr.', 'Donald Uneas', 'Donald W.', 'Donald W.B.', 'Donald William', 'Donald jr.', 'Donald sr.', 'Donall', 'Dongall', 'Donnald', 'Doras', 'Dorcas', 'Dorithy', 'Dorman', 'Dormer', 'Dorothea', 'Dorothy', 'Dorothy (MILLER)', 'Dorus', 'Dougal', 'Dougald', 'Dougall', 'Douglas', 'Douglass', 'Doyle', 'Dr.', 'Dr. Charles', 'Dr. D.L.', 'Dr. J. M.', 'Dr. John', 'Dr. Nathaniel', 'Dr. S. J.', 'Dr. W.', 'Dr. W. W.', 'Dr. William W.', 'Draper', 'Drew', 'Drewsilla', 'Drury', 'Dudley', 'Dudley/Dexter', 'Dudly', 'Duff', 'Dugal', 'Dugald', 'Duke', 'Duke William', 'Dummer', 'Duncan', 'Duncan &amp; others', 'Duncan C.', 'Duncan I', 'Duncan Jr.', 'Duncan Moore', 'Duncan W.', 'Duncan jr.', 'Dunham', 'Dute', 'E.', 'E. A.', 'E. B.', 'E. C.', 'E. H.', 'E. J.', 'E. L.', 'E. M.', 'E. N.', 'E. S.', 'E.B.', 'E.L.', 'E.L. &amp; others', 'E.P.', 'E.S. &amp; S.', 'E.W.', 'Eady', 'Ealenor', 'Earl', 'Earl of', 'Easter', 'Easther', 'Easton', 'Eathan', 'Eben', 'Eben.', 'Ebenazar', 'Ebenez', 'Ebenezar', 'Ebenezer', 'Ebenezer &amp; others', 'Ebenezer C.', 'Ebenezer F.', 'Ebenezer G.', 'Ebenezer Isbell', 'Ebenezer Jr.', 'Ebenezer M.', 'Ebenezer Mix', 'Ebenezer R.', 'Ebenezer Sage', 'Ebenezer Sr.', 'Ebenezer Talman', 'Ebenezer and others', 'Ebenezer jr.', 'Ebenezer junior', 'Eber', 'Ebin', 'Ebinezer', 'Ed', 'Ed.', 'Ed. J.', 'Edgah Walludge', 'Edgar', 'Edgar &amp;others', 'Edgeworth', 'Edia', 'Edin', 'Edison', 'Edith', 'Edmond', 'Edmond F.', 'Edmund', 'Edmund &amp; others', 'Edmund B.', 'Edmund Burke', 'Edmund L.', 'Edmund W.', 'Edmund Westrop', 'Edmund/Edouard', 'Edouard', 'Edouard and others', 'Edse', 'Edward', 'Edward &amp; Others', 'Edward &amp; others', 'Edward A.', 'Edward Allen', 'Edward B.', 'Edward Baker', 'Edward Blackmore', 'Edward Burke', 'Edward C.', 'Edward Clarke', 'Edward F.', 'Edward G.', 'Edward George', 'Edward H.', 'Edward I.', 'Edward J.', 'Edward James', 'Edward James Snow', 'Edward Josias', 'Edward Jr.', 'Edward Jukes', 'Edward Lefray', 'Edward N.', 'Edward P.', 'Edward Peneval', 'Edward R.', 'Edward Robert', 'Edward Rowley', 'Edward Rutledge', 'Edward S.', 'Edward Sands', 'Edward Sr.', 'Edward Taylor', 'Edward Thomas', 'Edward Thompson', 'Edward Trevor', 'Edward Vincent', 'Edward W.', 'Edward W. B.', 'Edward Wesley', 'Edward William', 'Edward and others', 'Edward jr.', 'Edward junior', 'Edward sr.', 'Edward the 1st', 'Edwards', 'Edwart', 'Edwin', 'Edwin Hugh', 'Edwin R.', 'Edwin Reuben', 'Edwy', 'Edy', 'Effelena', 'Effie', 'Effingham', 'Egerton', 'Eguilah', 'Ehphraim', 'Eilzabeth', 'Elam', 'Elasabath', 'Elasabeth', 'Elasdoch', 'Elazarus', 'Elcept', 'Elcey', 'Elcy', 'Eldad', 'Eldredge', 'Eldridge', 'Eleakin', 'Eleaner', 'Eleanor', 'Eleanor &amp; others', 'Eleanor G.', 'Eleanore', 'Eleas', 'Eleazar', 'Eleazer', 'Eleazer N.', 'Eleazer junior', 'Eleazor', 'Electa', 'Electra Catharine', 'Eleek', 'Elejah', 'Elejah jr.', 'Elener', 'Elenor', 'Elenz Blanchard', 'Eleonar', 'Eleoner', 'Eleonore', 'Elery', 'Elespy Ann', 'Elethear', 'Elexandren', 'Elezar', 'Elezar F.', 'Elezer', 'Eli', 'Eli T.', 'Eli jr.', 'Eliachim', 'Eliada', 'Eliakim', 'Eliakim H.', 'Eliakun', 'Elias', 'Elias &amp; others', 'Elias David Smith', 'Elias Jr.', 'Elias M.', 'Elias W.', 'Elias jr.', 'Elias sr.', 'Eliazar', 'Eliazer', 'Elibath', 'Elice', 'Elida', 'Elie', 'Elies', 'Eliezar', 'Eliezer', 'Eliezerd', 'Eligh', 'Elihad', 'Elihe', 'Elihn', 'Elihu', 'Elihu J.', 'Elihu and others', 'Elihue', 'Elihue B.', 'Elija', 'Elija H.', 'Elijah', 'Elijah &amp; company', 'Elijah &amp; family', 'Elijah &amp; others', 'Elijah Curtis', 'Elijah T.', 'Elijah W.', 'Elijah Y.', 'Elijah Yongs', 'Elijah jr.', 'Elijah junior', 'Elijha', 'Elind Jr.', 'Elinor', 'Elios', 'Eliphabet', 'Eliphalet', 'Eliphalet &amp; others', 'Eliphalet W.', 'Eliphilet', 'Elisa', 'Elisabath', 'Elisabeth', 'Elisha', 'Elisha &amp; Associates', 'Elisha &amp; others', 'Elisha G.', 'Elisha Jr.', 'Elisha S.', 'Elisha T.', 'Elisha junior', 'Eliska', 'Eliskin', 'Eliud', 'Eliza', 'Eliza &amp; others', 'Eliza A. E.', 'Eliza A. M.', 'Eliza Ann', 'Eliza E.', 'Eliza Elizabeth', 'Eliza Jane', 'Eliza Julia', 'Eliza L', 'Eliza and others', 'Elizabath', 'Elizabath jr.', 'Elizabeth', 'Elizabeth &amp; others', 'Elizabeth (McLAUGHLIN)', 'Elizabeth (ROBLIN)', 'Elizabeth Ann', 'Elizabeth C.', 'Elizabeth Clench', 'Elizabeth Eleanor', 'Elizabeth Frances', 'Elizabeth Hoffman', 'Elizabeth Jane', 'Elizabeth Montague', 'Elizabeth O.', 'Elizabeth P.', 'Elizabeth S.', 'Elizabeth Sarah', 'Elizabeth Sophie', 'Elizabeth/Eliza', 'Elizabethtown', 'Elizah', 'Elizer', 'Elizkem jr.', 'Elizur', 'Elk', 'Elkanah', 'Ellanor', 'Ellar', 'Ellas', 'Elleanor', 'Ellen', 'Ellen (Widow)', 'Ellen A.', 'Ellen Rich', 'Ellen T.', 'Ellener', 'Ellenor', 'Elley', 'Ellias', 'Ellice', 'Ellinda', 'Ellinor', 'Elliot', 'Elliott', 'Ellis', 'Elly', 'Elm', 'Elmer', 'Elmida Margaret', 'Elmira', 'Elnathan', 'Elon', 'Elosa', 'Elozabeth', 'Elsa', 'Else', 'Elsey', 'Elsia', 'Elspet', 'Elspey', 'Elsy', 'Elton', 'Eluy', 'Elwood', 'Elwyn', 'Ely', 'Elzear', 'Elzebe', 'Emanuel', 'Emanuel Jr.', 'Emanuel Sr.', 'Emanuel jr.', 'Emelia', 'Emeline C.', 'Emeran', 'Emerard', 'Emerson', 'Emery', 'Emilia', 'Emily', 'Emily Rosa', 'Emma Lucretia', 'Emma Lucretia &amp; others', 'Emmanuel', 'Emmeley', 'Emphraim', 'Eneas', 'Enes', 'Enid', 'Enoch', 'Enoch (Tenoch, Zenogh)', 'Enoch C.', 'Enock', 'Enome', 'Enon', 'Enos', 'Enos E.', 'Enos G.', 'Ensign', 'Ensign D.', 'Ensign Samuel', 'Enus', 'Epaphaditus', 'Epaphres P.', 'Epaphroditus', 'Epenetus', 'Epenitus', 'Epharam', 'Epharem', 'Ephaun', 'Ephm.', 'Ephraim', 'Ephraim Cole', 'Ephraim D.', 'Ephraim H.', 'Ephraim Holland', 'Ephraim P.', 'Ephraim jr.', 'Ephraine', 'Ephranin', 'Ephrem', 'Ephrim', 'Eppenetus', 'Eptnus', 'Eraastus', 'Erasmus', 'Erasthus', 'Erastus', 'Erastus H.', 'Erastus sr.', 'Eratus', 'Erb', 'Erie', 'Ernest', 'Ernestown', 'Eros', 'Errol Boyd', 'Erskine', 'Ervin', 'Esau', 'Esbon', 'Esekiel', 'Espey', 'Esra', 'Ester', 'Estha', 'Esther', 'Esther Borden', 'Etham', 'Ethan', 'Ethel', 'Ethemar', 'Ethen', 'Etien', 'Etienne', 'Etina', 'Ettinne', 'Eualic', 'Eugene', 'Eugenia', 'Eugin', 'Eunice', 'Eunice jr.', 'Eunis', 'Euphemia', 'Euphemie', 'Euphenia', 'Euphremia', 'Eurah', 'Euraney', 'Eus_be', 'Eusebe', 'Eustach', 'Eustache', 'Euterpe', 'Eva', 'Evah', 'Evan', 'Evan &amp; othes', 'Evander', 'Evariste', 'Eve', 'Eve Mahilda', 'Even', 'Evened', 'Everard', 'Everhart', 'Everhurt', 'Evert', 'Evert Jr.', 'Eves', 'Evets', 'Evey', 'Ewan', 'Ewen', 'Ewin', 'Experane', 'Experience', 'Ez.', 'Ezaril', 'Ezeblend', 'Ezechiel', 'Ezehel', 'Ezekial', 'Ezekiel', 'Ezekiel Jr.', 'Ezekiel jr.', 'Ezekiel junior', 'Ezkial', 'Ezra', 'Ezra &amp; co.', 'Ezra &amp; others', 'Ezra A.', 'Ezra Carpenter', 'Ezra Jr.', 'Ezra S.', 'Ezrediah', 'Ezva', 'Ezwekiel', 'F.', 'F. A. B.', 'F. D.', 'F. L.', 'F. M. Pocott~', 'F. T.', 'F.A.', 'F.A.R.', 'F.B.', 'F.B. &amp; others', 'F.H.', 'F.L.', 'F.N.', 'F.S.', 'F.T.', 'F.W.', 'F.X.', 'Faney', 'Fanney', 'Fanny', 'Fany', 'Fargus', 'Farqhar', 'Farquahar', 'Farquaher', 'Farquhar', 'Farquhar Jr.', 'Farral', 'Farrell', 'Farrington', 'Farrington Jr.', 'Federick', 'Felice', 'Felix', 'Felix A.', 'Felix Jr.', 'Feliz', 'Fellicit~', 'Felter', 'Fenance', 'Fenten', 'Fenton', 'Ferdinand', 'Ferdinand William', 'Fergus', 'Fernis', 'Ferquar', 'Filer', 'Finaly', 'Findlay', 'Finlay', 'Finley', 'Finnan', 'Finnen', 'Finnety', 'Firbank', 'Firmin', 'Fisher', 'Flara', 'Floarey', 'Flora', 'Flora Ann', 'Flora Helen', 'Florence', 'Florington &amp; others', 'Flory', 'Flory (MacKENZIE)', 'Floulla', 'Fontenay', 'Fontinay', 'Forbes', 'Forest', 'Forsyth', 'Fortier', 'Foster', 'Foster 2nd', 'Fraancis', 'Fracis', 'Fradrick', 'Fralick', 'Fran_ois', 'Fran_ois &amp; others', 'Fran_ois De Sales', 'Fran_ois Labont~', 'Fran_ois Verneuil', 'Fran_ois Xavier', 'France', 'Frances', 'Frances &amp; others', 'Frances (Mrs.)', 'Frances Anne', 'Frances B.', 'Frances James', 'Frances Matilda', 'Francis', 'Francis  &amp; others', 'Francis &amp; others', 'Francis A.', 'Francis Andrew', 'Francis B.', 'Francis Brockell', 'Francis Chevalier', 'Francis Elizabeth', 'Francis G.', 'Francis Gore', 'Francis Gore &amp; inhabitants of Colochester', 'Francis H.', 'Francis Henry', 'Francis Jarvis', 'Francis Johnson', 'Francis Jonathan', 'Francis Joseph', 'Francis Jr.', 'Francis K.', 'Francis Kirkham', 'Francis L.', 'Francis Legh', 'Francis Leigh', 'Francis S.', 'Francis Sr.', 'Francis Syrinius', 'Francis T.', 'Francis Tito', 'Francis W.', 'Francis W.K.', 'Francis Walsh', 'Francis Willoughby and Associates', 'Francis X.', 'Francis Xavier', 'Francis jr.', 'Francis sr.', 'Francis/Fran_ois', 'Francois', 'Francois Jean', "Francois d'Assise", 'Francrois', 'Franey', 'Frank', 'Franklin', 'Frantois', 'Frantz', 'Fras. R.', 'Fraser', 'Freadrick (Fredric)', 'Fred', 'Fred A.', 'Fred Augustus', 'Fred K.', 'Fred W.', 'Fred.', 'Fred. A.', 'Fred. H.', 'Frederic', 'Frederica', 'Frederich', 'Frederick', 'Frederick  William', 'Frederick &amp; others', 'Frederick A.', 'Frederick Augustus', 'Frederick C.', 'Frederick H.', 'Frederick Jr.', 'Frederick L.', 'Frederick Lewis', 'Frederick P.', 'Frederick Sr.', 'Frederick Starr', 'Frederick Thomas', 'Frederick Ulerich Emylius', 'Frederick William', 'Frederick/Ferdinand', 'Fredrick', 'Freeborn', 'Freedom', 'Freelove', 'Freeman', 'Freeman J.', 'Freeman S.', 'Frend', 'Friend', 'Fripon', 'Froome', 'Frs.', 'F~lix', 'G.', 'G. A.', 'G. Adam', 'G. B.', 'G. Bryon', 'G. C.', 'G. Colden', 'G. D.', 'G. H.', 'G. M.', 'G. R.', 'G. S.', 'G. W.', 'G. and others', 'G.A.', 'G.B.', 'G.H.', 'G.L.', 'G.O.', 'G.P.', 'G.S.', 'G.S.J.', 'G.W', 'G.W.', 'GEorge', 'Gabriel', 'Gabriel &amp; others', 'Gabriel and others', 'Gad', 'Gains', 'Gaius', 'Galbraith J.', 'Gamaliel', 'Gameliel', 'Gardner', 'Garet', 'Garett', 'Garnet', 'Garratt', 'Garret', 'Garrett', 'Garrette', 'Garsham C.', 'Garsion', 'Garton', 'Garvise', 'Gasford T.', 'Gason', 'Gaspar', 'Gaspard', 'Gasper', 'Gasper A.', 'Gaspert', 'Gate Smith', 'Gavin', 'Gedeon jr.', 'Gene', 'General', 'Genet', 'Genievive', 'Gennet', 'Geo. Mellis &amp; others', 'Geo. W.', 'Geoge', 'Georege', 'George', 'George &amp; 43 associates', 'George &amp; Associates', 'George &amp; Brothers', 'George &amp; Family', 'George &amp; opthers', 'George &amp; others', 'George &amp; sons', 'George (heir of)', 'George A.', 'George Adair', 'George Adam', 'George Alexander', 'George Alonzo', 'George Archibald', 'George Arundel', 'George Augustus', 'George B.', 'George B. &amp; others', 'George Barker', 'George Benson', 'George Blair', 'George Brydges Rodney', 'George Byron', 'George C.', 'George Chancey', 'George Chester', 'George D.', 'George Duncan', 'George E.', 'George Earl', 'George Edward', 'George F.', 'George F. H.', 'George Frederick', 'George Frederick Henning', 'George G.', 'George Gillespie', 'George Goldie', 'George H.', 'George H. &amp; others', 'George Hamilton', 'George Henry', 'George Hicks', 'George Hume', 'George Isaac', 'George J.', 'George Jacob', 'George James', 'George James Sr.', 'George Jehosophat', 'George Jervis', 'George John', 'George Jr.', 'George J~r~mie', 'George K.', 'George Kinzie', 'George L.', 'George Leonard', 'George Lewis', 'George M.', 'George Martin', 'George Meville', 'George Miler', 'George Miller', 'George Molyneaux', 'George Moore', 'George Morss', 'George Moss', 'George N.', 'George Nelson', 'George Neville', 'George Noble', "George O'Kill", 'George O.', 'George O. Archdeacon of York', 'George Okill', 'George P.', 'George Percival', 'George R.', 'George R.F.', 'George Richard', 'George S.', 'George S. McCann', 'George Sackville', 'George Scott', 'George Sr.', 'George Stephen', 'George Strange', 'George Sylvester', 'George T.', 'George Taylor', 'George Thomas Frederick', 'George W.', 'George Wade', 'George Walden', 'George Washington', 'George Wells', 'George William', 'George Williams', 'George and others', 'George jr.', 'George junior', 'George sr.', 'Georger H.', 'Georges', 'Georges Benson', 'Gerald', 'Gerald J.', 'Gerard', 'Gerard J.', 'Gerhard', 'Gerial', 'Germain', 'German', 'Geroge', 'Gerrard', 'Gerrit', 'Gerrod', 'Gersham', 'Gershom', 'Gershon W.', 'Gertrude', 'Gertude', 'Getta', 'Getty', 'Gibson', 'Gideon', 'Gideon &amp; others', 'Gideon Grant', 'Gideon sr.', 'Gidian', 'Gieszler', 'Gieter', 'Gilbert', 'Gilbert C.', 'Gilbert Curtis', 'Gilbert Dorland', 'Gilbert Jr.', 'Gilbert Sr.', 'Gilbert jr.', 'Gilbone', 'Gilead', 'Giles', 'Gilles', 'Gilliam', 'Gillis', 'Gilman', 'Girsham', 'Gitty', 'Glebe', 'Glorana', 'Glorianna', 'Gloud', 'Goalob', 'Goddard', 'Godfray', 'Godfreath George', 'Godfred', 'Godfrey', 'Godfrey John', 'Godfroy', 'Godfry', 'Godlip', 'Goerge', 'Goran', 'Gordon', 'Gordon D.', 'Gorge', 'Gorsham', 'Gotlieb', 'Gottfred', 'Gottiel', 'Gottlieb', 'Gottliel', 'Gottlob', 'Grace', 'Gracy', 'Gradius', 'Graham', 'Grant', 'Grase Garner', 'Graville', 'Gray', 'Greal', 'Green', 'Greenwell', 'Gregor', 'Gregory', 'Grey Lewis', 'Griffen', 'Griffith', 'Grimes', 'Grimsby', 'Grissill', "Grotais D'Odet", 'Gr~goire', 'Guillaume', 'Guilliaume', 'Guisbert', 'Guisbert Roger', 'Gurley', 'Gustavus', 'Gustavus Dickinson', 'Guy', 'Guy C.', 'Guy Carleton', 'Guy Charleton', 'Guy H.', 'Guysbert', 'Gwen', 'Gwenith', 'H.', 'H. &amp; others', 'H. H.', 'H. J.', 'H. John', 'H. L.', 'H. N.', 'H. P.', 'H. W.', 'H.D.', 'H.H.', 'H.I.', 'H.</t>
         </is>
@@ -718,18 +747,26 @@
       <c r="P5" t="n">
         <v>2786</v>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>n.d.</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1819</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
         <v>325848</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>183</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>['17,901,792', '1763', '1764', '1775', '1777', '1783', '1784', '1785', '1785-1791', '1786', '1787', '1787, 1788, 1790', '1787-88', '1788', '1788, 1794', '1788-1789', '1788-89', '1789', '1789, 1790', '1789, 1792, 1793', '1789, 1794', '1789-1790', '1789-1791', '1790', '1790, 1792', '1790-1791', '1790-1792', '1791', '1791, 1793', '1791-1792', '1791-1793', '1792', '1792, 1789', '1792-1796', '1793', '1794', '1794-1795', '1795', '1796', '1796-1798', '1797', '17971797', '1798', '1799', '18,091,815', '1800', '1801', '1802', '1803', '1804', '1805', '1806', '1807', '1808', '1809', '1810', '1810, 1820, 1821', '1810, 1822', '1810-1832', '1811', '1812', '1812, 1816', '1813', '1814', '1815', '1815-1818', '1816', '1817', '1818', '1818, 1820', '1819', '1819, 1820', '1819, 1821', '1819, 1821, 1822', '1819, 1821, 1823', '1819, 1822', '1819, 1825', '1819, 1825, 1839', '1819, 1827', '1819, 1829', '181?', '1820', '1820, 1821', '1820, 1821, 1822', '1820, 1821, 1822, 1826', '1820, 1822', '1820, 1822, 1825', '1820, 1822, 1827', '1820, 1822, 1828', '1820, 1822, 1830', '1820, 1822, 1832', '1820, 1822, 1839', '1820, 1823', '1820, 1825', '1820, 1831', '1820-1832', '1821', '1821, 1822', '1821, 1822, 1825', '1821, 1822, 1826', '1821, 1823', '1821, 1825', '1821, 1828', '1822', '1822, 1823', '1822, 1825', '1822, 1828', '1823', '1823, 1829', '1823, 1839', '1824', '1824, 1825', '1824, 1826', '1824, 1829', '1825', '1825, 1826', '1825, 1826, 1830', '1825, 1828', '1825, 1829', '1825, 1830', '1825-1842', '18253', '1826', '1826, 1828', '1826, 1830', '1827', '1828', '1829', '1829-1841, 1843-1844', '1829-1845', '183', '1830', '1831', '1832', '1832-1847', '1833', '1834', '18347', '1835', '1836', '1837', '1838', '1838 (1842)', '1839', '1839, 1843', '1839-1847', '184', '1840', '1841', '1842', '1843', '1844', '1844-1845', '1845', '1846', '1847', '1847-1848', '1848', '1849', '185', '1850', '1850, 1852', '1851', '1852', '1853', '1854', '1855', '1856', '1857', '1858', '1858, 1859', '18587', '1859', '1860', '1861', '1862', '1863', '1864', '1865', '1866', '1867', '2784', 'n.d.']</t>
         </is>
@@ -788,18 +825,22 @@
       <c r="P6" t="n">
         <v>8812</v>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>york</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>661696</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>3740</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>['10th Township', '10th township (Richmond)', '10th township (Richmond), 7th township (Ameliasbur', '15 Mile Creek', '2 Islands opposite Burleigh &amp; Harvey', '20 Mile Creek', '4 Mile Creek', '5th township (Marysburgh)', '6th township (Sophiasburg)', '7th Township', '7th Township, Augusta', '7th Township/Kingston', '7th township Ameliasburg', '8810', '8th Township (Sidney)', '8th Township/Kingston', '8th township (Sidney)', '9th Township', 'Abbotsford Township', 'Abercrombie', 'Acton', 'Acton, Grantham and Warwick', 'Addington', 'Addington County', 'Addington and Frontenac', 'Adelaide', 'Adelaide &amp; Warwick', 'Adelaide Township', 'Adelaide or Brocks', 'Adjala', 'Adjala &amp; Albion', 'Adjala (Mono)', 'Adjala Township', 'Admaston', 'Adolphustown', 'Adolphustown &amp; Ernestown', 'Adolphustown &amp; Marysburg', 'Adolphustown (Sophiasburgh)', 'Adolphustown (Thurlow)', 'Adolphustown - Sophiasburg', 'Adolphustown Township', 'Adolphustown, Sophiasburg', 'Adolphustown/Ameliasburgh', 'Adolphustown/Haldimand', 'Albany', 'Alberte', 'Albertville', 'Albion', 'Albion (Caledon)', 'Albion Township', 'Albion/Malahide', 'Aldborough', 'Aldborough &amp; Oxford', 'Aldborough Township', 'Alexander, Kingston', 'Alexandria', 'Alexandria Township', 'Alfred', 'Alfred Township', 'Alfred and Gloucester', 'Alfred and Plantaganet', 'Alfred or Caledonia', 'Alfred, Gloucester, Brantford', 'Alice', 'Allen', 'Allumette Islands', 'Alma', 'Alnwick', 'Alnwick (Huntley)', 'Alnwick (Mills)', 'Alnwick Township', 'Alnwick, Nepean and Flamborough East', 'Alnwick/Adolphustown', 'Alton', 'Amaranth', 'Amaranth Township', 'Amaranth and Collingwood', 'Ameaanth', 'Amelia Island', 'Ameliasburgh', 'Ameliasburgh &amp; Murray', 'Ameliasburgh &amp; Scarborough &amp; Townsend', 'Ameliasburgh (7th township)', 'Ameliasburgh (Gramahe)', 'Ameliasburgh (Whitby)', 'Ameliasburgh Township', 'Ameliasburgh, Hallowell &amp; Sydney', 'Ameliasburgh, Murray and Hope', 'America', 'Amherst', 'Amherst Island', 'Amherstburg', 'Amherstburg (Chatham)', 'Amherstburg (Colchester)', 'Amherstburg (Malden)', 'Amherstburg (Missing)', 'Amherstburg (town)', 'Amherstburgh', 'Amherstburgh (town)', 'Amherstburgh Township', 'Amherstsburgh Township', 'Amhertsburg', 'Ancaster', 'Ancaster &amp; Delaware', 'Ancaster &amp; Flamborough', 'Ancaster Township', 'Ancaster and Grantham', 'Anderdon', 'Anglesea Township', 'Anse des M_res', "Ansley's Point", 'Antilda', 'Aramosa', 'Area between Edwardsburgh and Oxford', 'Area between Hallowell and Sophiasburgh Tps.', 'Area between Niagara and Fort George', 'Argenteuil', 'Armagh', 'Arnagh', 'Arran', 'Artemesia', 'Arthabaska', 'Arthabaska/Dawn', 'Arthur', 'Arundel', 'Ascot', 'Ashburton', 'Ashfield', 'Ashfield Township', 'Ashford', 'Asphodel', 'Asphodel Township', 'Asphodel township', 'Asphodel/Sarnia', 'Aston', 'Aston, Becancour', 'Athol', 'Atta Township', 'Aubigny', 'Augusta', 'Augusta &amp; Elizabethtown', 'Augusta (Kitley)', 'Augusta (Wolford, Burgess)', 'Augusta Township', 'Augusta and Elizabethtown', 'Augusta, E. D.', 'Augusta, Elizabethtown', 'Aylmer', 'Aylmer (Wilberforce &amp; Grantham)', 'Aylmer/Onslow', 'Aylwin', 'Ayton', 'Ayton Mill Property', 'Back of Cobourg Township', 'Bagot', 'Bagot Co. of Chicoutimi', 'Bagotville', 'Baie St.Paul', 'Baie St.Paul, St.Urbain', 'Bainham', 'Baldoon', 'Ball Town', 'Balsam Lake', 'Balsam Lake, Smith Township', "Banal Grist Mill (l'Ancienne Lorette)", 'Banks of the Niagara River', 'Banks of the River Niagara', 'Barford', 'Barnston', 'Barnston instead of Compton', 'Barrack at London', 'Barrie', 'Barrie (town)', 'Barrie Township', 'Barrie/Kempenfeldt', 'Barrifield', 'Barton', 'Barton &amp; Saltfleet', 'Barton (Dover)', 'Barton (River Thames)', 'Barton (Saltfleet)', 'Barton (Townshend)', 'Barton Township', 'Barton and Saltfleet', 'Bartonville', 'Bass Lake Township', 'Bastard', 'Bastard (Crosby)', 'Bastard (Edwardsburgh)', 'Bastard Township', 'Bastard and Burgess Township', 'Bastard and Elizabethtown', 'Bastard or Kitley', 'Bastard, Elizabethtown &amp; Burgess', 'Bath', 'Bath (Marysburgh)', 'Bath (Pittsburgh)', 'Bathurst', 'Bathurst &amp; Dalhousie', 'Bathurst &amp; South Sherbrooke', 'Bathurst (Beckwith)', 'Bathurst (Horton)Drummond)', 'Bathurst - Clergy Reserve', 'Bathurst District', 'Bathurst Township', 'Bathurst and Augusta', 'Bathurst and Bastard', 'Bathurst and Drummond', 'Bathurst and Elmsley', 'Bathurst and Kitley', 'Bathurst and Lansdowne', 'Bathurst and Leeds', 'Bathurst and Montague', 'Bathurst and North Gower', 'Bathurst and Oxford', 'Bathurst and Packenham', 'Bathurst and Sherbrooke', 'Bathurst and Yonge', 'Bathurst and Yonge Escott', 'Bathurst, Beckwith and Bastard', 'Bathurst, Beckwith and Burgess', 'Bathurst, Beckwith and Oxford', 'Bathurst, Beckwith, Kitley &amp; Drummond', 'Bathurst, Drummond &amp; South Sherbrooke', 'Bathurst, Elmsley, Leeds, Drummond', 'Bathurst, Leeds, Beckwith and Drummond', 'Bathurst, Montague and Lansdowne', 'Bathurst, Yonge and Drummond', 'Bathurst/Drummond', 'Batiscan', 'Batiscan (Report on Banal Mill of Forges of)', 'Baughan (York)', 'Bay Kent', 'Bay Shore (York)', 'Bay of Kanty', 'Bay of Long Point', 'Bay of Quinte', 'Bay of Quinte (Ameliasburgh)', 'Bay of Quinte (Belleville)', 'Bay of Quinte between York and Lake Simcoe', 'Bay of Quint~', 'Bay of Quint~ Township', 'Bay of Toronto', 'Bay on Ottawa River', 'Bayfield/Grey', 'Bayham', 'Bayham (Charlotteville)', 'Bayham Township', 'Bayham, Richmond', 'Beach', 'Beach Lot at Quebec', 'Beachville', 'Beaford', 'Beardsley B.C.', 'Bears Island', 'Beauharnois', 'Beauport', 'Beckwith', 'Beckwith (Montague)', 'Beckwith Township', 'Beckwith/Ramsay', 'Bedford', 'Bedford Township', 'Bell River', 'Belle Rivi_re', 'Belleville', 'Belleville (Hinchinbrooke)', 'Belleville (Lake)', 'Belleville (Moira River)', 'Belleville (Thurlow)', 'Belleville (town)', 'Belleville Town', 'Belleville Township', 'Belleville and Thurlow', 'Belleville/Sheffield', 'Belleville/Thurlow', 'Belmont', 'Belmont (Smith)', 'Below Quebec South of St. Lawrence', 'Bentinck', 'Berbia', 'Berlin', 'Bertie', 'Bertie (Fort Erie)', 'Bertie (Yonge Street or Markham)', 'Bertie Niagara', 'Bertie Township', 'Bertie and Humberstone', 'Beseamits River', 'Between Hallowell &amp; Sophiasburg', 'Between Hallowell &amp; Sophiasburgh Townships', 'Between Hallowell and Sophiasburgh Townships', 'Between Humberstone and Cleveland Townships', 'Between Kempenfeldt and Penetanguishene Bays', 'Between Kingston and Ernesttown Townships', 'Between Lake Ontario &amp; Bay of Quinte', 'Between Lake Ontario &amp; Lake Erie', 'Between Matilda &amp; Williamsburg', 'Between Murray &amp; Sidney', 'Between Pittsburgh and Leeds', 'Between Simco Square &amp; Russel Place', 'Beveley', 'Beverley', 'Beverly', 'Beverly &amp; Flamborough', 'Beverly Township', 'Bexley', 'Bexley/Eldon', 'Big Bay', 'Big Island', 'Big Island, Lake St. Francis', 'Big Island, Sophiasburgh Township', 'Binbrook', 'Binbrook Township', 'Binbrooke Township', 'Biorhulle', 'Black Creek', 'Black River', 'Blanchard', 'Blandford', 'Blandford (Church of England)', 'Blandford Township', 'Blandford, Wilmot, Carradoc, Ekfrid Townships', 'Blanford Township', 'Blenheim', 'Blenheim Township', 'Blenheim and Stamford', 'Blenheim, Burford, Glanford, Whitby', 'Blue Lake', 'Blythfield', 'Bois Blanc Island', 'Boles (Niagara Dist.)', 'Bolton', 'Bondesin', 'Bonnechere River', 'Bonte', 'Borton', 'Bosa', 'Bosanquet and Williams', 'Brandon', 'Brant', 'Brantford', 'Brantford (Barton)', 'Brantford (Dumfreese)', 'Brantford (Sullivan &amp; Arthur)', 'Brantford (village)', 'Brantford Township', 'Brantford, Cayuga', 'Brighton', 'Bristol', 'Bristol &amp; Durham', 'Brock', 'Brock (Thora)', 'Brock Township', 'Brock, Card, Etham, Whitby', 'Brock, London, Talbot', 'Brockville', 'Brockville (Collingwood)', 'Brockville (Elizabethtown)', 'Brockville (Goulbourn)', 'Brockville (Louth)', 'Brockville (Perth)', 'Brockville District', 'Brockville Township', 'Brockville, Elizabethtown, Bastard, Dummond &amp; Burgeas', 'Brockville/Packenham', 'Brome', 'Bromley', 'Bronte', 'Brooke', 'Brooke Township', 'Brooks Township', 'Broughman', 'Broughton', 'Bruce', 'Bruce, Waterloo', 'Brudenell', 'Buckingham', 'Buckingham/Lochaber', 'Buckland', 'Bulstrode', 'Bundas', 'Burbrook', 'Burford', 'Burford &amp; Oxford', 'Burford Township', 'Burgess', 'Burgess Township', 'Burgess and Bathurst', 'Burgess and Drummond', 'Burgess and Elmsley', 'Burgess and Lansdowne', 'Burgess and North Gower', 'Burgess and Pickering Townships', 'Burgess and Yonge', 'Burgess, Beckwith, Montague &amp; Marlborough', 'Burgess, Leeds &amp; Elmsley', 'Burgess, Leeds, Bathurst &amp; Elmsley', 'Burgess, Montague &amp; Marlborough', 'Burleigh', 'Burlington', 'Burlington Bay', 'Burlington Bay Canal', 'Burlington Bay Township', 'Burlington Beach', 'Burlington Canal', 'Burlington Heights (near)', 'Burlington Heights Township', 'Bursar', 'Bury', 'Buxford', 'Bytown', 'Bytown (Gloucester)', 'Bytown (Lanark)', 'Bytown (Ross)', 'Bytown Township', 'Bytown and Madawaska Territory', 'Bytown area', 'C_teau du lac', 'Cacouna (Whitworth)', 'Caistor', 'Caistor (Binbrook)', 'Caistor (Niagara)', 'Caistor Township', 'Caistor/Grimsby', 'Caledon', 'Caledon (St Vincent)', 'Caledon (York)', 'Caledon Township', 'Caledonia', 'Caledonia Township', 'Caledonia, Indiana, Tuscarora', 'Calli_re and Saguenay', 'Calumet', 'Calumet Island', 'Camborough', 'Camborough (Cayuga)', 'Cambridge', 'Cambridge (Land adjoining Nepean Tp.)', 'Camden', 'Camden (Hamilton)', 'Camden East', 'Camden Township', 'Camden West', 'Camden and Portland Townships', 'Camden, Ernestown', 'Cameron', 'Canada East', 'Canada West', 'Canal Reserve', 'Canborough', 'Canborough Road', 'Canborough and Rainham Townships', 'Canborough and Rainham Townships.', 'Canburry/Caistor', 'Canonto', 'Cap Chat', 'Cap Dimond', 'Cap Maisonville', 'Cap Rouge', 'Cap Rouge (Toronto)', 'Cap Rouge River', 'Cap de la Magdelaine', 'Cap de la Magdeleine', 'Cap de la Magdeline', 'Cape Mosey', 'Cape Rosier', 'Carafraxa', 'Carleton', 'Carleton &amp; Lanark', 'Carleton Island', 'Carleton Place', 'Carradoc', 'Carradoc &amp; Harwick', 'Carradoc Township', 'Carrafraxa', 'Carrick', 'Carrillon', 'Carrodoc Township', 'Carrying Place', 'Cartwright', 'Cartwright Township', 'Carunna/Lambton', 'Cataraqui', 'Cataraqui River', 'Cattaracane', 'Cavan', 'Cavan (Hamilton)', 'Cavan (Mariposa)', 'Cavan Township', 'Cavan and Monaghan', 'Cavan and Monaghan Townships', 'Caxton', 'Cayuga', 'Cayuga Township', 'Cayuga Village', 'Cayuga and Dunn', 'Cayuga village', 'Chambly', 'Charendon', 'Charles (Jesuits Estates)', 'Charlesbourg', 'Charlesbourg Mill', 'Charlottenburg', 'Charlottenburg &amp; Walsingham', 'Charlottenburg (Cornwall)', 'Charlottenburg (Fitzroy)', 'Charlottenburg (Kenyon)', 'Charlottenburg (Lancaster now Lochiel)', 'Charlottenburg (Lancaster)', 'Charlottenburg (Nottawasaga)', 'Charlottenburg (Percy)', 'Charlottenburg (River aux Raisins)', 'Charlottenburg (Sydenham)', 'Charlottenburg, Lancaster', 'Charlottenburg, Riv. Raisin, Hawkesbury', 'Charlottenburgh Township', 'Charlottensburg', 'Charlottetown', 'Charlotteville', 'Charlotteville &amp; Woodhouse', 'Charlotteville (Woodhouse)', 'Charlotteville Township', 'Charlotteville and Middleton', 'Charlottveille', 'Chartlotteville', 'Chatham', 'Chatham &amp; Grenville', 'Chatham &amp; Horwick', 'Chatham (Dawn)', 'Chatham (Harwick)', 'Chatham (town)', 'Chatham Township', 'Chatham and Dover', 'Chatham and Dover Townships', 'Chatham/Raleigh', 'Chelsea, Montreal', 'Chenail ?cart~', 'Cherbourg', 'Chertsey', 'Chester', 'Chicoutimi', 'Chinguacousey', 'Chinguacousy', 'Chinguacousy Township', 'Chinguasousy', 'Chinguscousy', 'Chinquacoucy Township', 'Chinquacousy Township', 'Chippawa', 'Chippawa Creek', 'Chippawa River', 'Chippawa and Pickering', 'Chippewa &amp; Fort Erie', 'Chippewa Township', 'Christina', 'City of Hamilton (Ernestown)', 'City of Hamilton (Saltfleet)', 'City of Kingston (Hinchinbrooke)', 'City of Montreal', 'City of Montreal (Amherstburg)', 'City of Montreal (Cornwall)', 'City of Montreal (Grantham)', 'City of Montreal (Scarborough)', 'City of Quebec', 'City of Quebec (Belleville)', 'City of Toronto', 'City of Toronto (Eldon)', 'Clandford', 'Clanford', 'Claremont, N.H.', 'Clarence', 'Clarence &amp; Plantagenet', 'Clarence Township', "Clarence's Cumberland", 'Clarendon', 'Clarendon District', 'Clark Township', 'Clarke', 'Clarke Township', 'Clarke and Darlington', 'Clarkesville', 'Clarkville', 'Clavarick', 'Clergy Reserves', 'Cleveland', 'Clifton', 'Clinton', 'Clinton (Burlington Bay)', 'Clinton (Grimsby)', 'Clinton (Nassau)', 'Clinton Township', 'Clinton/Forty Mile Pond', 'Cobourg', 'Cobourg (Hamilton township)', 'Cobourg (Hamilton)', 'Cobourg Island', 'Cobourg Township', 'Cockburn Island', 'Cockburn Island, Village of Perth', 'Cockburn Islands', 'Colbert &amp; Rocquemont', 'Colborne', 'Colbourgh', 'Colchester', 'Colchester &amp; Gosfield', 'Colchester &amp; Malden', 'Colchester Township', 'Colchester, Gosfield', 'Coldsprings', 'Coldwater', 'Coleranie', 'Collingwood', 'Collingwood (Sunnidale)', 'Collingwood Township', 'Collingwood/Niagara', 'Compton', 'Conatoloat', 'Cooksbille', 'Cootes Paradise', 'Cornwall', 'Cornwall &amp; Roxborough', 'Cornwall (Edwardsburgh)', 'Cornwall (Gloucester)', 'Cornwall (Montague)', 'Cornwall (Montague, Cambridge)', 'Cornwall (Roxborough)', 'Cornwall (eastern District)', 'Cornwall Township', 'Cornwall and Osnabruck', 'Cornwall, Charlottenburgh', 'Cornwall, Eastern District', 'Cornwall, Eastern District)', 'Corrunna', 'Corunna', 'Coteau du Lac', 'Coteau du lac', 'Coulonge Lake', 'Coulonge Lake (Westmeath)', 'Coulton', 'Counties of Sherbrooke, Stanstead &amp; Drummond', 'County of Carleton', 'County of Grenville', 'Cow Island', 'Cowan', 'Cowansville, Dunham', 'Cox', 'Cox, Paspebiac, Gasp~', 'Cramahe', 'Cramahe &amp; Percy', 'Cramahe Township', 'Cramahe and Murray', 'Cramahe, Rawdon', 'Cramahe/Murray', 'Cranbourne', 'Cranstoun', 'Credit', 'Credit Reserve', 'Credit River', 'Credit River, Toronto Township', 'Cro', 'Crobsy Township', 'Crombie', 'Crosby', 'Crosby North', 'Crowland', 'Crowland Township', 'Crowland or Wainfleet', 'Crowland, Humberstone', 'Cumberland', 'Cumberland Township', "D'Aubigny", "D'aubigny", 'Daillebout', 'Dalbousie', 'Dalhousie', 'Dalhousie (Lanark)', 'Dalhousie (Sarnia)', 'Dalhousie (Warwick)', 'Dalhousie District', 'Dalhousie Township', 'Dalhousie, Lanark and Ramsay Townships', 'Dalhousie, Lanark, Sherbrook, Ramsay, Darling', 'Dalhousie, North Sherbrooke', 'Dammer', 'Darling', 'Darling (Lanarck)', 'Darling Township', 'Darlington', 'Darlington (Mongan)', 'Darlington (Monghan)', 'Darlington Township', 'Darlington and Grantham', 'Darlington, Glebe', 'Dawn', 'Dawn Mills', 'Dawn Township', 'Dayton', 'De L~ry', 'Deerham', 'Delaware', 'Delaware (River La Tranche)', 'Delaware Township', 'Delaware Village', 'Delmont', 'Denonville', 'Derby', 'Dereham', 'Dereham Township', 'Deronto', 'Derry, Lothbery, Villeneuve, Bownan', 'Des Envies (Bastican seigniory)', 'Detroit', 'Detroit (Bois Franc.)', 'Detroit (Dist. Of Hesse)', 'Detroit (R. la Tranche)', 'Detroit (River Thames)', 'Detroit (Sandwich)', 'Detroit (Western Detriot)', 'Detroit River', 'Detroit River &amp; Lake Erie', 'Detroit River and Lake Erie', 'Detroit River/Point a la Peche', 'Detroit/Hesse', 'Detroit/Lake Erie', 'District of Bathurst', 'District of Hesse', 'District of Johnstown', 'District of Lunemburg', 'District of Lunenburgh', 'District of Mecklenburg', 'District of Mecklenburgh', 'District of Micklenburgh', 'District of Montreal', 'District of Newcastle', 'Ditton', 'Don River', 'Donwich', 'Dorchester', 'Dorchester (Houghton)', 'Dorchester South', 'Dorchester Township', 'Dorset', 'Douglastown', 'Douro', 'Douro Township', 'Douro, Dummer and Smith Townships', 'Douro, Monaghan and Peterborough', 'Dover', 'Dover &amp; Chatham', 'Dover (East)', 'Dover East', 'Dover Township', 'Dover and Chatham', 'Down Township', 'Drummer', 'Drummond', 'Drummond &amp; Others', 'Drummond (Beckwith)', 'Drummond (Lanark)', 'Drummond (Pakenham)', 'Drummond Township', 'Drummond and Augusta', 'Drummond and Bastard', 'Drummond and Bathurst', 'Drummond and Beckwith', 'Drummond and Elmsley', 'Drummond and Kitley', 'Drummond and Lansdowne', 'Drummond and Leeds', 'Drummond and Montague', 'Drummond and Oxford', 'Drummond and Wolford', 'Drummond and Yonge', 'Drummond ans Lansdowne', 'Drummond, Bastard and Packenham', 'Drummond, Bastard, Elizabethtown &amp; Burgess', 'Drummond, Bathurst &amp; Sherbrooke', 'Drummond, Bathurst, Elmsley and Edwardsburgh', 'Drummond, Beckwith &amp; Leeds', 'Drummond, Beckwith and Bastard', 'Drummond, Beckwith and Bathurst', 'Drummond, Beckwith and North Gower', 'Drummond, Beckwith and Sherbrooke', 'Drummond, Beckwith and Wolford', 'Drummond, Beckwith, Kitley and Wolford', 'Drummond, Burgess, North Gower, Lanark &amp; Ramsay', 'Drummond, Edwardsburgh, Kitley, Burgess, Elmsley', 'Drummond, Elmsley, Bastard, Burgess &amp; Sherbrooke', 'Drummond, Elmsley, Burgess, Edwardsburgh, Kitley', 'Drummond, Leeds &amp; Beckwith', 'Drummond, Oxford, Lansdowne &amp; Bathurst', 'Drummond, Wolford and Oxford', 'Drummondville', 'Druro', 'Drynoch', 'Dublin', 'Dublin, Edinburg &amp; Norwich', 'Duck Creek', 'Duguesne and Fleurian', 'Dumer', 'Dumfries', 'Dumfries Township', 'Dummer', 'Dummer &amp; Belmont', 'Dummer Township', 'Dumphries Township', 'Dumwich', 'Dundas', 'Dundas County', 'Dundas St./Credit', 'Dundas Street', 'Dundas Street (Blenheim)', 'Dundas county', 'Dundas street', 'Dundas street, Toronto', 'Dundee', 'Dunfries', 'Dunfries Township', 'Dunham', 'Dunlop Street, Barrie', 'Dunn', 'Dunn Township', 'Dunn, Cayuga', 'Dunn, Tyendinaga, Cayuga', 'Dunnville', 'Dunro', 'Dunwich', 'Dunwick Township', 'Durham', 'Durham &amp; Norwich', 'Durham &amp; Wendover', 'Durham and Melbourne', 'Durham, Dorchester', 'Durnham', 'Dutch Duck Islands', 'Eardley', 'Earnest Town', 'Earnestown', 'East &amp; West Flamborough', 'East Camden', 'East Dover', 'East Flamboro', 'East Flamboro Township', 'East Flamborough', 'East Gwilliamsbury', 'East Gwillimbury', 'East Gwillimbury (Rama)', 'East Gwillimbury Township', 'East Hawkesbury', 'East Hawkesbury Township', 'East Hurontario St.', 'East India Co.', 'East Loborough', 'East Loughborough', 'East Loughborow', 'East Nissouri', 'East Oxford', 'East Side of Lake Huron', 'East Side of Lake Simcoe', 'East Tilbury', 'East Tilbury (Talbot Settler)', 'East Tilbury, Talbot Road West', 'East and West Gwillimbury', 'East of Kingston (town)', 'East of Lake Huron', 'East of Penetanguishene Road', 'East of York', 'Eastern District', 'Eastern District &amp; Midland District', 'Eastern District (Elizabethtown)', 'Eastern District (Williamsburgh)', 'Eastern District (Wolford)', 'Eastern District (Yonge)', 'Eastern Hawkesbury', 'Eastern and Ottawa Districts', 'Eastern district', 'Eastern district (Granville)', 'Eatern Valley', 'Eaton', 'Echo Lake', 'Edinburgh', 'Edmonds Rapids', 'Edwardsburgh', 'Edwardsburgh (Cornwall)', 'Edwardsburgh (Matilda)', 'Edwardsburgh (Mountain)', 'Edwardsburgh (North Gower)', 'Edwardsburgh (Tay, Sunnidale)', 'Edwardsburgh Prescott', 'Edwardsburgh Township', 'Edwardsburgh, Elizabethtown &amp; Yonge', 'Edwardsburgh, Kitley, Burgess &amp; Elmsley', 'Edwardsburgh, Kitley, Burgess, Elmsley &amp; Drummond', 'Edwardsburgh, Mountain, South Gower and Oxford Townships', 'Edwardsburgh/Drummond', 'Eesex', 'Egremont', 'Egremont &amp; Normanby', 'Egremont Road', 'Eight Township', 'Eighth Township', 'Eilkenny', 'Ekfird', 'Ekford', 'Ekfred', 'Ekfrid', 'Ekfrid (Talbot Settler)', 'Ekfrid Township', 'Eky', 'Elden', 'Elden, Thorah', 'Eldon', 'Eldon Township', 'Eldon, Brock, Mariposa, Thorah', 'Eleventh Township', 'Elgin', 'Elizabethtown', 'Elizabethtown &amp; Augusta', 'Elizabethtown &amp; Yonge', 'Elizabethtown (8th Tp.)', 'Elizabethtown (Brockville)', 'Elizabethtown (Wolford)', 'Elizabethtown (Yonge)', 'Elizabethtown Township', 'Elizabethtown and Yonge', 'Elizabethtown and Younge', 'Elizabethtown, Augusta', 'Elk Island', 'Elkfrid Township', 'Elly', 'Elma', 'Elmsley', 'Elmsley (Horton)', 'Elmsley (Kitley)', 'Elmsley North', 'Elmsley Township', 'Elmsley and Bathurst', 'Elmsley and Drummond', 'Elmsley and Edwardsburgh', 'Elmsley and Elizabethtown', 'Elmsley and Kitley', 'Elmsley and Leeds', 'Elmsley and Wolford', 'Elmsley, Bastard and Burgess', 'Elmsley, Bathurst, Drummond &amp; Sherbrooke', 'Elmsley, Beckwith and Drummond', 'Elmsley. Bathurst, Drummond and Beckwith', 'Elora, Marysboro and Peel and Kincardine', 'Ely', 'Elzevir Township', 'Elzevir, Hastings County', 'Elziver', 'Elziver near Madoc', 'Emery Lake', 'Emily', 'Emily (Caven)', 'Emily (Lindsay)', 'Emily Township', 'England', 'Ennisfil', 'Enniskillen', 'Enniskillen Township', 'Ennismore', 'Eramosa', 'Eramosa Township', 'Erin', 'Erin Township', 'Erindale', 'Erkfrid', 'Erkfrid Township', 'Ernestown', 'Ernestown &amp; others', 'Ernestown (Fredericksburgh)', 'Ernestown (King)', 'Ernestown (Kingston)', 'Ernestown (Mamora)', 'Ernestown (Marmora)', 'Ernestown (Murray)', 'Ernestown (Plympton)', 'Ernestown (Sydney)', 'Ernestown (Thurlow)', 'Ernestown Mills', 'Ernestown Township', 'Ernestown and Cramahe', 'Ernestown and Kingston', 'Ernestown, Nottawasaga', 'Ernestown/Enniskillen', 'Errol', 'Erroll', 'Escott', 'Escott, Yonge', 'Espra', 'Esquesing', 'Esquising', 'Esquissing Township', 'Essa', 'Essa Port', 'Essa Township', 'Essex', 'Essex &amp; Kent', 'Etchemin Mills', 'Etchemin Mills (Lauzon seigniory)', 'Etobicoke', 'Etobicoke (Adjala)', 'Etobicoke (Equesing)', 'Etobicoke (Toronto)', 'Etobicoke (York)', 'Etobicoke Township', 'Etobicoke and Toronto Tonwships', 'Eugenia', 'Euphemia', 'Euphrasia', 'Euphrasia &amp; Collingwood', 'Euphrasia Township', 'Euphrasia/Tilbury', 'Exeter', 'Fainsboro', 'Fairchild Creek, Haldimand', 'Falls Mills', 'False Ducks Island', 'Faraday &amp; Dungannon', 'Farmersville', 'Farnham', 'Farrington (Marysburgh)', 'Felham', 'Fenelon', 'Fenelon Falls', 'Fenelon Township', 'Ferrus', 'Ferry from Ameliasburg to River Moine and Sidney', 'Fidericksburg', 'Fief Coulonge', 'Fief Grosbois', 'Fief Ste.Claire', 'Fifteen Mile Creek', 'Fifth Township', 'Fighting Island', 'Finch', 'Finch Township', 'Finelon', 'First Township', 'Fittzburg', 'Fitzroy', 'Fitzroy Harbour', 'Fitzroy Township', 'Fitzroy and North Gower', 'Fitzroy or Pakenham', 'Flamboro', 'Flamboro East', 'Flamboro West', 'Flamboro/Cootes Paradise', 'Flamborough', 'Flamborough (York)', 'Flamborough East', 'Flamborough East &amp; West', 'Flamborough East (Southwold)', 'Flamborough East Township', 'Flamborough East and West', 'Flamborough Township', 'Flamborough West', 'Flamborough West (Cootes Paradise)', 'Flamborough West Township', 'Flos', 'Flos Township', 'Floss Township', 'Forbolton', 'Fordwick', 'Forsyth', 'Fort Erie', 'Fort Erie Rapids', 'Fort Erie Township', 'Fort Erie/Pickering', 'Fort George', 'Fort George (town)', 'Fort George Township', 'Fort Hope', 'Fort Malden', 'Fort Sarnia', 'Fort St.George, Niagara', 'Fort Talbot Road', 'Fort Wellington', 'Fort Wellington Township', 'Fort William', 'Fort du Detroit', 'Forty Mile Creek', 'Forty Miles Ponds', 'Four Mile Creek', 'Fourth &amp; Fifth Townships', 'Fourth Township', 'Frampton', 'Frand River', 'Franklin, Herscheil &amp; Watt', 'Franktown', 'Fredeicksburgh', 'Fredeicksburgh Township', 'Frederickburgh Township', 'Fredericksburg', 'Fredericksburg &amp; Adolphustown', 'Fredericksburg (Adolphustown)', 'Fredericksburg (Ameliasburgh)', 'Fredericksburg (Edwarsburgh)', 'Fredericksburg (Ernestown)', 'Fredericksburg (Haldimand)', 'Fredericksburg (Hamilton)', 'Fredericksburg (Hope)', 'Fredericksburg (Lake Erie)', 'Fredericksburg (Midland Dist)', 'Fredericksburg (Orillia)', 'Fredericksburg (Rambough)', 'Fredericksburg (Richmond)', 'Fredericksburg (Sophiasburg)', 'Fredericksburg Township', 'Fredericksburg, Rawdon, Seymour', 'Fredericksburgh', 'Fredericksburgh Township', 'Frederickstown', 'Frederisksburg', 'Fredrickburg', 'Frenchman Creik', 'Frontenac', 'Frontenac &amp; Addington', 'Frontenac, Lennox &amp; Addington', 'Frontenac, Lennox, Addington', 'Ftizroy', 'GRantham', 'Gainsborough', 'Gainsborough Township', 'Gainsburgh', 'Galt', 'Galt (Mornington)', 'Galway', 'Gananoque', 'Gananoque River', 'Gannanoque', 'Garafraxa', 'Garden Island', 'Garden Island (near Kingston)', 'Garrafraxa Township', 'Garthby', 'Garthby, Stratford, Winslow, Wotton, or Whitton (Wolfe &amp; Compton Counties)', 'Gasket Island', 'Gasp~', 'Gasp~ County', 'Gasp~, Port Daniel', 'Gasp~, Port-Daniel', 'Gatineau', 'Gatineau &amp; La P--che', 'Gatineau (timber berths)', 'Gatineau River', 'Gayuga', 'Gedford', 'Genabruck', 'Genanoque', 'Geneburgh', 'Georgina', 'Georgina Township', "Gibson's Point, Hallowell Township", 'Gilbury', 'Gillinbury', 'Gilloughby', 'Gimsby', 'Glanford', 'Glanford Township', 'Glasgow', 'Glebe', 'Glebes, Belleville &amp; Thurlow', 'Glenelg', 'Glenelg and Bentinck', 'Glenelg, Bentinck, Holland, Sullivan', 'Glenford', 'Glengarry', 'Glengarry (Charlottenburgh)', 'Glengarry County', 'Glengarry County (Indian Reservation)', 'Glengarry County Indian Reservation', 'Glengarry Settlement', 'Glengarry Township', 'Glengarry/Lochiel', 'Glenheim', 'Gloucester', 'Gloucester (Packenham)', 'Gloucester Township', 'Gloucester and March', 'Gloucester and Nepean', 'Gloucester on Rideau', 'Gloucester or Nepean Townships', 'Gloucester, Cumberland &amp; Clarence', 'Gloucester, Goulbourn and Marlborough', 'Gloucester/Clarence', 'Goderich', 'Goderich Township', 'Godmanchester', 'Godmanchester, Hinchinbrook, Hemmingford', 'Golbourn', 'Gore', 'Gore (Clergy reserves)', 'Gore (between Sophiasburgh &amp; Hallowell Townships)', 'Gore District', 'Gore of Crown Land', 'Gore of Stamford', 'Gore of Toronto', 'Gore of Toronto Township', 'Gosfield', 'Gosfield (Colchester)', 'Gosfield (Talbot Road)', 'Gosfield East Township', 'Gosfield Township', 'Gosfield and Plympton', 'Gosfield/Talbot Road', 'Gosford', 'Gosford Road (Nicolet)', 'Goulbourn', 'Goulbourn (Gloucester)', 'Goulbourn and Huntley', 'Goulbourn and March', 'Goulbourn and Marlborough', 'Goulbourn, Huntley and March', 'Goulbourn, Huntley and Marlborough', 'Goulbourn, March and Huntley', 'Goulbourn, Nepean and March', 'Goulbourn/Richmond', 'Goulburn Township', 'Gouth Gower Township', 'Gower', 'Gower North', 'Gower South', 'Gramahe', 'Granbourm', 'Granbourne', 'Granby', 'Granby &amp; Roxton', 'Grand Calumet', 'Grand Island, Bay of Quinte', 'Grand Isle', 'Grand Isle Township', 'Grand Marois, Detroit', 'Grand M~chin', 'Grand Riv_re', 'Grand River', 'Grand River &amp; Long Point', 'Grand River (Caistor)', 'Grand River (Niagara Dist)', 'Grand River (Niagara)', 'Grand River (Saltfleet)', 'Grand River (Six Nations Indians)', 'Grand River County, Haldimand Township', 'Grand River Road (Dorchester)', 'Grand River Swamp', 'Grand River Township', 'Grand River Tract', 'Grand River and York', 'Grand River/Haldimand', 'Grand Rivi_re', 'Grand Riviere', 'Grand Valamet', 'Grande Isle', 'Grande Vall~e des Monts', 'Grande of Wolfe Island', 'Grande or Wolfe Island', 'Grandville', 'Grandy', 'Grans River', 'Gransby', 'Grant River', 'Grantham', 'Grantham &amp; Durham', 'Grantham Township', 'Grantham, Durham &amp; Wickham', 'Grantham, Long Point', 'Grantham, Louth', "Grass's Point", 'Grattan', 'Grattan, Brougham', 'Great Western Lakes', 'Green Island', 'Green Point, Sophiasburgh Township', 'Greenfield', 'Greensby', 'Grenadier Island', 'Grenville', 'Grenville      Gr  Grenville', 'Grenville &amp; Leeds', 'Grenville Canal', 'Grenville County', 'Grenville County (River Reddo)', 'Grenville Township', 'Grenville or Leeds', 'Grenwich', 'Grey', 'Grey, Bruce', 'Griffith', 'Grimsby', 'Grimsby (Saltfleet)', 'Grimsby Township', 'Grimsby and Ancaster', 'Grimsley Township', 'Grimsthorpe', 'Grimsthorpe Township', 'Growland', 'Guelph', 'Guelph (Penetangere)', 'Guelph Township', 'Gun Lock Islands', 'Gwillimbury', 'Gwillimbury East', 'Gwillimbury North', 'Gwillimbury Township', 'Gwillimbury West', 'Gwillimbury, Kempenfeldt Bay, Penetanguishene', 'Gwillimbury, Kempenfell Bay, Penetinguisghene', 'Gwillimbury, Kempenfelt and Penetanguishene', 'Halderman', 'Haldimand', 'Haldimand &amp; York', 'Haldimand (Alnwick)', 'Haldimand (Burford)', 'Haldimand (Clergy Reserves)', 'Haldimand (Cobourg)', 'Haldimand (Cramahe)', 'Haldimand (Mariposa)', 'Haldimand (Pickering)', 'Haldimand (Sedmour)', 'Haldimand County', 'Haldimand Township', 'Haldimand and Pickering and Pittsburgh', 'Haldimand township', 'Haldimand, Percy', 'Haldimand, Percy, Cramahe &amp; others', 'Haldimand/Adolphustown', 'Hale', 'Halifax', 'Halifax (Canada East)', 'Hallow', 'Hallowel/Sophiasburgh', 'Hallowell', 'Hallowell &amp; Sophiasburgh', 'Hallowell (Ameliasburgh)', 'Hallowell (Drummond)', 'Hallowell (North Gwillimsbury)', 'Hallowell (Rawdon)', 'Hallowell (Sophiasburgh)', 'Hallowell Township', 'Hallowell and Thurlow Townships', 'Hallowell/Adolphustown', 'Hallowell/Sophiasburgh', 'Halton', 'Halton County', 'Ham South', 'Ham, Ashford and Windsor', 'Ham, Shipton and Ashford', 'Hambleton', 'Hamburgh', 'Hamford', 'Hamilton', 'Hamilton &amp; Hope', 'Hamilton (Cobourg)', 'Hamilton (Dover)', 'Hamilton (Monoghan)', 'Hamilton (Osnabruck)', 'Hamilton (Richmond)', 'Hamilton (Toronto)', 'Hamilton (Walpole)', 'Hamilton Township', 'Hamilton and Murray', 'Hamilton,', 'Hamilton/Asphodel', 'Hamilton/Whitby', 'Hammond', 'Hamons', 'Hampton', 'Hannah', 'Hare Island', 'Hare Point', 'Harrington', 'Harrington (Caledonia)', 'Harsen Island', 'Hartington', 'Harvey', 'Harvey Township', 'Harwich', 'Harwich &amp; Howard', 'Harwich (Raleigh)', 'Harwich (Sandwich)', 'Harwich and Howard', 'Harwich or Raleigh', 'Harwich, Chatham', 'Harwick Township', 'Hastings', 'Hastings County', 'Hatley', 'Haughton', 'Hawford', 'Hawkesbury', 'Hawkesbury &amp; Cornwall or Johnstown', 'Hawkesbury East', 'Hawkesbury Township', 'Hawkesbury West', 'Hawkesbury West, Alfred', 'Hay Bay/Fredericksburgh', 'Hayesbury Township', 'Head', 'Hebertville', 'Heiss District', 'Hemford', 'Hemmingford', 'Hemmingford &amp; Lacolle', 'Henntley', 'Hereford', 'Herwick', 'Hesse', 'Hesse District', 'Hesser', 'Heyetsbury', 'Heytesbury', 'Heytesbury Township', 'Hickory Island', 'Hillier', 'Hinchinbrooke', 'Hinchinbrooke (Kingston)', 'Hinchinbrooke Township', 'Hinchinbrooke and Buckingham', 'Hinchinbrooke/Lanark', 'Hincks', 'Hitchenbrroke', 'Holford', 'Holland', 'Holland &amp; Sullivan', 'Holland Landing', 'Holland, Sullivan', 'Holland, Sullivan, Rokeby', 'Hollowell', 'Hollowell Township', 'Home', 'Home District', 'Hope', 'Hope &amp; Hamilton', 'Hope (Cavan)', 'Hope (Hamilton)', 'Hope (Monaghan)', 'Hope (Monoghan)', 'Hope (Smith)', 'Hope (Tiney)', 'Hope North East', 'Hope Township', 'Horse Shoe Island', 'Horse Shoe Island (between Simcoe &amp; Wolfe Islands)', 'Horton', 'Horton Township', 'Horwick', 'Houghton', 'Houghton &amp; Walsingham', 'Houghton Township', 'Howard', 'Howard &amp; Morin', 'Howard (should be Harwick)', 'Howard Township', 'Howard and Harwich', 'Howe Island', 'Howe Island, Pittsburgh Township', 'Howich', 'Howick', 'Hull', 'Hull &amp; Wakefield', 'Humber', 'Humber Bay', 'Humber River', 'Humber River (Queenstown)', 'Humber River Township', 'Humberstone', 'Humberstone Township', 'Humberstone, Wainfleet, Crowland', 'Humbertsone Township', 'Hungerford', 'Hungerford (Kingston)', 'Hungerford Township', 'Hungerford/Sheffield', 'Huntingdon', 'Huntingdon Township', 'Huntley', 'Huntley Township', 'Huntley West', 'Huntley and Goulburn', 'Huron', 'Huron County', 'Huron Reserve', 'Huron Road', 'Huron Settlement', 'Huron Tract', 'Huron and Bruce', 'Huron, Bruce', 'Hurontario', 'Hurontario, West of', 'In face of Lake Eri~', 'Indian Lands', 'Indian Reserve, Glengary County', 'Indian Woods', 'Indiana', 'Ingersoll', 'Innisfil', 'Innisfil Township', 'Inniskillen', 'Innismore', 'Inverhuron', 'Inverness', 'Inworth', 'Ipenville', 'Ira', 'Ireland', 'Island (Head of Lake Erie)', 'Island (head of Lake Erie)', 'Island East of York (town)', 'Island River', 'Island at Mouth of Charles River', 'Island below Kingston', 'Island in Lake Erie', 'Island in Rideau Canal (15 miles from Ottawa)', 'Island in River St.Claire', 'Island in front of Toronto', 'Island in the St. Lawrence River', 'Island near Nepean Township', 'Island of Bois Blanc', 'Island of Cornwall', 'Island of Michipicoton', 'Island of Mille Roches', 'Island of Orleans', 'Island of St. Joseph', 'Island of St.Joseph', 'Islands in Lake St. Clair', 'Islands in the Ottawa River', 'Islands on the Humber River', 'Isle Bois Blanc sur la riv. Au Canard', 'Isle Ecart~', 'Isle St.Ignace', 'Isle Verte', 'Isle a la Peche', 'Isle au Cochon', 'Isle aux P--ches (Lake St. Clair)', 'Isle aux P~ches', 'Isle of Traverse', 'Isles aux P--ches (Lake St. Clair)', 'Ixworth', 'Jesuit Estates', 'Johnson', 'Johnsonville', 'Johnston (Edwardsburgh Township)', 'Johnston District', 'Johnstown', 'Johnstown &amp; Edwardsburgh', 'Johnstown (Edwardsburgh)', 'Johnstown (Winchester)', 'Johnstown District', 'Junction Gore', 'Kakouna', 'Kakouna/Whitworth', 'Kamouraska', 'Kamouraska (Kingston)', 'Katesville, Adelaide', 'Kayugah', 'Kempenfeldt', 'Kempenfelt Bay to Penetanguishene', 'Kempfieldt Bay, Lake Simcoe', 'Kemptville (Westmeath)', '</t>
         </is>
@@ -858,18 +899,26 @@
       <c r="P7" t="n">
         <v>2</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>Upper Canada Land Petitions</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>2247940</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>2</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>['0', 'Upper Canada Land Petitions']</t>
         </is>
@@ -928,18 +977,26 @@
       <c r="P8" t="n">
         <v>2</v>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>RG 5 A1, Land Petitions in Upper Canada Sundries</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>RG 1 L3</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
         <v>807275</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>3</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>['0', 'RG 1 L3', 'RG 5 A1, Land Petitions in Upper Canada Sundries']</t>
         </is>
@@ -998,18 +1055,26 @@
       <c r="P9" t="n">
         <v>47</v>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
         <v>252833</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>735</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>['1', '1-Apr', '10', '100', '101', '102', '103', '104', '105', '106', '107', '108', '109', '11', '110', '111', '112', '113', '114', '115', '116', '117', '118', '119', '12', '120', '121', '122', '123', '124', '125', '126', '127', '128', '129', '13', '130', '131', '132', '133', '134', '135', '136', '137', '138', '139', '14', '140', '141', '142', '143', '144', '145', '146', '147', '148', '149', '15', '150', '151', '152', '153', '154', '155', '156', '157', '158', '159', '16', '160', '161', '162', '163', '16309', '164', '165', '166', '167', '168', '169', '17', '170', '171', '172', '173', '174', '175', '176', '176176', '177', '177A', '177B', '178', '179', '179A', '179B', '18', '180', '181', '182A', '182B', '183', '1836/02/24', '184', '184184', '185', '186', '186A', '187', '188', '189', '189A', '19', '190', '191', '191A', '192', '192A', '193', '194', '194A', '195', '195A', '196', '196A', '197', '198', '199', '199A', '1:00 AM', '2', '20', '200', '201', '202', '202A', '203', '203A', '204', '204A', '205', '206', '206A', '207', '208', '208A', '209', '21', '210', '211', '211A', '212', '213', '214', '214A', '215', '216', '216 A', '216A', '217', '218', '219', '22', '220', '220 A', '221', '222', '222A', '222AC-2045', '223', '224', '224A', '225', '225A', '226', '226A', '227', '228', '228A', '229', '23', '230', '230A', '231', '232', '233', '233A', '234', '235', '236', '236A', '237', '238', '239', '239A', '24', '240', '241', '241A', '242', '243', '243A', '244', '244A', '245', '246', '247', '247A', '248', '248A', '249', '25', '250', '250A', '251', '251A', '252', '253', '254', '254A', '255', '256', '257', '257A', '258', '259', '259A', '26', '260', '261', '261A', '262', '263', '264', '265', '265A', '266', '266A', '267', '268', '269', '27', '270', '271', '271A', '272', '273', '273A', '274', '275', '276', '276A', '277', '278', '279', '28', '280', '280A', '280a', '281', '282', '283', '284', '285', '285A', '286', '287', '287A', '288', '289', '29', '290', '290A', '291', '292', '292A', '293', '294', '295', '296', '296A', '296A296A', '297', '297A', '298', '299', '299A', '3', '30', '300', '301', '302', '303', '304', '305', '305A', '306', '306A', '307', '307A', '308', '308A', '309', '31', '310', '311', '311A', '312', '313', '313A', '314', '315', '315A', '316', '316A', '317', '318', '319', '319A', '32', '320', '320A', '321', '322', '322A', '323', '323A', '324', '325', '325A', '326', '327', '327A', '328', '328A', '329', '329A', '33', '330', '330A', '331', '332', '332A', '333', '333A', '334', '335', '335A', '336', '336A', '336C', '337', '337A', '338', '339', '339A', '34', '340', '341', '341A', '342', '343', '343A', '344', '345', '345A', '346', '347', '347A', '348', '348A', '349', '35', '350', '350A', '350a', '351', '351A', '352', '353', '353A', '354', '355', '355A', '356', '357', '357A', '358', '359', '359A', '36', '360', '361', '362', '362A', '363', '364', '364A', '365', '366', '367', '367A', '368', '369', '369A', '37', '370', '371', '372', '372A', '373', '374', '374A', '375', '376', '377', '378', '379', '379(a)', '379A', '38', '380', '380(a)', '381', '381(a)', '381A', '382', '383', '384', '384A', '385', '386', '387', '388', '389', '39', '390', '391', '392', '392A', '393', '393A', '394', '395', '396', '396A', '397', '398', '399', '4', '40', '400', '400A', '401', '402', '402A', '403', '404', '404A', '405', '406', '406A', '407', '408', '408A', '409', '41', '410', '410A', '411', '412', '413', '414', '414A', '415', '416', '416A', '417', '418', '419', '419A', '42', '420', '421', '422', '422A', '423', '424', '425', '426', '426A', '427', '428', '429', '429A', '43', '430', '430A', '431', '432', '433', '434', '435', '435A', '436', '437', '438', '438A', '439', '44', '440', '441', '441A', '442', '443', '444', '445', '445A', '446', '446A', '447', '447A', '448', '448A', '448a', '449', '45', '450', '4505', '4507', '450A', '451', '452', '453', '453A', '454', '455', '456', '456A', '457', '457A', '458', '459', '46', '460', '460A', '461', '462', '463', '463A', '464', '464A', '465', '466', '467', '467A', '468', '469', '47', '470', '471', '472', '472A', '473', '473A', '474', '475', '476', '477', '478', '478A', '479', '48', '48-49', '480', '481', '481A', '482', '483', '484', '485', '486', '487', '487A', '488', '489', '49', '490', '491', '492', '493', '493A', '494', '495', '495A', '496', '497', '498', '498A', '499', '5', '5 pt. 2', '5 pt.1', '5, pt. 1', '5, pt.1', '50', '500', '501', '502', '502A', '503', '504', '505', '506', '507', '508', '508A', '509', '509A', '51', '510', '511', '512', '513', '514', '514A', '515', '516', '517', '518', '519', '52', '520', '521', '522', '523', '523A', '524', '525', '525A', '526', '527', '527A', '528', '529', '529 A', '529A', '53', '530', '530A', '531', '532', '533', '533A', '534', '535', '536', '537', '537A', '538', '538A', '538S', '539', '54', '540', '540A', '541', '542', '543', '544', '544A', '545', '546', '546A', '546a', '547', '548', '549', '55', '550', '550A', '551', '552', '553', '554', '555', '556', '56', '57', '58', '59', '6', '60', '61', '62', '63', '64', '65', '66', '67', '68', '69', '7', '70', '71', '72', '73', '74', '75', '76', '77', '78', '79', '8', '80', '81', '82', '83', '84', '85', '86', '87', '88', '89', '9', '90', '91', '92', '93', '94', '95', '96', '97', '98', '99']</t>
         </is>
@@ -1068,18 +1133,22 @@
       <c r="P10" t="n">
         <v>5476</v>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Z Misc. 1797-1816</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>509866</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>751</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>['5475', '6457', 'A 1', 'A 10', 'A 11', 'A 12', 'A 13', 'A 14', 'A 15', 'A 16', 'A 17', 'A 18', 'A 19', 'A 2', 'A 20', 'A 21', 'A 22', 'A 23', 'A 3', 'A 4', 'A 5', 'A 6', 'A 7', 'A 8', 'A 9', 'A Leases 1799-1836', 'A Misc. 1788-1843', 'A Misc. 1796-1840', 'A Misc. 1798-1804', 'B 1', 'B 10', 'B 11', 'B 12', 'B 13', 'B 14', 'B 15', 'B 16', 'B 17', 'B 18', 'B 19', 'B 2', 'B 20', 'B 21', 'B 22', 'B 3', 'B 4', 'B 5', 'B 6', 'B 7', 'B 8', 'B 9', 'B Leases 1802-1818', 'B Leases 1816-1837', 'B Misc.', 'B Misc. 1788-1795', 'B Misc. 1793-1840', 'B Misc. 1796-1799', 'B Misc. 1799-1843', 'B Misc. 1801-1804', 'C 1', 'C 10', 'C 11', 'C 12', 'C 13', 'C 14', 'C 15', 'C 16', 'C 17', 'C 18', 'C 19', 'C 2', 'C 20', 'C 21', 'C 22', 'C 3', 'C 4', 'C 5', 'C 6', 'C 7', 'C 8', 'C 9', 'C Leases 1798-1817', 'C Leases 1819-1834', 'C Leases 1830-1834', 'C Leases 1831-1836', 'C Misc. 1788-1794', 'C Misc. 1788-1795', 'C Misc. 1795-1844', 'C Misc. 1798-1820', 'C a, pt. 1', 'C a, pt. 2', 'C b', 'C5', 'Canada Company', 'D 1', 'D 10', 'D 11', 'D 12', 'D 13', 'D 14', 'D 15', 'D 16', 'D 17', 'D 18', 'D 19', 'D 2', 'D 20', 'D 21', 'D 22', 'D 3', 'D 4', 'D 5', 'D 6', 'D 7', 'D 8', 'D 9', 'D Leases 1799-1819', 'D Leases 1800-1818', 'D Leases 1818-1830', 'D Leases 1830-1836', 'D Misc.', 'D Misc. 1783-1795', 'D Misc. 1788-1795', 'D Misc. 1796-1802', 'D Misc. 1797-1826', 'D Misc. 1798-1802', 'D Misc. 1798-1841', 'D Misc. Inhabitants of Detroit', 'E 1', 'E 10', 'E 11', 'E 12', 'E 13', 'E 14', 'E 15', 'E 16', 'E 17', 'E 18', 'E 19', 'E 2', 'E 20', 'E 21', 'E 22', 'E 3', 'E 4', 'E 5', 'E 6', 'E 7', 'E 8', 'E 9', 'E Ernestown Mills 1804', 'E Leases 1798-1821', 'E Leases 1800-1837', 'E Misc. 1789-1795', 'E Misc. 1797-1839', 'E Misc. 1799-1841', 'E Misc. 1802', 'F 1', 'F 10', 'F 11', 'F 12', 'F 13', 'F 14', 'F 15', 'F 16', 'F 17', 'F 18', 'F 19', 'F 2', 'F 20', 'F 21', 'F 22', 'F 3', 'F 4', 'F 5', 'F 6', 'F 7', 'F 8', 'F 9', 'F Leases 1800-1820', 'F Leases 1801-1826', 'F Leases 1801-1836', 'F Misc. #802-1804', 'F Misc. 1788-1795', 'F Misc. 1789-1839', 'F Misc. 1797-1798', 'F Misc. 1823-1841', 'G 1', 'G 10', 'G 11', 'G 12', 'G 13', 'G 14', 'G 15', 'G 16', 'G 17', 'G 18', 'G 19', 'G 2', 'G 20', 'G 21', 'G 22', 'G 3', 'G 4', 'G 5', 'G 6', 'G 7', 'G 8', 'G 9', 'G Leases 1799-1819', 'G Leases 1800-1835', 'G Misc. 1789-1795', 'G Misc. 1794-1830', 'G Misc. 1797-1799', 'G Misc. 1799-1803', 'G Misc. 1819-1840', 'G3', 'H 1', 'H 10', 'H 11', 'H 12', 'H 13', 'H 14', 'H 15', 'H 16', 'H 17', 'H 18', 'H 19', 'H 2', 'H 20', 'H 21', 'H 22', 'H 3', 'H 4', 'H 5', 'H 6', 'H 7', 'H 8', 'H 9', 'H Leases 1799-1838', 'H Leases 1820-1838', 'H Misc. 1788-1795', 'H Misc. 1788-1799', 'H Misc. 1797-1804', 'H Misc. 1797-1820', 'H Misc. 1799-1821', 'H Misc. 1801-1848', 'H Misc. 1825-1839', 'I 10', 'I 11', 'I 12', 'I 13', 'I 14', 'I 15', 'I 20', 'I 22', 'I 3', 'I 5', 'I 6', 'I 7', 'I 8', 'I 9', 'I-J 1', 'I-J 17', 'I-J 18', 'I-J 19', 'I-J 2', 'I-J 21', 'I-J 3', 'I-J 4', 'I-J 5', 'I-J 6', 'I-J 8', 'I-J Misc. 1788-1795', 'I-J Misc. 1795-1837', 'I-J Misc. 1800-1836', 'I-J Misc. 1801-1804', 'I-J Misc. 1836-1840', 'I-J1', 'I-J18', 'I-J2', 'J 10', 'J 11', 'J 12', 'J 13', 'J 14', 'J 15', 'J 16', 'J 20', 'J 21', 'J 22', 'J 3', 'J 5', 'J 6', 'J 7', 'J 8', 'J 9', 'J Misc. 1802', 'K 1', 'K 10', 'K 11', 'K 12', 'K 13', 'K 14', 'K 15', 'K 16', 'K 17', 'K 18', 'K 19', 'K 2', 'K 20', 'K 21', 'K 22', 'K 3', 'K 4', 'K 5', 'K 6', 'K 7', 'K 8', 'K 9', 'K Leases', 'K Misc. 1788-1795', 'K Misc. 1797-1846', 'K Misc. 1802-1817', 'K leases', 'K12', 'L 1', 'L 10', 'L 11', 'L 12', 'L 13', 'L 14', 'L 15', 'L 16', 'L 17', 'L 18', 'L 19', 'L 2', 'L 20', 'L 21', 'L 22', 'L 3', 'L 4', 'L 5', 'L 6', 'L 7', 'L 8', 'L 9', 'L Leases 1798-1819', 'L Leases 1801-1836', 'L Misc', 'L Misc. 1788-1795', 'L Misc. 1796-1797', 'L Misc. 1796-1803', 'L Misc. 1796-1835', 'L Misc. 1816-1845', 'Leases', 'Leases and Licences of Occupation 1798-1838', 'Leases and Licences of Occupation 1798-1839', 'Leases and Licences of Occupation 1806-1830', 'M  15', 'M 1', 'M 1 Misc. 1789-1803', 'M 10', 'M 11', 'M 12', 'M 13', 'M 14', 'M 15', 'M 16', 'M 17', 'M 18', 'M 19', 'M 2', 'M 2 Misc. 1788-1798', 'M 20', 'M 21', 'M 22', 'M 3', 'M 3 Misc. 1803-1865', 'M 4', 'M 5', 'M 6', 'M 7', 'M 8', 'M 9', 'M Leases 1798-1818', 'M Leases 1798-1823', 'M Misc.', 'MC 1', 'MC 2', 'MC 20', 'MC 21', 'MC 22', 'MC 3', 'MC 4', 'MC 5', 'MC 6', 'MC 7', 'MC 8', 'MC 9', 'MC Misc.', 'Mc 4', 'Mc 5', 'Mc 8', 'N 1', 'N 10', 'N 11', 'N 12', 'N 13', 'N 14', 'N 15', 'N 16', 'N 17', 'N 18', 'N 19', 'N 2', 'N 20', 'N 21', 'N 22', 'N 3', 'N 4', 'N 5', 'N 6', 'N 7', 'N 8', 'N 9', 'N Leases 1805-1832', 'N Misc. 1788-1802', 'N Misc. 1797-1811', 'N Misc. 1799-1815', 'N Misc. 1802', 'N Misc. 1840', 'N, Niagara Districh without date', 'N, Niagara District, Petitions without dates', 'Niagara Chain Reserves', 'O 1', 'O 10', 'O 11', 'O 12', 'O 13', 'O 14', 'O 15', 'O 16', 'O 17', 'O 18', 'O 19', 'O 2', 'O 20', 'O 21', 'O 22', 'O 3', 'O 4', 'O 5', 'O 6', 'O 7', 'O 8', 'O 9', 'O Leases 1799-1834', 'O Leases 1807-1834', 'O Misc. 1787-1845', 'O, Bundle 1829-1835"', 'P 1', 'P 10', 'P 11', 'P 12', 'P 13', 'P 14', 'P 15', 'P 16', 'P 17', 'P 18', 'P 19', 'P 2', 'P 20', 'P 21', 'P 22', 'P 3', 'P 4', 'P 5', 'P 6', 'P 7', 'P 8', 'P 9', 'P Leases 1798-1818', 'P Leases, 1811-1836', 'P Misc. 1775-1795', 'P Misc. 1788-1794', 'P Misc. 1797-1799', 'P Misc. 1797-1836', 'P Misc. 1798', 'P Misc. 1798-1820', 'P Misc. 1800-1856', 'Perth Military Settlement', 'Q 1', 'Q 11', 'Q 12', 'Q 13', 'Q 14', 'Q 15', 'Q 17', 'Q 18', 'Q 19', 'Q 2', 'Q 2 Leases 1802-1809', 'Q 20', 'Q 21', 'Q 22', 'Q 3', 'Q 4', 'Q 5', 'Q 6', 'Q 7', 'Q 8', 'Q 9', 'Q Misc. 1789-1824', 'R 1', 'R 10', 'R 11', 'R 12', 'R 13', 'R 14', 'R 15', 'R 16', 'R 17', 'R 18', 'R 19', 'R 2', 'R 20', 'R 21', 'R 22', 'R 3', 'R 4', 'R 5', 'R 6', 'R 7', 'R 8', 'R 9', 'R Leases 1797-1821', 'R Leases 1798-1820', 'R Leases 1820-1837', 'R Misc. 1777-1794', 'R Misc. 1784-1803', 'R Misc. 1796-1816', 'R Misc. 1806-1844', 'Renewal of Leases 1815-1838', 'Renewal of Leases, Misc. 1818-1835', 'S 1', 'S 10', 'S 11', 'S 12', 'S 13', 'S 14', 'S 15', 'S 16', 'S 17', 'S 18', 'S 19', 'S 2', 'S 20', 'S 21', 'S 22', 'S 3', 'S 4', 'S 5', 'S 6', 'S 7', 'S 8', 'S 9', 'S Leases 1797-1808', 'S Leases 1797-1809', 'S Leases 1806-1819', 'S Leases 1809-1822', 'S Leases 1816-1831', 'S Leases 1830-1840', 'S Misc', 'S Misc.', 'S Misc. 1783-1818', 'S Misc. 1787-1794', 'S Misc. 1788-1794', 'S Misc. 1796-1798', 'S Misc. 1797-1804', 'S Misc. 1798-1812', 'S Misc. 1799-1842', 'S misc', 'SMisc.', 'T 1', 'T 10', 'T 11', 'T 12', 'T 13', 'T 14', 'T 15', 'T 16', 'T 17', 'T 18', 'T 19', 'T 2', 'T 20', 'T 21', 'T 22', 'T 3', 'T 4', 'T 5', 'T 6', 'T 7', 'T 8', 'T 9', 'T Leases 1798-1831', 'T Leases 1799-1820', 'T Leases 1801-1835', 'T Misc. 1788-1794', 'T Misc. 1791-1819', 'T Misc. 1797', 'T Misc. 1797-1800', 'T Misc. 1797-1835', 'T Misc. 1797-1843', 'U 10', 'U 11', 'U 12', 'U 13', 'U 14', 'U 15', 'U 16', 'U 17', 'U 18', 'U 19', 'U 2', 'U 20', 'U 21', 'U 22', 'U 4', 'U 5', 'U 6', 'U 7', 'U 8', 'U 9', 'U Leases 1806-1818', 'U Misc. 1817-1838', 'U-V 1', 'U-V 2', 'U-V 3', 'U-V 4', 'U-V 5', 'U-V 6', 'U-V Leases 1800-1832', 'U-V Misc. 1784-1794', 'U-V4', 'V 1', 'V 10', 'V 11', 'V 12', 'V 13', 'V 14', 'V 15', 'V 16', 'V 17', 'V 18', 'V 19', 'V 2', 'V 20', 'V 21', 'V 22', 'V 3', 'V 4', 'V 5', 'V 6', 'V 7', 'V 8', 'V 9', 'V Leases 1800-1819', 'V Misc. 1796-1798', 'V Misc. 1796-1837', 'V Misc. 1799-1832', 'V Misc. 1801-1840', 'Vermont Inhabitants', 'W 1', 'W 10', 'W 11', 'W 12', 'W 13', 'W 14', 'W 15', 'W 16', 'W 17', 'W 18', 'W 19', 'W 2', 'W 20', 'W 21', 'W 22', 'W 3', 'W 4', 'W 5', 'W 6', 'W 7', 'W 8', 'W 9', 'W Leases 1797-1817', 'W Leases 1798-1820', 'W Leases 1811-1831', 'W Leases 1830-1838', 'W Leaves 1798-1820', 'W Misc. 1787-1794', 'W Misc. 1791-1838', 'W Misc. 1796-1815', 'W Misc. 1797-1798', 'W Misc. 1797-1803', 'W Misc. 1816-1845', 'Y 1', 'Y 10', 'Y 11', 'Y 12', 'Y 13', 'Y 14', 'Y 15', 'Y 16', 'Y 17', 'Y 18', 'Y 19', 'Y 2', 'Y 20', 'Y 21', 'Y 22', 'Y 3', 'Y 4', 'Y 5', 'Y 6', 'Y 7', 'Y 8', 'Y 9', 'Y Leases', 'Y Leases 1801-1832', 'Y Leases 1803-1818', 'Y Misc. 1788-1830', 'Y Misc. 1797-1836', 'Y Misc. 1836', 'Z 10', 'Z 11', 'Z 12', 'Z 13', 'Z 15', 'Z 16', 'Z 18', 'Z 20', 'Z 22', 'Z 3', 'Z 4', 'Z 8', 'Z 9', 'Z Misc. 1797-1816']</t>
         </is>
@@ -1138,18 +1207,22 @@
       <c r="P11" t="n">
         <v>6537</v>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Misc. 7</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>168664</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>754</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>['1', '1 1/2', '1 to 89', '10', '100', '101', '101,5', '102', '103', '104', '104A', '104C/', '105', '106', '106C/', '107', '108', '109', '10a', '11', '110', '111', '112', '113', '114', '114A', '115', '116', '117', '117A', '118', '118C/', '119', '11C/', '12', '120', '121', '122', '123', '124', '125', '125A', '126', '127', '128', '129', '12C/', '13', '13 1/2', '13,5', '130', '130,5', '131', '132', '133', '133A', '134', '134A', '135', '136', '137', '138', '139', '13A', '13a', '13b', '14', '14,5', '140', '140C/', '141', '142', '143', '144', '145', '146', '147', '148', '149', '14A', '15', '15 1/2', '15,5', '150', '151', '152', '152c', '153', '154', '154A', '154a', '154b', '155', '156', '1568', '157', '157A', '158', '158C/', '159', '15C/', '16', '160', '161', '162', '163', '164', '165', '166', '167', '168', '168a', '169', '17', '170', '170,5', '171', '172', '173', '174', '175', '176', '176,5', '177', '178', '179', '17A', '17C/', '18', '180', '181', '182', '183', '184', '185', '186', '187', '188', '189', '189C/', '18C/', '19', '190', '191', '192', '192,5', '193', '194', '195', '196', '197', '198', '199', '19A', '19B', '19C/', '19a', '1?', '1A', '1C/', '2', '2 1/2', '20', '20,5', '200', '200C/', '201', '202', '203', '204', '205', '206', '207', '208', '209', '20C/', '21', '210', '211', '212', '213', '214', '215', '216', '217', '218', '219', '21C/', '22', '22,5', '220', '221', '222', '223', '224', '225', '226', '227', '228', '229', '22C/', '23', '230', '231', '232', '233', '234', '235', '236', '237', '238', '239', '23A', '23C/', '23a', '24', '240', '241', '242', '243', '244', '245', '246', '246,5', '247', '248', '249', '24C/', '25', '250', '251', '252', '253', '254', '255', '256', '257', '258', '259', '25C/', '25a', '26', '26 A', '26,5', '260', '261', '262', '263', '264', '265', '266', '267', '268', '269', '26C/', '27', '270', '271', '272', '273', '274', '275', '276', '277', '278', '279', '27a', '28', '28 1/2', '280', '281', '282', '283', '284', '285', '286', '286C/', '287', '288', '289', '28?', '28C/', '29', '290', '291', '292', '293', '294', '295', '296', '297', '298', '299', '29C/', '2A', '3', '3 1/2', '30', '300', '301', '302', '303', '304', '305', '306', '307', '308', '309', '30C/', '31', '310', '311', '312', '313', '314', '315', '316', '317', '318', '319', '31A', '32', '32 1/2', '320', '321', '322', '323', '324', '325', '326', '327', '328', '329', '33', '33 1/2', '330', '331', '331C/', '332', '333', '334', '335', '336', '337', '338', '339', '33C/', '34', '340', '341', '342', '343', '344', '345', '346', '347', '348', '349', '34C/', '35', '35,5', '350', '351', '352', '353', '354', '355', '356', '357', '358', '359', '36', '36,5', '360', '361', '362', '363', '364', '365', '366', '367', '368', '369', '36A', '37', '370', '371', '372', '373', '374', '375', '376', '377', '378', '379', '38', '380', '381', '382', '383', '384', '385', '386', '387', '388', '389', '38a', '39', '39,5', '390', '391', '392', '393', '394', '395', '396', '397', '398', '399', '39A', '3A', '3C/', '4', '4 1/2', '4,5', '40', '400', '401', '402', '403', '404', '405', '406', '407', '408', '409', '40C/', '41', '41,5', '410', '411', '412', '413', '414', '415', '416', '417', '418', '419', '41a', '42', '420', '421', '422', '423', '424', '425', '426', '427', '428', '429', '42A', '43', '430', '431', '432', '433', '434', '435', '436', '437', '438', '439', '44', '44 1/2', '440', '441', '442', '443', '444', '445', '446', '447', '448', '449', '45', '450', '451', '452', '453', '454', '455', '456', '457', '458', '459', '46', '46,5', '460', '461', '462', '463', '464', '465', '466', '467', '468', '469', '46&lt;&lt;', '46C/', '47', '470', '471', '472', '473', '474', '475', '476', '477', '478', '479', '48', '480', '481', '482', '483', '484', '485', '486', '487', '488', '489', '49', '49 1/2', '490', '491', '492', '493', '494', '495', '496', '497', '498', '499', '4A', '4C/', '5', '5 C/', '5,5', '50', '500', '501', '502', '503', '504', '505', '506', '507', '508', '509', '50C/', '51', '510', '511', '512', '513', '514', '515', '516', '517', '518', '519', '52', '52 C/', '520', '521', '522', '523', '524', '525', '526', '527', '528', '529', '53', '53 1/2', '530', '531', '532', '533', '534', '535', '536', '537', '538', '539', '53C/', '54', '54 C/', '540', '541', '542', '543', '544', '545', '546', '547', '548', '549', '55', '55 1/2', '550', '551', '552', '553', '554', '555', '556', '557', '558', '559', '55C/', '56', '56,5', '560', '561', '562', '563', '564', '565', '566', '567', '568', '569', '56A', '56C/', '57', '570', '571', '572', '573', '574', '575', '576', '577', '578', '579', '57A', '58', '580', '581', '582', '583', '584', '585', '586', '587', '588', '589', '59', '590', '591', '592', '593', '594', '595', '59C/', '6', '60', '61', '61 A', '62', '62 C', '62A B', '63', '64', '65', '6536', '66', '66C/', '67', '67,5', '68', '68A', '69', '69 1/2', '6A', '7', '7 1/2', '70', '71', '71C/', '72', '72C/', '73', '74', '75', '76', '76C/', '77', '77C/', '78', '79', '79 1/2', '79C/', '7A', '7a', '8', '8,5', '80', '80 1/2', '81', '81C/', '82', '83', '83C/', '84', '85', '86', '86 1/2', '87', '88', '88 a', '89', '8A', '8a', '9', '90', '91', '91C/', '92', '93', '93A', '94', '94C/', '95', '95(a)', '96', '96c', '97', '97,5', '98', '99', 'Feb-37', 'Jan-37', 'Misc. 10', 'Misc. 11', 'Misc. 12', 'Misc. 13', 'Misc. 2', 'Misc. 3', 'Misc. 5', 'Misc. 6', 'Misc. 7']</t>
         </is>
@@ -1208,18 +1281,26 @@
       <c r="P12" t="n">
         <v>16</v>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>c-2983</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>C-2739</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
         <v>499933</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>437</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>['14', '46863-46866', 'C-1609', 'C-1610', 'C-1611', 'C-1612', 'C-1613', 'C-1614', 'C-1615', 'C-1616', 'C-1617', 'C-1618', 'C-1619', 'C-1620', 'C-1621', 'C-1622', 'C-1623', 'C-1624', 'C-1625', 'C-1626', 'C-1627', 'C-1628', 'C-1629', 'C-1630', 'C-1631', 'C-1632', 'C-1633', 'C-1634', 'C-1635', 'C-1636', 'C-1637', 'C-1638', 'C-1639', 'C-1640', 'C-1641', 'C-1642', 'C-1643', 'C-1643 &amp; C-1644', 'C-1644', 'C-1645', 'C-1646', 'C-1647', 'C-1648', 'C-1649', 'C-1650', 'C-1651', 'C-1652', 'C-1653', 'C-1723', 'C-1724', 'C-1725', 'C-1726', 'C-1727', 'C-1728', 'C-1729', 'C-1730', 'C-1731', 'C-1732', 'C-1733', 'C-1734', 'C-1735', 'C-1736', 'C-1737', 'C-1738', 'C-1739', 'C-1740', 'C-1741', 'C-1741, C-1742', 'C-1742', 'C-1743', 'C-1744', 'C-1745', 'C-1753', 'C-1818', 'C-1875', 'C-1876', 'C-1877', 'C-1878', 'C-1879', 'C-1880', 'C-1881', 'C-1882', 'C-1883', 'C-1884', 'C-1885', 'C-1886', 'C-1887', 'C-1888', 'C-1889', 'C-1890', 'C-1891', 'C-1892', 'C-1893', 'C-1894', 'C-1895', 'C-1896', 'C-1897', 'C-1898', 'C-1899', 'C-1900', 'C-2022', 'C-2023', 'C-2024', 'C-2025', 'C-2026', 'C-2027', 'C-2028', 'C-2029', 'C-2030', 'C-2031', 'C-2032', 'C-2033', 'C-2034', 'C-2035', 'C-2036', 'C-2037', 'C-2038', 'C-2039', 'C-2040', 'C-2041', 'C-2042', 'C-2043', 'C-2044', 'C-2045', 'C-2046', 'C-2047', 'C-2048', 'C-2049', 'C-2050', 'C-2051', 'C-2052', 'C-2053', 'C-2095', 'C-2096', 'C-2097', 'C-2098', 'C-2099', 'C-2100', 'C-2101', 'C-2102', 'C-2105', 'C-2106', 'C-2107', 'C-2108', 'C-2109', 'C-2110', 'C-2111', 'C-2112', 'C-2113', 'C-2114', 'C-2115', 'C-2116', 'C-2117', 'C-2118', 'C-2118A', 'C-2119', 'C-2120', 'C-2121', 'C-2122', 'C-2123', 'C-2124', 'C-2125', 'C-2126', 'C-2127', 'C-2128', 'C-2129', 'C-2130', 'C-2131', 'C-2132', 'C-2133', 'C-2134', 'C-2135', 'C-2136', 'C-2137', 'C-2138', 'C-2139', 'C-2140', 'C-2141', 'C-2142', 'C-2175', 'C-2181', 'C-2182', 'C-2183', 'C-2184', 'C-2185', 'C-2186', 'C-2187', 'C-2188', 'C-2189', 'C-2190', 'C-2191', 'C-2192', 'C-2193', 'C-2193*', 'C-2194', 'C-2195', 'C-2196', 'C-2197', 'C-2198', 'C-2199', 'C-2200', 'C-2201', 'C-2202', 'C-2203', 'C-2204', 'C-2206', 'C-2207', 'C-2208', 'C-2209', 'C-2210', 'C-2211', 'C-2212', 'C-2213', 'C-2214', 'C-2215', 'C-2216', 'C-2218', 'C-2219', 'C-2220', 'C-2221', 'C-2229', 'C-2230', 'C-2231', 'C-2232', 'C-2233', 'C-2234', 'C-2235', 'C-2236', 'C-2481', 'C-2482', 'C-2483', 'C-2484', 'C-2484l', 'C-2485', 'C-2486', 'C-2487', 'C-2488', 'C-2489', 'C-2489 &amp; C-2490', 'C-2490', 'C-2491', 'C-2492', 'C-2494', 'C-2731A', 'C-2732', 'C-2733', 'C-2734', 'C-2735', 'C-2736', 'C-2737', 'C-2738', 'C-2739', 'C-2740', 'C-2741', 'C-2742', 'C-2743', 'C-2744', 'C-2745', 'C-2746', 'C-2747', 'C-2748', 'C-2749', 'C-2750', 'C-2801', 'C-2802', 'C-2803', 'C-2804', 'C-2805', 'C-2806', 'C-2807', 'C-2808', 'C-2809', 'C-2810', 'C-2811', 'C-2812', 'C-2813', 'C-2814', 'C-2815', 'C-2816', 'C-2817', 'C-2818', 'C-2819', 'C-2820', 'C-2821', 'C-2822', 'C-2823', 'C-2824', 'C-2825', 'C-2826', 'C-2827', 'C-2828', 'C-2829', 'C-2830', 'C-2831', 'C-2832', 'C-2833', 'C-2834', 'C-2835', 'C-2836', 'C-2837', 'C-2838', 'C-2839', 'C-2840', 'C-2841', 'C-2842', 'C-2847', 'C-2914', 'C-2947', 'C-2948', 'C-2949', 'C-2950', 'C-2951', 'C-2952', 'C-2953', 'C-2954', 'C-2955', 'C-2956', 'C-2957', 'C-2958', 'C-2959', 'C-2960', 'C-2961', 'C-2962', 'C-2963', 'C-2964', 'C-2965', 'C-2966', 'C-2967', 'C-2968', 'C-2969', 'C-2980', 'C-2981', 'C-2982', 'C-2983', 'C-2984', 'C-3507', 'C-4212', 'C-4502', 'C-4503', 'C-4504', 'C-4505', 'C-4506', 'C-4507', 'C-4508', 'C-4543', 'C-4544', 'C-4545', 'C-4546', 'C-4547', 'C-4548', 'C-4549', 'C-4600', 'C-4601', 'C-4602', 'C-4603', 'C-4604', 'C-4605', 'C-4606', 'C-4607', 'C-4608', 'C-4609', 'C-4610', 'C-4611', 'C-4612', 'C-4613', 'C-4614', 'C-4615', 'C-4616', 'C-4617', 'C-4618', 'C-4745', 'C-4816', 'C-6776', 'C-6862', 'C-6863', 'C-6864', 'C-6865', 'C-6866', 'C-6867', 'C-6868', 'C-6869', 'C-6870', 'C-6871', 'C-6872', 'C-6873', 'C-6874', 'C-6875', 'C-6876', 'C-6877', 'C-6878', 'C-6879', 'C-6880', 'C-6881', 'C-6882', 'C-6883', 'C-6884', 'C-6885', 'C-6886', 'C-6887', 'C-6888', 'C-6889', 'C-6890', 'C-6891', 'C-6892', 'C-6893', 'C-6894', 'C-6895', 'C-6896', 'C-6897', 'C-6898', 'C-6899', 'C-6900', 'C-6901', 'C-6902', 'C-6903', 'C-6905', 'C-6906', 'C-6907', 'C-6908', 'C-6909', 'C-6910', 'C-6911', 'C-6912', 'C-6913', 'C-6914', 'C-6968', 'C-8888', 'C2739', 'c-1742', 'c-1892', 'c-2022', 'c-2027', 'c-2120', 'c-2484', 'c-2739', 'c-2842', 'c-2983']</t>
         </is>
@@ -1278,18 +1359,22 @@
       <c r="P13" t="n">
         <v>73726</v>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>99899-99900</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
         <v>71769</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>4588</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>['10', '10-10a', '100239-100242', '10025-10026', '10027-10030', '10047-10048', '10053-10055', '10061-10062', '10097-10099', '10104-10107', '10192-10195', '10328-10329', '103401-103403', '103868-103872', '103993-103996', '104090-104092', '104433-104435', '104584-104585', '10461-10462', '104873-104879', '1050-1052', '105316-105317', '105436-105438', '10577-10584', '10587-10588', '105981-105985', '106579-106581', '10660-10661', '106623-106624', '106924-106925', '106988-106990', '107200-107201', '107348-107349', '10762-10765', '107724-107725', '107872-107873', '10792-10795', '107934-107935', '108110-110111', '108110-180111', '108131-108132', '108180-108181', '108201-108202', '108275-108281', '108313-108314', '108313/108314', '10845-10846', '108452-108453', '10847-10848', '108517-108519', '108547-108548', '108625-108627', '108738-108742', '108839-108840', '108885-108887', '109082-109084', '10924-10926', '10937-10940', '10955-10956', '10967-10971', '11-11b', '110283-110284', '11043-11045', '1108-1109', '11088-11089', '110946-110948', '110949-110950', '110992-110994', '11112-11114', '11115-11117', '11134-11135', '11136-11138', '111714-111716', '11181-11184', '11187-11189', '11195', '1119939-119940', '11207-11208', '112095-112097', '112288-112292', '11229-11230', '11231-11232', '11237-11238', '113284-113285', '113324-113326', '113607-113608', '11374-11375', '11397-11399', '114123-114125', '11419-11422', '11423-11424', '114247-114250', '11425-11429', '11436-11438', '114387-114391', '11469-11470', '114715-114716', '11477-11478', '114782-114784', '11484-11486', '114854-114856', '114857-114858', '11491-11494', '11501-11502', '11506-11510', '11519-11521', '11522-11523', '11531-11533', '11536-11538', '115482-115484', '115728-115730', '11574-11575', '11576-11577', '11578-11581', '11582-11584', '11585-11588', '11589-11590', '11591-11592', '11609-11614', '11617-11619', '11626-11628', '11635-11642', '11645-11649', '11653-11659', '11699-11750', '11727-11729', '11740-11742', '11745-11746', '11747-11751', '11754-11756', '11767-11771', '11772-11774', '11781-11784', '11785-11789', '11790-11793', '11794-11796', '11806-11808', '118661-118666', '11876-11883', '11886-11888', '11953-11958', '11985-11995', '119939', '119939-119940', '11a-11b', '11c-11d', '11e-11f', '11g-11L', '11g-11h', '11i-11j', '11k-11L', '11k-11l', '11m', '11n', '11o', '12', '12/155-127161', '12011-12013', '12038-12044', '12053-12055', '120886-120887', '1209-1212', '120940-120943', '12133-12134', '121525-121527', '121625-121627', '12184-12188', '122227-122229', '12245-12248', '122482-122513', '12249-12250', '1226-1229', '12262-12264', '12271-12272', '122748-122751', '122761-122765', '122789-122793', '122851-122854', '122858-122861', '12289-12293', '122927-122930', '12296-12299', '123012-123014', '123068-123070', '12313-12316', '123132-123136', '123145-123147', '123440-123452', '123626-123635', '123658-123660', '123756-123761', '123814-123816', '12382-12383', '123866-123868', '12396-12397', '124018-124019', '124175-124176', '124345-124347', '124422-124425', '12444-12446', '124473-124475', '1245', '124623-124629', '124630-124631', '124632-124650', '124720-124722', '12480-12481', '12488-12490', '124884-124886', '12491-12493', '12494-12497', '125006-125008', '125100-125102', '125112-125125', '125247-125252', '12529-12531', '12532-12533', '12534-12539', '125349-125356', '12544-12546', '12547-12552', '125510-125512', '12565-12575', '12576-12581', '125860-125864', '125957-125962', '126020-126021', '126044-126046', '126047-126050', '126051-126054', '126055-126059', '126139-126141', '12618-12619', '12623-12625', '12634-12638', '126421-126427', '126436-126437', '126556-126558', '126589-126592', '126603-126605', '126608-126614', '12666-12667', '126744-126745', '12675-12676', '12685-12686', '12689-12694', '126901-126932', '127042-127045', '127076-127078', '12714-12715', '127155-127161', '127162-127164', '127192-127193', '12721-12722', '127255-127259', '127260-127261', '12728-12729', '127298-127300', '12743-12746', '127505-127508', '12760-12762', '127603-127604', '127624-127626', '12767-12770', '127716-127718', '127787-127790', '127797-127800', '127841-127845', '127923-127925', '1281-1284', '12810-12812', '12816-12817', '12825-12828', '12833-12835', '12835-12837', '12841-12842', '128474-128480', '12875-12878', '128755-128758', '128864-128867', '128886-128888', '129027-129032', '12933-12934', '129359-129365', '129483-129485', '129633-129636', '129647-129649', '129657-129658', '129676-129677', '12968-12969', '129820-129821', '129825-129830', '129833-129838', '129842-129844', '129892-129897', '129949-129958', '129975-129977', '12998-13000', '13-13b', '130020-130021', '130022-130025', '130259-130260', '13038-13042', '130424-130426', '130433-130435', '130507-130509', '130529-130531', '130551-130552', '130563-130564', '130578-130580', '13075-13077', '130883-130885', '130948-130950', '131133-131134', '131140-131148', '131159-131160', '131166-131167', '131199-132202', '131266-131268', '13133-13135', '13138-13139', '13163-13164', '131643-131644', '131661-131662', '13167-13169', '131684-131692', '13170-13172', '131731-131732', '131733-131735', '131853-131854', '131857-131863', '13190-13192', '13199-13201', '132003-132007', '132008-132010', '132023-132026', '13220-13222', '132203-132206', '132212-132217', '132321-132326', '132332-132334', '132335-132340', '132344-132349', '132423-132424', '132425-132426', '132451-132454', '132486-132487', '132503-132508', '132540-132542', '13255-13258', '13262-13263', '132630-132633', '132672-132674', '132716-132718', '13276-13278', '132768-132771', '13279-13281', '132808-132810', '132840-132841', '13285-13287', '132871-132874', '132915-132916', '132995-132997', '133010-133012', '13303-13304', '133151-133152', '133157-133159', '13318-13320', '133201-133204', '13332-13333', '13336-13338', '13339-13340', '133397-133398', '13341-13342', '13343-13345', '133438-133441', '13346-13347', '13348-13350', '13351-13352', '13353-13355', '133557-133562', '133565-133566', '133578-133580', '133585-133587', '13359-13364', '133654-133657', '13367-13368', '133670-133671', '133708-133711', '13371-13373', '133758-133760', '133801-133803', '13381-13384', '133856-133859', '133913-133915', '133916-133917', '13397-13402', '134060-134061', '13409-13413', '13417-13419', '13420-13423', '13424-13426', '134244-134245', '134361-134362', '134372-134373', '134428-134431', '13445-13446', '134451-134457', '134474-134476', '134477-134481', '13449-13450', '134529-134530', '13454-13456', '13459-13460', '13461-13462', '134651-134652', '13477-13479', '13492-13494', '134924-134930', '13498-13503', '13506-13507 13578-13580', '13508-13511', '135094-135095', '135127-135128', '13518-13519', '135227-135228', '13527-13529', '135286-135288', '135289-135290', '135295-135296', '135355-135657', '13538-13540', '135380-135381', '135382-135384', '13541-13543', '13548-13549', '135580-135581', '13564-13565', '13566-13567', '135667-135669', '135685-135688', '13592-13593', '13594-13595', '13601-13602', '13607-13608', '13609-13611', '13624-13627', '136252-136254', '13628-13630', '13641-13642', '13653-13654', '13666-13668', '13688-13689', '13713-13714', '13715-13716', '13735-13740', '13741-13743', '13767-13770', '13771-13773', '13783-13785', '13786-13788', '13789-13791', '13792-13794', '13821-13822', '13839-13846', '13857-13859', '13862-13866', '13884-13896', '13899-138901', '13936-13940', '13961-13963', '13964-13966', '13967-13968', '13969-13970 13978-13979', '13971-13973', '13979-13979', '13b', '13b-13c', '13c', '14000-14001', '14002-14005', '14006-14008', '14014-14015', '14016-14018', '14019-14022', '14023-14024', '14025-14029', '14032-14035', '14037-14039', '14040-14048', '14056-14061', '14081-14084', '14094-14096', '14101-14103', '14183-14184', '14185-14186', '14187-14188', '14196-14203', '14214-14216', '14217-14218', '14223-14224', '14226-14227', '14228-14229', '14230-14231', '14237-14238', '14239-14240', '14241-14242', '14245-14246', '1426-1435', '14313-14316', '14328-14332', '1436-1438', '14367-14371', '14388-14389', '14390-14398', '14399-14400', '14403-14404', '14419-14426', '14452-11454', '14452-14454', '14459-14464', '14465-14469', '14474-14475', '14491-14492', '14495-14497', '14498-14501', '14507-14508', '14515-14519', '14544-14545', '14546-14547', '14548-14549', '14550-14553', '14567-14570', '1458', '14592-14593', '1459214593', '14594-14595', '14621-14623', '14633-14635', '1464-1466', '14644-14649', '14672-14673', '14674-14675', '14676-14677', '14678-14684', '14685-14691', '14694-14698', '14699-14701', '14704-14705', '14709-14712', '14713-14716 14785-14791', '1473-1477', '14731-14732', '14733-14735', '14736-14737', '14738-14741', '14750-14753', '14756-14758', '14765-14757', '14768-14770', '14771-14773', '14774-14781', '14790-14792', '14795-14800', '14801-14802', '14807-14809', '14817-14818', '14822-14824', '1484-1485', '14855-14856', '1486-1490', '14867-14868', '14869-14870', '14871-14876', '14874-14876 &amp; 14871-14873', '14882-14885', '14900-14904', '14911-14912', '14919-14922', '14923-14927', '14933-14934', '14937-14938', '14974-14975', '14979-14980', '14981-14983', '14986-14989', '14994-14997', '14998-15000', '15001-15002', '15007-15009', '15031-15033', '15040-15042', '15053-15054', '15062-15063', '15068-15069', '15072-15074', '15081-15083', '15084-15086', '15087-15088', '15089-15091', '15092-15093', '15094-15095', '15099-15101', '15102-15104', '15109-15110', '15126-15127', '15131-15132', '15142-15143', '15144-15145', '15154-15160', '15165-15167', '15168-15170', '15171-15173', '15174-15175', '15191-15195', '15196-15198', '15233-15235', '15243-15246', '15247-15248', '15265-15266', '15287-15290', '15310-15312', '15318-15323', '15324-15325', '15328-15330', '15337-15339', '15343-15345', '15384-15385', '15404-15405', '15443-15444', '1546-1548', '15460-15461', '15462-15463', '15467-15470', '15481-15482', '15488-15489', '15491-15493', '15494-15497', '15500-15502', '15545-15547', '15555-15557', '15568-15569', '1557-1558', '15570-15571', '15572-15574', '15577-15581', '15608-15609', '15612-15615', '15625-15626', '15629-15634', '15639-15641', '15642-15644', '15647-15648', '15656-15658', '15661-15662', '15664-15665', '15672-15673', '15676-15677', '15678-15680', '15706-15707', '15708-15710', '15727-15730', '15735-15737', '15757', '15773-15775', '15796-15797', '15798-15800', '15801-15802', '15803-15811', '15823-15825', '15835-15836', '15842-15843', '15844-15845', '15846-15847', '15848-15852', '15853-15854', '15855-15857', '15858-15859', '15866-15868', '15873-15876', '15877-15878', '15897-15898', '15899-15900', '15922-15924', '15930-15931', '15936-15939', '15946-15952', '15946-15967', '15953-15955', '15956-15960 15963-15964', '15961-15962', '15965-15967', '15978-15979', '15983-15984', '15985-15987', '15b', '15c', '16-16e', '16012-16014', '16015-16016', '16017-16020', '16021-16023', '16024-16025', '16026-16027', '16036-16038', '16040-16043', '16048-16051', '16066-16070', '16076-16079', '16087-16088', '16130-16131', '16132-16133', '16143-16144', '16145-16146', '16157-16158', '16159-16160', '16165-16167', '16193-16199', '16223-16225', '16228-16229', '16236-16238', '16239-16241', '16251-16253', '16254-16255', '16258-16259', '16276-16281', '16290-16291', '16292-16294', '16295-16297', '16302-16304', '16310-16311', '16316-16320', '16324-16325', '16328-16333', '16334-16337', '16357-16359', '16363-16364', '16379-16380', '16390-16392', '16405-16407', '16418-16419', '16420-16421', '16422-16423', '16437-16441', '16442-16443', '16451-16453', '16456-16457', '16468-16472', '16473-16474', '16479-16480', '16481-16482', '16489-16490', '16513-16515', '16516-16518', '16541-16542', '16571-16572', '16940-76941', '17049-10750', '1711-1713', '1726-1731', '17427-71429', '17588-17589', '17611-17614', '17617-17619', '17620-17621', '17643-17644', '17653-17654', '17661-17664', '17691-17692', '17697-17699', '17705-17706', '17707-17708', '17721-17722', '17775-17777', '17782-17784', '17785-17786', '17787-17790', '17833-17835', '17853-17854', '17855-17857', '17872-17873', '17876-17877', '17893-17895', '17905-17908', '17909-17910', '17911-17913', '17914-17915', '17916-17917', '17928-17933', '17937-17939', '17965-17966', '17970-17971', '17982-17983', '17984-17985', '17990-17991', '17995-17997', '17a', '17b', '17c', '17d', '18013-18016', '18017-18018', '18019-18020', '18021-18024', '18030-18031', '18036-18041', '18063-18064', '18067-18069', '18070-18071', '18072-18073', '18106-18107', '18121-18122', '18146-18147', '18222-18223', '18226-18228', '18231-18233', '18254-18255', '18256-18257', '18258-18261', '18262-18263', '18269-18270', '18271-18272', '18273-18274', '18275-18276', '18291-18294', '18301-18302', '18311-18312', '18316-18317', '18337-18338', '18341-18343', '18344-18345', '18353-18354', '18358-18359', '18360-18361', '18362-18363', '18373-18374', '18375-18376', '18380-18382', '18388-18389', '18390-18392', '18401-18404', '18412-18413', '18417-18419', '18428-18429', '18430-18431', '18435-18438', '18439-18442', '18445-18446', '18447-18448', '18449-18450', '18468-18469', '18473-18474', '18478-18479', '18480-18483', '18495-18497', '18506-18508', '18509-18511', '18514-18515', '18521-18523', '18534-18535', '18536-18537', '18546-18554', '18547-18548', '18549-18550', '18551-18552', '18568-18569', '18573-18574', '18598-18599', '18600-18601', '18602-18603', '18604-18605', '18608-18609', '18617-18618', '18649-18652', '18658-18659', '18660-18661', '18692-18694', '18699-18701', '18704-18708', '18715-18716', '18723-18724', '18725-18729', '18741-18742', '18751-18753', '18754-18755', '18773-18776', '18777-18778', '18782-18785', '18782-18786', '18786-18788', '18791-18794', '18833-18835', '1888-1890', '18882-18886', '18902-18903', '18904-18906', '18907-18909', '18941-18942', '18946-18947', '18952-18953', '18993-18995', '18996-18998', '18b', '18c', '19 q, 19s', '19006-19009', '19035-19037', '19059-19062', '19131-19135', '19148-19150', '19151-19153', '19170-19171', '19172-19175', '19196-19199', '19200-19203', '19213-19214', '19217-19218', '19289-19290', '19329-19330', '19335-19336', '19375-19376', '19393-19394', '19395-19396', '19406-19408', '19417-19419', '19420-19421', '19440-19441', '19442-19443', '19444-19445', '19448-19477', '19485-19486', '19597-19598', '19599-19600', '19603-19604', '19630-19635', '19664-19667', '19712-19715', '19773-19774', '19792-19794', '19816-19817', '19825-19830', '19936-19948', '19L, 19q, 19s', '19a, 19q, 19s', '19b, 19q, 19s', '19c, 19q, 19s', '19d, 19q, 19s', '19e-19f, 19q, 19s', '19g', '19h-19i, 19q, 19s', '19j, 19q, 19s', '19k, 19q, 19s', '19m', '19n, 19q, 19s', '19q, 19s', '1b', '1c', '1d', '1e', '1e-1f', '1f', '1h', '1i', '1j', '1k', '1l', '1m', '1n', '1o', '1p', '1q', '1r', '1s', '1t', '1u', '1v', '1x', '2', '20-20g', '20017-20018', '20046-20047', '20092-20096', '20187-20190', '20191-20194', '20203-20205', '20215-20216', '20247-20248', '20249-20250', '20269-20270', '20279-20282', '20285-20288', '20334-20335', '20336-20337', '20340-20343', '20356', '20356-20356', '20357-20359', '20373-20374', '20405-20407', '20425-20427', '20444-20446', '20467-20471', '2052-2053', '20586-20588', '20595-20605', '20638-20640', '20653-20655', '20719-20729', '20763-20764', '20771-20773', '20781-20782', '20812-20814', '20834-20835', '20890-20893', '20913-20914', '20915-20916', '20943-20945', '20946-20947', '20971-20974', '20981-20984', '20985-20990', '21023-21024', '21039-21041', '21042-21045', '21081-21083', '21109-21110', '21128-21129', '21141-21143', '21151-21154', '21167-21170', '21173-21174', '21179-21180', '21190-21198', '21228-21229', '21243-21245', '21259-21262', '21266-21267', '21276-21277', '21306-21308', '21330-21332', '21343-21345', '21353-21354', '21373-21374', '21430-21433', '21434-21437', '21438-21439', '21483-21484', '21508-21510', '21511-21515', '21519-21521', '21529-21530', '21531-21535', '21536-21542', '21555-21556', '21561-21562', '21563-21566', '21567-21568', '21580-21581', '21614-21615', '21618-21621', '21642-21643', '21689-21694', '21735-21736', '21761-21764', '21765-21766', '21965-21968', '21975-21977', '21b', '22-22f', '22007-22012', '22036-22039', '22040-22048', '22060-22062', '22228-22229', '22236-22238', '22250-22252', '22320-22321', '22322-22323', '22327-22329', '22336', '22336-22338', '22343-22344', '22383-22385', '22397-22400', '22423-22426', '22436-22452', '22487-22489', '22544-22552', '22563-22564', '22577-22578', '22585-22586', '22616-22617', '22642-22643', '22644-22645', '22667-22669', '22730-22733', '22778-22780', '22788-22790', '22791-22792', '22799-22801', '22807-22812', '22830-22833', '22834-22835', '22844-22847', '22925-22928', '22976-22978 22987-22990', '22984-22985', '23', '23012', '23013-23015', '23044-23048', '23049-23050', '23073-23074', '23073-23078', '23127-23128', '23206-23208', '23245-23246', '23256-23258', '23323-23324', '23363-23365', '23378-23379', '2340-2342', '23508-23509', '23513-23519', '23559-23562', '23570-23571', '23578-23584', '2363-2368', '23645-23652', '23653-23654', '23660-23661', '23662-23668', '23700-23702', '23726-23727', '23759-23761', '23775-23778', '23782-23783', '23797-23799', '23831-23833', '23849-23852', '23853-23854', '23879-23880', '23922-23925', '23937-23938', '23939-23943 24205-24206', '23957-23959', '23978-23979', '23984-23986', '23K', '23L', '23a', '23c', '23c-23d', '23d', '23e', '23f', '23g', '23h', '23h, 23j', '23i', '23j', '23k', '23l', '23m', '23n', '23o', '23p', '23q', '23r', '23s', '23t', '23u', '23v', '24031-24033', '24037-24039', '24040-24041', '24052-24055', '24169-24171', '24201-24204', '24207-24209', '24227-24229', '24257-24260', '24267-24269', '24316-24319', '24320-24321', '24322-24325', '24343-24345', '24387-24388', '24389-24392', '24458-24460', '24501-24503', '24512-24513', '24583-24584', '24628-24632', '24712-24718', '24729-24731', '24737-24738', '2475-2478', '2475-2481', '2475-2485', '24766-24768', '2479-2481', '24818-24827', '24828-24831', '24842-24845', '24846', '24848-24849', '24953-24955', '24b', '24c', '24d', '24f', '24g', '25007-25008', '25023-25024', '25053-25054', '25154-25156', '25190-25193', '25203-25206', '25245-25247', '25300-25302', '25342-25344', '25342-25345', '254-258', '25429-25431', '25443-25445', '25453-25454', '25455-25456', '25464-25465', '25466-25468', '25481-25484', '25501-25503', '25511-25512', '25513-25515', '25541-25543', '25568-22569', '25591-25594', '25638-25644', '25682-25684', '25689-25691', '25707-25708', '25746-25747', '25844-25846', '25877-25879', '25894-25895', '25927-25929', '25b', '25c', '26-26vv', '26019-26020', '26110-26111', '26174-26175', '26176-26177', '26190-26197', '26242-26251', '26309-26310', '26311-26312', '26313-26314', '26335-26336', '26350-26365', '26396-26398', '26401-26402', '26425-26428', '26433-26436', '26445-26446', '26463-26465', '26463-62465', '26500-26502', '26513-26516', '26599-26603', '26689-26693', '267-270', '26731-26733', '26734-26737', '26752-26753', '26752-26773', '26753-26754', '26771-26774', '26784-26785', '26794-26796', '26825-26828', '26851-26854', '26870-26873', '26918-26926', '26932-26934', '27-27q', '27066-27068', '27093-27094', '27103-21704', '27126-27128', '27165-27166', '27167-27170', '27171-27172', '27218-27222', '27246-27249', '27260-27261', '27273-27279', '27280-27283', '27284-27285', '27295-27297', '27313-27314', '27319-27320', '27325-27327', '27336-27338', '27366-27369', '27381-27384', '27437-27438', '27441-27442', '27477-27479', '27522-27524', '27580-27582', '27583-27584', '27668-27669', '27668-27669 27695-27696', '27672-27673', '27684-27685', '27695-27696', '27734-27737', '27755-27757', '27821-27822', '27856-27858', '27903-27905', '27930-27932', '27933-27934', '27947-27949', '27950-27953', '27954-27967', '27987-27989', '27990-27992', '28007-28010', '28015-28017', '28038-28040', '28050-28051', '28052-28053', '28066-28067', '28105-28106', '28122-28125', '28153-28156', '28159-28161', '28172-28173', '28183-28184', '28185-28186', '28187-28188', '28194-28196', '28197-28198', '28209-28216', '28217-28220', '28221-28223', '28224-28226', '28227-28229', '28230-28231', '28232-28233', '28254-28255', '28256-28258', '28259-28262', '28292-28294', '2834-2836', '28380-28385', '2847-2848', '28485-28487', '28501-28502', '28522-28524', '28525-28527', '28554-28556', '28616-28618', '2863-2864', '28674-28677', '28688-28690', '28867-28868', '28914-28916', '28989-28990', '28a-28d', '28a-28e', '28e', '28f', '29001-29003', '2901-2903', '29032-29035', '2907-2912', '2913-2916', '29147-29149', '29221-29223', '29250-29251', '29289-29292', '29299-29301', '29387-29391', '29403-29404', '29418-29420', '29421-29423', '29450-29453', '29457-29459', '29463-29466', '29512-19513', '29517-29520', '29521-29523', '2954-2955', '29545-29550', '29597-29599', '2960-2965', '29600-29602', '29612-29616', '29711-29714', '29733-29736', '29814-29815', '29816-29817', '29876-29880', '29881-29884', '29885-29889', '29920-29924', '29938-29939', '29978-29979', '29a', '29b', '2a', '2aa', '2bb', '2c-2e', '2cc', '2dd', '2ee-2ii', '2f', '2g', '2h-2j', '2jj', '2k-2L', '2m', '2r-2s', '2t', '2u', '2v', '2w-2x', '2y', '2z', '3', '3-3c', '30075-30076', '30134-30137', '3016-3019', '30182-30187', '30212-30214', '30215-30217', '30218-30219', '30247-30251', '30292-30294', '30295-30298', '30303-30306', '30307-30308', '30336-30339', '30355-30358', '3036-3037', '30362-30365', '3038-3040', '30394-30397', '30516-30518', '30527-30528', '30553-30556', '30594-30597', '30638-30639', '30649-30651', '30685-30688', '30693-30695', '30705-30706', '30720-30721', '30817-30819', '30865-30867', '30882-30885', '30886-30889', '30913-30917', '30918-30919', '30944-30945', '30965-30967', '30977-30979', '30997-30999', '30b', '31-31e', '31026-31031', '31048-31050', '31113-31119', '31122-31124', '31129-31130', '31160-31162', '31163-31165', '31176-31177', '31178-31181', '3137-3138', '31370-31371', '3139-3141', '31407-31408', '31409-31410', '31624-31625', '31690-31692', '31717-31719', '31729-31733', '31812-31814', '31849-31853', '31866-31869', '31899-31901', '31955-31957', '31966-31967', '31984-31986', '31987-31989', '31995-31998', '32002-32004', '32018-32019', '3205-3206', '32072-32073', '32103-32109', '32158-32163', '32168-32174', '32183-32184', '32187-32189', '3219-3220', '32190-32192', '32213-32217', '32268-32269', '32287-32290', '3232-3233', '32335-32338', '3235-3236', '32354-32357', '3237-3239', '32374-32375', '3240-3241', '32423-32424', '32428-32430', '32451-32453', '32525-32528', '32529-32530', '32533-32535', '3254-3302', '32556-32557', '32584-32585', '32594-32595', '32613-32615', '32620-32621', '32629-32631', '32646-32649', '32676-32679', '32684-32685', '32694-32696', '32722-32724', '32741-32743', '32751-32753', '32801-32803', '3282-3284', '32821-32822', '32883-32888', '32921-32923', '32933-32934', '32991-32992', '32a', '33013-33015', '3303-3305', '33041-33043', '33044-33046', '33049-33052', '33101-33103', '33116-33117', '33167-33169', '33282-33284', '33285-33286', '33289-33292', '33306-33308', '33309-33312', '33354-33356', '33364-33366', '33367-33369', '3340-3342', '33426-33429', '33436-33437', '33459-33462', '33463-33465', '33490-33492', '33506-33511', '3352-3354', '33545-33546', '33547-33550', '33576-33577', '33605-33606', '33618-33625', '33626-33627', '3366-3367', '33692-33695', '33709-33712', '33723-33724', '33733-33734', '33753-33756', '33786-33789', '33838-33840', '3391-3392', '33975-33981', '33a', '33c', '33c, 33g', '33d', '33e', '3402-3404', '34021-34023', '34035-34037', '34092-34093', '34104-34106', '34107-34110', '3413-3415', '34190-34193', '34194-34196', '34221-34222', '34251-34257', '3430-3432', '34357-34358', '34400-34402', '34457-34459', '34490-34493', '34497-34498', '34528-34529', '34530-34532', '34578-34581', '34584-34586', '34587-34590', '34591-34594', '34612-34615', '3465-3467', '3465-3469', '34693-34695', '34707-34710', '34711-34712', '34738-34739', '34746-34749', '34764-34773', '34781-34783', '34796-34798', '34799-34801', '34820-34821', '34826-34828', '34872-34874', '34909-34910', '34914-34915', '3492-3493', '34923-34925', '34984-34985', '34b', '34c', '34d', '35000-35002', '35036-35037', '35045-35046', '35047-35048', '35053-35054', '35055-35056', '35057-35063', '35083-35084', '35107-35109', '35125-35126', '35127-35130', '3515-3516', '35154-35156', '35215-35217', '35227-35230', '35239-35241', '35242-35245', '35248-35250', '35259-35260', '35265-35272', '3532-3535', '35370-35371', '35372-35373', '35374-35379', '3542-3545', '35496-35498', '35556-35560', '35573-35575', '35578-35580', '35585-35588', '35609-35612', '35640-35641', '35651-35653', '35654-35655', '35713-35715', '3581-3582', '35840-35844', '3585-3586', '35850-35852', '35857-35860', '35883-35885', '35920-35921', '35972-35975', '35980-35983', '35986-35987', '35997-35998', '35a', '36002-36003', '36008-36009', '36019-36022', '36055-36057', '36058-36060', '36138-36139', '36153-36156', '36268-36271', '36315-36317', '36330-36331', '36340-36342', '36347-36350', '36387-36388', '36413-36414', '3646-3648', '36514-36515', '36550-36553', '36562-36563', '36564-36566', '365888', '36589-36591', '36623-36625', '36700-36703', '36704-36708', '36713-36715', '36731-36734', '36747-36748', '36756-36758', '36759-36762', '36763-36764', '36766-36767', '36768-36772', '36773-36776', '36784-36799', '36810-36811', '36815-36816', '3682-3685', '36835-36836', '36837-36838', '36877-36878', '36879-36880', '36918-36921', '36928-36931', '36973-36975', '36984-36989', '36a', '36a-36c', '37023-37024', '37029-37031', '37047-37049', '3705-3706', '3705-3708', '37062-37064', '3707-3708', '3709-3711', '37105-37107', '37124-37125', '37126-37128', '37133-37134', '37175-37177', '37178-37182', '37192-37194', '37227-37230', '37331-37332', '37347-37349', '37350-37351', '37359-37361', '37362-37365', '37405-37406', '3741-3742', '37416-37418', '37423-37430', '3743-3745', '37435-37437', '37490-37491', '37566-37567', '37574-37576', '3759-3760', '37592-37595', '37601-37603', '37604-37607', '37608-37609', '3761-3763', '37681-37683', '37764-37765', '37770-37771', '3778-3780', '37783-37786', '37833-37835', '37839-37840', '37841-37844', '37869-37871', '37895-37896', '37920-37922', '3795-3797', '37969-37971', '37a', '37b', '38018-38021', '38023-38028', '3803-3804', '38037-38038', '38043-38046', '38047-38049', '3805-3806', '38069-38070', '38074-38077', '38153-38156', '38157-38159', '38171-38172', '38196-38198', '38237-38240', '38253-38254', '38260-38261', '38277-38292', '38349-38350', '38354-38355', '38375-38376', '38393-38396', '38416-38418', '38421-38422', '38426-38427', '38480-38483', '38490-38491', '3850-3859', '38530-38538', '38603-38608', '38618-38620', '38640-38641', '38670-38671', '38672-38675', '38682-38683', '38763-38764', '38780-38783', '38784-38786', '38847-38850', '38853-38856', '38864-38865', '38905-38906', '38909-38911', '38922-38929', '38937-38938', '38958-38960', '38994-38995', '38a', '39032-39033', '39097-39098', '39120-39121', '39127-39129', '39130-39132', '39133-39135', '39138-39141', '39248-39249', '39257-39258', '39269-39271', '39312-39314', '39383-39384', '39413-39414', '39435-39440', '3945-3955', '39451-39453', '39483-39484', '39536-39537', '39547-39548', '39573-39575', '39611-39612', '39619-39621', '39638-39640', '39644-39645', '39646-39647', '39651-39661', '39762-39763', '3977-3979', '39812-39814', '39911-39912', '39926-39927', '39984-39986', '39991-39992', '39c', '39c-39d', '3a', '3b', '4', '40015-40017', '40159-40161', '40162-40163', '40170-40172', '40192-40194', '40203-40205', '40206-40208', '40221-40222', '40223-40224', '40232-40235', '4025-4027', '40302-40303', '40309-40312', '40315-40320', '40342-40343', '40381-40382', '40387-40390', '40444-40445', '40465-40466', '40481-40483', '40524-40525', '40615-40618', '40622-40623', '40710-40713', '40737-40739', '40746-40747', '40759-40760', '40778-40781', '40809-40810', '40828-40829', '4086-4088', '40882-40885', '40904-40905', '40906-40907', '40908-40911', '40964-40965', '40990-40992', '40993-40998', '40c-40e', '40e', '40e, 40g', '41', '41000-41005', '41020-41021', '41064-41068', '41085-41087', '4123-4125', '41246-41247', '41254-41256', '41284-41285', '41286-41288', '41298-41306', '41314-41315', '4132-4137', '41340-41341', '41467-41468', '41520-41521', '41529-41530', '41542-41543', '41549-41550', '41551-41552', '41582-41584', '41612-41614', '41625-41626', '41635-41636', '41664-41665', '41675-41676', '41708-41709', '41710-41712', '41726-41729', '41736-41737', '4174-4176', '41760-41762', '41770-41772', '41776-41777', '41781-41782', '4179-4181', '41802-41813', '41822-41829', '41870-41873', '41877-41879', '41880-41883', '41906-41908', '41942-41944', '41949-41951', '41969-41970', '41978-41990', '42-42e', '42008-42009', '4201-4202', '42035-42036', '42041-42046', '42053-42056', '4212-4214', '42138-42140', '42163-42165', '4219-4227', '42206-42210', '42211-42212', '42257-42258', '42261-42262', '42329-42330', '42379-42380', '4240-4243', '42409-42411', '42432-42433', '42448-42449', '42453-42454', '4248-4250', '42487-42488', '42492-42495', '42508-42509', '42510-42511', '42545-42546', '42547-42550', '42563-42564', '42650-42653', '42667-42669', '42670-42672', '42696-42698', '42715-42716', '42822-42823', '4285-4287', '42856-42857', '42940-42941', '42967-42969', '42983-42985', '42991-42992', '42993-42996', '42997-42998', '43-43b', '43046-43047', '43048-43049', '43119-43121', '4317-4319', '4320-4322', '43222-43224', '43311-43312', '43325-43326', '43327-43333', '43457-43459', '4347-4353', '4348-4350', '43559-43562', '4365-4367', '43686-43687', '43691-43693', '44 1/2 - 44 1/2 c', '44069-44070', '44106-44107', '44108-44109', '4411-4412', '44254-44255', '44326-44332', '44365-44367', '44375-44377', '44423-44425', '44494-44495', '4456-4458', '44569-44570', '44582-44583', '44641-44642', '44753-44754', '4477-4480', '44904-44906', '44912-44917', '44920-44921', '44922-44924', '44958-44961', '4497-4510', '449936-44939', '44a-44b', '45039-45042', '45047-45048', '45055-45057', '45103-45104', '45166-45167', '45180-45182', '45183-45187', '45215-45216', '4523-4528', '45261-45263', '45287-45289', '4534-4536', '45357-45359', '45402-45403', '45419-45426', '45493-45496', '45550-45551', '4557-4558', '4559-4560', '45637-45638', '45727-45730', '45739-45742', '45788-45791', '45809-45810', '45816-45817', '45829-45831', '45832-45833', '45847-45848', '45869-45870', '45966-45967', '45968-45970', '45978-45980', '45981-45982', '45983-45985', '45a', '45b', '46001-46003', '46016-46018', '4602-4604', '46032-46036', '46081-46083', '46098-46100', '46118-46119', '46130-46132', '46193-46196', '46200-46201', '46255-46259', '4627-4632', '46300-46303', '46378-46380', '46386-46387', '46443-46446', '4650-4652', '46513-46514', '46559-46562', '46565-46566', '46599-46601', '4665-4666', '46666-46674', '46675-46677', '46680-46684', '46709-46711', '46773-46777', '46801-46803', '46808-46813', '46863-46866', '46885-46886', '46916-46917', '46928-46929', '46933-46943', '46955-46957', '46966-46967', '46992-46995', '46a', '46c', '47013-47014', '4704-4707', '4708-4710', '47102-47104', '47123-47126', '4716-4717', '47160-41763', '47160-47163', '47220-47221', '47222-47223', '47238-47239', '47280-47283', '4734-4736', '47388-47390', '47426-47429', '47460-47462', '47463-47466', '47503-47505', '4751-4753', '4751-4756', '47542-47543', '47565-47567', '47639-47641', '47657-47658', '47659-47664', '4772-4774', '47732-47733', '47752-47754', '4780-4782', '47823-47824', '47825-47828', '47895-47896', '47925-47926', '47927-47930', '47957-47958', '47994-47996', '47a', '47e', '48', '48023-48026', '48048-48051', '48089-48092', '48104-48106', '48107-48109', '48123-48125', '48126-48127', '48139-48141', '48156-48159', '48171-48173', '48213-48214', '48220-48223', '48224-48225', '48228-48229', '48230-48231', '48261-48263', '48295-48301', '48364-48367', '48368-48373', '4838-4840', '48398-48401', '48473-48475', '48497-484500', '48516-48518', '48546-48548', '48554-48559', '48573-48574', '48577-48579', '48596-48599', '48627-48628', '48667-48670', '48673-48675', '48724-48728', '48734-48739', '48783-48785', '48786-48789', '4884-4888', '48886-48887', '48912-48914', '48954-48955', '48995-48996', '48b', '48d', '48e', '48f', '48g', '48h', '48i', '48j', '48k', '49', '49064-49067', '49081-49082', '49085-49086', '49087-49099', '49091-49093', '49145-49146', '4915-4917', '49183-49194', '49232-49234', '49251-49253', '49288-49291', '49292-49293', '49317-49320', '49324', '49476-49477', '49517-49518', '49523-49528', '49551-49553', '49560-49562', '4957-4958', '49633-49634', '4964-4967', '49653-49655', '49732-49734', '49742-49744', '4975-4978', '49772-49773', '49774-49775', '49819-49820', '4985-4988', '49853-49859', '4989-4991', '49908-49914', '49958-49960', '49977-49978', '49a', '49a, 49c', '49b', '49c', '49d', '49e', '49f'</t>
         </is>

--- a/examples/Canada OGD/upper Canada Land Petitions/profile.xlsx
+++ b/examples/Canada OGD/upper Canada Land Petitions/profile.xlsx
@@ -450,15 +450,25 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>most_frequent_count</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>csim</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -527,12 +537,18 @@
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>405180</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>83258</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>['0', '1', '10', '100', '1000', '10000', '10001', '10002', '10003', '10004', '10005', '10006', '10007', '10008', '10009', '1001', '10010', '10011', '10012', '10013', '10014', '10015', '10016', '10017', '10018', '10019', '1002', '10020', '10021', '10022', '10023', '10024', '10025', '10026', '10027', '10028', '10029', '1003', '10030', '10031', '10032', '10033', '10034', '10035', '10036', '10037', '10038', '10039', '1004', '10040', '10041', '10042', '10043', '10044', '10045', '10046', '10047', '10048', '10049', '1005', '10050', '10051', '10052', '10053', '10054', '10055', '10056', '10057', '10058', '10059', '1006', '10060', '10061', '10062', '10063', '10064', '10065', '10066', '10067', '10068', '10069', '1007', '10070', '10071', '10072', '10073', '10074', '10075', '10076', '10077', '10078', '10079', '1008', '10080', '10081', '10082', '10083', '10084', '10085', '10086', '10087', '10088', '10089', '1009', '10090', '10091', '10092', '10093', '10094', '10095', '10096', '10097', '10098', '10099', '101', '1010', '10100', '10101', '10102', '10103', '10104', '10105', '10106', '10107', '10108', '10109', '1011', '10110', '10111', '10112', '10113', '10114', '10115', '10116', '10117', '10118', '10119', '1012', '10120', '10121', '10122', '10123', '10124', '10125', '10126', '10127', '10128', '10129', '1013', '10130', '10131', '10132', '10133', '10134', '10135', '10136', '10137', '10138', '10139', '1014', '10140', '10141', '10142', '10143', '10144', '10145', '10146', '10147', '10148', '10149', '1015', '10150', '10151', '10152', '10153', '10154', '10155', '10156', '10157', '10158', '10159', '1016', '10160', '10161', '10162', '10163', '10164', '10165', '10166', '10167', '10168', '10169', '1017', '10170', '10171', '10172', '10173', '10174', '10175', '10176', '10177', '10178', '10179', '1018', '10180', '10181', '10182', '10183', '10184', '10185', '10186', '10187', '10188', '10189', '1019', '10190', '10191', '10192', '10193', '10194', '10195', '10196', '10197', '10198', '10199', '102', '1020', '10200', '10201', '10202', '10203', '10204', '10205', '10206', '10207', '10208', '10209', '1021', '10210', '10211', '10212', '10213', '10214', '10215', '10216', '10217', '10218', '10219', '1022', '10220', '10221', '10222', '10223', '10224', '10225', '10226', '10227', '10228', '10229', '1023', '10230', '10231', '10232', '10233', '10234', '10235', '10236', '10237', '10238', '10239', '1024', '10240', '10241', '10242', '10243', '10244', '10245', '10246', '10247', '10248', '10249', '1025', '10250', '10251', '10252', '10253', '10254', '10255', '10256', '10257', '10258', '10259', '1026', '10260', '10261', '10262', '10263', '10264', '10265', '10266', '10267', '10268', '10269', '1027', '10270', '10271', '10272', '10273', '10274', '10275', '10276', '10277', '10278', '10279', '1028', '10280', '10281', '10282', '10283', '10284', '10285', '10286', '10287', '10288', '10289', '1029', '10290', '10291', '10292', '10293', '10294', '10295', '10296', '10297', '10298', '10299', '103', '1030', '10300', '10301', '10302', '10303', '10304', '10305', '10306', '10307', '10308', '10309', '1031', '10310', '10311', '10312', '10313', '10314', '10315', '10316', '10317', '10318', '10319', '1032', '10320', '10321', '10322', '10323', '10324', '10325', '10326', '10327', '10328', '10329', '1033', '10330', '10331', '10332', '10333', '10334', '10335', '10336', '10337', '10338', '10339', '1034', '10340', '10341', '10342', '10343', '10344', '10345', '10346', '10347', '10348', '10349', '1035', '10350', '10351', '10352', '10353', '10354', '10355', '10356', '10357', '10358', '10359', '1036', '10360', '10361', '10362', '10363', '10364', '10365', '10366', '10367', '10368', '10369', '1037', '10370', '10371', '10372', '10373', '10374', '10375', '10376', '10377', '10378', '10379', '1038', '10380', '10381', '10382', '10383', '10384', '10385', '10386', '10387', '10388', '10389', '1039', '10390', '10391', '10392', '10393', '10394', '10395', '10396', '10397', '10398', '10399', '104', '1040', '10400', '10401', '10402', '10403', '10404', '10405', '10406', '10407', '10408', '10409', '1041', '10410', '10411', '10412', '10413', '10414', '10415', '10416', '10417', '10418', '10419', '1042', '10420', '10421', '10422', '10423', '10424', '10425', '10426', '10427', '10428', '10429', '1043', '10430', '10431', '10432', '10433', '10434', '10435', '10436', '10437', '10438', '10439', '1044', '10440', '10441', '10442', '10443', '10444', '10445', '10446', '10447', '10448', '10449', '1045', '10450', '10451', '10452', '10453', '10454', '10455', '10456', '10457', '10458', '10459', '1046', '10460', '10461', '10462', '10463', '10464', '10465', '10466', '10467', '10468', '10469', '1047', '10470', '10471', '10472', '10473', '10474', '10475', '10476', '10477', '10478', '10479', '1048', '10480', '10481', '10482', '10483', '10484', '10485', '10486', '10487', '10488', '10489', '1049', '10490', '10491', '10492', '10493', '10494', '10495', '10496', '10497', '10498', '10499', '105', '1050', '10500', '10501', '10502', '10503', '10504', '10505', '10506', '10507', '10508', '10509', '1051', '10510', '10511', '10512', '10513', '10514', '10515', '10516', '10517', '10518', '10519', '1052', '10520', '10521', '10522', '10523', '10524', '10525', '10526', '10527', '10528', '10529', '1053', '10530', '10531', '10532', '10533', '10534', '10535', '10536', '10537', '10538', '10539', '1054', '10540', '10541', '10542', '10543', '10544', '10545', '10546', '10547', '10548', '10549', '1055', '10550', '10551', '10552', '10553', '10554', '10555', '10556', '10557', '10558', '10559', '1056', '10560', '10561', '10562', '10563', '10564', '10565', '10566', '10567', '10568', '10569', '1057', '10570', '10571', '10572', '10573', '10574', '10575', '10576', '10577', '10578', '10579', '1058', '10580', '10581', '10582', '10583', '10584', '10585', '10586', '10587', '10588', '10589', '1059', '10590', '10591', '10592', '10593', '10594', '10595', '10596', '10597', '10598', '10599', '106', '1060', '10600', '10601', '10602', '10603', '10604', '10605', '10606', '10607', '10608', '10609', '1061', '10610', '10611', '10612', '10613', '10614', '10615', '10616', '10617', '10618', '10619', '1062', '10620', '10621', '10622', '10623', '10624', '10625', '10626', '10627', '10628', '10629', '1063', '10630', '10631', '10632', '10633', '10634', '10635', '10636', '10637', '10638', '10639', '1064', '10640', '10641', '10642', '10643', '10644', '10645', '10646', '10647', '10648', '10649', '1065', '10650', '10651', '10652', '10653', '10654', '10655', '10656', '10657', '10658', '10659', '1066', '10660', '10661', '10662', '10663', '10664', '10665', '10666', '10667', '10668', '10669', '1067', '10670', '10671', '10672', '10673', '10674', '10675', '10676', '10677', '10678', '10679', '1068', '10680', '10681', '10682', '10683', '10684', '10685', '10686', '10687', '10688', '10689', '1069', '10690', '10691', '10692', '10693', '10694', '10695', '10696', '10697', '10698', '10699', '107', '1070', '10700', '10701', '10702', '10703', '10704', '10705', '10706', '10707', '10708', '10709', '1071', '10710', '10711', '10712', '10713', '10714', '10715', '10716', '10717', '10718', '10719', '1072', '10720', '10721', '10722', '10723', '10724', '10725', '10726', '10727', '10728', '10729', '1073', '10730', '10731', '10732', '10733', '10734', '10735', '10736', '10737', '10738', '10739', '1074', '10740', '10741', '10742', '10743', '10744', '10745', '10746', '10747', '10748', '10749', '1075', '10750', '10751', '10752', '10753', '10754', '10755', '10756', '10757', '10758', '10759', '1076', '10760', '10761', '10762', '10763', '10764', '10765', '10766', '10767', '10768', '10769', '1077', '10770', '10771', '10772', '10773', '10774', '10775', '10776', '10777', '10778', '10779', '1078', '10780', '10781', '10782', '10783', '10784', '10785', '10786', '10787', '10788', '10789', '1079', '10790', '10791', '10792', '10793', '10794', '10795', '10796', '10797', '10798', '10799', '108', '1080', '10800', '10801', '10802', '10803', '10804', '10805', '10806', '10807', '10808', '10809', '1081', '10810', '10811', '10812', '10813', '10814', '10815', '10816', '10817', '10818', '10819', '1082', '10820', '10821', '10822', '10823', '10824', '10825', '10826', '10827', '10828', '10829', '1083', '10830', '10831', '10832', '10833', '10834', '10835', '10836', '10837', '10838', '10839', '1084', '10840', '10841', '10842', '10843', '10844', '10845', '10846', '10847', '10848', '10849', '1085', '10850', '10851', '10852', '10853', '10854', '10855', '10856', '10857', '10858', '10859', '1086', '10860', '10861', '10862', '10863', '10864', '10865', '10866', '10867', '10868', '10869', '1087', '10870', '10871', '10872', '10873', '10874', '10875', '10876', '10877', '10878', '10879', '1088', '10880', '10881', '10882', '10883', '10884', '10885', '10886', '10887', '10888', '10889', '1089', '10890', '10891', '10892', '10893', '10894', '10895', '10896', '10897', '10898', '10899', '109', '1090', '10900', '10901', '10902', '10903', '10904', '10905', '10906', '10907', '10908', '10909', '1091', '10910', '10911', '10912', '10913', '10914', '10915', '10916', '10917', '10918', '10919', '1092', '10920', '10921', '10922', '10923', '10924', '10925', '10926', '10927', '10928', '10929', '1093', '10930', '10931', '10932', '10933', '10934', '10935', '10936', '10937', '10938', '10939', '1094', '10940', '10941', '10942', '10943', '10944', '10945', '10946', '10947', '10948', '10949', '1095', '10950', '10951', '10952', '10953', '10954', '10955', '10956', '10957', '10958', '10959', '1096', '10960', '10961', '10962', '10963', '10964', '10965', '10966', '10967', '10968', '10969', '1097', '10970', '10971', '10972', '10973', '10974', '10975', '10976', '10977', '10978', '10979', '1098', '10980', '10981', '10982', '10983', '10984', '10985', '10986', '10987', '10988', '10989', '1099', '10990', '10991', '10992', '10993', '10994', '10995', '10996', '10997', '10998', '10999', '11', '110', '1100', '11000', '11001', '11002', '11003', '11004', '11005', '11006', '11007', '11008', '11009', '1101', '11010', '11011', '11012', '11013', '11014', '11015', '11016', '11017', '11018', '11019', '1102', '11020', '11021', '11022', '11023', '11024', '11025', '11026', '11027', '11028', '11029', '1103', '11030', '11031', '11032', '11033', '11034', '11035', '11036', '11037', '11038', '11039', '1104', '11040', '11041', '11042', '11043', '11044', '11045', '11046', '11047', '11048', '11049', '1105', '11050', '11051', '11052', '11053', '11054', '11055', '11056', '11057', '11058', '11059', '1106', '11060', '11061', '11062', '11063', '11064', '11065', '11066', '11067', '11068', '11069', '1107', '11070', '11071', '11072', '11073', '11074', '11075', '11076', '11077', '11078', '11079', '1108', '11080', '11081', '11082', '11083', '11084', '11085', '11086', '11087', '11088', '11089', '1109', '11090', '11091', '11092', '11093', '11094', '11095', '11096', '11097', '11098', '11099', '111', '1110', '11100', '11101', '11102', '11103', '11104', '11105', '11106', '11107', '11108', '11109', '1111', '11110', '11111', '11112', '11113', '11114', '11115', '11116', '11117', '11118', '11119', '1112', '11120', '11121', '11122', '11123', '11124', '11125', '11126', '11127', '11128', '11129', '1113', '11130', '11131', '11132', '11133', '11134', '11135', '11136', '11137', '11138', '11139', '1114', '11140', '11141', '11142', '11143', '11144', '11145', '11146', '11147', '11148', '11149', '1115', '11150', '11151', '11152', '11153', '11154', '11155', '11156', '11157', '11158', '11159', '1116', '11160', '11161', '11162', '11163', '11164', '11165', '11166', '11167', '11168', '11169', '1117', '11170', '11171', '11172', '11173', '11174', '11175', '11176', '11177', '11178', '11179', '1118', '11180', '11181', '11182', '11183', '11184', '11185', '11186', '11187', '11188', '11189', '1119', '11190', '11191', '11192', '11193', '11194', '11195', '11196', '11197', '11198', '11199', '112', '1120', '11200', '11201', '11202', '11203', '11204', '11205', '11206', '11207', '11208', '11209', '1121', '11210', '11211', '11212', '11213', '11214', '11215', '11216', '11217', '11218', '11219', '1122', '11220', '11221', '11222', '11223', '11224', '11225', '11226', '11227', '11228', '11229', '1123', '11230', '11231', '11232', '11233', '11234', '11235', '11236', '11237', '11238', '11239', '1124', '11240', '11241', '11242', '11243', '11244', '11245', '11246', '11247', '11248', '11249', '1125', '11250', '11251', '11252', '11253', '11254', '11255', '11256', '11257', '11258', '11259', '1126', '11260', '11261', '11262', '11263', '11264', '11265', '11266', '11267', '11268', '11269', '1127', '11270', '11271', '11272', '11273', '11274', '11275', '11276', '11277', '11278', '11279', '1128', '11280', '11281', '11282', '11283', '11284', '11285', '11286', '11287', '11288', '11289', '1129', '11290', '11291', '11292', '11293', '11294', '11295', '11296', '11297', '11298', '11299', '113', '1130', '11300', '11301', '11302', '11303', '11304', '11305', '11306', '11307', '11308', '11309', '1131', '11310', '11311', '11312', '11313', '11314', '11315', '11316', '11317', '11318', '11319', '1132', '11320', '11321', '11322', '11323', '11324', '11325', '11326', '11327', '11328', '11329', '1133', '11330', '11331', '11332', '11333', '11334', '11335', '11336', '11337', '11338', '11339', '1134', '11340', '11341', '11342', '11343', '11344', '11345', '11346', '11347', '11348', '11349', '1135', '11350', '11351', '11352', '11353', '11354', '11355', '11356', '11357', '11358', '11359', '1136', '11360', '11361', '11362', '11363', '11364', '11365', '11366', '11367', '11368', '11369', '1137', '11370', '11371', '11372', '11373', '11374', '11375', '11376', '11377', '11378', '11379', '1138', '11380', '11381', '11382', '11383', '11384', '11385', '11386', '11387', '11388', '11389', '1139', '11390', '11391', '11392', '11393', '11394', '11395', '11396', '11397', '11398', '11399', '114', '1140', '11400', '11401', '11402', '11403', '11404', '11405', '11406', '11407', '11408', '11409', '1141', '11410', '11411', '11412', '11413', '11414', '11415', '11416', '11417', '11418', '11419', '1142', '11420', '11421', '11422', '11423', '11424', '11425', '11426', '11427', '11428', '11429', '1143', '11430', '11431', '11432', '11433', '11434', '11435', '11436', '11437', '11438', '11439', '1144', '11440', '11441', '11442', '11443', '11444', '11445', '11446', '11447', '11448', '11449', '1145', '11450', '11451', '11452', '11453', '11454', '11455', '11456', '11457', '11458', '11459', '1146', '11460', '11461', '11462', '11463', '11464', '11465', '11466', '11467', '11468', '11469', '1147', '11470', '11471', '11472', '11473', '11474', '11475', '11476', '11477', '11478', '11479', '1148', '11480', '11481', '11482', '11483', '11484', '11485', '11486', '11487', '11488', '11489', '1149', '11490', '11491', '11492', '11493', '11494', '11495', '11496', '11497', '11498', '11499', '115', '1150', '11500', '11501', '11502', '11503', '11504', '11505', '11506', '11507', '11508', '11509', '1151', '11510', '11511', '11512', '11513', '11514', '11515', '11516', '11517', '11518', '11519', '1152', '11520', '11521', '11522', '11523', '11524', '11525', '11526', '11527', '11528', '11529', '1153', '11530', '11531', '11532', '11533', '11534', '11535', '11536', '11537', '11538', '11539', '1154', '11540', '11541', '11542', '11543', '11544', '11545', '11546', '11547', '11548', '11549', '1155', '11550', '11551', '11552', '11553', '11554', '11555', '11556', '11557', '11558', '11559', '1156', '11560', '11561', '11562', '11563', '11564', '11565', '11566', '11567', '11568', '11569', '1157', '11570', '11571', '11572', '11573', '11574', '11575', '11576', '11577', '11578', '11579', '1158', '11580', '11581', '11582', '11583', '11584', '11585', '11586', '11587', '11588', '11589', '1159', '11590', '11591', '11592', '11593', '11594', '11595', '11596', '11597', '11598', '11599', '116', '1160', '11600', '11601', '11602', '11603', '11604', '11605', '11606', '11607', '11608', '11609', '1161', '11610', '11611', '11612', '11613', '11614', '11615', '11616', '11617', '11618', '11619', '1162', '11620', '11621', '11622', '11623', '11624', '11625', '11626', '11627', '11628', '11629', '1163', '11630', '11631', '11632', '11633', '11634', '11635', '11636', '11637', '11638', '11639', '1164', '11640', '11641', '11642', '11643', '11644', '11645', '11646', '11647', '11648', '11649', '1165', '11650', '11651', '11652', '11653', '11654', '11655', '11656', '11657', '11658', '11659', '1166', '11660', '11661', '11662', '11663', '11664', '11665', '11666', '11667', '11668', '11669', '1167', '11670', '11671', '11672', '11673', '11674', '11675', '11676', '11677', '11678', '11679', '1168', '11680', '11681', '11682', '11683', '11684', '11685', '11686', '11687', '11688', '11689', '1169', '11690', '11691', '11692', '11693', '11694', '11695', '11696', '11697', '11698', '11699', '117', '1170', '11700', '11701', '11702', '11703', '11704', '11705', '11706', '11707', '11708', '11709', '1171', '11710', '11711', '11712', '11713', '11714', '11715', '11716', '11717', '11718', '11719', '1172', '11720', '11721', '11722', '11723', '11724', '11725', '11726', '11727', '11728', '11729', '1173', '11730', '11731', '11732', '11733', '11734', '11735', '11736', '11737', '11738', '11739', '1174', '11740', '11741', '11742', '11743', '11744', '11745', '11746', '11747', '11748', '11749', '1175', '11750', '11751', '11752', '11753', '11754', '11755', '11756', '11757', '11758', '11759', '1176', '11760', '11761', '11762', '11763', '11764', '11765', '11766', '11767', '11768', '11769', '1177', '11770', '11771', '11772', '11773', '11774', '11775', '11776', '11777', '11778', '11779', '1178', '11780', '11781', '11782', '11783', '11784', '11785', '11786', '11787', '11788', '11789', '1179', '11790', '11791', '11792', '11793', '11794', '11795', '11796', '11797', '11798', '11799', '118', '1180', '11800', '11801', '11802', '11803', '11804', '11805', '11806', '11807', '11808', '11809', '1181', '11810', '11811', '11812', '11813', '11814', '11815', '11816', '11817', '11818', '11819', '1182', '11820', '11821', '11822', '11823', '11824', '11825', '11826', '11827', '11828', '11829', '1183', '11830', '11831', '11832', '11833', '11834', '11835', '11836', '11837', '11838', '11839', '1184', '11840', '11841', '11842', '11843', '11844', '11845', '11846', '11847', '11848', '11849', '1185', '11850', '11851', '11852', '11853', '11854', '11855', '11856', '11857', '11858', '11859', '1186', '11860', '11861', '11862', '11863', '11864', '11865', '11866', '11867', '11868', '11869', '1187', '11870', '11871', '11872', '11873', '11874', '11875', '11876', '11877', '11878', '11879', '1188', '11880', '11881', '11882', '11883', '11884', '11885', '11886', '11887', '11888', '11889', '1189', '11890', '11891', '11892', '11893', '11894', '11895', '11896', '11897', '11898', '11899', '119', '1190', '11900', '11901', '11902', '11903', '11904', '11905', '11906', '11907', '11908', '11909', '1191', '11910', '11911', '11912', '11913', '11914', '11915', '11916', '11917', '11918', '11919', '1192', '11920', '11921', '11922', '11923', '11924', '11925', '11926', '11927', '11928', '11929', '1193', '11930', '11931', '11932', '11933', '11934', '11935', '11936', '11937', '11938', '11939', '1194', '11940', '11941', '11942', '11943', '11944', '11945', '11946', '11947', '11948', '11949', '1195', '11950', '11951', '11952', '11953', '11954', '11955', '11956', '11957', '11958', '11959', '1196', '11960', '11961', '11962', '11963', '11964', '11965', '11966', '11967', '11968', '11969', '1197', '11970', '11971', '11972', '11973', '11974', '11975', '11976', '11977', '11978', '11979', '1198', '11980', '11981', '11982', '11983', '11984', '11985', '11986', '11987', '11988', '11989', '1199', '11990', '11991', '11992', '11993', '11994', '11995', '11996', '11997', '11998', '11999', '12', '120', '1200', '12000', '12001', '12002', '12003', '12004', '12005', '12006', '12007', '12008', '12009', '1201', '12010', '12011', '12012', '12013', '12014', '12015', '12016', '12017', '12018', '12019', '1202', '12020', '12021', '12022', '12023', '12024', '12025', '12026', '12027', '12028', '12029', '1203', '12030', '12031', '12032', '12033', '12034', '12035', '12036', '12037', '12038', '12039', '1204', '12040', '12041', '12042', '12043', '12044', '12045', '12046', '12047', '12048', '12049', '1205', '12050', '12051', '12052', '12053', '12054', '12055', '12056', '12057', '12058', '12059', '1206', '12060', '12061', '12062', '12063', '12064', '12065', '12066', '12067', '12068', '12069', '1207', '12070', '12071', '12072', '12073', '12074', '12075', '12076', '12077', '12078', '12079', '1208', '12080', '12081', '12082', '12083', '12084', '12085', '12086', '12087', '12088', '12089', '1209', '12090', '12091', '12092', '12093', '12094', '12095', '12096', '12097', '12098', '12099', '121', '1210', '12100', '12101', '12102', '12103', '12104', '12105', '12106', '12107', '12108', '12109', '1211', '12110', '12111', '12112', '12113', '12114', '12115', '12116', '12117', '12118', '12119', '1212', '12120', '12121', '12122', '12123', '12124', '12125', '12126', '12127', '12128', '12129', '1213', '12130', '12131', '12132', '12133', '12134', '12135', '12136', '12137', '12138', '12139', '1214', '12140', '12141', '12142', '12143', '12144', '12145', '12146', '12147', '12148', '12149', '1215', '12150', '12151', '12152', '12153', '12154', '12155', '12156', '12157', '12158', '12159', '1216', '12160', '12161', '12162', '12163', '12164', '12165', '12166', '12167', '12168', '12169', '1217', '12170', '12171', '12172', '12173', '12174', '12175', '12176', '12177', '12178', '12179', '1218', '12180', '12181', '12182', '12183', '12184', '12185', '12186', '12187', '12188', '12189', '1219', '12190', '12191', '12192', '12193', '12194', '12195', '12196', '12197', '12198', '12199', '122', '1220', '12200', '12201', '12202', '12203', '12204', '12205', '12206', '12207', '12208', '12209', '1221', '12210', '12211', '12212', '12213', '12214', '12215', '12216', '12217', '12218', '12219', '1222', '12220', '12221', '12222', '12223', '12224', '12225', '12226', '12227', '12228', '12229', '1223', '12230', '12231', '12232', '12233', '12234', '12235', '12236', '12237', '12238', '12239', '1224', '12240', '12241', '12242', '12243', '12244', '12245', '12246', '12247', '12248', '12249', '1225', '12250', '12251', '12252', '12253', '12254', '12255', '12256', '12257', '12258', '12259', '1226', '12260', '12261', '12262', '12263', '12264', '12265', '12266', '12267', '12268', '12269', '1227', '12270', '12271', '12272', '12273', '12274', '12275', '12276', '12277', '12278', '12279', '1228', '12280', '12281', '12282', '12283', '12284', '12285', '12286', '12287', '12288', '12289', '1229', '12290', '12291', '12292', '12293', '12294', '12295', '12296', '12297', '12298', '12299', '123', '1230', '12300', '12301', '12302', '12303', '12304', '12305', '12306', '12307', '12308', '12309', '1231', '12310', '12311', '12312', '12313', '12314', '12315', '12316', '12317', '12318', '12319', '1232', '12320', '12321', '12322', '12323', '12324', '12325', '12326', '12327', '12328', '12329', '1233', '12330', '12331', '12332', '12333', '12334', '12335', '12336', '12337', '12338', '12339', '1234', '12340', '12341', '12342', '12343', '12344', '12345', '12346', '12347', '12348', '12349', '1235', '12350', '12351', '12352', '12353', '12354', '12355', '12356', '12357', '12358', '12359', '1236', '12360', '12361', '12362', '12363', '12364', '12365', '12366', '12367', '12368', '12369', '1237', '12370', '12371', '12372', '12373', '12374', '12375', '12376', '12377', '12378', '12379', '1238', '12380', '12381', '12382', '12383', '12384', '12385', '12386', '12387', '12388', '12389', '1239', '12390', '12391', '12392', '12393', '12394', '12395', '12396', '12397', '12398', '12399', '124', '1240', '12400', '12401', '12402', '12403', '12404', '12405', '12406', '12407', '12408', '12409', '1241', '12410', '12411', '12412', '12413', '12414', '12415', '12416', '12417', '12418', '12419', '1242', '12420', '12421', '12422', '12423', '12424', '12425', '12426', '12427', '12428', '12429', '1243', '12430', '12431', '12432', '12433', '12434', '12435', '12436', '12437', '12438', '12439', '1244', '12440', '12441', '12442', '12443', '12444', '12445', '12446', '12447', '12448', '12449', '1245', '12450', '12451', '12452', '12453', '12454', '12455', '12456', '12457', '12458', '12459', '1246', '12460', '12461', '12462', '12463', '12464', '12465', '12466', '12467', '12468', '12469', '1247', '12470', '12471', '12472', '12473', '12474', '12475', '12476', '12477', '12478', '12479', '1248', '12480', '12481', '12482', '12483', '12484', '12485', '12486', '12487', '12488', '12489', '1249', '12490', '12491', '12492', '12493', '12494', '12495', '12496', '12497', '12498', '12499', '125', '1250', '12500', '12501', '12502', '12503', '12504', '12505', '12506', '12507', '12508', '12509', '1251', '12510', '12511', '12512', '12513', '12514', '12515', '12516', '12517', '12518', '12519', '1252', '12520', '12521', '12522', '12523', '12524', '12525', '12526', '12527', '12528', '12529', '1253', '12530', '12531', '12532', '12533', '12534', '12535', '12536', '12537', '12538', '12539', '1254', '12540', '12541', '12542', '12543', '12544', '12545', '12546', '12547', '12548', '12549', '1255', '12550', '12551', '12552', '12553', '12554', '12555', '12556', '12557', '12558', '12559', '1256', '12560', '12561', '12562', '12563', '12564', '12565', '12566', '12567', '12568', '12569', '1257', '12570', '12571', '12572', '12573', '12574', '12575', '12576', '12577', '12578', '12579', '1258', '12580', '12581', '12582', '12583', '12584', '12585', '12586', '12587', '12588', '12589', '1259', '12590', '12591', '12592', '12593', '12594', '12595', '12596', '12597', '12598', '12599', '126', '1260', '12600', '12601', '12602', '12603', '12604', '12605', '12606', '12607', '12608', '12609', '1261', '12610', '12611', '12612', '12613', '12614', '12615', '12616', '12617', '12618', '12619', '1262', '12620', '12621', '12622', '12623', '12624', '12625', '12626', '12627', '12628', '12629', '1263', '12630', '12631', '12632', '12633', '12634', '12635', '12636', '12637', '12638', '12639', '1264', '12640', '12641', '12642', '12643', '12644', '12645', '12646', '12647', '12648', '12649', '1265', '12650', '12651', '12652', '12653', '12654', '12655', '12656', '12657', '12658', '12659', '1266', '12660', '12661', '12662', '12663', '12664', '12665', '12666', '12667', '12668', '12669', '1267', '12670', '12671', '12672', '12673', '12674', '12675', '12676', '12677', '12678', '12679', '1268', '12680', '12681', '12682', '12683', '12684', '12685', '12686', '12687', '12688', '12689', '1269', '12690', '12691', '12692', '12693', '12694', '12695', '12696', '12697', '12698', '12699', '127', '1270', '12700', '12701', '12702', '12703', '12704', '12705', '12706', '12707', '12708', '12709', '1271', '12710', '12711', '12712', '12713', '12714', '12715', '12716', '12717', '12718', '12719', '1272', '12720', '12721', '12722', '12723', '12724', '12725', '12726', '12727', '12728', '12729', '1273', '12730', '12731', '12732', '12733', '12734', '12735', '12736', '12737', '12738', '12739', '1274', '12740', '12741', '12742', '12743', '12744', '12745', '12746', '12747', '12748', '12749', '1275', '12750', '12751', '12752', '12753', '12754', '12755', '12756', '12757', '12758', '12759', '1276', '12760', '12761', '12762', '12763', '12764', '12765', '12766', '12767', '12768', '12769', '1277', '12770', '12771', '12772', '12773', '12774', '12775', '12776', '12777', '12778', '12779', '1278', '12780', '12781', '12782', '12783', '12784', '12785', '12786', '12787', '12788', '12789', '1279', '12790', '12791', '12792', '12793', '12794', '12795', '12796', '12797', '12798', '12799', '128', '1280', '12800', '12801', '12802', '12803', '12804', '12805', '12806', '12807', '12808', '12809', '1281', '12810', '12811', '12812', '12813', '12814', '12815', '12816', '12817', '12818', '12819', '1282', '12820', '12821', '12822', '12823', '12824', '12825', '12826', '12827', '12828', '12829', '1283', '12830', '12831', '12832', '12833', '12834', '12835', '12836', '12837', '12838', '12839', '1284', '12840', '12841', '12842', '12843', '12844', '12845', '12846', '12847', '12848', '12849', '1285', '12850', '12851', '12852', '12853', '12854', '12855', '12856', '12857', '12858', '12859', '1286', '12860', '12861', '12862', '12863', '12864', '12865', '12866', '12867', '12868', '12869', '1287', '12870', '12871', '12872', '12873', '12874', '12875', '12876', '12877', '12878', '12879', '1288', '12880', '12881', '12882', '12883', '12884', '12885', '12886', '12887', '12888', '12889', '1289', '12890', '12891', '12892', '12893', '12894', '12895', '12896', '12897', '12898', '12899', '129', '1290', '12900', '12901', '12902', '12903', '12904', '12905', '12906', '12907', '12908', '12909', '1291', '12910', '12911', '12912', '12913', '12914', '12915', '12916', '12917', '12918', '12919', '1292', '12920', '12921', '12922', '12923', '12924', '12925', '12926', '12927', '12928', '12929', '1293', '12930', '12931', '12932', '12933', '12934', '12935', '12936', '12937', '12938', '12939', '1294', '12940', '12941', '12942', '12943', '12944', '12945', '12946', '12947', '12948', '12949', '1295', '12950', '12951', '12952', '12953', '12954', '12955', '12956', '12957', '12958', '12959', '1296', '12960', '12961', '12962', '12963', '12964', '12965', '12966', '12967', '12968', '12969', '1297', '12970', '12971', '12972', '12973', '12974', '12975', '12976', '12977', '12978', '12979', '1298', '12980', '12981', '12982', '12983', '12984', '12985', '12986', '12987', '12988', '12989', '1299', '12990', '12991', '12992', '12993', '12994', '12995', '12996', '12997', '12998', '12999', '13', '130', '1300', '13000', '13001', '13002', '13003', '13004', '13005', '13006', '13007', '13008', '13009', '1301', '13010', '13011', '13012', '13013', '13014', '13015', '13016', '13017', '13018', '13019', '1302', '13020', '13021', '13022', '13023', '13024', '13025', '13026', '13027', '13028', '13029', '1303', '13030', '13031', '13032', '13033', '13034', '13035', '13036', '13037', '13038', '13039', '1304', '13040', '13041', '13042', '13043', '13044', '13045', '13046', '13047', '13048', '13049', '1305', '13050', '13051', '13052', '13053', '13054', '13055', '13056', '13057', '13058', '13059', '1306', '13060', '13061', '13062', '13063', '13064', '13065', '13066', '13067', '13068', '13069', '1307', '13070', '13071', '13072', '13073', '13074', '13075', '13076', '13077', '13078', '13079', '1308', '13080', '13081', '13082', '13083', '13084', '13085', '13086', '13087', '13088', '13089', '1309', '13090', '13091', '13092', '13093', '13094', '13095', '13096', '13097', '13098', '13099', '131', '1310', '13100', '13101', '13102', '13103', '13104', '13105', '13106', '13107', '13108', '13109', '1311', '13110', '13111', '13112', '13113', '13114', '13115', '13116', '13117', '13118', '13119', '1312', '13120', '13121', '13122', '13123', '13124', '13125', '13126', '13127', '13128', '13129', '1313', '13130', '13131', '13132', '13133', '13134', '13135', '13136', '13137', '13138', '13139', '1314', '13140', '13141', '13142', '13143', '13144', '13145', '13146', '13147', '13148', '13149', '1315', '13150', '13151', '13152', '13153', '13154', '13155', '13156', '13157', '13158', '13159', '1316', '13160', '13161', '13162', '13163', '13164', '13165', '13166', '13167', '13168', '13169', '1317', '13170', '13171', '13172', '13173', '13174', '13175', '13176', '13177', '13178', '13179', '1318', '13180', '13181', '13182', '13183', '13184', '13185', '13186', '13187', '13188', '13189', '1319', '13190', '13191', '13192', '13193', '13194', '13195', '13196', '13197', '13198', '13199', '132', '1320', '13200', '13201', '13202', '13203', '13204', '13205', '13206', '13207', '13208', '13209', '1321', '13210', '13211', '13212', '13213', '13214', '13215', '13216', '13217', '13218', '13219', '1322', '13220', '13221', '13222', '13223', '13224', '13225', '13226', '13227', '13228', '13229', '1323', '13230', '13231', '13232', '13233', '13234', '13235', '13236', '13237', '13238', '13239', '1324', '13240', '13241', '13242', '13243', '13244', '13245', '13246', '13247', '13248', '13249', '1325', '13250', '13251', '13252', '13253', '13254', '13255', '13256', '13257', '13258', '13259', '1326', '13260', '13261', '13262', '13263', '13264', '13265', '13266', '13267', '13268', '13269', '1327', '13270', '13271', '13272', '13273', '13274', '13275', '13276', '13277', '13278', '13279', '1328', '13280', '13281', '13282', '13283', '13284', '13285', '13286', '13287', '13288', '13289', '1329', '13290', '13291', '13292', '13293', '13294', '13295', '13296', '13297', '13298', '13299', '133', '1330', '13300', '13301', '13302', '13303', '13304', '13305', '13306', '13307', '13308', '13309', '1331', '13310', '13311', '13312', '13313', '13314', '13</t>
         </is>
@@ -605,12 +621,18 @@
         </is>
       </c>
       <c r="T3" t="n">
+        <v>1574</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>654899</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>21926</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>['0', '100 Acres Lots', '8th range of Grenville', 'ABBA', 'ABBE', 'ABBEE', 'ABBOT', 'ABBOTT', 'ABBY', 'ABEL', 'ABER', 'ABERCROMBIE', 'ABERNATHER', 'ABERNETHY', 'ABRAHAM', 'ABRAHAM/COLE', 'ABRAHAMS', 'ABRAHAMS/COLE', 'ABRAM', 'ABRAMS', 'ABRAMS/SNYDER', 'ABRAY', 'ABURNATHY', 'ACCARMAN', 'ACHESON', 'ACHISON', 'ACKER', 'ACKLAND', 'ACKLEY', 'ACKMAN', 'ACOR', 'ACRE', 'ACTON', 'ADAIR', 'ADAIR/CRAWLEY', 'ADAM', 'ADAM/LARAMEY', 'ADAMS', 'ADAMS/ADNANS', 'ADAMS/CLIFFORD', 'ADAMS/COONS', 'ADAMSON', 'ADDISON', 'ADKINS', 'ADKINSON', 'ADSIT/HAIRLAND', 'ADY', 'ADZIT', 'AGER', 'AGLER', 'AGLOR/ACHLER', 'AGNEW', 'AHIER/ALICER', 'AHSMAN', 'AHSTON', 'AICKMAN', 'AIKEN', 'AIKIN', 'AIKINS', 'AIKMAN', 'AILEY', 'AINLAY', 'AINSE', 'AINSE/MONTURE', 'AINSLEY', 'AINSLIE', 'AINSWORTH', 'AIRD', 'AIREY', 'AIREYS', 'AIRHART', 'AIRHEART', 'AIRTH', 'AISSANCE', 'AITCHISON', 'AITHENS', 'AITKEN', 'AITKENS', 'AITKIN', 'AITKINS', 'AKE', 'AKERLY', 'AKEY', 'AKIN', 'AKINS', 'AKROYD', 'ALAN', 'ALBERSON', 'ALBERT', 'ALBERTSON', 'ALBERTSON/POWELL/POWLY', 'ALBRANT', 'ALBRIGHT', 'ALCOCK', 'ALCOMBRACK', 'ALCORN', 'ALDER', 'ALDERICE', 'ALDERTON', 'ALDGEO', 'ALDRICH', 'ALDRICK', 'ALDWORTH', 'ALEAY', 'ALEXANDER', 'ALFORD', 'ALGAE', 'ALGEA', 'ALGEO', 'ALGER', 'ALGIER', 'ALGIO', 'ALGIRE', 'ALGOE', 'ALGUINE', 'ALGUIRE', 'ALISON', 'ALLAIR', 'ALLAN', 'ALLARD', 'ALLAWAY', 'ALLBRIGHT', 'ALLCOCK', 'ALLCOMBRACK', 'ALLCOTT', 'ALLCOX', 'ALLD', 'ALLEN', 'ALLEN/COLE', 'ALLEN/COOPER', 'ALLEN/CUMMING', 'ALLEN/MOSHER', 'ALLENDER', 'ALLEY', 'ALLGER', 'ALLIBONE', 'ALLICE', 'ALLIN', 'ALLIS', 'ALLISON', 'ALLPORT', 'ALLRIGHT', 'ALLSOP', 'ALLWOOD', 'ALMAS', 'ALMIS', 'ALMS', 'ALPHOUGH', 'ALSTEN', 'ALSTON', 'ALT', 'ALTENBURG', 'ALTHOUSE', 'ALTHOUSER', 'ALTON', 'ALWARD', 'ALWAY', 'ALWOOD', 'ALYEA', 'AMABLE', 'AMAN', 'AMBLER', 'AMBRIDGE', 'AMBROSE', 'AMELYER', 'AMERY', 'AMES', 'AMEY', 'AMEY/BAKER', 'AMIOTTE', 'AMLEA', 'AMLIN', 'AMMERMAN', 'AMMON', 'AMOR', 'AMORY', 'AMOS', 'AMPHLETT', 'AMSTED', 'AMUS', 'AMY', 'AMY/DAVY', 'ANABELD', 'ANCASTER', 'ANCASTER/CROOKS', 'ANCASTER/CRYSLER', 'ANDERSON', 'ANDERSON/CLARKE', 'ANDERSON/CRYDERMAN', 'ANDERSON/CUMMINGS', 'ANDERSON/CURTIS', "ANDERSON/M'BEAN", 'ANDERSON/McGRATH', 'ANDERTON', 'ANDRASS', 'ANDRES', 'ANDRESS', 'ANDREW', 'ANDREWS', 'ANDRICK', 'ANDRUS', 'ANDRUSS', 'ANGELL', 'ANGER', 'ANGLEMIRE', 'ANGUISH', 'ANNABLE', 'ANNANCE', 'ANNAND', 'ANNET', 'ANNETT', 'ANNIS', 'ANSLEY', 'ANSON', 'ANTAILLA', 'ANTALIA', 'ANTALLIA', 'ANTAYA', 'ANTHON', 'ANTHONY', 'APPELBEE', 'APPELLEE', 'APPLEBEE', 'APPLEBY', 'APPLEGARTH', 'APPLETON', 'APRIL', 'ARBURTHNOT', 'ARBUTHNOT', 'ARCHAMBAULT', 'ARCHBOLD', 'ARCHDEKEN/ARCHDEKIN', 'ARCHER', 'ARCHIBALD', 'ARCONAITE', 'ARDAGH', 'ARDELL', 'ARDIEL', 'ARDIELL', 'ARDILL', 'ARDLE', 'ARGUE', 'ARHART', 'ARIVISON', 'ARKELL', 'ARKENBRACK', 'ARKLAND', 'ARLESS', 'ARLINGTON', 'ARLSHOW', 'ARMISTEAD', 'ARMITAGE', 'ARMON', 'ARMOUR', 'ARMS', 'ARMSON', 'ARMSTRONG', 'ARMSTRONG/DOPP', 'ARNER', 'ARNISON', 'ARNIT', 'ARNOLD', 'ARNOLD/CLOWES', 'ARNOLDI', 'ARNOT', 'ARNOTE', 'ARNOTT', 'ARQUART', 'ARROWSMITH', 'ARTER/ARTIS', 'ARTHUR', 'ARTHUR/GIBSON', 'ARTHURS', 'ARVISON', 'ASBURN', 'ASH', 'ASHBAUGH', 'ASHBLAUGH', 'ASHBOUGH', 'ASHBRIDGE', 'ASHBURN', 'ASHBURRY', 'ASHBY', 'ASHFIELD', 'ASHFORD', 'ASHFORD/CROSS', 'ASHLEY', 'ASHMAN', 'ASHTON', 'ASHWELL', 'ASHWORTH', 'ASKEW', 'ASKIN', 'ASKINS', 'ASKWITH', 'ASLEY', 'ASOPH', 'ASPREY', 'ASSEKINACK', 'ASSELIN', 'ASSELSBYNE/CORBAN', 'ASSELSTINE', 'ASSELSTINE/DAVY', 'ASSELTINE', 'ASTON', 'ATCHESON', 'ATCHISON', 'ATKIN', 'ATKINS', 'ATKINSON', 'ATTHILL', 'ATTWELL', 'ATTWOOD', 'ATWOOD', 'AUBERRY', 'AUBERT', 'AUGER', 'AUGER/ANGER', 'AUGUSTIN', 'AUGUSTINE', 'AULDJO', 'AULDJO &amp; MAITLAND', 'AULDJO/McDONELL', 'AULIN', 'AULT', 'AULT/LOUCKS', 'AUMOND', 'AUREY', 'AURT', 'AUSEM', 'AUSMAN', 'AUSTEN', 'AUSTIN', 'AUTIN', 'AUTINO', 'AVERILL', 'AVERY', 'AVISON', 'AVRILL', 'AWREY', 'AXFORD', 'AXHAM', 'AYER', 'AYLBOYNE', 'AYLEN', 'AYLMER', 'AYLSWORTH', 'AYLUM', 'AYLWARD', 'AYNGE', 'AYOTT', 'AYRES', 'Abbot', 'Abbott', 'Abell', 'Abrams/Lockwood', 'Ackler/Warren', 'Ackley/Meritt', 'Acque', 'Acre/Oswald', 'Acre/Trowbridge', 'Acres', 'Acton', 'Adair/Springsteen', 'Adair/Ward', 'Adam', 'Adam/Mattice', 'Adams', 'Adams/McNeil', 'Adams/Nudle', 'Adams/Sage', 'Adams/Snider', 'Adams/Willson', 'Adamson', 'Affairs of the Canada Company with Government.', 'African Baptist Church', 'Agency of the Seigniory of Lauzon', 'Agricultural Society', 'Agricultural Society Middlesex', 'Ahern', 'Aidel', 'Aird', 'Airhash/Wager', 'Airth', 'Aitkin', 'Aker/Jones', 'Albrant/Statard', 'Albrant/Stodard', 'Albright', 'Alderson', 'Aldridge', 'Algeor', 'Alger', 'Alger/Mosher', 'Alger/Van Blarcom', 'Algie', 'Algire', 'Algire/Van Blarcom', 'Alguira/Jacocks', 'Alguire/Loucks', 'Alguire/Stallmayer', 'Alguire/Wallisoe', 'Allair', 'Allan', 'Allan/Wintermute', 'Allbright/Albright', 'Allen', 'Allen/Mirick', 'Allen/Vanalstine', 'Allen/Watson', 'Allison', 'Allison/McTaggart', 'Alphin', 'Alston', 'Altemas', 'Althouse/Van Buren', 'Alvord', 'Alway', 'Alyea', 'Amalicite Indians', 'Amey/Snyder', 'Amory', 'Anable', 'Anderson', 'Anderson/LaCompte', 'Anderson/Lundy', 'Anderson/Macdonell', 'Anderson/Main', 'Anderson/McCuen', 'Anderson/Reid', 'Anderson/Ruderback', 'Anderson/Secord', 'Andrew', 'Andrews', 'Andrews/Morrill', 'Andrews/Mott', 'Andrews/Wright', 'Angell', 'Anger/House', 'Anger/McClintock', 'Anglican Church and Church Wardens', 'Anglican Presbyterians', 'Angst', 'Anguish/Lane', 'Angus', 'Annabel', 'Annable', 'Annable/Rowley', 'Anneser/Gibson', 'Annible/Wagner', 'Ansley/Merrill', 'Anson', 'Anton/Molyneux', 'Apostolic Missionary Church Wardens', 'Applegarth', 'Applicants for Clergy Reserves', 'Applicants for free grants', 'Applicants of Niagara', 'Application for Deeds, township of Arthur.', 'Application for lease of occupation of a certain block', 'Application for the Township of Grantham', 'Application for the concession of "Dewar Island"', 'Application of settlers for survey of Somerset, Stanfold and Maddington', 'Application to purchase Clergy Reserves in the County of Carleton.', 'Application to purchase lands in the township of Inverness', 'Application to purchase lot', 'Application to purchase lots in Orillia', 'Applications For the purchase of certain Clergy Reserved in Amaranth and Melancthon.', 'Applications for Lot 31 in 13 Concession in Zorra Township', 'Applications for grants', 'Applications for land', 'Applications for land script of officers', 'Applications for mining', 'Applications for purchase of Crown lands in Zone', 'Applications of the municipality of St. Vincent', 'Applications to buy lots', 'Applications to purchase land in -', 'Applications to purchase land in Sheffield', 'Applications to purchase lands', 'Applications to purchase lands in Gore of Somerset', 'Applications to purchase lots 26 &amp; 27', 'Appointment of Inspectors of Land in Upper and Lower Canada', 'Archar', 'Archbishop of Quebec', 'Archer', 'Archibald', 'Archiepiscopal Corporation of Quebec', 'Ardill', 'Argue', 'Arkell', 'Arkland', 'Arkley', 'Armatage', 'Armour', 'Armstrong', 'Armstrong/Marlett', "Armstrong/O'Neill", 'Armstrong/Welch', 'Arner/Whittle', 'Arnold', 'Arnold/Munson', 'Arnot', 'Arrangements proposed by the Receiver General (Peter Russell) For sending of patents to the different districts.', 'Arundel in relation to survey', 'Ash', 'Ashford/Mallery', 'Ashley', 'Ashman', 'Ashton', 'Askin', 'Askin/Richardson', 'Askins/Weatherhead', 'Aspenwall', 'Asselstine', 'Asselstine/Lessard', 'Asselstine/Watson', 'Association of Bellechasse.', 'Association of Bellechasse; relative to lands in Buckland.', 'Asten/Snitzinger', 'Atchison', 'Atkins', 'Atkinson', 'Attorney General issue of a fiat dispensed with in certain cases.', 'Attorney General re Church Land', 'Attorney General respecting Survey near Niagara Falls.', 'Attorney General respecting leases of the Crown and Clergy Reserves.', 'Attorney General respecting surrender of certain patents in the township of Hope.', "Attorney General's report", 'Attorney General, opinion land set apart for Government House had been promised as an endowment for hospital.', 'Attorney General, opinion respecting delivery of Patent Deeds.', 'Auction', 'Auger/Near', 'Ault/Redmond', 'Ault/Snider', 'Ault/Thomb', 'Ault/Weart', 'Austin/Marr', 'Authority for verification of outlines of Shawenagan', 'Authority to advertise lots', 'Authority to perform Surveys', 'Avery', 'Awrey', 'Aynge', 'Ayotte', 'Ayrs', 'Ayton', 'Azereas', 'BAAR', 'BABBIT', 'BABCOCK', 'BABCOCK/AYNHART', 'BABCOCK/CLEVELAND', 'BABCOCK/COLE', 'BABCOCK/COOK', 'BABCOCK/HARPELL', 'BABCOCK/SNIDER', 'BABCUCK', 'BABESK/COLE', 'BABINEAU', 'BABY', 'BACH', 'BACHAMAN', 'BACHE', 'BACHUS', 'BACKEN/BACON', 'BACKER', 'BACKHOUSE', 'BACKHOUSE/McMICHAEL', 'BACKSTER', 'BACKUS', 'BACON', 'BADDELEY', 'BADDER', 'BADGELY', 'BADGEN', 'BADGER', 'BADGERON', 'BADGLEY', 'BADICHON', 'BAGE', 'BAGERO', 'BAGG', 'BAGLEY', 'BAGSHAW', 'BAGSLEY', 'BAGWELL', 'BAID', 'BAIL/PRETEUS', 'BAILEY', 'BAILEY/BALEY', 'BAILEY/DOVER', 'BAILEY/WINTERMULER', 'BAILIE', 'BAILLIE', 'BAILLY', 'BAILY', 'BAIN', 'BAINES', 'BAIRD', 'BAIRDEN', 'BAITS', 'BAITSON', 'BAKEN', 'BAKEN/SMITH', 'BAKER', 'BAKER/CARPENTER', 'BAKER/COOK', 'BAKER/DAVY', 'BAKER/FRANKLIN', 'BAKER/FRANKS', 'BAKER/MILLARD', 'BAKER/McARTHUR', 'BAKER/NOODLE', 'BAKEWELL', 'BALANCE', 'BALCH', 'BALDERSON', 'BALDWIN', 'BALDWIN/SERVICE', 'BALDWIN/SHAW', 'BALDWINS', 'BALDWYN', 'BALEY', 'BALFOUR', 'BALIE', 'BALKE', 'BALKWELL', 'BALKWILL', 'BALL', 'BALL/CREEN', 'BALL/CRYSLER', 'BALLANTYNE', 'BALLARD', 'BALLENTINE', 'BALM/DOCHSTADER', 'BALMER', 'BALTEEL', 'BALTY', 'BAMBER', 'BAMBRIDGE/BAMBIDGE', 'BAMFORD', 'BANCK', 'BANCRAFT', 'BANCROFT', 'BANCROFT/BENCROFT', 'BANDER', 'BANE', 'BANER', 'BANFIELD', 'BANGHART', 'BANGHART/BAUGHART', 'BANGS', 'BANKER', 'BANKS', 'BANNEAU', 'BANNERMAN', 'BANNERMAN/BOWERMAN', 'BANNISTER', 'BANNON', 'BANTA', 'BAPTIST', 'BARABE', 'BARBAR', 'BARBARE', 'BARBAREE', 'BARBEAU', 'BARBER', 'BARBER/PELLET', 'BARBERE', 'BARBO', 'BARBOUR', 'BARBU', 'BARCHKLY', 'BARCHLE', 'BARCKLEY', 'BARCKLY', 'BARCLAY', 'BARCLEY', 'BARCLEY/BARKELLEY', 'BARDAN/CLARK', 'BARDBURN', 'BARDEN', 'BARDIN/McNIEL', 'BARDON', 'BARDSLEE', 'BAREFOOT', 'BARGAR', 'BARGER', 'BARGER/FOSTER', 'BARHLEY', 'BARIL', 'BARJARO', 'BARK', 'BARKALEY', 'BARKELLY', 'BARKER', 'BARKHOUSE', 'BARKLAY', 'BARKLEY', 'BARKLEY/AULT', 'BARKLEY/GARLOUGH', 'BARKLEY/MARKLEY', 'BARKLEY/STRADER', 'BARKLEY/UTTMAN', 'BARLEY', 'BARLINGER', 'BARLOU/BAILIE', 'BARLOW', 'BARLOWE', 'BARNAM', 'BARNARD', 'BARNELL', 'BARNES', 'BARNET', 'BARNET/LANDON', 'BARNETT', 'BARNEY', 'BARNHAM', 'BARNHAM/DACHSTEDER', 'BARNHARD', 'BARNHART', 'BARNHART/MARSH', 'BARNHART/PRENTICE', 'BARNHART/RAMBOUGH', 'BARNHART/SILLS', 'BARNHART/WAGER', 'BARNIER', 'BARNS', 'BARNSIDE', 'BARNUM', 'BARNUM/CLARYSDALE', 'BARNUM/HAME', 'BARO', 'BARON', 'BARON/LAFRENIERE', 'BARR', 'BARRACLOUGH', 'BARRAGER/LEE', 'BARREL', 'BARRELL', 'BARRET', 'BARRETT', 'BARRETT/WALKER', 'BARRETTE', 'BARRICHER/STRADER', 'BARRIE', 'BARRIER', 'BARRIGER', 'BARRIL', 'BARRITT', 'BARRON', 'BARROWMAN', 'BARRY', 'BART', 'BARTCH', 'BARTELEY', 'BARTELL/CARSCALLEN', 'BARTELS', 'BARTEN', 'BARTEN/DIXON', 'BARTH', 'BARTHE', 'BARTHOL', 'BARTHOLD', 'BARTHOLEMEW', 'BARTHOLOMAY', 'BARTHOLOMEW', 'BARTHOLOMEY', 'BARTHY', 'BARTLEMAN', 'BARTLES', 'BARTLES/McDOUGAL', 'BARTLET', 'BARTLET, SMITH &amp; others', 'BARTLETT', 'BARTLETT/DINGMAN', 'BARTLEY', 'BARTLY', 'BARTLY/NICHOLSON', 'BARTON', 'BARTON/BARTIN', 'BARTON/BOURDETT', 'BARTON/McCORD', 'BARTON/SMADES', 'BARTOW', 'BARTRON', 'BARWICK', 'BARWIS', 'BARY', 'BASKERRIL/BASKERVIL', 'BASKERVILLE', 'BASS', 'BASS/AMEY', 'BASSELL', 'BASSET', 'BASSETT', 'BASSETT/HOPPLE', 'BASSEY', 'BASSEY/SMITH', 'BASTABLE', 'BASTEDO', 'BASTIEN', 'BATE', 'BATEMAN', 'BATER', 'BATES', 'BATES/MATTICE', 'BATESON', 'BATHGATE', 'BATHIE', 'BATHURST', 'BATIE', 'BATNAN', 'BATTAM', 'BATTAY', 'BATTER', 'BATTER/BEDFORD', 'BATTER/POTTER', 'BATTER/WRIGHT', 'BATTERHAM', 'BATTERS', 'BATTERSBY', 'BATTGER', 'BATTIE', 'BATTLE', 'BATTY', 'BATTY/LOYST', 'BATY', 'BAUBIN', 'BAUGH', 'BAUGHANAN', 'BAUMES', 'BAUMSTARK', 'BAVENS', 'BAXTER', 'BAXTER/BINDER', 'BAXTER/MILLER', 'BAXTER/OATMAN', 'BAXTER/SHIPMAN', 'BAXTON', 'BAYCROFT', 'BAYER', 'BAYEUR', 'BAYLEY', 'BAYLY', 'BAYMAN', 'BAYMON', 'BAYNE', 'BAYNES', 'BEACH', 'BEACH/FREO', 'BEACH/SEELYE', 'BEACHER', 'BEACON', 'BEADFORD', 'BEADLE', 'BEADSTEAD', 'BEAGLE', 'BEAKON', 'BEAL', 'BEALE', 'BEALEY', 'BEALL', 'BEALSEY', 'BEAM', 'BEAM/MAY', 'BEAM/MILLS', 'BEAMAN', 'BEAMER', 'BEAMER/DOYLE', 'BEAMISH', 'BEAN', 'BEANE', 'BEARD', 'BEARD/STRADER', 'BEARDSLEY', 'BEARDSLEY/BANKER', 'BEARE', 'BEARMAN', 'BEARSS', 'BEARSS/STEEL', 'BEASLEY', 'BEASTED/FRYMIRE', 'BEATIE', 'BEATON', 'BEATRIE', 'BEATSKE', 'BEATSY', 'BEATTEY', 'BEATTIE', 'BEATTIE/SCRAM', 'BEATTON', 'BEATTY', 'BEATY', 'BEATYS', 'BEAUBIEN', 'BEAUCHAMP', 'BEAUDET', 'BEAUDRY', 'BEAUGRAND', 'BEAUMON', 'BEAUPORT', 'BEAUPR?', 'BEAUPR?/BOUPRIE', 'BEAUPRE', 'BEAUREGARD', 'BEAVIS', 'BEBEE', 'BEBEE/GROOMS', 'BEBEE/SEELY', 'BECHER', 'BECHSTED', 'BECHTEL', 'BECHTELL', 'BECK', 'BECKER', 'BECKER/BAKER', 'BECKERSTAFF', 'BECKERTON', 'BECKETT', 'BECKETT/BOWMAN', 'BECKFORD', 'BECKON', 'BECKON/BACON', 'BECKON/SKINNER', 'BECKOR', 'BECKWITH', 'BECKWITH/SILLS', 'BECKWORTH', 'BEDAL', 'BEDARD', 'BEDELL', 'BEDFORD', 'BEDICK/BEDSTED', 'BEDSTEAD/CASSELMAN', 'BEDSTED', 'BEDSTED/HANESTER', 'BEE', 'BEEBE', 'BEEBE/HART', 'BEECH', 'BEECHER', 'BEEDELL', 'BEEDLE', 'BEEMAN', 'BEEMER', 'BEER', 'BEERS', 'BEESON', 'BEETEN', 'BEETHAM', 'BEETON', 'BEEVAN', 'BEGG', 'BEGG/STAG', 'BEGHAN', 'BEGUE', 'BEIKIE', 'BEITH', 'BELANGER', 'BELCHER', 'BELCOUR', 'BELFORD', 'BELISLE', 'BELKNAP', 'BELL', 'BELL/CARSCALLEN', 'BELL/FINKLE', 'BELL/FRALIC', 'BELL/HARNES', 'BELL/HITCHCOCK', 'BELL/MERKLEY', 'BELL/PALMER', 'BELLAIRE', 'BELLAMY', 'BELLAN', 'BELLANT', 'BELLARD', 'BELLECK', 'BELLECOUR', 'BELLEFEUILLE', 'BELLEPERCHE', 'BELLER', 'BELLERE', 'BELLINGER', 'BELLINGER/OBERHOLD', 'BELLINGER/SLINGERLAND', 'BELLINGHAM', 'BELLIVEAU', 'BELLOWS', 'BELLUE', 'BELNAP', 'BELNAP/MASTERS', 'BELONGE', 'BELROSE', 'BELTON', 'BELTZ', 'BELYEA', 'BEM', 'BEMAN', 'BEMER', 'BEN', 'BENAC', 'BENCH', 'BENCROFT', 'BENDER', 'BENDER/COLLINGER', 'BENDER/WAIT', 'BENDER/WOOD', 'BENECKER', 'BENEDICK', 'BENEDICT', 'BENEDICT/COLE', 'BENEDICT/COVERLY', 'BENEDICT/CRAWFORD', 'BENEDICT/DAFOE', 'BENEKER', 'BENERDICT', 'BENERE', 'BENETEAU', 'BENETEAU/LABALEINE', 'BENFORD', 'BENHAM', 'BENINGER', 'BENITEAU', 'BENJAMIN', 'BENKER', 'BENKLEY', 'BENLEY', 'BENN', 'BENN/BEHN', 'BENN/FITCHETE', 'BENNER', 'BENNER/HOUCK', 'BENNET', 'BENNETT', 'BENNIER', 'BENNINGER', 'BENNINGHAM', 'BENNINGTON', 'BENNITT', 'BENNS', 'BENO', 'BENOIT', 'BENSACK', 'BENSEN', 'BENSON', 'BENSON/SAMSON', 'BENSON/SCHARAMAHAN', 'BENSON/SHEA', 'BENTLEY', 'BENTON', 'BENVILL', 'BENVILLE', 'BERCKLY', 'BERCSY', 'BERCY', 'BERCZY', 'BERDAN', 'BERDAN/McKENZIE', 'BERDEBT/STEEL', 'BERDEN', 'BERFORD', 'BERGAR', 'BERGEN', 'BERGER', 'BERGER/TINKLE', 'BERGIN', 'BERGON', 'BERHAM', 'BERINGER', 'BERISFORD', 'BERKEY', 'BERKLES', 'BERN', 'BERN/BEN', 'BERNARD', 'BERNARD/LARIVI?RE', 'BERNARDIN', 'BERNASH', 'BERNER', 'BERNIER', 'BERNINGER', 'BERO', 'BERREL', 'BERRIE', 'BERRY', 'BERTHEAUME', 'BERTHELET', 'BERTHIAUME', 'BERTLE', 'BERTLES', 'BERTRAND', 'BERTRAND/BERTRAN', 'BERTRON', 'BERUBE', 'BERY', 'BESENERE', 'BESENET', 'BESSE', 'BESSEE', 'BESSEY', 'BESSEY/BESSY', 'BESSIGER/BOSSIGER', 'BEST', 'BESWETHERICK', 'BESWICK', 'BESWICKE', 'BETHAN', 'BETHUME', 'BETHUNE', 'BETHUNE/SMITH', 'BETRON', 'BETRY', 'BETTERIDGE', 'BETTES', 'BETTIE', 'BETTIS', 'BETTON', 'BETTRIDGE', 'BETTS', 'BETTUNE', 'BETTY', 'BETTY/ORSER', 'BETTYS', 'BETZNER', 'BEVANS', 'BEVEAY', 'BEVEN', 'BEVERIDGE', 'BEVIS', 'BEWELL', 'BEWLEY', 'BEYERS', 'BEYNON', 'BEZER', 'BICE', 'BICE/UMPHRY', 'BICKELL', 'BICKERSON', 'BICKET', 'BICKFORD', 'BICKHAM', 'BIDOUT', 'BIDWELL', 'BIEKIE', 'BIGCRAFT', 'BIGCROFT', 'BIGELOW', 'BIGELOW/COLE', 'BIGFORD', 'BIGGAR', 'BIGGAR/COLTMAN', 'BIGGER', 'BIGGINS', 'BIGHAM', 'BIGNELL', 'BIGRAS', 'BILES', 'BILLEDEAUX', 'BILLIDOE', 'BILLIET', 'BILLING', 'BILLINGS', 'BILLINGS/DAVY', 'BILLINGS/GRAHAM', 'BILLINGSBY', 'BILLOPP', 'BILLS', 'BILOW/ALGIRE', 'BILROSE/BONESTEEL', 'BILTON', 'BINAULT', 'BINGHAM', 'BINGHAM/BOWMAN', 'BINGHAM/HUFFMAN', 'BINGHAM/LAPTHORNE', 'BINGLE', 'BINIKER/BINICHER', 'BINKLY', 'BIRCH', 'BIRD', 'BIRD/CARSON', 'BIRDS', 'BIRDSALL', 'BIRDSELL', 'BIRMINGHAM', 'BIRNEY', 'BIRNIE', 'BIRRELL', 'BISHOP', 'BISLEY/BISBEE', 'BISSEL', 'BISSELL', 'BISSELL/CLARK', 'BISSET', 'BISSETT', 'BISSIL', 'BISSONET', 'BISSONNETTE', 'BLACK', 'BLACK/CROSS', 'BLACK/PICKLE', 'BLACKBURN', 'BLACKBURN/BAKER', 'BLACKBURNE', 'BLACKBURNS', 'BLACKELY', 'BLACKER', 'BLACKER/MEYERS', 'BLACKIE', 'BLACKLEY', 'BLACKLOCK', 'BLACKLY', 'BLACKLY/COLE', 'BLACKMAN', 'BLACKMOR', 'BLACKNEY', 'BLACKSOCK', 'BLACKSTOCK', 'BLACKWAY', 'BLACKWELL', 'BLACKWOOD', 'BLADGEN', 'BLADGET', 'BLAIR', 'BLAIR/ORO', 'BLAIR/YOUNG', 'BLAKE', 'BLAKE/ADAMS', 'BLAKELEY', 'BLAKELY', 'BLAKEMORE', 'BLAKENEY', 'BLAKER', 'BLAKER/BLEECKER', 'BLAKER/MEYERS', 'BLAKESBY', 'BLAKESLEY', 'BLAKEY', 'BLAKLEY', 'BLAKLEY/BENNIT', 'BLAKLY', 'BLAKNEY', 'BLAM', 'BLANCHARD', 'BLANCHARD/RUSH', 'BLANCHER', 'BLANCHET', 'BLANCHFILL', 'BLANCO', 'BLAND/CAMPBELL', 'BLANEY', 'BLANN', 'BLASDELL', 'BLAUVELT', 'BLAYLOCK', 'BLEACHUM', 'BLEAKLY', 'BLEAM', 'BLEECKER', 'BLEEKER', 'BLEEKER/MEYERS', 'BLENEY', 'BLETCHER', 'BLEVINS', 'BLEW', 'BLEWETT', 'BLEWITT', 'BLEZARD', 'BLINN', 'BLISS', 'BLIZARD', 'BLODGET/WHEELER', 'BLODGETT', 'BLOM', 'BLOOM', 'BLOOMFIELD', 'BLOOR', 'BLOSDOLL', 'BLOUNT', 'BLOVIN', 'BLUCHERS', 'BLUCKER', 'BLUE', 'BLUEMAN', 'BLUETT', 'BLUM', 'BLUNDEN', 'BLUNT', 'BLYTH', 'BLYTH/CORBMAN', 'BOALAN', 'BOARDMAN/WINTERS', 'BOBIER', 'BOCAUT', 'BOCHET', 'BOCHUS', 'BOCKUS', 'BOCKUS/SHAVER', 'BODDINGTON', 'BODDY', 'BODIN', 'BODINE', 'BODY', 'BOG', 'BOGARD', 'BOGART', 'BOGART/BENEDICT', 'BOGERT', 'BOGGS', 'BOGUE', 'BOHAN', 'BOHANNON', 'BOICE', 'BOICE/AMEY', 'BOICE/CUSHMAN', 'BOICE/SCHRIVER', 'BOID', 'BOILS', 'BOIRE', 'BOISE', 'BOISEAU', 'BOISMIER', 'BOISNISER', 'BOISVERT', 'BOITON', 'BOLAND', 'BOLBY', 'BOLDUC', 'BOLE', 'BOLES', 'BOLLARD', 'BOLSTER', 'BOLTE', 'BOLTON', 'BOLTON/BOULTON', 'BOLTON/BUELL', 'BOLWELL', 'BOMBARDIER', 'BONBERGIER', 'BOND', 'BOND/PATTERSON', 'BONDIE', 'BONDRAY', 'BONDY', 'BONE', 'BONEAU', 'BONER', 'BONESTEAL', 'BONESTEEL', 'BONESTIEL', 'BONGARD', 'BONKER', 'BONKER/CORTEN', 'BONNELL', 'BONNER', 'BONNET', 'BONNETT', 'BONNEY', 'BONNYCASTLE', 'BONSACK', 'BONSER', 'BONSTED', 'BONSTEEL', 'BONSTEEL/CONWAY', 'BONTER', 'BONTER/DEMPSEY', 'BONTER/PEAK', 'BONYARD', 'BOODLE', 'BOODY', 'BOOK', 'BOOMER', 'BOORDEN', 'BOORMAN', 'BOOS', 'BOOTH', 'BOOTH/DALY', 'BOOTH/NORMAN', 'BOOTHROYD', 'BORCKHOLDER', 'BORDEN', 'BORDEN/SEELEY', 'BORGHONDER', 'BORING', 'BORKHOLDER', 'BORLAND', 'BORNUM', 'BORPY', 'BORRELLY', 'BORRIE', 'BORUGHTON/DENNIS', 'BOSQUET', 'BOSQUET/COX', 'BOSS', 'BOSS/AINSLEY', 'BOSSE', 'BOSSENIE', 'BOSSET/SMITH', 'BOSSU/LEONNAIS', 'BOSTICK', 'BOSTLY', 'BOSTON', 'BOSTWICK', 'BOSTWICKS', 'BOSWELL', 'BOSWICK', 'BOTHWELL', 'BOTSFORD', 'BOTTERILL', 'BOTTOM', 'BOTTON', 'BOTTON/CURRY', 'BOTTUM', 'BOUCH', 'BOUCH?', 'BOUCHE', 'BOUCHER', 'BOUCHER DE BOUCHERVILLE', 'BOUCHERVILLE', 'BOUCHETTE', 'BOUCHETTE/BERTHELET', 'BOUCHNER', 'BOUCK', 'BOUCK/DILLABAUGH', 'BOUCKE', 'BOUDETTE', 'BOUDREAU', 'BOUET', 'BOUFFARD', 'BOUGENER', 'BOUGHMAN', 'BOUGHNER', 'BOUGHNER/GLOVER', 'BOUGHNER/MATHEWS', 'BOUGHSLAUCH', 'BOUKE', 'BOUKER', 'BOULANGER', 'BOULBY', 'BOULD', 'BOULGER', 'BOULLARD', 'BOULT', 'BOULTER/PEACK', 'BOULTON', 'BOULTON/BELLANY', 'BOULTON/BOTTON', 'BOULTON/CURRY', 'BOULTON/ELLIOT', 'BOULTON/ELLIOTT', 'BOULTON/JONES', 'BOULTON/REDMAN', 'BOURASSA', 'BOURBONNIER', 'BOURCHIER', 'BOURDETT', 'BOURDETT/STEEL', 'BOURDETTE', 'BOURGET', 'BOURJOTTE/LESPERANCE', 'BOURK', 'BOURKE', 'BOURNS', 'BOUS', 'BOUSLAUGH', 'BOUSSEY', 'BOUTHELLIER', 'BOUTHILLIER', 'BOUTILLET', 'BOUTILLIER', 'BOUTIN', 'BOVARD', 'BOWAN', 'BOWBEER', 'BOWBEER/BREWER', 'BOWBIER', 'BOWDEN', 'BOWEN', 'BOWEN/CARMAN', 'BOWEN/CULBERTSON', 'BOWEN/DEMOREST', 'BOWEN/DIMONT', 'BOWEN/KIMMERLY', 'BOWEN/PALMER', 'BOWEN/PORT', 'BOWEN/RISELAY', 'BOWEN/SHAVER', 'BOWENS', 'BOWER', 'BOWERMAN', 'BOWERMAN/MORDEN', 'BOWERS', 'BOWES', 'BOWIE', 'BOWIE/BUIES', 'BOWKER', 'BOWKET', 'BOWKETT', 'BOWLBY', 'BOWLES', 'BOWLEY', 'BOWLING', 'BOWMAN', 'BOWMAN/BELLINGER', 'BOWMAN/BOUKE', 'BOWMAN/CLARK', 'BOWMAN/DEFOREST', 'BOWMAN/MATLACK', 'BOWN', 'BOWNEY', 'BOWRON', 'BOWSER/BOWSEN', 'BOWSFIELD', 'BOXALL', 'BOYCE', 'BOYCE/HARTMAN', 'BOYD', 'BOYD/McINTIRE', 'BOYDE', 'BOYEA', 'BOYER', 'BOYER/COMER', 'BOYERS', 'BOYES', 'BOYL', 'BOYLAN', 'BOYLE', 'BOYLES', 'BOYS', 'BOYSEE', 'BOYTON', 'BRACK', 'BRACKBILL', 'BRACKEN', 'BRACKENREED', 'BRACKENRIDGE', 'BRACKETT', 'BRACKIN', 'BRACKLEY', 'BRADBENT', 'BRADBURN', 'BRADBURNE', 'BRADEY', 'BRADFORD', 'BRADFORD/SELEE', 'BRADISH', 'BRADLEY', 'BRADLEY/MOOR', 'BRADLY', 'BRADNER', 'BRADNOCK', 'BRADSHAW', 'BRADSHAW/COLLINS', 'BRADSHAW/DIAMOND', 'BRADSHAW/LARUE', 'BRADSHAW/VANDERLISS', 'BRADSTEAD/AULT', 'BRADT', 'BRADT/BENDER', 'BRADT/HAINER', 'BRADT/YOUNG', 'BRADWELL', 'BRADY', 'BRAGG', 'BRAILY', 'BRAKENRIDGE', 'BRALY', 'BRAMORSKEY', 'BRAMORSKY', 'BRAMOUSKY', 'BRANAGAN', 'BRANAN', 'BRANDON', 'BRANDT', 'BRANDTS', 'BRANDTS/BRANTS', 'BRANDYMAN', 'BRANDYMANN', 'BRANIGAN', 'BRANNAGH', 'BRANNAH', 'BRANNAN', 'BRANNEGAN', 'BRANNEN', 'BRANNON', 'BRANT', 'BRANT/DESERONTWE', 'BRANTFORD/REED', 'BRANTS', 'BRASH', 'BRASS', 'BRASS/MATTICE', 'BRASS/MATTIN', 'BRASS/ROUSEHORNE', 'BRATH', 'BRATT', 'BRAUNCIS', 'BRAY', 'BRAY/ANDERSON', 'BRAYLEY', 'BRAYLEY/LAW', 'BRAYTON', 'BRAYTON/WEART', 'BRAZEY', 'BRAZIL', 'BRAZLE', 'BREAD', 'BREADEN', 'BREADNER', 'BREADON', 'BREADY', 'BREAK', 'BREAKENRIDGE', 'BREAKENRIGHT', 'BREAKY', 'BREARLY', 'BREATHWAITE', 'BREAULT', 'BREBNER', 'BRECKAN', 'BRECKON', 'BREEN', 'BREGARE', 'BREINICH', 'BREMBLE', 'BREMICH', 'BREMMER', 'BREMNER', 'BRENAGH', 'BRENAN', 'BRENEMAN', 'BRENNAN', 'BRENNAN/PETERSON', 'BRENNEN', 'BRENT', 'BRENTON', 'BRESEE', 'BRESNAHAN', 'BRESSE', 'BRESSEE', 'BRETHWAITH', 'BRETNER', 'BRETT', 'BREWER', 'BREWERTON', 'BREZE', 'BREZEE', 'BRIAN', 'BRICE', 'BRICK', 'BRICKER', 'BRICKMAN', 'BRICOT', 'BRIDGAM', 'BRIDGE', 'BRIDGEFORD', 'BRIDGEMAN', 'BRIDGES', 'BRIDGEWATER', 'BRIDGLAND', 'BRIDGMAN', 'BRIEN', 'BRIENLY', 'BRIERLY', 'BRIGGS', 'BRIGHAM', 'BRIGHAM/BREWSTER', 'BRIGHT', 'BRIGS', 'BRIKIE', 'BRILL', 'BRILLARD', 'BRILLINGER', 'BRIMMER', 'BRINDLEY', 'BRINK', 'BRINK/BRADT', 'BRINKERHOOF', 'BRINKMAN', 'BRINLEY', 'BRINSMEAD', 'BRINTNALL', 'BRIODY', 'BRISARD', 'BRISBOIS', 'BRISCO', 'BRISCOE', 'BRISCOE/BELL', 'BRISLANE', 'BRISON', 'BRISTOE', 'BRISTOL', 'BRITAIN', 'BRITAIN/BRITTIN', 'BRITTON', 'BROAD', 'BROADBANT', 'BROADBENT', 'BROADIE', 'BROADWICK', 'BROCK', 'BRODAY', 'BRODDY', 'BRODEUR', 'BRODIE', 'BRODRICK', 'BRODY', 'BROEFFEL/BREEFFEL', 'BROFFEL', 'BROFFEY', 'BROGDEN', 'BROGDIN', 'BROGDON', 'BROMLY/ROSS', 'BROOK', 'BROOKE', 'BROOKER', 'BROOKES', 'BROOKING', 'BROOKS', 'BROOKS/BARRETT', 'BROOKS/BENEDICT', 'BROOKS/COCKMAN', 'BROOKS/COLE', 'BROOKS/CORBMAN', 'BROOKS/MEDDAUGH', 'BROOKS/TURGERSON', 'BROOKSBANK', 'BROOME', 'BROOMHEAD', 'BROONER', 'BROPHEY', 'BROPHY', 'BROSE', 'BROTHERS', 'BROTHERSTON', 'BROUGH', 'BROUGHMAN', 'BROUGHTON', 'BROUK', 'BROUSE', 'BROUSE/ADAMS', 'BROUSE/BOUCK', 'BROUSE/CARMAN', 'BROUSE/KARMAN', 'BROUSE/PARLOW', 'BROUSE/SHAVER', 'BROUSTER', 'BROWCE', 'BROWCE/COON', 'BROWDERS', 'BROWER', 'BROWN', 'BROWN/COON', 'BROWN/FAIRFIELD', 'BROWN/FERGUSON', 'BROWN/FREEMAN', 'BROWN/HAWEN', 'BROWN/HURLBURT', 'BROWN/JUDSON', 'BROWN/MATICE', 'BROWN/MCILMOYLE', 'BROWN/MCLEAN', 'BROWN/MOTT', 'BROWN/MULLOY', 'BROWN/McINTIRE', 'BROWN/NICHOLSON', 'BROWN/ROBBINS', 'BROWN/SNIDER', 'BROWNE', 'BROWNELL', 'BROWNELL/CLINE', 'BROWNELL/COUNTRY', 'BROWNELL/SERVICE', 'BROWNELLE/BROWNHILL', 'BROWNLEE', 'BROWNLEY', 'BROWNLIE', 'BROWNLY', 'BROWNSON', 'BROWNSON/HAFFMAN', 'BROWNWICK', 'BROWSE', 'BRUCE', 'BRUCE/DAVY', 'BRUCK', 'BRUEN', 'BRUGERE', 'BRULE', 'BRUMGET', 'BRUMIGEM', 'BRUMIGEM/BRUMIGEN', 'BRUMWELL', 'BRUND', 'BRUNDAGE', 'BRUNDAGE/YOUREX', 'BRUNDEGE', 'BRUNDICH', 'BRUNDIDGE', 'BRUNDIGE', 'BRUNDREDGE', 'BRUNDRIDGE', 'BRUNELLE', 'BRUNER', 'BRUNGER', 'BRUNHERD', 'BRUNK', 'BRUNSON', 'BRUSH', 'BRUSH/CURRY', 'BRUSSEAUX', 'BRUSTER', 'BRUTON', 'BRUTON/FINNERON', 'BRYAN', 'BRYANS', 'BRYANT', 'BRYANT/McLEAN', 'BRYCE', 'BRYDEN', 'BRYDON', 'BRYDONE', 'BRYERS', 'BRYNES', 'BRYSON', 'BUCANNAN/BUCHANNAN/BUCKANNAN', 'BUCH', 'BUCHAM', 'BUCHAN', 'BUCHANAN', 'BUCHANAN &amp; BARKER', 'BUCHANAN/CRAWFORD', 'BUCHANAN/CRYSLER', 'BUCHANNAN', 'BUCHLEY', 'BUCHNER', 'BUCHNER/BOUGENER', 'BUCHNER/BOUGHNER', 'BUCHNER/BOUGHNER/AINSLEY', 'BUCHNER/BOUGNER', 'BUCHNER/BUGHGONER', 'BUCHNER/GRAHAM', 'BUCK', 'BUCK/BALDWIN', 'BUCK/BOUCH', 'BUCK/HAGERMAN', 'BUCK/HAGGART', 'BUCK/ORSER', 'BUCK/SNUKE', 'BUCKBOROUGH', 'BUCKHAM', 'BUCKHANAN/McDONELL', 'BUCKLEY', 'BUCKLEY/THOMAS', 'BUCKNER', 'BUCKNER/McGAN', 'BUDD', 'BUELL', 'BUELL/BAUCKE', 'BUELL/SHERWOOD', 'BUFFA', 'BUGBEE', 'BUGG', 'BUGGENER', 'BUGGIE', 'BUGIN', 'BUGLE LE', 'BUIE', 'BUIS', 'BUIS/AMEY', 'BUIS/BICE', 'BUISE', 'BUKER/BAKER', 'BUKER/FRENCH', 'BULEY', 'BULGER', 'BULHAM', 'BULKELEY', 'BULL', 'BULL/CLEMENT', 'BULLARD', 'BULLEN', 'BULLER', 'BULLES', 'BULLESS', 'BULLEY', 'BULLIN', 'BULLISS', 'BULLIVET', 'BULLIVIT', 'BULLOCK', 'BULLY', 'BULMAN', 'BULMER', 'BULSON', 'BULTEEL', 'BUMP', 'BUNBURRY', 'BUNBURY', 'BUNCE', 'BUNDIGE', 'BUNFIELD', 'BUNKER', 'BUNN', 'BUNTING', 'BUNTING/MARCKLE', 'BUNTON', 'BUNYAN', 'BURBANK', 'BURBANKS', 'BURBY', 'BURCH', 'BURCH/BIRCH', 'BURCHELL', 'BURCHILL', 'BURCK', 'BURCKHOLDER', 'BURD', 'BURDEN', 'BURDETT', 'BURDETT/BOURDETT', 'BURDICK', 'BURDOCK', 'BURDON', 'BURDS', 'BURDSELL', 'BURDSLEE', 'BUREAU', 'BURGAR', 'BURGART', 'BURGER', 'BURGES', 'BURGESS', 'BURGHAM', 'BURGHER', 'BURGHMANN', 'BURGIS', 'BURGISS', 'BURGOINE', 'BURGOYNE', 'BURK', 'BURKE', 'BURKET', 'BURKHOLDER', 'BURLEIGH', 'BURLEY', 'BURLEY/BALDWIN', 'BURLEY/LEE', 'BURLEY/SNIDER', 'BURLINGAME', 'BURLINGHAM/TANKEN', 'BURN', 'BURNELL', 'BURNES', 'BURNET', 'BURNET/VANARDEN', 'BURNETT', 'BURNETT/BAKER', 'BURNETT/COLLINGWOOD', 'BURNHAM', 'BURNHAM/AUGER', 'BURNHAM/CLAWSON', 'BURNHAM/FERGUSON', 'BURNHAM/HUFF', 'BURNITT', 'BURNS', 'BURNS/BYRNE', 'BURNSIDE', 'BURNSIDE/BROUSE', 'BURON', 'BURR', 'BURRELL', 'BURRETT', 'BURRILL', 'BURRISON', 'BURRISON/JOHNSTOWN', 'BURRIT', 'BURRIT/DULMAGE', 'BURRITT', 'BURROWES', 'BURROWS', 'BURRY', 'BURST', 'BURSTELL', 'BURT', 'BURTCH', 'BURTCH/BRADT', 'BURTCH/CORLIS', 'BURTCH/SEHRAM', 'BURTON', 'BURTON/ALGUIRE', 'BURWELL', 'BURWELL/BENEDICT', 'BURWELL/BISSELL', 'BURY', 'BUSCH', 'BUSH', 'BUSH/CROWDER', 'BUSHBY', 'BUSHEY', 'BUSHNELL', 'BUSNEY', 'BUSSELL', 'BUSVAK', 'BUTCH', 'BUTCHART', 'BUTCHER', 'BUTH', 'BUTLER', 'BUTLER/BERRIE', 'BUTLER/BOURDETT', 'BUTLER/COLTMAN', 'BUTLER/CROOKS', 'BUTLER/DAYTON', 'BUTLER/MATTHEWS', 'BUTLER/SLEMENT', 'BUTLER/STEVENS', 'BUTLER/WOOD', 'BUTTER', 'BUTTERFIELD', 'BUTTERFIELD/CLARK', 'BUTTERWORTH', 'BUTTLER', 'BUTTON', 'BUTTS', 'BUXTON', 'BUZBY', 'BY', 'BYAN', 'BYARD', 'BYARS', 'BYCRAFT', 'BYER', 'BYERLAY', 'BYERS', 'BYRNE', 'BYRNES', 'BYRNS', 'Babcock', 'Babcock/Lewis', 'Babcock/Ransier', 'Babcock/Scott', 'Babcock/Shannon', 'Babcock/Smith', 'Babcock/Wannamaker', 'Babcock/Wannomaker', 'Babcock/Weese', 'Babcook/Scott', 'Bachman', 'Bacon', 'Badcock', 'Badger', 'Badgerow', 'Badgley', 'Badichon/Labadie', 'Badwin', 'Bag', 'Bagley', 'Baice/Langhorn', 'Bailey', 'Bailey/McCarthy', 'Bailey/Sawyers', 'Baily', 'Bain', 'Baine', 'Baker', 'Baker/Miller', 'Baker/Skinner', 'Baker/Smith', 'Baker/Snyder', 'Baker/Wade', 'Baker/Waldorff', 'Baker/Young', 'Balance of land', 'Balderson', 'Baldwin', 'Baldwin/Webster', 'Bale', 'Ball', 'Ball/Long', 'Ball/Servos', 'Ball/Sweep', 'Ball/Walker', 'Ball/Wilkeson', 'Balmain/McDonell', 'Balton/Rose', 'Bamber', 'Banal Grist Mill', 'Banal Mill', 'Bannerman', 'Bannister', 'Banta/Vanwyck', 'Banter', 'Baptist Church', 'Baptist Church at Amherstburg.', 'Baptist Society', 'Baptists of the township of Artemesia.', 'Barber', 'Barckley/Outerkirk', 'Barckly/Markle', 'Barclay', 'Barclough', 'Barden', 'Barhigt', 'Bark/Lyons', 'Barkely/Shell', 'Barkley/Whiteker', 'Barkley/Witticker', 'Barkly/Marcellia/Massales', 'Barlow', 'Barnard/Nichols', 'Barnard/Randell', 'Barnard/Thomas', 'Barnard/Walker', 'Barnet/Landon', 'Barnet/Rood', 'Barnhart/Gallingher', 'Barnhart/MacDaniel', 'Barnhart/Marks', 'Barnhart/Rombough', 'Barnhart/Sills', 'Barnhart/Stinehoof', 'Barnhart/Stringer', 'Barnhart/Tilton', 'Barnheart/Runion', 'Barnheart/Waldenbarger', 'Barnrom', 'Barns', 'Barr', 'Barrie', 'Barrie &amp; Kempenfeldt Park Lots', 'Barrie (Market House Simco Dist.)', 'Barrie (Town lots for Jail &amp; Court House)', 'Barrie (Wesleyan Methodists Soc.)', 'Barrie (Wesleyan Methodists Society)', 'Barrie Members of the church of Scotland', 'Barrington', 'Barron', 'Barry', 'Bart', 'Bartels', 'Bartholomew', 'Bartlett', 'Bartley/Green', 'Bartley/Lyst', 'Bartley/Nicholson', 'Bartley/Shewman', 'Bartlough', 'Bartly/Green', 'Barton', 'Barton/Shatford', 'Barton/Smades', 'Barton/Smedes', 'Barton/Thomson', 'Barton/Wiley', 'Bartram', 'Baseer', 'Basset', 'Bassey/Smith', 'Bastedo', 'Bastedo/Rogers', 'Bastian/Stewart', 'Bates/Ghent', 'Bath Circuit, Wesleyan Methodist Church', 'Bathurst', 'Bathurst District Clergy Reserves', 'Batter/Merkley', 'Batter/Wright', 'Battiam', 'Battian', 'Baxter', 'Bay Indians', 'Bay de Chaleur (Timber Agency)', 'Bay of Quinte', 'Bayeaux/Vincent', 'Beach', 'Beach Lots', 'Beaches in Quebec', 'Beal', 'Beaman', 'Beard', 'Bearman', 'Beasley/Stegman', 'Beasley/Van Every', 'Beatie', 'Beatson', 'Beatys', 'BeauSoleil', 'Beaugrand', 'Beaumont', 'Beaver', 'Bebee/Smith', 'Becker', 'Becket', 'Beckwith', 'Bedal', 'Bedell', 'Bedford &amp; Sheffield (Clergy Reserves &amp; School lands)', 'Bedford, Reservation for Schools', 'Bedstead', 'Beeman', 'Beick', 'Beikie', 'Belding', 'Bell', 'Bell/Huff', 'Bell/Scott', 'Bell/Sharp', 'Bell/Sills', 'Bell/Switzer', 'Bell/Taylor', 'Bellamy', 'Bellar/Le Motte', 'Bellau', 'Bellaw', 'Belleperche', 'Belleville (Moira River)', 'Belleville town', 'Belleville, Minister &amp; Church Wardens of C. of E.', 'Belleville, President and Board of Police.', 'Belleville, Rev. Campbell for parsonage and glebe (C. of E.)', 'Belleville, church of England, parsonage and glebe (Rev. Thomas Campbell)', 'Bellows', 'Beman', 'Bencroft', 'Bender', 'Bender/Murry', 'Bender/Stelmayon', 'Bender/Wood', 'Benedict/Lossee', 'Benet', 'Benett', 'Benidick/Olds', 'Benn/Sills', 'Benn/Simmons', 'Benn/Soles', 'Bennet', 'Bennett', 'Bennitt', 'Benson', 'Benson/Richardson', 'Benson/Steel', 'Benson/Terell', 'Bent', 'Bentinck &amp; Glenelg School Section', 'Bentinck School Trustees', 'Bentley/Jayne', 'Benton', 'Berczy', 'Berdan/Thomson', 'Bergeron', 'Bernard', 'Berney', 'Bernier', 'Berry', 'Berry/Ulman', 'Berry/Willman', 'Bertram', 'Besserer', 'Bessey', 'Bessey/Price', 'Bessil/Michel', 'Bessy/Newkirk/Newcark', 'Best', 'Bethune', 'Bethune/McKenzie', 'Bethune/Wilkinson', 'Bettys', 'Bettys/Mahon', 'Bieges', 'Biggars', 'Bighard', 'Bignal', 'Bigsby', 'Bill', 'Billows', 'Bills', 'Birch', 'Birch/Rowel', 'Bird', 'Birdsale/McDonald', 'Birdsall', 'Birdsall/Shotwell', 'Birmingham', 'Birn', 'Bisco', 'Bishop', 'Bishop of Nova Scotia', 'Bishop of Quebec', 'Bishop of Toronto', 'Bishop of York', 'Bishop, Coadjutor and Administrator of Regiopolis', 'Bissell/Landon', 'Black', 'Black/Sparks', 'Black/Umphrey', 'Blackburn', 'Blackley/Murrison', 'Blackman', 'Blackwell', 'Blackwood', 'Blades', 'Blain', 'Blair', 'Blake', 'Blakeby/McDonald', 'Blakely/Mix', 'Blakely/Toppin', 'Blaker/Ripsom', 'Blakley/Ruscow', 'Blan', 'Blanchard', 'Blandford, Brock District (Purchase of Clergy Reserve)', 'Blasdell', 'Bleecker', 'Bleex', 'Blond', 'Blondheim', 'Board for Education', 'Board of Ordnance', 'Board of Police', 'Board of Police of town of Belleville.', 'Board of School Trustees', 'Board of Trustees of the Thomas County Grammar School', 'Board of Trustees, Grammar School', 'Board of Works', 'Boardman', 'Bodart', 'Bogart', 'Bogart/Spicer', 'Bogert/Matheson', 'Boice/McGuire', 'Boice/Springer', 'Boice/Van Wicklin', 'Boid/Shipman', 'Boies/Leonard', 'Boisbouscache village plot', 'Bolduc', 'Bolton', 'Bolton/Sax', 'Bond', 'Bone', 'Bonesteell/Willcox', 'Bonet', 'Bonnycastle', 'Bonsteel/Laushway', 'Bonsteel/Smith', 'Booth', 'Booth/Stalker', 'Booth/Terry', 'Boreson/Manhart', 'Borrat', 'Borrie', 'Borrit/Wright', 'Boshart', 'Bostwick', 'Bosworth', 'Botsford', 'Boucher', 'Boucher/Loucks', 'Bouchette/Reynolds', 'Bouchier', 'Bouchner/Willson', 'Bouchuer/Stringer', 'Bouck', 'Bouck/Garlough', 'Bouck/Reid', 'Boughner/Owen', 'Boughner/Willson', 'Boulton', 'Boulton/McMurphy', 'Boundary Commission', 'Boundary Lines', 'Boundary line the township Beverly', 'Boundary lines of lots', 'Bourne', 'Boutlon/Rawley', 'Bowac/Markle', 'Bowdish', 'Bowen', 'Bowen/More', 'Bowen/Sager', 'Bowen/Shaver', 'Bower/Scott', 'Bower/Worden', 'Bowerman', 'Bowers/Scott', 'Bowes', 'Bowie', 'Bowling/Goslee', 'Bowman', 'Bowman/Gisso', 'Bowman/Schram', 'Bowman/Scott', 'Bowman/Snure'</t>
         </is>
@@ -683,12 +705,18 @@
         </is>
       </c>
       <c r="T4" t="n">
+        <v>9835</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="V4" t="n">
         <v>495737</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>6664</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>['4824', '?tienne', 'A', 'A.', 'A. &amp; others', 'A. A.', 'A. B.', 'A. F.', 'A. G.', 'A. H.', 'A. J.', 'A. M.', 'A. M. I.', 'A. M. J.', 'A. N.', 'A. R.', 'A. W.', 'A. Y.', 'A., Lt Col.', 'A.C.', 'A.D.', 'A.F.', 'A.H. &amp; others', 'A.J.', 'A.L.', 'A.M.', 'A.N.', 'A.S.', 'A.W.', 'Aaron', 'Aaron Bryer Andrew', 'Aaron C.', 'Aaron F.', 'Aaron J.', 'Aaron Jr.', 'Aaron L.', 'Aaron P.', 'Aaron Sr.', 'Aaron and 5 sons', 'Aaron jr.', 'Aaron junior', 'Abadiah', 'Abagail', 'Abagill', 'Abbe', 'Abbey', 'Abby', 'Abeb', 'Abednego', 'Abel', 'Abel &amp; others', 'Abel D.', 'Abel E.', 'Abel H.', 'Abel Lewis', 'Abel R.', 'Abel Waters', 'Abel sr.', 'Abelu', 'Abiah', 'Abiel', 'Abifail', 'Abigah', 'Abigail', 'Abigail &amp; Son', 'Abigail &amp; others', 'Abigail jr.', 'Abigal', 'Abijah', 'Abijah jr.', 'Abizail', 'Able', 'Abner', 'Abner &amp; others', 'Abner Jr.', 'Abnor', 'Abnor jr.', 'Abra', 'Abraham', 'Abraham &amp; others', 'Abraham A.', 'Abraham D.', 'Abraham Gilbert', 'Abraham H.', 'Abraham Jr.', 'Abraham L.', 'Abraham Sr.', 'Abraham W.', 'Abraham Wartman', 'Abraham and others', 'Abraham jr.', 'Abraham junior', 'Abraham senior', 'Abraham sr.', 'Abrahim', 'Abram', 'Abram L.', 'Abrams', 'Absalom', 'Absalon', 'Absolem', 'Absolom', 'Absolum', 'Acessah', 'Acy', 'Ada', 'Adam', 'Adam &amp; others', 'Adam B.', 'Adam C.', 'Adam F.', 'Adam H.', 'Adam Henry', 'Adam I.', 'Adam J.', 'Adam Jehiel', 'Adam Jr.', 'Adam K.', 'Adam Nelson', 'Adam P.', 'Adam Sr.', 'Adam T.', 'Adam Williamson', 'Adam jr.', 'Adan', 'Adane F.', 'Adanijah', 'Addison', 'Adelaide', 'Adelaide Ann', 'Adelia', 'Adeline', 'Adhemar', 'Adiel', 'Adin', 'Adington', 'Adjt. L.', 'Adna', 'Adney', 'Adolphus', 'Adolphus F.', 'Adomjak', 'Adonijah', 'Adoniram', 'Adoram', 'Adrian', 'Adrien', 'Aemeas', 'Aeneas', 'Affa', 'Agar', 'Agatha', 'Agens', 'Agnes', 'Agnes &amp; others', 'Agnes E.', 'Agnes S.', 'Agnew P.', 'Agnus', 'Agustus', 'Ahab', 'Ahimazry', 'Ahimazry jr.', 'Airl', 'Alada', 'Alada junior', 'Aladah', 'Alanson', 'Alathan', 'Albelu', 'Albert', 'Albert  Jr.', 'Albert B.', 'Albert Jr.', 'Albert Jurn', 'Albert P.', 'Albert Scriver', 'Albright', 'Aldert', 'Aldridge', 'Aleazer', 'Alem', 'Alen', 'Alenyth', 'Alescis F.', 'Alex', 'Alex &amp; others', 'Alex N.', 'Alex William', 'Alex.', 'Alex. &amp; others', 'Alex. Sr.', 'Alex. T. E.', 'Alexander', 'Alexander &amp; others', 'Alexander A.', 'Alexander Browne', 'Alexander C.', 'Alexander Clifton', 'Alexander Craig', 'Alexander Daniel', 'Alexander David', 'Alexander F.', 'Alexander George', 'Alexander Hamilton', 'Alexander Howe', 'Alexander John', 'Alexander Johnstone', 'Alexander Jr.', 'Alexander L.', 'Alexander Lockhart', 'Alexander M.', 'Alexander McQueen', 'Alexander Mordaunt', 'Alexander N.', 'Alexander Oliphant', 'Alexander Peter', 'Alexander R.', 'Alexander Robert', 'Alexander S.', 'Alexander Sr.', 'Alexander T.E.', 'Alexander Thomas', 'Alexander Whalley', 'Alexander William', 'Alexander and others', 'Alexander jr.', 'Alexander junior', 'Alexander sr.', 'Alexander: Agent', 'Alexanders &amp; others', 'Alexandre', 'Alexandrew', 'Alexis', 'Alexis &amp; four others', 'Alexis &amp; others', 'Alexis Luc', 'Alexis Sr.', 'Alexis Theophile', 'Aley', 'Alfred', 'Alfred Alpheus', 'Alfred Francis', 'Alice', 'Alicia', 'Alicia Fenton', 'Alida', 'Allada', 'Allada and others', 'Allan', 'Allan &amp; Co.', 'Allan &amp; others', 'Allan Ban', 'Allan Jr.', 'Allan N.', 'Allan Napier', 'Allan R.', 'Allan W.', 'Allany', 'Allbartis', 'Alledy', 'Allen', 'Allen &amp; Cie', 'Allen &amp; others', 'Allen Ban', 'Allen Cameron', 'Allen S.', 'Alley', 'Allida', 'Allin', 'Allin Cammeron', 'Allmira', 'Alloisy', 'Ally', 'Almena', 'Almerin', 'Almerrin', 'Almira', 'Almirah', 'Alneas', 'Aloma', 'Alonzo', 'Alonzo Dyington', 'Alpha', 'Alphes', 'Alpheus', 'Alphius', 'Alpin', 'Alpine', 'Alsent', 'Alson', 'Alva', 'Alva Scofield', 'Alvah', 'Alvan', 'Alvaro', 'Alvin', 'Amable', 'Aman', 'Amanda', 'Amariah', 'Amarilla', 'Amasa', 'Amaser', 'Amasiah', 'Amazrah', 'Amber', 'Amberson', 'Ambroise', 'Ambrose', 'Ame', 'Amelia', 'Amelia Maria', 'Amelia Rosahha', 'Amelia Sophia', 'Amerilla', 'Ames Sr.', 'Amey', 'Amherst', 'Amia', 'Amie', 'Amiley', 'Amisa', 'Ammarilla', 'Ammi', 'Amoriah', 'Amos', 'Amos H.', 'Amos J.', 'Amos Jenkins', 'Amos Jr.', 'Amos L.', 'Amos M.', 'Amos R.', 'Amos jr.', 'Amos sr.', 'Amosa', 'Amsa', 'Amy', 'Amy Tamer', 'Amzi L.', 'Anan', 'Ananios', 'Anasa', 'Anay', 'Ande', 'Anderson', 'Andew', 'Andios', 'Andre', 'Andrea William', 'Andreas', 'Andress', 'Andrew', 'Andrew &amp; others', 'Andrew Alexander', 'Andrew Charles', 'Andrew D.', 'Andrew E.', 'Andrew F.', 'Andrew H.', 'Andrew John', 'Andrew Jr.', 'Andrew M.', 'Andrew M. I.', 'Andrew McKenzie', 'Andrew N.', 'Andrew P.', 'Andrew S.', 'Andrew T.', 'Andrew Todd', 'Andrew W.', 'Andrew William', 'Andrew Wilson', 'Andrew jr.', 'Andrew junior', 'Andrew sr.', 'Andrews', 'Andrue', 'Andr~', 'Andr~ Larieniette', 'Andr~ Raphael', 'Aner', 'Ang_le', 'Angel', 'Angelec', 'Angelica', 'Angeline', 'Angelique', 'Angelo', 'Angus', 'Angus B.', 'Angus Jr.', 'Angus Roy', 'Ang~lique', 'Ann', 'Ann &amp; others', 'Ann (Meridith)', 'Ann B.', 'Ann C.', 'Ann Dorcus', 'Ann E.', 'Ann Eliza', 'Ann Elizabeth', 'Ann Eve', 'Ann Isabel', 'Ann Isabella', 'Ann Kerr', 'Ann Maria', 'Ann Mary', 'Ann/Anne', 'Anna', 'Anna Christine', 'Anna Eliza', 'Anna Eve', 'Anna Ham', 'Anna I.', 'Anna Margaret', 'Anna Maria', 'Anna Marie', 'Annabel', 'Annah', 'Annas', 'Annay', 'Anne', 'Anne &amp; others', 'Anne (Mrs.)', 'Anne E.', 'Anne Elisa', 'Anne Elizabeth', 'Anne Frances', 'Anne Maria', 'Anne and others', 'Annet', 'Anneuer', 'Anney', 'Annis', 'Anny', 'Anselm', 'Anselm &amp; others', 'Anselme', 'Anslem', 'Anson', 'Anson B.', 'Anson H.', 'Anson Harley', 'Ant.', 'Anthony', 'Anthony &amp; others', 'Anthony Descompte', 'Anthony Jr.', 'Antoina', 'Antoine', 'Antoine Descomptes', 'Antoine German', 'Anton', 'Antony', 'Anty', 'Apollas', 'Apulet', 'Aquila M.', 'Aquila Mitchell', 'Aquilla', 'Arba', 'Arch.', 'ArchArch', 'Archabald', 'Archabel', 'Archange', 'Archd', 'Archd.', 'Archelaus', 'Archeleus', 'Archibal', 'Archibald', 'Archibald Charles', 'Archibald D.', 'Archibald Garret', 'Archibald H.', 'Archibald John', 'Archibald Jr.', 'Archibald Kenny', 'Archibald McLean', 'Archibald Norman', 'Archibald Roy', 'Archibald and others', 'Archibald jr.', 'Archie', 'Archilaus', 'Archy', 'Ard.', 'Ardagh', 'Arent', 'Arent Butler', 'Arent Schyler de Puyster', 'Arial', 'Arilla', 'Arima', 'Ariste', 'Armon', 'Armstrong', 'Arna', 'Arne', 'Arnish', 'Arnold', 'Arnoldi', 'Arnon', 'Arnot', 'Aron', 'Arra', 'Arskat', 'Artaxerxes', 'Artemas', 'Artemus', 'Arthur', 'Arthur &amp; others', 'Arthur C.', 'Arthur Francis', 'Arthur Greg', 'Arthur H.', 'Arthur Jr.', 'Arthur William', 'Artimas', 'Arza', 'Asa', 'Asa &amp; others', 'Asa Aldis', 'Asa Bell', 'Asa Bill', 'Asa G.', 'Asa H.', 'Asa Jr.', 'Asa K.', 'Asa Sr.', 'Asa Z.', 'Asa junior', 'Asabel', 'Asachel', 'Asahel', 'Asaiah', 'Asal', 'Asaph', 'Aseaneth', 'Asel', 'Asel (Asahel)', 'Asel (asahel)', 'Asenath', 'Aseneth', 'Ashael', 'Ashbel', 'Ashel', 'Ashell', 'Asher', 'Ashman', 'Askman', 'Asoph', 'Asoph jr.', 'Asubah', 'Asy', 'Athel C.', 'Augusta', 'Augusta G.', 'Augusta Honorina', 'Auguste', 'Augustin', 'Augustin &amp; others', 'Augustine', 'Augustine Jean', 'Augustus', 'Augustus Baron', 'Augustus Fred', 'Augustus Frederick', 'Augustus Jr.', 'Augustus Theodore', 'Aully', 'Aurelia', 'Auselin', 'Auson', 'Austin', 'Averhart', 'Averhat', 'Avery', 'Axford', 'Azahel', 'Azariah', 'Azuba', 'Azubah', 'B.', 'B. C.', 'B. Crannell', 'B. F.', 'B. J.', 'B. James', 'B. R.', 'B.C.', 'B.C.A.', 'Babington', 'Baker', 'Baliate', 'Balsar', 'Baltas', 'Baltazar', 'Baltes', 'Balthazar', 'Bamlet', 'Banj. Austin', 'Banjamin', 'Baptist', 'Baptiste', 'Baptiste &amp; others', 'Baptist~', 'Baranett', 'Barbara', 'Barbara Hulde', 'Barbara M.', 'Barbary', 'Barbry', 'Barce', 'Barclay', 'Barent', 'Barint', 'Barna', 'Barnab', 'Barnabas', 'Barnabas &amp; others', 'BarnabasJr.', 'Barnabee Jr.', 'Barnabus', 'Barnaby', 'Barnard', 'Barnebas', 'Barnet', 'Barney', 'Barnhard', 'Barnhart', 'Barny', 'Baron', 'Baroness de', 'Barraclough', 'Barret', 'Barrett', 'Barss', 'Barth.', 'Barthelomew', 'Bartholamew', 'Bartholemew', 'Bartholemew Jr.', 'Bartholomew', 'Bartholomew &amp; Others', 'Bartholomew Jr.', 'Bartholomy', 'Bartimis', 'Barton', 'Barzillai', 'Bashaba', 'Basil', 'Basil R.', 'Basnett', 'Bastean', 'Basten', 'Bastian', 'Bastion', 'Bathiah', 'Batholomew', 'Bathsana', 'Bathsheba', 'Bays Manchester', 'Bazil', 'Bazile', 'Bazille', 'Beamsler', 'Beata', 'Beecham', 'Bela', 'Bela Brewster', 'Beldin', 'Beleg', 'Bell', 'Bella', 'Bella Brewster', 'Belley', 'Belnap', 'Belyut', 'Bemslee', 'Bemslee Jr.', 'Bemus', 'Benaiah', 'Benaijah', 'Benajah', 'Bendict', 'Benedict', 'Benedict (sons of)', 'Benegas', 'Benejamin', 'Benham', 'Beniah', 'Benj', 'Benj.', 'Benj. G.', 'Benjamen', 'Benjamen &amp; others', 'Benjamin', 'Benjamin &amp; others', 'Benjamin A.', 'Benjamin B.', 'Benjamin Buggles', 'Benjamin C,', 'Benjamin C.', 'Benjamin Conger', 'Benjamin D.', 'Benjamin E.', 'Benjamin F.', 'Benjamin G.', 'Benjamin J.', 'Benjamin James', 'Benjamin Jones', 'Benjamin Jr.', 'Benjamin M.', 'Benjamin O.', 'Benjamin P.', 'Benjamin Paul', 'Benjamin Small', 'Benjamin Sr.', 'Benjamin Sr. &amp; sons', 'Benjamin V.', 'Benjamin W.', 'Benjamin Walker', 'Benjamin and others', 'Benjamin jr.', 'Benjamin junior', 'Benjamin sr.', 'Benjmain', 'Benjmain junior', 'Benjn', 'Benjn Halaway', 'Benoit', 'Benona', 'Benoni', 'Benonie', 'Benony', 'Bergette', 'Beriah', 'Bernard', 'Bernard B.', 'Bernard I.', 'Bernard Millar', 'Bertha', 'Beteas', 'Betey', 'Bethamy', 'Bethel', 'Betheuel', 'Bethia', 'Bethia (Meredith)', 'Bethier', 'Bethsheba', 'Bethuel', 'Betsey', 'Betsey Anne', 'Betsey D.', 'Betsey/Betcy', 'Betsey/Elizabeth', 'Betsor', 'Betsy', 'Bettsey', 'Bettsy', 'Betty', 'Betty (Betsy)', 'Beulah', 'Bigleow junior', 'Bildad', 'Bildad jr.', 'Bill', 'Bill William', 'Billa', 'Billon &amp; others', 'Billy', 'Blackly', 'Blackwood James', 'Blanch', 'Blanche', 'Blandine', 'Blonden', 'Blyth', 'Boardman', 'Bogart', 'Bolsan', 'Bolser', 'Boltes', 'Boltis', 'Bolton', 'Boltus', 'Boniface', 'Bonnavanture', 'Borden', 'Bosteyon', 'Boston', 'Boulton', 'Bowers', 'Bowfender', 'Bowley', 'Boyle', 'Boys M.', 'Braddish', 'Bradford', 'Bradford A.', 'Bradford G.', 'Bradish', 'Bradock', 'Bradshaw', 'Braithwaite', 'Braman', 'Breakey', 'Brevet Major James', 'Brian', 'Briant', 'Brice', 'Bridget', 'Bridgett', 'Bridgit', 'Brien', 'Brinsmaid jr.', 'Brinsmede', 'Brinton', 'Brisery', 'Britain', 'Britannia', 'Brockway', 'Brooke', 'Brothers', 'Bruce', 'Bruce and others', 'Bruin', 'Bruine', 'Bruneau', 'Brush junior', 'Bryan', 'Bryant', 'Bryen', 'Bryer', 'Bryon', 'Buck', 'Bulah', 'Bulkley', 'Bunyan', 'Burdine', 'Burgers', 'Burges', 'Burgess', 'Burgoyne', 'Burleigh', 'Burras', 'Burrell', 'Burton', 'Busted', 'Buttle', 'C.', 'C. &amp; J. &amp; Co.', 'C. &amp; son', 'C. H.', 'C. J.', 'C. Jas.', 'C. N.', 'C. R.', 'C. W.', 'C., M. D.', 'C.B.', 'C.E.', 'C.F.', 'C.G.', 'C.H.', 'C.J.', 'C.O. &amp; others', 'C.S.', 'Caborne', 'Cadeb', 'Cadet', 'Cading', 'Caesar', 'Caesar L.', 'Cain', 'Calab', 'Caldwell', 'Caleay', 'Caleb', 'Caleb &amp; others', 'Caleb L.', 'Caleb R.', 'Caleb Raymond', 'Caleb Robin', 'Caleb S.', 'Caley', 'Calin', 'Calista', 'Calixte', 'Callaghan', 'Calrien', 'Calso', 'Calvim', 'Calvin', 'Calvin &amp; others', 'Caly', 'Camilla', 'Campbell', 'Caniff', 'Capt.', 'Capt. A.', 'Capt. Alexander', 'Capt. Babington', 'Capt. C.', 'Capt. D.', 'Capt. Edward', 'Capt. George', 'Capt. J.', 'Capt. J. M.', 'Capt. John', 'Capt. Joseph', 'Capt. M.', 'Capt. Robert E.', 'Capt. S. A. H.', 'Capt. Thomas', 'Capt. William', 'Capt. William J.', 'Captain', 'Captain &amp; other Loyalists', 'Captain &amp; others', 'Captain Jacob', 'Captain John', 'Captain Thomas', 'Captain William', 'Carberry', 'Carew', 'Carey', 'Carleton', 'Carlina', 'Carlo', 'Carlton', 'Carman', 'Carolina', 'Caroline', 'Caroline A.', 'Caroline M.', 'Carolus', 'Carrol', 'Carry', 'Carsan', 'Caruth', 'Cary', 'Casan', 'Casiah', 'Casimir T.', 'Caspar', 'Caspart', 'Casparus', 'Casper', 'Casper H.', 'Caspor', 'Cassan', 'Cassius', 'Caster', 'Catareen', 'Cate', 'Catereane', 'Caterin', 'Catey', 'Cath.', 'Catharina', 'Catharinae', 'Catharine', 'Catharine Ann', 'Catharine Cynthia', 'Catharine Eliza', 'Catharine H.', 'Catharine Hill', 'Catharine Jr.', 'Catharine/Caty', 'Catheren', 'Catherice', 'Catherin', 'Catherina', 'Catherine', 'Catherine &amp; others', 'Catherine Eve', 'Catherine Hannah', 'Catherine/Kitty', 'Cathetine', 'Cathrine', 'Cathrinea', 'Cathy', 'Catlina', 'Caton', 'Catp.', 'Catran', 'Catrine', 'Cattan', 'Cattern', 'Caty', 'Causon', 'Caziah', 'Ceasor', 'Cecilia', 'Celestin', 'Celina', 'Cepheran', 'Cephrenus', 'Cerille', 'Cerphrenus/Cerfrenas Jr.', 'Cesar', 'Ch.-Alex.', 'Champion', 'Chancery', 'Chancey', 'Chandler', 'Channey', 'Chanty', 'Chaple', 'Chapman', 'Charety', 'Charity', 'Charity C.', 'Charle', 'Charles', 'Charles &amp; Co.', 'Charles &amp; Others', 'Charles &amp; brothers', 'Charles &amp; his 4 sons', 'Charles &amp; others', 'Charles A.', 'Charles Andrew', 'Charles Arthur', 'Charles B.', 'Charles Barker', 'Charles Blaker', 'Charles Burton', 'Charles C.', 'Charles Coxwell', 'Charles Dean', 'Charles Douglas', 'Charles E.', 'Charles Earl', 'Charles G.', 'Charles G. A.', 'Charles George', 'Charles Gotthill', 'Charles Gustavus Adolphus', 'Charles H.', 'Charles Hadfield', 'Charles Henry', 'Charles Henry, M. D.', 'Charles Hibbert', 'Charles Hide', 'Charles Isaac', 'Charles J.', 'Charles James', 'Charles Jasper', 'Charles Jeffery', 'Charles Joseph', 'Charles Jr.', 'Charles Justin &amp; others', 'Charles K.', 'Charles Kinsey', 'Charles L.', 'Charles Lewis', 'Charles M.', 'Charles McDonald', 'Charles O.', 'Charles Oakes', 'Charles P.', 'Charles Platt', 'Charles R.', 'Charles R.P.', 'Charles Robert', 'Charles Rodney', 'Charles S.', 'Charles Seldon &amp; others', 'Charles Sr.', 'Charles Stanley', 'Charles Stuart', 'Charles W.', 'Charles Wells', 'Charles Westly', 'Charles Wiliam', 'Charles William', 'Charles and Co.', 'Charles and others', 'CharlesG.A.', 'Charley', 'Charlotte', 'Charlotte Augusta', 'Charlotte Jean', 'Charlotte Montague', 'Charlotte Stuart', 'Charlottee', 'Chas. S.', 'Chattevill', 'Chattwell', 'Chattwill', 'Chatwell', 'Chauncey', 'Cheesman', 'Cheesmand', 'Chelsey', 'Chester', 'Chevalier', 'Chichester', 'Chief', 'Chief Justice', 'Children of Michel', 'Chimham', 'Chirk', 'Chloe', 'Christ-Ann', 'Christain', 'Christeen', 'Christena', 'Christeneh', 'Christian', 'Christian &amp; others', 'Christian C.', 'Christian Frederick', 'Christian Igratius &amp; others', 'Christian Jr.', 'Christiana', 'Christiana Jr.', 'Christianna', 'Christianne', 'Christie', 'Christie Ann', 'Christien', 'Christina', 'Christine', 'Christoper', 'Christophe', 'Christopher', 'Christopher &amp; others', 'Christopher A.', 'Christopher Alex.', 'Christopher Babaty', 'Christopher Babety', 'Christopher C.', 'Christopher E.', 'Christopher G.', 'Christopher H.', 'Christopher J.', 'Christopher James', 'Christopher John', 'Christopher Jr.', 'Christopher L.', 'Christopher R.', 'Christopher jr.', 'Christy', 'Christy (widow)', 'Christy Ann', 'Christyann', 'Chritstian', 'Chuney &amp; others', 'Churhilly', 'Cignac &amp; other inhabitants', 'Cinnamond', 'Clara', 'Clarecy', 'Clarenda', 'Claress', 'Clarinda', 'Clarissa', 'Clarissa Ann', 'Clarissa/Eliza', 'Clarisse', 'Clarisson', 'Clark', 'Clark Rice', 'Clarke', 'Clarkson', 'Clarry', 'Clary', 'Claude', 'Claude Louis', 'Claudias', 'Claudius', 'Clavin', 'Clayton', 'Clement', 'Clement Charles', 'Clementine', 'Clements', 'Cleo', 'Clinton', 'Cloe', 'Clossin', 'Clovice', 'Clovis', 'Cloy', 'Cluathau', 'Co.', 'Col.', 'Col. A. W.', 'Col. D.', 'Col. E. B.', 'Col. J. R.', 'Col. James', 'Col. Thomas', 'Col. W.', 'Col. William', 'Colan', 'Colclough', 'Coleman', 'Colin', 'Coll', 'Coll.', 'Colley L.', 'Collin', 'Collins', 'Colonel', 'Colonel &amp; others', 'Colonel C. B.', 'Colonel E.B.', 'Colonel Thomas', 'Colquhoun', 'Comfort', 'Comfort Martin', 'Commodore', 'Commodore Robert', 'Comte de', 'Conard', 'Concurence', 'Connel I.', 'Connell J.', 'Connell James', 'Conrad', 'Conrad B.', 'Conrad Joseph', 'Conrade', 'Conradt', 'Conraudt', 'Conrod', 'Constant', 'Constantine', 'Content', 'Conway', 'Cooley', 'Coonrad', 'Coonrade', 'Coonrod', 'Coonrodt', 'Coonroudt', 'Coonroy', 'Cooper', 'Cooper James', 'Coplin', 'Cordelia', 'Corey', 'Cormack', 'Cormick', 'Cornelia', 'Cornelious', 'Cornelius', 'Cornelius C.', 'Cornelius Jr.', 'Cornelius P.', 'Cornelius Sr.', 'Cornelius V.', 'Cornelius William', 'Cornelius jr.', 'Cornet Thomas', 'Cornilious', 'Cornin', 'Cornwall', 'Cornwell', 'Corporation of', 'Corry', 'Corstean', 'Cortland', 'Cortlandt', 'Corus', 'Cossen', 'Cottrel', 'Cottrell', 'Cottrill', 'Count', 'Count De', 'Courtland', 'Coventry', 'Craig', 'Crane &amp; Co.', 'Criness', 'Crispus', 'Cristy', 'Cronomous', 'Crowell', 'Cruth', 'Culla', 'Cullo', 'Culow', 'Culver', 'Cunrod', 'Curate &amp; Church Wardens of the Church of Njotre Dame in the Parish of', 'Curran John', 'Curtis', 'Curtis Jr.', 'Curtiss', 'Cur~', 'Cusham', 'Cuthbert', 'Cuthbert M.', 'Cuthbert Marshall', 'Cutlip', 'Cynthia', 'Cyprien', 'Cyrene', 'Cyrenius', 'Cyrenus', 'Cyriac', 'Cyril', 'Cyrille', 'Cyrus', 'Cyrus R.', 'C~lestin', 'D', "D'Agneau", "D'Arcy", "D'Arcy Jr.", 'D.', 'D. A.', 'D. B.', 'D. Emily', 'D. M.', 'D.A.', 'D.B.', 'D.C.', 'D.E.', 'D.G.', 'D.K.', 'D.M.G.', 'D.S.', 'D.V.', 'D.W.', 'DAvid', 'Dabby', 'Daily', 'Daiv', 'Daley', 'Daleya', 'Dalilah', 'Dalton', 'Damase', 'Dame D.', 'Dame Luce G.', 'Damiel', 'Dan', 'Dan Jr.', 'Dan W.', 'Dan jr.', 'Dana', 'Danal', 'Daneil', 'Daniel', 'Daniel &amp; Others', 'Daniel &amp; brothers', 'Daniel &amp; others', 'Daniel A.', 'Daniel Allen', 'Daniel Anson', 'Daniel B.', 'Daniel B. &amp; others', 'Daniel Bedell', 'Daniel E.', 'Daniel Ewen', 'Daniel Ewin', 'Daniel F.', 'Daniel Freeman', 'Daniel H.', 'Daniel J. B. W.', 'Daniel John', 'Daniel Jr.', 'Daniel K.', 'Daniel L.', 'Daniel M.', 'Daniel Merritt', 'Daniel N.', 'Daniel P.', 'Daniel Rose', 'Daniel S.', 'Daniel Shipman', 'Daniel Smith', 'Daniel Sr.', 'Daniel W.', 'Daniel Way', 'Daniel Y.', 'Daniel jr.', 'Daniel junior', 'Daniel/Donald', 'Danise', 'Darby', 'Darby jr.', 'Darby sr.', 'Darcus', 'Darcy', 'Darien', 'Darius', 'Darius C.', 'Darius D.', 'Darius T.', 'Darkis', 'Darvis', 'Dave', 'Davenport', 'David', 'David &amp; Others', 'David &amp; brothers &amp; sisters', 'David &amp; others', 'David Alexander', 'David B.', 'David Balter', 'David Bishop', 'David Byron', 'David C.', 'David Charles', 'David Clark', 'David D.', 'David Dunham', 'David E.', 'David Edward', 'David Frederick', 'David H.', 'David Henry', 'David J.', 'David John', 'David Jr.', 'David L.', 'David M.', 'David M.G.R.', 'David Macgregore', 'David McG.', 'David McGregor', 'David McGregor &amp; others', 'David McGregore', 'David Oakes', 'David Palmer', 'David R.', 'David Rees', 'David S.', 'David S. R.', 'David Scott', 'David Secord', 'David Sr.', 'David V.', 'David W.', 'David William', 'David and others', 'David jr.', 'David junior', 'David sr.', 'David the 3rd', 'Davidson', 'Davis', 'Davis Jr.', 'Davit', 'Davsd', 'Dawson', 'Dayle', 'Dean', 'Debbora', 'Debera', 'Debora', 'Deborah', 'Deborah Augusta', 'Deborah Casper', 'Decier', 'Dederick', 'Deger', 'Deidama', 'Delia', 'Delia H.', 'Deliah', 'Delight', 'Delilah', 'Delpha', 'Demetrius', 'Denis', 'Denn', 'Dennes', 'Dennis', 'Dennis &amp; others', 'Dennis Fred', 'Dennison', 'Dependence', 'Derick', 'Derick L.', 'Derk', 'Derrick', 'Desire', 'Despard', 'Detrick', 'Devina', 'Dewey', 'Deyer', 'Diadama', 'Diana', 'Dianah', 'Dideme', 'Diederick', 'Dieudonn~', 'Dimon', 'Dinah', 'Ditmar (Dilman)', 'Doctor', 'Dolbey', 'Dolly', 'Dolphus', 'Dominic', 'Dominick', 'Dominie', 'Dominions', 'Dominique', 'Don', 'Don Carlos', 'Donald', 'Donald &amp; others', 'Donald (Duncan)', 'Donald (heirs of)', 'Donald A.', 'Donald Aenas', 'Donald Aeneas', 'Donald Alexander', 'Donald E.', 'Donald Jr.', 'Donald McDonald', 'Donald P.', 'Donald Sr.', 'Donald Uneas', 'Donald W.', 'Donald W.B.', 'Donald William', 'Donald jr.', 'Donald sr.', 'Donall', 'Dongall', 'Donnald', 'Doras', 'Dorcas', 'Dorithy', 'Dorman', 'Dormer', 'Dorothea', 'Dorothy', 'Dorothy (MILLER)', 'Dorus', 'Dougal', 'Dougald', 'Dougall', 'Douglas', 'Douglass', 'Doyle', 'Dr.', 'Dr. Charles', 'Dr. D.L.', 'Dr. J. M.', 'Dr. John', 'Dr. Nathaniel', 'Dr. S. J.', 'Dr. W.', 'Dr. W. W.', 'Dr. William W.', 'Draper', 'Drew', 'Drewsilla', 'Drury', 'Dudley', 'Dudley/Dexter', 'Dudly', 'Duff', 'Dugal', 'Dugald', 'Duke', 'Duke William', 'Dummer', 'Duncan', 'Duncan &amp; others', 'Duncan C.', 'Duncan I', 'Duncan Jr.', 'Duncan Moore', 'Duncan W.', 'Duncan jr.', 'Dunham', 'Dute', 'E.', 'E. A.', 'E. B.', 'E. C.', 'E. H.', 'E. J.', 'E. L.', 'E. M.', 'E. N.', 'E. S.', 'E.B.', 'E.L.', 'E.L. &amp; others', 'E.P.', 'E.S. &amp; S.', 'E.W.', 'Eady', 'Ealenor', 'Earl', 'Earl of', 'Easter', 'Easther', 'Easton', 'Eathan', 'Eben', 'Eben.', 'Ebenazar', 'Ebenez', 'Ebenezar', 'Ebenezer', 'Ebenezer &amp; others', 'Ebenezer C.', 'Ebenezer F.', 'Ebenezer G.', 'Ebenezer Isbell', 'Ebenezer Jr.', 'Ebenezer M.', 'Ebenezer Mix', 'Ebenezer R.', 'Ebenezer Sage', 'Ebenezer Sr.', 'Ebenezer Talman', 'Ebenezer and others', 'Ebenezer jr.', 'Ebenezer junior', 'Eber', 'Ebin', 'Ebinezer', 'Ed', 'Ed.', 'Ed. J.', 'Edgah Walludge', 'Edgar', 'Edgar &amp;others', 'Edgeworth', 'Edia', 'Edin', 'Edison', 'Edith', 'Edmond', 'Edmond F.', 'Edmund', 'Edmund &amp; others', 'Edmund B.', 'Edmund Burke', 'Edmund L.', 'Edmund W.', 'Edmund Westrop', 'Edmund/Edouard', 'Edouard', 'Edouard and others', 'Edse', 'Edward', 'Edward &amp; Others', 'Edward &amp; others', 'Edward A.', 'Edward Allen', 'Edward B.', 'Edward Baker', 'Edward Blackmore', 'Edward Burke', 'Edward C.', 'Edward Clarke', 'Edward F.', 'Edward G.', 'Edward George', 'Edward H.', 'Edward I.', 'Edward J.', 'Edward James', 'Edward James Snow', 'Edward Josias', 'Edward Jr.', 'Edward Jukes', 'Edward Lefray', 'Edward N.', 'Edward P.', 'Edward Peneval', 'Edward R.', 'Edward Robert', 'Edward Rowley', 'Edward Rutledge', 'Edward S.', 'Edward Sands', 'Edward Sr.', 'Edward Taylor', 'Edward Thomas', 'Edward Thompson', 'Edward Trevor', 'Edward Vincent', 'Edward W.', 'Edward W. B.', 'Edward Wesley', 'Edward William', 'Edward and others', 'Edward jr.', 'Edward junior', 'Edward sr.', 'Edward the 1st', 'Edwards', 'Edwart', 'Edwin', 'Edwin Hugh', 'Edwin R.', 'Edwin Reuben', 'Edwy', 'Edy', 'Effelena', 'Effie', 'Effingham', 'Egerton', 'Eguilah', 'Ehphraim', 'Eilzabeth', 'Elam', 'Elasabath', 'Elasabeth', 'Elasdoch', 'Elazarus', 'Elcept', 'Elcey', 'Elcy', 'Eldad', 'Eldredge', 'Eldridge', 'Eleakin', 'Eleaner', 'Eleanor', 'Eleanor &amp; others', 'Eleanor G.', 'Eleanore', 'Eleas', 'Eleazar', 'Eleazer', 'Eleazer N.', 'Eleazer junior', 'Eleazor', 'Electa', 'Electra Catharine', 'Eleek', 'Elejah', 'Elejah jr.', 'Elener', 'Elenor', 'Elenz Blanchard', 'Eleonar', 'Eleoner', 'Eleonore', 'Elery', 'Elespy Ann', 'Elethear', 'Elexandren', 'Elezar', 'Elezar F.', 'Elezer', 'Eli', 'Eli T.', 'Eli jr.', 'Eliachim', 'Eliada', 'Eliakim', 'Eliakim H.', 'Eliakun', 'Elias', 'Elias &amp; others', 'Elias David Smith', 'Elias Jr.', 'Elias M.', 'Elias W.', 'Elias jr.', 'Elias sr.', 'Eliazar', 'Eliazer', 'Elibath', 'Elice', 'Elida', 'Elie', 'Elies', 'Eliezar', 'Eliezer', 'Eliezerd', 'Eligh', 'Elihad', 'Elihe', 'Elihn', 'Elihu', 'Elihu J.', 'Elihu and others', 'Elihue', 'Elihue B.', 'Elija', 'Elija H.', 'Elijah', 'Elijah &amp; company', 'Elijah &amp; family', 'Elijah &amp; others', 'Elijah Curtis', 'Elijah T.', 'Elijah W.', 'Elijah Y.', 'Elijah Yongs', 'Elijah jr.', 'Elijah junior', 'Elijha', 'Elind Jr.', 'Elinor', 'Elios', 'Eliphabet', 'Eliphalet', 'Eliphalet &amp; others', 'Eliphalet W.', 'Eliphilet', 'Elisa', 'Elisabath', 'Elisabeth', 'Elisha', 'Elisha &amp; Associates', 'Elisha &amp; others', 'Elisha G.', 'Elisha Jr.', 'Elisha S.', 'Elisha T.', 'Elisha junior', 'Eliska', 'Eliskin', 'Eliud', 'Eliza', 'Eliza &amp; others', 'Eliza A. E.', 'Eliza A. M.', 'Eliza Ann', 'Eliza E.', 'Eliza Elizabeth', 'Eliza Jane', 'Eliza Julia', 'Eliza L', 'Eliza and others', 'Elizabath', 'Elizabath jr.', 'Elizabeth', 'Elizabeth &amp; others', 'Elizabeth (McLAUGHLIN)', 'Elizabeth (ROBLIN)', 'Elizabeth Ann', 'Elizabeth C.', 'Elizabeth Clench', 'Elizabeth Eleanor', 'Elizabeth Frances', 'Elizabeth Hoffman', 'Elizabeth Jane', 'Elizabeth Montague', 'Elizabeth O.', 'Elizabeth P.', 'Elizabeth S.', 'Elizabeth Sarah', 'Elizabeth Sophie', 'Elizabeth/Eliza', 'Elizabethtown', 'Elizah', 'Elizer', 'Elizkem jr.', 'Elizur', 'Elk', 'Elkanah', 'Ellanor', 'Ellar', 'Ellas', 'Elleanor', 'Ellen', 'Ellen (Widow)', 'Ellen A.', 'Ellen Rich', 'Ellen T.', 'Ellener', 'Ellenor', 'Elley', 'Ellias', 'Ellice', 'Ellinda', 'Ellinor', 'Elliot', 'Elliott', 'Ellis', 'Elly', 'Elm', 'Elmer', 'Elmida Margaret', 'Elmira', 'Elnathan', 'Elon', 'Elosa', 'Elozabeth', 'Elsa', 'Else', 'Elsey', 'Elsia', 'Elspet', 'Elspey', 'Elsy', 'Elton', 'Eluy', 'Elwood', 'Elwyn', 'Ely', 'Elzear', 'Elzebe', 'Emanuel', 'Emanuel Jr.', 'Emanuel Sr.', 'Emanuel jr.', 'Emelia', 'Emeline C.', 'Emeran', 'Emerard', 'Emerson', 'Emery', 'Emilia', 'Emily', 'Emily Rosa', 'Emma Lucretia', 'Emma Lucretia &amp; others', 'Emmanuel', 'Emmeley', 'Emphraim', 'Eneas', 'Enes', 'Enid', 'Enoch', 'Enoch (Tenoch, Zenogh)', 'Enoch C.', 'Enock', 'Enome', 'Enon', 'Enos', 'Enos E.', 'Enos G.', 'Ensign', 'Ensign D.', 'Ensign Samuel', 'Enus', 'Epaphaditus', 'Epaphres P.', 'Epaphroditus', 'Epenetus', 'Epenitus', 'Epharam', 'Epharem', 'Ephaun', 'Ephm.', 'Ephraim', 'Ephraim Cole', 'Ephraim D.', 'Ephraim H.', 'Ephraim Holland', 'Ephraim P.', 'Ephraim jr.', 'Ephraine', 'Ephranin', 'Ephrem', 'Ephrim', 'Eppenetus', 'Eptnus', 'Eraastus', 'Erasmus', 'Erasthus', 'Erastus', 'Erastus H.', 'Erastus sr.', 'Eratus', 'Erb', 'Erie', 'Ernest', 'Ernestown', 'Eros', 'Errol Boyd', 'Erskine', 'Ervin', 'Esau', 'Esbon', 'Esekiel', 'Espey', 'Esra', 'Ester', 'Estha', 'Esther', 'Esther Borden', 'Etham', 'Ethan', 'Ethel', 'Ethemar', 'Ethen', 'Etien', 'Etienne', 'Etina', 'Ettinne', 'Eualic', 'Eugene', 'Eugenia', 'Eugin', 'Eunice', 'Eunice jr.', 'Eunis', 'Euphemia', 'Euphemie', 'Euphenia', 'Euphremia', 'Eurah', 'Euraney', 'Eus_be', 'Eusebe', 'Eustach', 'Eustache', 'Euterpe', 'Eva', 'Evah', 'Evan', 'Evan &amp; othes', 'Evander', 'Evariste', 'Eve', 'Eve Mahilda', 'Even', 'Evened', 'Everard', 'Everhart', 'Everhurt', 'Evert', 'Evert Jr.', 'Eves', 'Evets', 'Evey', 'Ewan', 'Ewen', 'Ewin', 'Experane', 'Experience', 'Ez.', 'Ezaril', 'Ezeblend', 'Ezechiel', 'Ezehel', 'Ezekial', 'Ezekiel', 'Ezekiel Jr.', 'Ezekiel jr.', 'Ezekiel junior', 'Ezkial', 'Ezra', 'Ezra &amp; co.', 'Ezra &amp; others', 'Ezra A.', 'Ezra Carpenter', 'Ezra Jr.', 'Ezra S.', 'Ezrediah', 'Ezva', 'Ezwekiel', 'F.', 'F. A. B.', 'F. D.', 'F. L.', 'F. M. Pocott~', 'F. T.', 'F.A.', 'F.A.R.', 'F.B.', 'F.B. &amp; others', 'F.H.', 'F.L.', 'F.N.', 'F.S.', 'F.T.', 'F.W.', 'F.X.', 'Faney', 'Fanney', 'Fanny', 'Fany', 'Fargus', 'Farqhar', 'Farquahar', 'Farquaher', 'Farquhar', 'Farquhar Jr.', 'Farral', 'Farrell', 'Farrington', 'Farrington Jr.', 'Federick', 'Felice', 'Felix', 'Felix A.', 'Felix Jr.', 'Feliz', 'Fellicit~', 'Felter', 'Fenance', 'Fenten', 'Fenton', 'Ferdinand', 'Ferdinand William', 'Fergus', 'Fernis', 'Ferquar', 'Filer', 'Finaly', 'Findlay', 'Finlay', 'Finley', 'Finnan', 'Finnen', 'Finnety', 'Firbank', 'Firmin', 'Fisher', 'Flara', 'Floarey', 'Flora', 'Flora Ann', 'Flora Helen', 'Florence', 'Florington &amp; others', 'Flory', 'Flory (MacKENZIE)', 'Floulla', 'Fontenay', 'Fontinay', 'Forbes', 'Forest', 'Forsyth', 'Fortier', 'Foster', 'Foster 2nd', 'Fraancis', 'Fracis', 'Fradrick', 'Fralick', 'Fran_ois', 'Fran_ois &amp; others', 'Fran_ois De Sales', 'Fran_ois Labont~', 'Fran_ois Verneuil', 'Fran_ois Xavier', 'France', 'Frances', 'Frances &amp; others', 'Frances (Mrs.)', 'Frances Anne', 'Frances B.', 'Frances James', 'Frances Matilda', 'Francis', 'Francis  &amp; others', 'Francis &amp; others', 'Francis A.', 'Francis Andrew', 'Francis B.', 'Francis Brockell', 'Francis Chevalier', 'Francis Elizabeth', 'Francis G.', 'Francis Gore', 'Francis Gore &amp; inhabitants of Colochester', 'Francis H.', 'Francis Henry', 'Francis Jarvis', 'Francis Johnson', 'Francis Jonathan', 'Francis Joseph', 'Francis Jr.', 'Francis K.', 'Francis Kirkham', 'Francis L.', 'Francis Legh', 'Francis Leigh', 'Francis S.', 'Francis Sr.', 'Francis Syrinius', 'Francis T.', 'Francis Tito', 'Francis W.', 'Francis W.K.', 'Francis Walsh', 'Francis Willoughby and Associates', 'Francis X.', 'Francis Xavier', 'Francis jr.', 'Francis sr.', 'Francis/Fran_ois', 'Francois', 'Francois Jean', "Francois d'Assise", 'Francrois', 'Franey', 'Frank', 'Franklin', 'Frantois', 'Frantz', 'Fras. R.', 'Fraser', 'Freadrick (Fredric)', 'Fred', 'Fred A.', 'Fred Augustus', 'Fred K.', 'Fred W.', 'Fred.', 'Fred. A.', 'Fred. H.', 'Frederic', 'Frederica', 'Frederich', 'Frederick', 'Frederick  William', 'Frederick &amp; others', 'Frederick A.', 'Frederick Augustus', 'Frederick C.', 'Frederick H.', 'Frederick Jr.', 'Frederick L.', 'Frederick Lewis', 'Frederick P.', 'Frederick Sr.', 'Frederick Starr', 'Frederick Thomas', 'Frederick Ulerich Emylius', 'Frederick William', 'Frederick/Ferdinand', 'Fredrick', 'Freeborn', 'Freedom', 'Freelove', 'Freeman', 'Freeman J.', 'Freeman S.', 'Frend', 'Friend', 'Fripon', 'Froome', 'Frs.', 'F~lix', 'G.', 'G. A.', 'G. Adam', 'G. B.', 'G. Bryon', 'G. C.', 'G. Colden', 'G. D.', 'G. H.', 'G. M.', 'G. R.', 'G. S.', 'G. W.', 'G. and others', 'G.A.', 'G.B.', 'G.H.', 'G.L.', 'G.O.', 'G.P.', 'G.S.', 'G.S.J.', 'G.W', 'G.W.', 'GEorge', 'Gabriel', 'Gabriel &amp; others', 'Gabriel and others', 'Gad', 'Gains', 'Gaius', 'Galbraith J.', 'Gamaliel', 'Gameliel', 'Gardner', 'Garet', 'Garett', 'Garnet', 'Garratt', 'Garret', 'Garrett', 'Garrette', 'Garsham C.', 'Garsion', 'Garton', 'Garvise', 'Gasford T.', 'Gason', 'Gaspar', 'Gaspard', 'Gasper', 'Gasper A.', 'Gaspert', 'Gate Smith', 'Gavin', 'Gedeon jr.', 'Gene', 'General', 'Genet', 'Genievive', 'Gennet', 'Geo. Mellis &amp; others', 'Geo. W.', 'Geoge', 'Georege', 'George', 'George &amp; 43 associates', 'George &amp; Associates', 'George &amp; Brothers', 'George &amp; Family', 'George &amp; opthers', 'George &amp; others', 'George &amp; sons', 'George (heir of)', 'George A.', 'George Adair', 'George Adam', 'George Alexander', 'George Alonzo', 'George Archibald', 'George Arundel', 'George Augustus', 'George B.', 'George B. &amp; others', 'George Barker', 'George Benson', 'George Blair', 'George Brydges Rodney', 'George Byron', 'George C.', 'George Chancey', 'George Chester', 'George D.', 'George Duncan', 'George E.', 'George Earl', 'George Edward', 'George F.', 'George F. H.', 'George Frederick', 'George Frederick Henning', 'George G.', 'George Gillespie', 'George Goldie', 'George H.', 'George H. &amp; others', 'George Hamilton', 'George Henry', 'George Hicks', 'George Hume', 'George Isaac', 'George J.', 'George Jacob', 'George James', 'George James Sr.', 'George Jehosophat', 'George Jervis', 'George John', 'George Jr.', 'George J~r~mie', 'George K.', 'George Kinzie', 'George L.', 'George Leonard', 'George Lewis', 'George M.', 'George Martin', 'George Meville', 'George Miler', 'George Miller', 'George Molyneaux', 'George Moore', 'George Morss', 'George Moss', 'George N.', 'George Nelson', 'George Neville', 'George Noble', "George O'Kill", 'George O.', 'George O. Archdeacon of York', 'George Okill', 'George P.', 'George Percival', 'George R.', 'George R.F.', 'George Richard', 'George S.', 'George S. McCann', 'George Sackville', 'George Scott', 'George Sr.', 'George Stephen', 'George Strange', 'George Sylvester', 'George T.', 'George Taylor', 'George Thomas Frederick', 'George W.', 'George Wade', 'George Walden', 'George Washington', 'George Wells', 'George William', 'George Williams', 'George and others', 'George jr.', 'George junior', 'George sr.', 'Georger H.', 'Georges', 'Georges Benson', 'Gerald', 'Gerald J.', 'Gerard', 'Gerard J.', 'Gerhard', 'Gerial', 'Germain', 'German', 'Geroge', 'Gerrard', 'Gerrit', 'Gerrod', 'Gersham', 'Gershom', 'Gershon W.', 'Gertrude', 'Gertude', 'Getta', 'Getty', 'Gibson', 'Gideon', 'Gideon &amp; others', 'Gideon Grant', 'Gideon sr.', 'Gidian', 'Gieszler', 'Gieter', 'Gilbert', 'Gilbert C.', 'Gilbert Curtis', 'Gilbert Dorland', 'Gilbert Jr.', 'Gilbert Sr.', 'Gilbert jr.', 'Gilbone', 'Gilead', 'Giles', 'Gilles', 'Gilliam', 'Gillis', 'Gilman', 'Girsham', 'Gitty', 'Glebe', 'Glorana', 'Glorianna', 'Gloud', 'Goalob', 'Goddard', 'Godfray', 'Godfreath George', 'Godfred', 'Godfrey', 'Godfrey John', 'Godfroy', 'Godfry', 'Godlip', 'Goerge', 'Goran', 'Gordon', 'Gordon D.', 'Gorge', 'Gorsham', 'Gotlieb', 'Gottfred', 'Gottiel', 'Gottlieb', 'Gottliel', 'Gottlob', 'Grace', 'Gracy', 'Gradius', 'Graham', 'Grant', 'Grase Garner', 'Graville', 'Gray', 'Greal', 'Green', 'Greenwell', 'Gregor', 'Gregory', 'Grey Lewis', 'Griffen', 'Griffith', 'Grimes', 'Grimsby', 'Grissill', "Grotais D'Odet", 'Gr~goire', 'Guillaume', 'Guilliaume', 'Guisbert', 'Guisbert Roger', 'Gurley', 'Gustavus', 'Gustavus Dickinson', 'Guy', 'Guy C.', 'Guy Carleton', 'Guy Charleton', 'Guy H.', 'Guysbert', 'Gwen', 'Gwenith', 'H.', 'H. &amp; others', 'H. H.', 'H. J.', 'H. John', 'H. L.', 'H. N.', 'H. P.', 'H. W.', 'H.D.', 'H.H.', 'H.I.', 'H.</t>
         </is>
@@ -761,12 +789,18 @@
         </is>
       </c>
       <c r="T5" t="n">
+        <v>4340</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>325848</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>183</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>['17,901,792', '1763', '1764', '1775', '1777', '1783', '1784', '1785', '1785-1791', '1786', '1787', '1787, 1788, 1790', '1787-88', '1788', '1788, 1794', '1788-1789', '1788-89', '1789', '1789, 1790', '1789, 1792, 1793', '1789, 1794', '1789-1790', '1789-1791', '1790', '1790, 1792', '1790-1791', '1790-1792', '1791', '1791, 1793', '1791-1792', '1791-1793', '1792', '1792, 1789', '1792-1796', '1793', '1794', '1794-1795', '1795', '1796', '1796-1798', '1797', '17971797', '1798', '1799', '18,091,815', '1800', '1801', '1802', '1803', '1804', '1805', '1806', '1807', '1808', '1809', '1810', '1810, 1820, 1821', '1810, 1822', '1810-1832', '1811', '1812', '1812, 1816', '1813', '1814', '1815', '1815-1818', '1816', '1817', '1818', '1818, 1820', '1819', '1819, 1820', '1819, 1821', '1819, 1821, 1822', '1819, 1821, 1823', '1819, 1822', '1819, 1825', '1819, 1825, 1839', '1819, 1827', '1819, 1829', '181?', '1820', '1820, 1821', '1820, 1821, 1822', '1820, 1821, 1822, 1826', '1820, 1822', '1820, 1822, 1825', '1820, 1822, 1827', '1820, 1822, 1828', '1820, 1822, 1830', '1820, 1822, 1832', '1820, 1822, 1839', '1820, 1823', '1820, 1825', '1820, 1831', '1820-1832', '1821', '1821, 1822', '1821, 1822, 1825', '1821, 1822, 1826', '1821, 1823', '1821, 1825', '1821, 1828', '1822', '1822, 1823', '1822, 1825', '1822, 1828', '1823', '1823, 1829', '1823, 1839', '1824', '1824, 1825', '1824, 1826', '1824, 1829', '1825', '1825, 1826', '1825, 1826, 1830', '1825, 1828', '1825, 1829', '1825, 1830', '1825-1842', '18253', '1826', '1826, 1828', '1826, 1830', '1827', '1828', '1829', '1829-1841, 1843-1844', '1829-1845', '183', '1830', '1831', '1832', '1832-1847', '1833', '1834', '18347', '1835', '1836', '1837', '1838', '1838 (1842)', '1839', '1839, 1843', '1839-1847', '184', '1840', '1841', '1842', '1843', '1844', '1844-1845', '1845', '1846', '1847', '1847-1848', '1848', '1849', '185', '1850', '1850, 1852', '1851', '1852', '1853', '1854', '1855', '1856', '1857', '1858', '1858, 1859', '18587', '1859', '1860', '1861', '1862', '1863', '1864', '1865', '1866', '1867', '2784', 'n.d.']</t>
         </is>
@@ -835,12 +869,18 @@
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
+        <v>8812</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>661696</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>3740</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>['10th Township', '10th township (Richmond)', '10th township (Richmond), 7th township (Ameliasbur', '15 Mile Creek', '2 Islands opposite Burleigh &amp; Harvey', '20 Mile Creek', '4 Mile Creek', '5th township (Marysburgh)', '6th township (Sophiasburg)', '7th Township', '7th Township, Augusta', '7th Township/Kingston', '7th township Ameliasburg', '8810', '8th Township (Sidney)', '8th Township/Kingston', '8th township (Sidney)', '9th Township', 'Abbotsford Township', 'Abercrombie', 'Acton', 'Acton, Grantham and Warwick', 'Addington', 'Addington County', 'Addington and Frontenac', 'Adelaide', 'Adelaide &amp; Warwick', 'Adelaide Township', 'Adelaide or Brocks', 'Adjala', 'Adjala &amp; Albion', 'Adjala (Mono)', 'Adjala Township', 'Admaston', 'Adolphustown', 'Adolphustown &amp; Ernestown', 'Adolphustown &amp; Marysburg', 'Adolphustown (Sophiasburgh)', 'Adolphustown (Thurlow)', 'Adolphustown - Sophiasburg', 'Adolphustown Township', 'Adolphustown, Sophiasburg', 'Adolphustown/Ameliasburgh', 'Adolphustown/Haldimand', 'Albany', 'Alberte', 'Albertville', 'Albion', 'Albion (Caledon)', 'Albion Township', 'Albion/Malahide', 'Aldborough', 'Aldborough &amp; Oxford', 'Aldborough Township', 'Alexander, Kingston', 'Alexandria', 'Alexandria Township', 'Alfred', 'Alfred Township', 'Alfred and Gloucester', 'Alfred and Plantaganet', 'Alfred or Caledonia', 'Alfred, Gloucester, Brantford', 'Alice', 'Allen', 'Allumette Islands', 'Alma', 'Alnwick', 'Alnwick (Huntley)', 'Alnwick (Mills)', 'Alnwick Township', 'Alnwick, Nepean and Flamborough East', 'Alnwick/Adolphustown', 'Alton', 'Amaranth', 'Amaranth Township', 'Amaranth and Collingwood', 'Ameaanth', 'Amelia Island', 'Ameliasburgh', 'Ameliasburgh &amp; Murray', 'Ameliasburgh &amp; Scarborough &amp; Townsend', 'Ameliasburgh (7th township)', 'Ameliasburgh (Gramahe)', 'Ameliasburgh (Whitby)', 'Ameliasburgh Township', 'Ameliasburgh, Hallowell &amp; Sydney', 'Ameliasburgh, Murray and Hope', 'America', 'Amherst', 'Amherst Island', 'Amherstburg', 'Amherstburg (Chatham)', 'Amherstburg (Colchester)', 'Amherstburg (Malden)', 'Amherstburg (Missing)', 'Amherstburg (town)', 'Amherstburgh', 'Amherstburgh (town)', 'Amherstburgh Township', 'Amherstsburgh Township', 'Amhertsburg', 'Ancaster', 'Ancaster &amp; Delaware', 'Ancaster &amp; Flamborough', 'Ancaster Township', 'Ancaster and Grantham', 'Anderdon', 'Anglesea Township', 'Anse des M_res', "Ansley's Point", 'Antilda', 'Aramosa', 'Area between Edwardsburgh and Oxford', 'Area between Hallowell and Sophiasburgh Tps.', 'Area between Niagara and Fort George', 'Argenteuil', 'Armagh', 'Arnagh', 'Arran', 'Artemesia', 'Arthabaska', 'Arthabaska/Dawn', 'Arthur', 'Arundel', 'Ascot', 'Ashburton', 'Ashfield', 'Ashfield Township', 'Ashford', 'Asphodel', 'Asphodel Township', 'Asphodel township', 'Asphodel/Sarnia', 'Aston', 'Aston, Becancour', 'Athol', 'Atta Township', 'Aubigny', 'Augusta', 'Augusta &amp; Elizabethtown', 'Augusta (Kitley)', 'Augusta (Wolford, Burgess)', 'Augusta Township', 'Augusta and Elizabethtown', 'Augusta, E. D.', 'Augusta, Elizabethtown', 'Aylmer', 'Aylmer (Wilberforce &amp; Grantham)', 'Aylmer/Onslow', 'Aylwin', 'Ayton', 'Ayton Mill Property', 'Back of Cobourg Township', 'Bagot', 'Bagot Co. of Chicoutimi', 'Bagotville', 'Baie St.Paul', 'Baie St.Paul, St.Urbain', 'Bainham', 'Baldoon', 'Ball Town', 'Balsam Lake', 'Balsam Lake, Smith Township', "Banal Grist Mill (l'Ancienne Lorette)", 'Banks of the Niagara River', 'Banks of the River Niagara', 'Barford', 'Barnston', 'Barnston instead of Compton', 'Barrack at London', 'Barrie', 'Barrie (town)', 'Barrie Township', 'Barrie/Kempenfeldt', 'Barrifield', 'Barton', 'Barton &amp; Saltfleet', 'Barton (Dover)', 'Barton (River Thames)', 'Barton (Saltfleet)', 'Barton (Townshend)', 'Barton Township', 'Barton and Saltfleet', 'Bartonville', 'Bass Lake Township', 'Bastard', 'Bastard (Crosby)', 'Bastard (Edwardsburgh)', 'Bastard Township', 'Bastard and Burgess Township', 'Bastard and Elizabethtown', 'Bastard or Kitley', 'Bastard, Elizabethtown &amp; Burgess', 'Bath', 'Bath (Marysburgh)', 'Bath (Pittsburgh)', 'Bathurst', 'Bathurst &amp; Dalhousie', 'Bathurst &amp; South Sherbrooke', 'Bathurst (Beckwith)', 'Bathurst (Horton)Drummond)', 'Bathurst - Clergy Reserve', 'Bathurst District', 'Bathurst Township', 'Bathurst and Augusta', 'Bathurst and Bastard', 'Bathurst and Drummond', 'Bathurst and Elmsley', 'Bathurst and Kitley', 'Bathurst and Lansdowne', 'Bathurst and Leeds', 'Bathurst and Montague', 'Bathurst and North Gower', 'Bathurst and Oxford', 'Bathurst and Packenham', 'Bathurst and Sherbrooke', 'Bathurst and Yonge', 'Bathurst and Yonge Escott', 'Bathurst, Beckwith and Bastard', 'Bathurst, Beckwith and Burgess', 'Bathurst, Beckwith and Oxford', 'Bathurst, Beckwith, Kitley &amp; Drummond', 'Bathurst, Drummond &amp; South Sherbrooke', 'Bathurst, Elmsley, Leeds, Drummond', 'Bathurst, Leeds, Beckwith and Drummond', 'Bathurst, Montague and Lansdowne', 'Bathurst, Yonge and Drummond', 'Bathurst/Drummond', 'Batiscan', 'Batiscan (Report on Banal Mill of Forges of)', 'Baughan (York)', 'Bay Kent', 'Bay Shore (York)', 'Bay of Kanty', 'Bay of Long Point', 'Bay of Quinte', 'Bay of Quinte (Ameliasburgh)', 'Bay of Quinte (Belleville)', 'Bay of Quinte between York and Lake Simcoe', 'Bay of Quint~', 'Bay of Quint~ Township', 'Bay of Toronto', 'Bay on Ottawa River', 'Bayfield/Grey', 'Bayham', 'Bayham (Charlotteville)', 'Bayham Township', 'Bayham, Richmond', 'Beach', 'Beach Lot at Quebec', 'Beachville', 'Beaford', 'Beardsley B.C.', 'Bears Island', 'Beauharnois', 'Beauport', 'Beckwith', 'Beckwith (Montague)', 'Beckwith Township', 'Beckwith/Ramsay', 'Bedford', 'Bedford Township', 'Bell River', 'Belle Rivi_re', 'Belleville', 'Belleville (Hinchinbrooke)', 'Belleville (Lake)', 'Belleville (Moira River)', 'Belleville (Thurlow)', 'Belleville (town)', 'Belleville Town', 'Belleville Township', 'Belleville and Thurlow', 'Belleville/Sheffield', 'Belleville/Thurlow', 'Belmont', 'Belmont (Smith)', 'Below Quebec South of St. Lawrence', 'Bentinck', 'Berbia', 'Berlin', 'Bertie', 'Bertie (Fort Erie)', 'Bertie (Yonge Street or Markham)', 'Bertie Niagara', 'Bertie Township', 'Bertie and Humberstone', 'Beseamits River', 'Between Hallowell &amp; Sophiasburg', 'Between Hallowell &amp; Sophiasburgh Townships', 'Between Hallowell and Sophiasburgh Townships', 'Between Humberstone and Cleveland Townships', 'Between Kempenfeldt and Penetanguishene Bays', 'Between Kingston and Ernesttown Townships', 'Between Lake Ontario &amp; Bay of Quinte', 'Between Lake Ontario &amp; Lake Erie', 'Between Matilda &amp; Williamsburg', 'Between Murray &amp; Sidney', 'Between Pittsburgh and Leeds', 'Between Simco Square &amp; Russel Place', 'Beveley', 'Beverley', 'Beverly', 'Beverly &amp; Flamborough', 'Beverly Township', 'Bexley', 'Bexley/Eldon', 'Big Bay', 'Big Island', 'Big Island, Lake St. Francis', 'Big Island, Sophiasburgh Township', 'Binbrook', 'Binbrook Township', 'Binbrooke Township', 'Biorhulle', 'Black Creek', 'Black River', 'Blanchard', 'Blandford', 'Blandford (Church of England)', 'Blandford Township', 'Blandford, Wilmot, Carradoc, Ekfrid Townships', 'Blanford Township', 'Blenheim', 'Blenheim Township', 'Blenheim and Stamford', 'Blenheim, Burford, Glanford, Whitby', 'Blue Lake', 'Blythfield', 'Bois Blanc Island', 'Boles (Niagara Dist.)', 'Bolton', 'Bondesin', 'Bonnechere River', 'Bonte', 'Borton', 'Bosa', 'Bosanquet and Williams', 'Brandon', 'Brant', 'Brantford', 'Brantford (Barton)', 'Brantford (Dumfreese)', 'Brantford (Sullivan &amp; Arthur)', 'Brantford (village)', 'Brantford Township', 'Brantford, Cayuga', 'Brighton', 'Bristol', 'Bristol &amp; Durham', 'Brock', 'Brock (Thora)', 'Brock Township', 'Brock, Card, Etham, Whitby', 'Brock, London, Talbot', 'Brockville', 'Brockville (Collingwood)', 'Brockville (Elizabethtown)', 'Brockville (Goulbourn)', 'Brockville (Louth)', 'Brockville (Perth)', 'Brockville District', 'Brockville Township', 'Brockville, Elizabethtown, Bastard, Dummond &amp; Burgeas', 'Brockville/Packenham', 'Brome', 'Bromley', 'Bronte', 'Brooke', 'Brooke Township', 'Brooks Township', 'Broughman', 'Broughton', 'Bruce', 'Bruce, Waterloo', 'Brudenell', 'Buckingham', 'Buckingham/Lochaber', 'Buckland', 'Bulstrode', 'Bundas', 'Burbrook', 'Burford', 'Burford &amp; Oxford', 'Burford Township', 'Burgess', 'Burgess Township', 'Burgess and Bathurst', 'Burgess and Drummond', 'Burgess and Elmsley', 'Burgess and Lansdowne', 'Burgess and North Gower', 'Burgess and Pickering Townships', 'Burgess and Yonge', 'Burgess, Beckwith, Montague &amp; Marlborough', 'Burgess, Leeds &amp; Elmsley', 'Burgess, Leeds, Bathurst &amp; Elmsley', 'Burgess, Montague &amp; Marlborough', 'Burleigh', 'Burlington', 'Burlington Bay', 'Burlington Bay Canal', 'Burlington Bay Township', 'Burlington Beach', 'Burlington Canal', 'Burlington Heights (near)', 'Burlington Heights Township', 'Bursar', 'Bury', 'Buxford', 'Bytown', 'Bytown (Gloucester)', 'Bytown (Lanark)', 'Bytown (Ross)', 'Bytown Township', 'Bytown and Madawaska Territory', 'Bytown area', 'C_teau du lac', 'Cacouna (Whitworth)', 'Caistor', 'Caistor (Binbrook)', 'Caistor (Niagara)', 'Caistor Township', 'Caistor/Grimsby', 'Caledon', 'Caledon (St Vincent)', 'Caledon (York)', 'Caledon Township', 'Caledonia', 'Caledonia Township', 'Caledonia, Indiana, Tuscarora', 'Calli_re and Saguenay', 'Calumet', 'Calumet Island', 'Camborough', 'Camborough (Cayuga)', 'Cambridge', 'Cambridge (Land adjoining Nepean Tp.)', 'Camden', 'Camden (Hamilton)', 'Camden East', 'Camden Township', 'Camden West', 'Camden and Portland Townships', 'Camden, Ernestown', 'Cameron', 'Canada East', 'Canada West', 'Canal Reserve', 'Canborough', 'Canborough Road', 'Canborough and Rainham Townships', 'Canborough and Rainham Townships.', 'Canburry/Caistor', 'Canonto', 'Cap Chat', 'Cap Dimond', 'Cap Maisonville', 'Cap Rouge', 'Cap Rouge (Toronto)', 'Cap Rouge River', 'Cap de la Magdelaine', 'Cap de la Magdeleine', 'Cap de la Magdeline', 'Cape Mosey', 'Cape Rosier', 'Carafraxa', 'Carleton', 'Carleton &amp; Lanark', 'Carleton Island', 'Carleton Place', 'Carradoc', 'Carradoc &amp; Harwick', 'Carradoc Township', 'Carrafraxa', 'Carrick', 'Carrillon', 'Carrodoc Township', 'Carrying Place', 'Cartwright', 'Cartwright Township', 'Carunna/Lambton', 'Cataraqui', 'Cataraqui River', 'Cattaracane', 'Cavan', 'Cavan (Hamilton)', 'Cavan (Mariposa)', 'Cavan Township', 'Cavan and Monaghan', 'Cavan and Monaghan Townships', 'Caxton', 'Cayuga', 'Cayuga Township', 'Cayuga Village', 'Cayuga and Dunn', 'Cayuga village', 'Chambly', 'Charendon', 'Charles (Jesuits Estates)', 'Charlesbourg', 'Charlesbourg Mill', 'Charlottenburg', 'Charlottenburg &amp; Walsingham', 'Charlottenburg (Cornwall)', 'Charlottenburg (Fitzroy)', 'Charlottenburg (Kenyon)', 'Charlottenburg (Lancaster now Lochiel)', 'Charlottenburg (Lancaster)', 'Charlottenburg (Nottawasaga)', 'Charlottenburg (Percy)', 'Charlottenburg (River aux Raisins)', 'Charlottenburg (Sydenham)', 'Charlottenburg, Lancaster', 'Charlottenburg, Riv. Raisin, Hawkesbury', 'Charlottenburgh Township', 'Charlottensburg', 'Charlottetown', 'Charlotteville', 'Charlotteville &amp; Woodhouse', 'Charlotteville (Woodhouse)', 'Charlotteville Township', 'Charlotteville and Middleton', 'Charlottveille', 'Chartlotteville', 'Chatham', 'Chatham &amp; Grenville', 'Chatham &amp; Horwick', 'Chatham (Dawn)', 'Chatham (Harwick)', 'Chatham (town)', 'Chatham Township', 'Chatham and Dover', 'Chatham and Dover Townships', 'Chatham/Raleigh', 'Chelsea, Montreal', 'Chenail ?cart~', 'Cherbourg', 'Chertsey', 'Chester', 'Chicoutimi', 'Chinguacousey', 'Chinguacousy', 'Chinguacousy Township', 'Chinguasousy', 'Chinguscousy', 'Chinquacoucy Township', 'Chinquacousy Township', 'Chippawa', 'Chippawa Creek', 'Chippawa River', 'Chippawa and Pickering', 'Chippewa &amp; Fort Erie', 'Chippewa Township', 'Christina', 'City of Hamilton (Ernestown)', 'City of Hamilton (Saltfleet)', 'City of Kingston (Hinchinbrooke)', 'City of Montreal', 'City of Montreal (Amherstburg)', 'City of Montreal (Cornwall)', 'City of Montreal (Grantham)', 'City of Montreal (Scarborough)', 'City of Quebec', 'City of Quebec (Belleville)', 'City of Toronto', 'City of Toronto (Eldon)', 'Clandford', 'Clanford', 'Claremont, N.H.', 'Clarence', 'Clarence &amp; Plantagenet', 'Clarence Township', "Clarence's Cumberland", 'Clarendon', 'Clarendon District', 'Clark Township', 'Clarke', 'Clarke Township', 'Clarke and Darlington', 'Clarkesville', 'Clarkville', 'Clavarick', 'Clergy Reserves', 'Cleveland', 'Clifton', 'Clinton', 'Clinton (Burlington Bay)', 'Clinton (Grimsby)', 'Clinton (Nassau)', 'Clinton Township', 'Clinton/Forty Mile Pond', 'Cobourg', 'Cobourg (Hamilton township)', 'Cobourg (Hamilton)', 'Cobourg Island', 'Cobourg Township', 'Cockburn Island', 'Cockburn Island, Village of Perth', 'Cockburn Islands', 'Colbert &amp; Rocquemont', 'Colborne', 'Colbourgh', 'Colchester', 'Colchester &amp; Gosfield', 'Colchester &amp; Malden', 'Colchester Township', 'Colchester, Gosfield', 'Coldsprings', 'Coldwater', 'Coleranie', 'Collingwood', 'Collingwood (Sunnidale)', 'Collingwood Township', 'Collingwood/Niagara', 'Compton', 'Conatoloat', 'Cooksbille', 'Cootes Paradise', 'Cornwall', 'Cornwall &amp; Roxborough', 'Cornwall (Edwardsburgh)', 'Cornwall (Gloucester)', 'Cornwall (Montague)', 'Cornwall (Montague, Cambridge)', 'Cornwall (Roxborough)', 'Cornwall (eastern District)', 'Cornwall Township', 'Cornwall and Osnabruck', 'Cornwall, Charlottenburgh', 'Cornwall, Eastern District', 'Cornwall, Eastern District)', 'Corrunna', 'Corunna', 'Coteau du Lac', 'Coteau du lac', 'Coulonge Lake', 'Coulonge Lake (Westmeath)', 'Coulton', 'Counties of Sherbrooke, Stanstead &amp; Drummond', 'County of Carleton', 'County of Grenville', 'Cow Island', 'Cowan', 'Cowansville, Dunham', 'Cox', 'Cox, Paspebiac, Gasp~', 'Cramahe', 'Cramahe &amp; Percy', 'Cramahe Township', 'Cramahe and Murray', 'Cramahe, Rawdon', 'Cramahe/Murray', 'Cranbourne', 'Cranstoun', 'Credit', 'Credit Reserve', 'Credit River', 'Credit River, Toronto Township', 'Cro', 'Crobsy Township', 'Crombie', 'Crosby', 'Crosby North', 'Crowland', 'Crowland Township', 'Crowland or Wainfleet', 'Crowland, Humberstone', 'Cumberland', 'Cumberland Township', "D'Aubigny", "D'aubigny", 'Daillebout', 'Dalbousie', 'Dalhousie', 'Dalhousie (Lanark)', 'Dalhousie (Sarnia)', 'Dalhousie (Warwick)', 'Dalhousie District', 'Dalhousie Township', 'Dalhousie, Lanark and Ramsay Townships', 'Dalhousie, Lanark, Sherbrook, Ramsay, Darling', 'Dalhousie, North Sherbrooke', 'Dammer', 'Darling', 'Darling (Lanarck)', 'Darling Township', 'Darlington', 'Darlington (Mongan)', 'Darlington (Monghan)', 'Darlington Township', 'Darlington and Grantham', 'Darlington, Glebe', 'Dawn', 'Dawn Mills', 'Dawn Township', 'Dayton', 'De L~ry', 'Deerham', 'Delaware', 'Delaware (River La Tranche)', 'Delaware Township', 'Delaware Village', 'Delmont', 'Denonville', 'Derby', 'Dereham', 'Dereham Township', 'Deronto', 'Derry, Lothbery, Villeneuve, Bownan', 'Des Envies (Bastican seigniory)', 'Detroit', 'Detroit (Bois Franc.)', 'Detroit (Dist. Of Hesse)', 'Detroit (R. la Tranche)', 'Detroit (River Thames)', 'Detroit (Sandwich)', 'Detroit (Western Detriot)', 'Detroit River', 'Detroit River &amp; Lake Erie', 'Detroit River and Lake Erie', 'Detroit River/Point a la Peche', 'Detroit/Hesse', 'Detroit/Lake Erie', 'District of Bathurst', 'District of Hesse', 'District of Johnstown', 'District of Lunemburg', 'District of Lunenburgh', 'District of Mecklenburg', 'District of Mecklenburgh', 'District of Micklenburgh', 'District of Montreal', 'District of Newcastle', 'Ditton', 'Don River', 'Donwich', 'Dorchester', 'Dorchester (Houghton)', 'Dorchester South', 'Dorchester Township', 'Dorset', 'Douglastown', 'Douro', 'Douro Township', 'Douro, Dummer and Smith Townships', 'Douro, Monaghan and Peterborough', 'Dover', 'Dover &amp; Chatham', 'Dover (East)', 'Dover East', 'Dover Township', 'Dover and Chatham', 'Down Township', 'Drummer', 'Drummond', 'Drummond &amp; Others', 'Drummond (Beckwith)', 'Drummond (Lanark)', 'Drummond (Pakenham)', 'Drummond Township', 'Drummond and Augusta', 'Drummond and Bastard', 'Drummond and Bathurst', 'Drummond and Beckwith', 'Drummond and Elmsley', 'Drummond and Kitley', 'Drummond and Lansdowne', 'Drummond and Leeds', 'Drummond and Montague', 'Drummond and Oxford', 'Drummond and Wolford', 'Drummond and Yonge', 'Drummond ans Lansdowne', 'Drummond, Bastard and Packenham', 'Drummond, Bastard, Elizabethtown &amp; Burgess', 'Drummond, Bathurst &amp; Sherbrooke', 'Drummond, Bathurst, Elmsley and Edwardsburgh', 'Drummond, Beckwith &amp; Leeds', 'Drummond, Beckwith and Bastard', 'Drummond, Beckwith and Bathurst', 'Drummond, Beckwith and North Gower', 'Drummond, Beckwith and Sherbrooke', 'Drummond, Beckwith and Wolford', 'Drummond, Beckwith, Kitley and Wolford', 'Drummond, Burgess, North Gower, Lanark &amp; Ramsay', 'Drummond, Edwardsburgh, Kitley, Burgess, Elmsley', 'Drummond, Elmsley, Bastard, Burgess &amp; Sherbrooke', 'Drummond, Elmsley, Burgess, Edwardsburgh, Kitley', 'Drummond, Leeds &amp; Beckwith', 'Drummond, Oxford, Lansdowne &amp; Bathurst', 'Drummond, Wolford and Oxford', 'Drummondville', 'Druro', 'Drynoch', 'Dublin', 'Dublin, Edinburg &amp; Norwich', 'Duck Creek', 'Duguesne and Fleurian', 'Dumer', 'Dumfries', 'Dumfries Township', 'Dummer', 'Dummer &amp; Belmont', 'Dummer Township', 'Dumphries Township', 'Dumwich', 'Dundas', 'Dundas County', 'Dundas St./Credit', 'Dundas Street', 'Dundas Street (Blenheim)', 'Dundas county', 'Dundas street', 'Dundas street, Toronto', 'Dundee', 'Dunfries', 'Dunfries Township', 'Dunham', 'Dunlop Street, Barrie', 'Dunn', 'Dunn Township', 'Dunn, Cayuga', 'Dunn, Tyendinaga, Cayuga', 'Dunnville', 'Dunro', 'Dunwich', 'Dunwick Township', 'Durham', 'Durham &amp; Norwich', 'Durham &amp; Wendover', 'Durham and Melbourne', 'Durham, Dorchester', 'Durnham', 'Dutch Duck Islands', 'Eardley', 'Earnest Town', 'Earnestown', 'East &amp; West Flamborough', 'East Camden', 'East Dover', 'East Flamboro', 'East Flamboro Township', 'East Flamborough', 'East Gwilliamsbury', 'East Gwillimbury', 'East Gwillimbury (Rama)', 'East Gwillimbury Township', 'East Hawkesbury', 'East Hawkesbury Township', 'East Hurontario St.', 'East India Co.', 'East Loborough', 'East Loughborough', 'East Loughborow', 'East Nissouri', 'East Oxford', 'East Side of Lake Huron', 'East Side of Lake Simcoe', 'East Tilbury', 'East Tilbury (Talbot Settler)', 'East Tilbury, Talbot Road West', 'East and West Gwillimbury', 'East of Kingston (town)', 'East of Lake Huron', 'East of Penetanguishene Road', 'East of York', 'Eastern District', 'Eastern District &amp; Midland District', 'Eastern District (Elizabethtown)', 'Eastern District (Williamsburgh)', 'Eastern District (Wolford)', 'Eastern District (Yonge)', 'Eastern Hawkesbury', 'Eastern and Ottawa Districts', 'Eastern district', 'Eastern district (Granville)', 'Eatern Valley', 'Eaton', 'Echo Lake', 'Edinburgh', 'Edmonds Rapids', 'Edwardsburgh', 'Edwardsburgh (Cornwall)', 'Edwardsburgh (Matilda)', 'Edwardsburgh (Mountain)', 'Edwardsburgh (North Gower)', 'Edwardsburgh (Tay, Sunnidale)', 'Edwardsburgh Prescott', 'Edwardsburgh Township', 'Edwardsburgh, Elizabethtown &amp; Yonge', 'Edwardsburgh, Kitley, Burgess &amp; Elmsley', 'Edwardsburgh, Kitley, Burgess, Elmsley &amp; Drummond', 'Edwardsburgh, Mountain, South Gower and Oxford Townships', 'Edwardsburgh/Drummond', 'Eesex', 'Egremont', 'Egremont &amp; Normanby', 'Egremont Road', 'Eight Township', 'Eighth Township', 'Eilkenny', 'Ekfird', 'Ekford', 'Ekfred', 'Ekfrid', 'Ekfrid (Talbot Settler)', 'Ekfrid Township', 'Eky', 'Elden', 'Elden, Thorah', 'Eldon', 'Eldon Township', 'Eldon, Brock, Mariposa, Thorah', 'Eleventh Township', 'Elgin', 'Elizabethtown', 'Elizabethtown &amp; Augusta', 'Elizabethtown &amp; Yonge', 'Elizabethtown (8th Tp.)', 'Elizabethtown (Brockville)', 'Elizabethtown (Wolford)', 'Elizabethtown (Yonge)', 'Elizabethtown Township', 'Elizabethtown and Yonge', 'Elizabethtown and Younge', 'Elizabethtown, Augusta', 'Elk Island', 'Elkfrid Township', 'Elly', 'Elma', 'Elmsley', 'Elmsley (Horton)', 'Elmsley (Kitley)', 'Elmsley North', 'Elmsley Township', 'Elmsley and Bathurst', 'Elmsley and Drummond', 'Elmsley and Edwardsburgh', 'Elmsley and Elizabethtown', 'Elmsley and Kitley', 'Elmsley and Leeds', 'Elmsley and Wolford', 'Elmsley, Bastard and Burgess', 'Elmsley, Bathurst, Drummond &amp; Sherbrooke', 'Elmsley, Beckwith and Drummond', 'Elmsley. Bathurst, Drummond and Beckwith', 'Elora, Marysboro and Peel and Kincardine', 'Ely', 'Elzevir Township', 'Elzevir, Hastings County', 'Elziver', 'Elziver near Madoc', 'Emery Lake', 'Emily', 'Emily (Caven)', 'Emily (Lindsay)', 'Emily Township', 'England', 'Ennisfil', 'Enniskillen', 'Enniskillen Township', 'Ennismore', 'Eramosa', 'Eramosa Township', 'Erin', 'Erin Township', 'Erindale', 'Erkfrid', 'Erkfrid Township', 'Ernestown', 'Ernestown &amp; others', 'Ernestown (Fredericksburgh)', 'Ernestown (King)', 'Ernestown (Kingston)', 'Ernestown (Mamora)', 'Ernestown (Marmora)', 'Ernestown (Murray)', 'Ernestown (Plympton)', 'Ernestown (Sydney)', 'Ernestown (Thurlow)', 'Ernestown Mills', 'Ernestown Township', 'Ernestown and Cramahe', 'Ernestown and Kingston', 'Ernestown, Nottawasaga', 'Ernestown/Enniskillen', 'Errol', 'Erroll', 'Escott', 'Escott, Yonge', 'Espra', 'Esquesing', 'Esquising', 'Esquissing Township', 'Essa', 'Essa Port', 'Essa Township', 'Essex', 'Essex &amp; Kent', 'Etchemin Mills', 'Etchemin Mills (Lauzon seigniory)', 'Etobicoke', 'Etobicoke (Adjala)', 'Etobicoke (Equesing)', 'Etobicoke (Toronto)', 'Etobicoke (York)', 'Etobicoke Township', 'Etobicoke and Toronto Tonwships', 'Eugenia', 'Euphemia', 'Euphrasia', 'Euphrasia &amp; Collingwood', 'Euphrasia Township', 'Euphrasia/Tilbury', 'Exeter', 'Fainsboro', 'Fairchild Creek, Haldimand', 'Falls Mills', 'False Ducks Island', 'Faraday &amp; Dungannon', 'Farmersville', 'Farnham', 'Farrington (Marysburgh)', 'Felham', 'Fenelon', 'Fenelon Falls', 'Fenelon Township', 'Ferrus', 'Ferry from Ameliasburg to River Moine and Sidney', 'Fidericksburg', 'Fief Coulonge', 'Fief Grosbois', 'Fief Ste.Claire', 'Fifteen Mile Creek', 'Fifth Township', 'Fighting Island', 'Finch', 'Finch Township', 'Finelon', 'First Township', 'Fittzburg', 'Fitzroy', 'Fitzroy Harbour', 'Fitzroy Township', 'Fitzroy and North Gower', 'Fitzroy or Pakenham', 'Flamboro', 'Flamboro East', 'Flamboro West', 'Flamboro/Cootes Paradise', 'Flamborough', 'Flamborough (York)', 'Flamborough East', 'Flamborough East &amp; West', 'Flamborough East (Southwold)', 'Flamborough East Township', 'Flamborough East and West', 'Flamborough Township', 'Flamborough West', 'Flamborough West (Cootes Paradise)', 'Flamborough West Township', 'Flos', 'Flos Township', 'Floss Township', 'Forbolton', 'Fordwick', 'Forsyth', 'Fort Erie', 'Fort Erie Rapids', 'Fort Erie Township', 'Fort Erie/Pickering', 'Fort George', 'Fort George (town)', 'Fort George Township', 'Fort Hope', 'Fort Malden', 'Fort Sarnia', 'Fort St.George, Niagara', 'Fort Talbot Road', 'Fort Wellington', 'Fort Wellington Township', 'Fort William', 'Fort du Detroit', 'Forty Mile Creek', 'Forty Miles Ponds', 'Four Mile Creek', 'Fourth &amp; Fifth Townships', 'Fourth Township', 'Frampton', 'Frand River', 'Franklin, Herscheil &amp; Watt', 'Franktown', 'Fredeicksburgh', 'Fredeicksburgh Township', 'Frederickburgh Township', 'Fredericksburg', 'Fredericksburg &amp; Adolphustown', 'Fredericksburg (Adolphustown)', 'Fredericksburg (Ameliasburgh)', 'Fredericksburg (Edwarsburgh)', 'Fredericksburg (Ernestown)', 'Fredericksburg (Haldimand)', 'Fredericksburg (Hamilton)', 'Fredericksburg (Hope)', 'Fredericksburg (Lake Erie)', 'Fredericksburg (Midland Dist)', 'Fredericksburg (Orillia)', 'Fredericksburg (Rambough)', 'Fredericksburg (Richmond)', 'Fredericksburg (Sophiasburg)', 'Fredericksburg Township', 'Fredericksburg, Rawdon, Seymour', 'Fredericksburgh', 'Fredericksburgh Township', 'Frederickstown', 'Frederisksburg', 'Fredrickburg', 'Frenchman Creik', 'Frontenac', 'Frontenac &amp; Addington', 'Frontenac, Lennox &amp; Addington', 'Frontenac, Lennox, Addington', 'Ftizroy', 'GRantham', 'Gainsborough', 'Gainsborough Township', 'Gainsburgh', 'Galt', 'Galt (Mornington)', 'Galway', 'Gananoque', 'Gananoque River', 'Gannanoque', 'Garafraxa', 'Garden Island', 'Garden Island (near Kingston)', 'Garrafraxa Township', 'Garthby', 'Garthby, Stratford, Winslow, Wotton, or Whitton (Wolfe &amp; Compton Counties)', 'Gasket Island', 'Gasp~', 'Gasp~ County', 'Gasp~, Port Daniel', 'Gasp~, Port-Daniel', 'Gatineau', 'Gatineau &amp; La P--che', 'Gatineau (timber berths)', 'Gatineau River', 'Gayuga', 'Gedford', 'Genabruck', 'Genanoque', 'Geneburgh', 'Georgina', 'Georgina Township', "Gibson's Point, Hallowell Township", 'Gilbury', 'Gillinbury', 'Gilloughby', 'Gimsby', 'Glanford', 'Glanford Township', 'Glasgow', 'Glebe', 'Glebes, Belleville &amp; Thurlow', 'Glenelg', 'Glenelg and Bentinck', 'Glenelg, Bentinck, Holland, Sullivan', 'Glenford', 'Glengarry', 'Glengarry (Charlottenburgh)', 'Glengarry County', 'Glengarry County (Indian Reservation)', 'Glengarry County Indian Reservation', 'Glengarry Settlement', 'Glengarry Township', 'Glengarry/Lochiel', 'Glenheim', 'Gloucester', 'Gloucester (Packenham)', 'Gloucester Township', 'Gloucester and March', 'Gloucester and Nepean', 'Gloucester on Rideau', 'Gloucester or Nepean Townships', 'Gloucester, Cumberland &amp; Clarence', 'Gloucester, Goulbourn and Marlborough', 'Gloucester/Clarence', 'Goderich', 'Goderich Township', 'Godmanchester', 'Godmanchester, Hinchinbrook, Hemmingford', 'Golbourn', 'Gore', 'Gore (Clergy reserves)', 'Gore (between Sophiasburgh &amp; Hallowell Townships)', 'Gore District', 'Gore of Crown Land', 'Gore of Stamford', 'Gore of Toronto', 'Gore of Toronto Township', 'Gosfield', 'Gosfield (Colchester)', 'Gosfield (Talbot Road)', 'Gosfield East Township', 'Gosfield Township', 'Gosfield and Plympton', 'Gosfield/Talbot Road', 'Gosford', 'Gosford Road (Nicolet)', 'Goulbourn', 'Goulbourn (Gloucester)', 'Goulbourn and Huntley', 'Goulbourn and March', 'Goulbourn and Marlborough', 'Goulbourn, Huntley and March', 'Goulbourn, Huntley and Marlborough', 'Goulbourn, March and Huntley', 'Goulbourn, Nepean and March', 'Goulbourn/Richmond', 'Goulburn Township', 'Gouth Gower Township', 'Gower', 'Gower North', 'Gower South', 'Gramahe', 'Granbourm', 'Granbourne', 'Granby', 'Granby &amp; Roxton', 'Grand Calumet', 'Grand Island, Bay of Quinte', 'Grand Isle', 'Grand Isle Township', 'Grand Marois, Detroit', 'Grand M~chin', 'Grand Riv_re', 'Grand River', 'Grand River &amp; Long Point', 'Grand River (Caistor)', 'Grand River (Niagara Dist)', 'Grand River (Niagara)', 'Grand River (Saltfleet)', 'Grand River (Six Nations Indians)', 'Grand River County, Haldimand Township', 'Grand River Road (Dorchester)', 'Grand River Swamp', 'Grand River Township', 'Grand River Tract', 'Grand River and York', 'Grand River/Haldimand', 'Grand Rivi_re', 'Grand Riviere', 'Grand Valamet', 'Grande Isle', 'Grande Vall~e des Monts', 'Grande of Wolfe Island', 'Grande or Wolfe Island', 'Grandville', 'Grandy', 'Grans River', 'Gransby', 'Grant River', 'Grantham', 'Grantham &amp; Durham', 'Grantham Township', 'Grantham, Durham &amp; Wickham', 'Grantham, Long Point', 'Grantham, Louth', "Grass's Point", 'Grattan', 'Grattan, Brougham', 'Great Western Lakes', 'Green Island', 'Green Point, Sophiasburgh Township', 'Greenfield', 'Greensby', 'Grenadier Island', 'Grenville', 'Grenville      Gr  Grenville', 'Grenville &amp; Leeds', 'Grenville Canal', 'Grenville County', 'Grenville County (River Reddo)', 'Grenville Township', 'Grenville or Leeds', 'Grenwich', 'Grey', 'Grey, Bruce', 'Griffith', 'Grimsby', 'Grimsby (Saltfleet)', 'Grimsby Township', 'Grimsby and Ancaster', 'Grimsley Township', 'Grimsthorpe', 'Grimsthorpe Township', 'Growland', 'Guelph', 'Guelph (Penetangere)', 'Guelph Township', 'Gun Lock Islands', 'Gwillimbury', 'Gwillimbury East', 'Gwillimbury North', 'Gwillimbury Township', 'Gwillimbury West', 'Gwillimbury, Kempenfeldt Bay, Penetanguishene', 'Gwillimbury, Kempenfell Bay, Penetinguisghene', 'Gwillimbury, Kempenfelt and Penetanguishene', 'Halderman', 'Haldimand', 'Haldimand &amp; York', 'Haldimand (Alnwick)', 'Haldimand (Burford)', 'Haldimand (Clergy Reserves)', 'Haldimand (Cobourg)', 'Haldimand (Cramahe)', 'Haldimand (Mariposa)', 'Haldimand (Pickering)', 'Haldimand (Sedmour)', 'Haldimand County', 'Haldimand Township', 'Haldimand and Pickering and Pittsburgh', 'Haldimand township', 'Haldimand, Percy', 'Haldimand, Percy, Cramahe &amp; others', 'Haldimand/Adolphustown', 'Hale', 'Halifax', 'Halifax (Canada East)', 'Hallow', 'Hallowel/Sophiasburgh', 'Hallowell', 'Hallowell &amp; Sophiasburgh', 'Hallowell (Ameliasburgh)', 'Hallowell (Drummond)', 'Hallowell (North Gwillimsbury)', 'Hallowell (Rawdon)', 'Hallowell (Sophiasburgh)', 'Hallowell Township', 'Hallowell and Thurlow Townships', 'Hallowell/Adolphustown', 'Hallowell/Sophiasburgh', 'Halton', 'Halton County', 'Ham South', 'Ham, Ashford and Windsor', 'Ham, Shipton and Ashford', 'Hambleton', 'Hamburgh', 'Hamford', 'Hamilton', 'Hamilton &amp; Hope', 'Hamilton (Cobourg)', 'Hamilton (Dover)', 'Hamilton (Monoghan)', 'Hamilton (Osnabruck)', 'Hamilton (Richmond)', 'Hamilton (Toronto)', 'Hamilton (Walpole)', 'Hamilton Township', 'Hamilton and Murray', 'Hamilton,', 'Hamilton/Asphodel', 'Hamilton/Whitby', 'Hammond', 'Hamons', 'Hampton', 'Hannah', 'Hare Island', 'Hare Point', 'Harrington', 'Harrington (Caledonia)', 'Harsen Island', 'Hartington', 'Harvey', 'Harvey Township', 'Harwich', 'Harwich &amp; Howard', 'Harwich (Raleigh)', 'Harwich (Sandwich)', 'Harwich and Howard', 'Harwich or Raleigh', 'Harwich, Chatham', 'Harwick Township', 'Hastings', 'Hastings County', 'Hatley', 'Haughton', 'Hawford', 'Hawkesbury', 'Hawkesbury &amp; Cornwall or Johnstown', 'Hawkesbury East', 'Hawkesbury Township', 'Hawkesbury West', 'Hawkesbury West, Alfred', 'Hay Bay/Fredericksburgh', 'Hayesbury Township', 'Head', 'Hebertville', 'Heiss District', 'Hemford', 'Hemmingford', 'Hemmingford &amp; Lacolle', 'Henntley', 'Hereford', 'Herwick', 'Hesse', 'Hesse District', 'Hesser', 'Heyetsbury', 'Heytesbury', 'Heytesbury Township', 'Hickory Island', 'Hillier', 'Hinchinbrooke', 'Hinchinbrooke (Kingston)', 'Hinchinbrooke Township', 'Hinchinbrooke and Buckingham', 'Hinchinbrooke/Lanark', 'Hincks', 'Hitchenbrroke', 'Holford', 'Holland', 'Holland &amp; Sullivan', 'Holland Landing', 'Holland, Sullivan', 'Holland, Sullivan, Rokeby', 'Hollowell', 'Hollowell Township', 'Home', 'Home District', 'Hope', 'Hope &amp; Hamilton', 'Hope (Cavan)', 'Hope (Hamilton)', 'Hope (Monaghan)', 'Hope (Monoghan)', 'Hope (Smith)', 'Hope (Tiney)', 'Hope North East', 'Hope Township', 'Horse Shoe Island', 'Horse Shoe Island (between Simcoe &amp; Wolfe Islands)', 'Horton', 'Horton Township', 'Horwick', 'Houghton', 'Houghton &amp; Walsingham', 'Houghton Township', 'Howard', 'Howard &amp; Morin', 'Howard (should be Harwick)', 'Howard Township', 'Howard and Harwich', 'Howe Island', 'Howe Island, Pittsburgh Township', 'Howich', 'Howick', 'Hull', 'Hull &amp; Wakefield', 'Humber', 'Humber Bay', 'Humber River', 'Humber River (Queenstown)', 'Humber River Township', 'Humberstone', 'Humberstone Township', 'Humberstone, Wainfleet, Crowland', 'Humbertsone Township', 'Hungerford', 'Hungerford (Kingston)', 'Hungerford Township', 'Hungerford/Sheffield', 'Huntingdon', 'Huntingdon Township', 'Huntley', 'Huntley Township', 'Huntley West', 'Huntley and Goulburn', 'Huron', 'Huron County', 'Huron Reserve', 'Huron Road', 'Huron Settlement', 'Huron Tract', 'Huron and Bruce', 'Huron, Bruce', 'Hurontario', 'Hurontario, West of', 'In face of Lake Eri~', 'Indian Lands', 'Indian Reserve, Glengary County', 'Indian Woods', 'Indiana', 'Ingersoll', 'Innisfil', 'Innisfil Township', 'Inniskillen', 'Innismore', 'Inverhuron', 'Inverness', 'Inworth', 'Ipenville', 'Ira', 'Ireland', 'Island (Head of Lake Erie)', 'Island (head of Lake Erie)', 'Island East of York (town)', 'Island River', 'Island at Mouth of Charles River', 'Island below Kingston', 'Island in Lake Erie', 'Island in Rideau Canal (15 miles from Ottawa)', 'Island in River St.Claire', 'Island in front of Toronto', 'Island in the St. Lawrence River', 'Island near Nepean Township', 'Island of Bois Blanc', 'Island of Cornwall', 'Island of Michipicoton', 'Island of Mille Roches', 'Island of Orleans', 'Island of St. Joseph', 'Island of St.Joseph', 'Islands in Lake St. Clair', 'Islands in the Ottawa River', 'Islands on the Humber River', 'Isle Bois Blanc sur la riv. Au Canard', 'Isle Ecart~', 'Isle St.Ignace', 'Isle Verte', 'Isle a la Peche', 'Isle au Cochon', 'Isle aux P--ches (Lake St. Clair)', 'Isle aux P~ches', 'Isle of Traverse', 'Isles aux P--ches (Lake St. Clair)', 'Ixworth', 'Jesuit Estates', 'Johnson', 'Johnsonville', 'Johnston (Edwardsburgh Township)', 'Johnston District', 'Johnstown', 'Johnstown &amp; Edwardsburgh', 'Johnstown (Edwardsburgh)', 'Johnstown (Winchester)', 'Johnstown District', 'Junction Gore', 'Kakouna', 'Kakouna/Whitworth', 'Kamouraska', 'Kamouraska (Kingston)', 'Katesville, Adelaide', 'Kayugah', 'Kempenfeldt', 'Kempenfelt Bay to Penetanguishene', 'Kempfieldt Bay, Lake Simcoe', 'Kemptville (Westmeath)', '</t>
         </is>
@@ -913,12 +953,18 @@
         </is>
       </c>
       <c r="T7" t="n">
+        <v>83257</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
         <v>2247940</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>2</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>['0', 'Upper Canada Land Petitions']</t>
         </is>
@@ -991,12 +1037,18 @@
         </is>
       </c>
       <c r="T8" t="n">
+        <v>77782</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
         <v>807275</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>3</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>['0', 'RG 1 L3', 'RG 5 A1, Land Petitions in Upper Canada Sundries']</t>
         </is>
@@ -1069,12 +1121,18 @@
         </is>
       </c>
       <c r="T9" t="n">
+        <v>1834</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
         <v>252833</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>735</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>['1', '1-Apr', '10', '100', '101', '102', '103', '104', '105', '106', '107', '108', '109', '11', '110', '111', '112', '113', '114', '115', '116', '117', '118', '119', '12', '120', '121', '122', '123', '124', '125', '126', '127', '128', '129', '13', '130', '131', '132', '133', '134', '135', '136', '137', '138', '139', '14', '140', '141', '142', '143', '144', '145', '146', '147', '148', '149', '15', '150', '151', '152', '153', '154', '155', '156', '157', '158', '159', '16', '160', '161', '162', '163', '16309', '164', '165', '166', '167', '168', '169', '17', '170', '171', '172', '173', '174', '175', '176', '176176', '177', '177A', '177B', '178', '179', '179A', '179B', '18', '180', '181', '182A', '182B', '183', '1836/02/24', '184', '184184', '185', '186', '186A', '187', '188', '189', '189A', '19', '190', '191', '191A', '192', '192A', '193', '194', '194A', '195', '195A', '196', '196A', '197', '198', '199', '199A', '1:00 AM', '2', '20', '200', '201', '202', '202A', '203', '203A', '204', '204A', '205', '206', '206A', '207', '208', '208A', '209', '21', '210', '211', '211A', '212', '213', '214', '214A', '215', '216', '216 A', '216A', '217', '218', '219', '22', '220', '220 A', '221', '222', '222A', '222AC-2045', '223', '224', '224A', '225', '225A', '226', '226A', '227', '228', '228A', '229', '23', '230', '230A', '231', '232', '233', '233A', '234', '235', '236', '236A', '237', '238', '239', '239A', '24', '240', '241', '241A', '242', '243', '243A', '244', '244A', '245', '246', '247', '247A', '248', '248A', '249', '25', '250', '250A', '251', '251A', '252', '253', '254', '254A', '255', '256', '257', '257A', '258', '259', '259A', '26', '260', '261', '261A', '262', '263', '264', '265', '265A', '266', '266A', '267', '268', '269', '27', '270', '271', '271A', '272', '273', '273A', '274', '275', '276', '276A', '277', '278', '279', '28', '280', '280A', '280a', '281', '282', '283', '284', '285', '285A', '286', '287', '287A', '288', '289', '29', '290', '290A', '291', '292', '292A', '293', '294', '295', '296', '296A', '296A296A', '297', '297A', '298', '299', '299A', '3', '30', '300', '301', '302', '303', '304', '305', '305A', '306', '306A', '307', '307A', '308', '308A', '309', '31', '310', '311', '311A', '312', '313', '313A', '314', '315', '315A', '316', '316A', '317', '318', '319', '319A', '32', '320', '320A', '321', '322', '322A', '323', '323A', '324', '325', '325A', '326', '327', '327A', '328', '328A', '329', '329A', '33', '330', '330A', '331', '332', '332A', '333', '333A', '334', '335', '335A', '336', '336A', '336C', '337', '337A', '338', '339', '339A', '34', '340', '341', '341A', '342', '343', '343A', '344', '345', '345A', '346', '347', '347A', '348', '348A', '349', '35', '350', '350A', '350a', '351', '351A', '352', '353', '353A', '354', '355', '355A', '356', '357', '357A', '358', '359', '359A', '36', '360', '361', '362', '362A', '363', '364', '364A', '365', '366', '367', '367A', '368', '369', '369A', '37', '370', '371', '372', '372A', '373', '374', '374A', '375', '376', '377', '378', '379', '379(a)', '379A', '38', '380', '380(a)', '381', '381(a)', '381A', '382', '383', '384', '384A', '385', '386', '387', '388', '389', '39', '390', '391', '392', '392A', '393', '393A', '394', '395', '396', '396A', '397', '398', '399', '4', '40', '400', '400A', '401', '402', '402A', '403', '404', '404A', '405', '406', '406A', '407', '408', '408A', '409', '41', '410', '410A', '411', '412', '413', '414', '414A', '415', '416', '416A', '417', '418', '419', '419A', '42', '420', '421', '422', '422A', '423', '424', '425', '426', '426A', '427', '428', '429', '429A', '43', '430', '430A', '431', '432', '433', '434', '435', '435A', '436', '437', '438', '438A', '439', '44', '440', '441', '441A', '442', '443', '444', '445', '445A', '446', '446A', '447', '447A', '448', '448A', '448a', '449', '45', '450', '4505', '4507', '450A', '451', '452', '453', '453A', '454', '455', '456', '456A', '457', '457A', '458', '459', '46', '460', '460A', '461', '462', '463', '463A', '464', '464A', '465', '466', '467', '467A', '468', '469', '47', '470', '471', '472', '472A', '473', '473A', '474', '475', '476', '477', '478', '478A', '479', '48', '48-49', '480', '481', '481A', '482', '483', '484', '485', '486', '487', '487A', '488', '489', '49', '490', '491', '492', '493', '493A', '494', '495', '495A', '496', '497', '498', '498A', '499', '5', '5 pt. 2', '5 pt.1', '5, pt. 1', '5, pt.1', '50', '500', '501', '502', '502A', '503', '504', '505', '506', '507', '508', '508A', '509', '509A', '51', '510', '511', '512', '513', '514', '514A', '515', '516', '517', '518', '519', '52', '520', '521', '522', '523', '523A', '524', '525', '525A', '526', '527', '527A', '528', '529', '529 A', '529A', '53', '530', '530A', '531', '532', '533', '533A', '534', '535', '536', '537', '537A', '538', '538A', '538S', '539', '54', '540', '540A', '541', '542', '543', '544', '544A', '545', '546', '546A', '546a', '547', '548', '549', '55', '550', '550A', '551', '552', '553', '554', '555', '556', '56', '57', '58', '59', '6', '60', '61', '62', '63', '64', '65', '66', '67', '68', '69', '7', '70', '71', '72', '73', '74', '75', '76', '77', '78', '79', '8', '80', '81', '82', '83', '84', '85', '86', '87', '88', '89', '9', '90', '91', '92', '93', '94', '95', '96', '97', '98', '99']</t>
         </is>
@@ -1143,12 +1201,18 @@
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
+        <v>5476</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>509866</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>751</v>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>['5475', '6457', 'A 1', 'A 10', 'A 11', 'A 12', 'A 13', 'A 14', 'A 15', 'A 16', 'A 17', 'A 18', 'A 19', 'A 2', 'A 20', 'A 21', 'A 22', 'A 23', 'A 3', 'A 4', 'A 5', 'A 6', 'A 7', 'A 8', 'A 9', 'A Leases 1799-1836', 'A Misc. 1788-1843', 'A Misc. 1796-1840', 'A Misc. 1798-1804', 'B 1', 'B 10', 'B 11', 'B 12', 'B 13', 'B 14', 'B 15', 'B 16', 'B 17', 'B 18', 'B 19', 'B 2', 'B 20', 'B 21', 'B 22', 'B 3', 'B 4', 'B 5', 'B 6', 'B 7', 'B 8', 'B 9', 'B Leases 1802-1818', 'B Leases 1816-1837', 'B Misc.', 'B Misc. 1788-1795', 'B Misc. 1793-1840', 'B Misc. 1796-1799', 'B Misc. 1799-1843', 'B Misc. 1801-1804', 'C 1', 'C 10', 'C 11', 'C 12', 'C 13', 'C 14', 'C 15', 'C 16', 'C 17', 'C 18', 'C 19', 'C 2', 'C 20', 'C 21', 'C 22', 'C 3', 'C 4', 'C 5', 'C 6', 'C 7', 'C 8', 'C 9', 'C Leases 1798-1817', 'C Leases 1819-1834', 'C Leases 1830-1834', 'C Leases 1831-1836', 'C Misc. 1788-1794', 'C Misc. 1788-1795', 'C Misc. 1795-1844', 'C Misc. 1798-1820', 'C a, pt. 1', 'C a, pt. 2', 'C b', 'C5', 'Canada Company', 'D 1', 'D 10', 'D 11', 'D 12', 'D 13', 'D 14', 'D 15', 'D 16', 'D 17', 'D 18', 'D 19', 'D 2', 'D 20', 'D 21', 'D 22', 'D 3', 'D 4', 'D 5', 'D 6', 'D 7', 'D 8', 'D 9', 'D Leases 1799-1819', 'D Leases 1800-1818', 'D Leases 1818-1830', 'D Leases 1830-1836', 'D Misc.', 'D Misc. 1783-1795', 'D Misc. 1788-1795', 'D Misc. 1796-1802', 'D Misc. 1797-1826', 'D Misc. 1798-1802', 'D Misc. 1798-1841', 'D Misc. Inhabitants of Detroit', 'E 1', 'E 10', 'E 11', 'E 12', 'E 13', 'E 14', 'E 15', 'E 16', 'E 17', 'E 18', 'E 19', 'E 2', 'E 20', 'E 21', 'E 22', 'E 3', 'E 4', 'E 5', 'E 6', 'E 7', 'E 8', 'E 9', 'E Ernestown Mills 1804', 'E Leases 1798-1821', 'E Leases 1800-1837', 'E Misc. 1789-1795', 'E Misc. 1797-1839', 'E Misc. 1799-1841', 'E Misc. 1802', 'F 1', 'F 10', 'F 11', 'F 12', 'F 13', 'F 14', 'F 15', 'F 16', 'F 17', 'F 18', 'F 19', 'F 2', 'F 20', 'F 21', 'F 22', 'F 3', 'F 4', 'F 5', 'F 6', 'F 7', 'F 8', 'F 9', 'F Leases 1800-1820', 'F Leases 1801-1826', 'F Leases 1801-1836', 'F Misc. #802-1804', 'F Misc. 1788-1795', 'F Misc. 1789-1839', 'F Misc. 1797-1798', 'F Misc. 1823-1841', 'G 1', 'G 10', 'G 11', 'G 12', 'G 13', 'G 14', 'G 15', 'G 16', 'G 17', 'G 18', 'G 19', 'G 2', 'G 20', 'G 21', 'G 22', 'G 3', 'G 4', 'G 5', 'G 6', 'G 7', 'G 8', 'G 9', 'G Leases 1799-1819', 'G Leases 1800-1835', 'G Misc. 1789-1795', 'G Misc. 1794-1830', 'G Misc. 1797-1799', 'G Misc. 1799-1803', 'G Misc. 1819-1840', 'G3', 'H 1', 'H 10', 'H 11', 'H 12', 'H 13', 'H 14', 'H 15', 'H 16', 'H 17', 'H 18', 'H 19', 'H 2', 'H 20', 'H 21', 'H 22', 'H 3', 'H 4', 'H 5', 'H 6', 'H 7', 'H 8', 'H 9', 'H Leases 1799-1838', 'H Leases 1820-1838', 'H Misc. 1788-1795', 'H Misc. 1788-1799', 'H Misc. 1797-1804', 'H Misc. 1797-1820', 'H Misc. 1799-1821', 'H Misc. 1801-1848', 'H Misc. 1825-1839', 'I 10', 'I 11', 'I 12', 'I 13', 'I 14', 'I 15', 'I 20', 'I 22', 'I 3', 'I 5', 'I 6', 'I 7', 'I 8', 'I 9', 'I-J 1', 'I-J 17', 'I-J 18', 'I-J 19', 'I-J 2', 'I-J 21', 'I-J 3', 'I-J 4', 'I-J 5', 'I-J 6', 'I-J 8', 'I-J Misc. 1788-1795', 'I-J Misc. 1795-1837', 'I-J Misc. 1800-1836', 'I-J Misc. 1801-1804', 'I-J Misc. 1836-1840', 'I-J1', 'I-J18', 'I-J2', 'J 10', 'J 11', 'J 12', 'J 13', 'J 14', 'J 15', 'J 16', 'J 20', 'J 21', 'J 22', 'J 3', 'J 5', 'J 6', 'J 7', 'J 8', 'J 9', 'J Misc. 1802', 'K 1', 'K 10', 'K 11', 'K 12', 'K 13', 'K 14', 'K 15', 'K 16', 'K 17', 'K 18', 'K 19', 'K 2', 'K 20', 'K 21', 'K 22', 'K 3', 'K 4', 'K 5', 'K 6', 'K 7', 'K 8', 'K 9', 'K Leases', 'K Misc. 1788-1795', 'K Misc. 1797-1846', 'K Misc. 1802-1817', 'K leases', 'K12', 'L 1', 'L 10', 'L 11', 'L 12', 'L 13', 'L 14', 'L 15', 'L 16', 'L 17', 'L 18', 'L 19', 'L 2', 'L 20', 'L 21', 'L 22', 'L 3', 'L 4', 'L 5', 'L 6', 'L 7', 'L 8', 'L 9', 'L Leases 1798-1819', 'L Leases 1801-1836', 'L Misc', 'L Misc. 1788-1795', 'L Misc. 1796-1797', 'L Misc. 1796-1803', 'L Misc. 1796-1835', 'L Misc. 1816-1845', 'Leases', 'Leases and Licences of Occupation 1798-1838', 'Leases and Licences of Occupation 1798-1839', 'Leases and Licences of Occupation 1806-1830', 'M  15', 'M 1', 'M 1 Misc. 1789-1803', 'M 10', 'M 11', 'M 12', 'M 13', 'M 14', 'M 15', 'M 16', 'M 17', 'M 18', 'M 19', 'M 2', 'M 2 Misc. 1788-1798', 'M 20', 'M 21', 'M 22', 'M 3', 'M 3 Misc. 1803-1865', 'M 4', 'M 5', 'M 6', 'M 7', 'M 8', 'M 9', 'M Leases 1798-1818', 'M Leases 1798-1823', 'M Misc.', 'MC 1', 'MC 2', 'MC 20', 'MC 21', 'MC 22', 'MC 3', 'MC 4', 'MC 5', 'MC 6', 'MC 7', 'MC 8', 'MC 9', 'MC Misc.', 'Mc 4', 'Mc 5', 'Mc 8', 'N 1', 'N 10', 'N 11', 'N 12', 'N 13', 'N 14', 'N 15', 'N 16', 'N 17', 'N 18', 'N 19', 'N 2', 'N 20', 'N 21', 'N 22', 'N 3', 'N 4', 'N 5', 'N 6', 'N 7', 'N 8', 'N 9', 'N Leases 1805-1832', 'N Misc. 1788-1802', 'N Misc. 1797-1811', 'N Misc. 1799-1815', 'N Misc. 1802', 'N Misc. 1840', 'N, Niagara Districh without date', 'N, Niagara District, Petitions without dates', 'Niagara Chain Reserves', 'O 1', 'O 10', 'O 11', 'O 12', 'O 13', 'O 14', 'O 15', 'O 16', 'O 17', 'O 18', 'O 19', 'O 2', 'O 20', 'O 21', 'O 22', 'O 3', 'O 4', 'O 5', 'O 6', 'O 7', 'O 8', 'O 9', 'O Leases 1799-1834', 'O Leases 1807-1834', 'O Misc. 1787-1845', 'O, Bundle 1829-1835"', 'P 1', 'P 10', 'P 11', 'P 12', 'P 13', 'P 14', 'P 15', 'P 16', 'P 17', 'P 18', 'P 19', 'P 2', 'P 20', 'P 21', 'P 22', 'P 3', 'P 4', 'P 5', 'P 6', 'P 7', 'P 8', 'P 9', 'P Leases 1798-1818', 'P Leases, 1811-1836', 'P Misc. 1775-1795', 'P Misc. 1788-1794', 'P Misc. 1797-1799', 'P Misc. 1797-1836', 'P Misc. 1798', 'P Misc. 1798-1820', 'P Misc. 1800-1856', 'Perth Military Settlement', 'Q 1', 'Q 11', 'Q 12', 'Q 13', 'Q 14', 'Q 15', 'Q 17', 'Q 18', 'Q 19', 'Q 2', 'Q 2 Leases 1802-1809', 'Q 20', 'Q 21', 'Q 22', 'Q 3', 'Q 4', 'Q 5', 'Q 6', 'Q 7', 'Q 8', 'Q 9', 'Q Misc. 1789-1824', 'R 1', 'R 10', 'R 11', 'R 12', 'R 13', 'R 14', 'R 15', 'R 16', 'R 17', 'R 18', 'R 19', 'R 2', 'R 20', 'R 21', 'R 22', 'R 3', 'R 4', 'R 5', 'R 6', 'R 7', 'R 8', 'R 9', 'R Leases 1797-1821', 'R Leases 1798-1820', 'R Leases 1820-1837', 'R Misc. 1777-1794', 'R Misc. 1784-1803', 'R Misc. 1796-1816', 'R Misc. 1806-1844', 'Renewal of Leases 1815-1838', 'Renewal of Leases, Misc. 1818-1835', 'S 1', 'S 10', 'S 11', 'S 12', 'S 13', 'S 14', 'S 15', 'S 16', 'S 17', 'S 18', 'S 19', 'S 2', 'S 20', 'S 21', 'S 22', 'S 3', 'S 4', 'S 5', 'S 6', 'S 7', 'S 8', 'S 9', 'S Leases 1797-1808', 'S Leases 1797-1809', 'S Leases 1806-1819', 'S Leases 1809-1822', 'S Leases 1816-1831', 'S Leases 1830-1840', 'S Misc', 'S Misc.', 'S Misc. 1783-1818', 'S Misc. 1787-1794', 'S Misc. 1788-1794', 'S Misc. 1796-1798', 'S Misc. 1797-1804', 'S Misc. 1798-1812', 'S Misc. 1799-1842', 'S misc', 'SMisc.', 'T 1', 'T 10', 'T 11', 'T 12', 'T 13', 'T 14', 'T 15', 'T 16', 'T 17', 'T 18', 'T 19', 'T 2', 'T 20', 'T 21', 'T 22', 'T 3', 'T 4', 'T 5', 'T 6', 'T 7', 'T 8', 'T 9', 'T Leases 1798-1831', 'T Leases 1799-1820', 'T Leases 1801-1835', 'T Misc. 1788-1794', 'T Misc. 1791-1819', 'T Misc. 1797', 'T Misc. 1797-1800', 'T Misc. 1797-1835', 'T Misc. 1797-1843', 'U 10', 'U 11', 'U 12', 'U 13', 'U 14', 'U 15', 'U 16', 'U 17', 'U 18', 'U 19', 'U 2', 'U 20', 'U 21', 'U 22', 'U 4', 'U 5', 'U 6', 'U 7', 'U 8', 'U 9', 'U Leases 1806-1818', 'U Misc. 1817-1838', 'U-V 1', 'U-V 2', 'U-V 3', 'U-V 4', 'U-V 5', 'U-V 6', 'U-V Leases 1800-1832', 'U-V Misc. 1784-1794', 'U-V4', 'V 1', 'V 10', 'V 11', 'V 12', 'V 13', 'V 14', 'V 15', 'V 16', 'V 17', 'V 18', 'V 19', 'V 2', 'V 20', 'V 21', 'V 22', 'V 3', 'V 4', 'V 5', 'V 6', 'V 7', 'V 8', 'V 9', 'V Leases 1800-1819', 'V Misc. 1796-1798', 'V Misc. 1796-1837', 'V Misc. 1799-1832', 'V Misc. 1801-1840', 'Vermont Inhabitants', 'W 1', 'W 10', 'W 11', 'W 12', 'W 13', 'W 14', 'W 15', 'W 16', 'W 17', 'W 18', 'W 19', 'W 2', 'W 20', 'W 21', 'W 22', 'W 3', 'W 4', 'W 5', 'W 6', 'W 7', 'W 8', 'W 9', 'W Leases 1797-1817', 'W Leases 1798-1820', 'W Leases 1811-1831', 'W Leases 1830-1838', 'W Leaves 1798-1820', 'W Misc. 1787-1794', 'W Misc. 1791-1838', 'W Misc. 1796-1815', 'W Misc. 1797-1798', 'W Misc. 1797-1803', 'W Misc. 1816-1845', 'Y 1', 'Y 10', 'Y 11', 'Y 12', 'Y 13', 'Y 14', 'Y 15', 'Y 16', 'Y 17', 'Y 18', 'Y 19', 'Y 2', 'Y 20', 'Y 21', 'Y 22', 'Y 3', 'Y 4', 'Y 5', 'Y 6', 'Y 7', 'Y 8', 'Y 9', 'Y Leases', 'Y Leases 1801-1832', 'Y Leases 1803-1818', 'Y Misc. 1788-1830', 'Y Misc. 1797-1836', 'Y Misc. 1836', 'Z 10', 'Z 11', 'Z 12', 'Z 13', 'Z 15', 'Z 16', 'Z 18', 'Z 20', 'Z 22', 'Z 3', 'Z 4', 'Z 8', 'Z 9', 'Z Misc. 1797-1816']</t>
         </is>
@@ -1217,12 +1281,18 @@
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
+        <v>6537</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>168664</v>
       </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
         <v>754</v>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>['1', '1 1/2', '1 to 89', '10', '100', '101', '101,5', '102', '103', '104', '104A', '104C/', '105', '106', '106C/', '107', '108', '109', '10a', '11', '110', '111', '112', '113', '114', '114A', '115', '116', '117', '117A', '118', '118C/', '119', '11C/', '12', '120', '121', '122', '123', '124', '125', '125A', '126', '127', '128', '129', '12C/', '13', '13 1/2', '13,5', '130', '130,5', '131', '132', '133', '133A', '134', '134A', '135', '136', '137', '138', '139', '13A', '13a', '13b', '14', '14,5', '140', '140C/', '141', '142', '143', '144', '145', '146', '147', '148', '149', '14A', '15', '15 1/2', '15,5', '150', '151', '152', '152c', '153', '154', '154A', '154a', '154b', '155', '156', '1568', '157', '157A', '158', '158C/', '159', '15C/', '16', '160', '161', '162', '163', '164', '165', '166', '167', '168', '168a', '169', '17', '170', '170,5', '171', '172', '173', '174', '175', '176', '176,5', '177', '178', '179', '17A', '17C/', '18', '180', '181', '182', '183', '184', '185', '186', '187', '188', '189', '189C/', '18C/', '19', '190', '191', '192', '192,5', '193', '194', '195', '196', '197', '198', '199', '19A', '19B', '19C/', '19a', '1?', '1A', '1C/', '2', '2 1/2', '20', '20,5', '200', '200C/', '201', '202', '203', '204', '205', '206', '207', '208', '209', '20C/', '21', '210', '211', '212', '213', '214', '215', '216', '217', '218', '219', '21C/', '22', '22,5', '220', '221', '222', '223', '224', '225', '226', '227', '228', '229', '22C/', '23', '230', '231', '232', '233', '234', '235', '236', '237', '238', '239', '23A', '23C/', '23a', '24', '240', '241', '242', '243', '244', '245', '246', '246,5', '247', '248', '249', '24C/', '25', '250', '251', '252', '253', '254', '255', '256', '257', '258', '259', '25C/', '25a', '26', '26 A', '26,5', '260', '261', '262', '263', '264', '265', '266', '267', '268', '269', '26C/', '27', '270', '271', '272', '273', '274', '275', '276', '277', '278', '279', '27a', '28', '28 1/2', '280', '281', '282', '283', '284', '285', '286', '286C/', '287', '288', '289', '28?', '28C/', '29', '290', '291', '292', '293', '294', '295', '296', '297', '298', '299', '29C/', '2A', '3', '3 1/2', '30', '300', '301', '302', '303', '304', '305', '306', '307', '308', '309', '30C/', '31', '310', '311', '312', '313', '314', '315', '316', '317', '318', '319', '31A', '32', '32 1/2', '320', '321', '322', '323', '324', '325', '326', '327', '328', '329', '33', '33 1/2', '330', '331', '331C/', '332', '333', '334', '335', '336', '337', '338', '339', '33C/', '34', '340', '341', '342', '343', '344', '345', '346', '347', '348', '349', '34C/', '35', '35,5', '350', '351', '352', '353', '354', '355', '356', '357', '358', '359', '36', '36,5', '360', '361', '362', '363', '364', '365', '366', '367', '368', '369', '36A', '37', '370', '371', '372', '373', '374', '375', '376', '377', '378', '379', '38', '380', '381', '382', '383', '384', '385', '386', '387', '388', '389', '38a', '39', '39,5', '390', '391', '392', '393', '394', '395', '396', '397', '398', '399', '39A', '3A', '3C/', '4', '4 1/2', '4,5', '40', '400', '401', '402', '403', '404', '405', '406', '407', '408', '409', '40C/', '41', '41,5', '410', '411', '412', '413', '414', '415', '416', '417', '418', '419', '41a', '42', '420', '421', '422', '423', '424', '425', '426', '427', '428', '429', '42A', '43', '430', '431', '432', '433', '434', '435', '436', '437', '438', '439', '44', '44 1/2', '440', '441', '442', '443', '444', '445', '446', '447', '448', '449', '45', '450', '451', '452', '453', '454', '455', '456', '457', '458', '459', '46', '46,5', '460', '461', '462', '463', '464', '465', '466', '467', '468', '469', '46&lt;&lt;', '46C/', '47', '470', '471', '472', '473', '474', '475', '476', '477', '478', '479', '48', '480', '481', '482', '483', '484', '485', '486', '487', '488', '489', '49', '49 1/2', '490', '491', '492', '493', '494', '495', '496', '497', '498', '499', '4A', '4C/', '5', '5 C/', '5,5', '50', '500', '501', '502', '503', '504', '505', '506', '507', '508', '509', '50C/', '51', '510', '511', '512', '513', '514', '515', '516', '517', '518', '519', '52', '52 C/', '520', '521', '522', '523', '524', '525', '526', '527', '528', '529', '53', '53 1/2', '530', '531', '532', '533', '534', '535', '536', '537', '538', '539', '53C/', '54', '54 C/', '540', '541', '542', '543', '544', '545', '546', '547', '548', '549', '55', '55 1/2', '550', '551', '552', '553', '554', '555', '556', '557', '558', '559', '55C/', '56', '56,5', '560', '561', '562', '563', '564', '565', '566', '567', '568', '569', '56A', '56C/', '57', '570', '571', '572', '573', '574', '575', '576', '577', '578', '579', '57A', '58', '580', '581', '582', '583', '584', '585', '586', '587', '588', '589', '59', '590', '591', '592', '593', '594', '595', '59C/', '6', '60', '61', '61 A', '62', '62 C', '62A B', '63', '64', '65', '6536', '66', '66C/', '67', '67,5', '68', '68A', '69', '69 1/2', '6A', '7', '7 1/2', '70', '71', '71C/', '72', '72C/', '73', '74', '75', '76', '76C/', '77', '77C/', '78', '79', '79 1/2', '79C/', '7A', '7a', '8', '8,5', '80', '80 1/2', '81', '81C/', '82', '83', '83C/', '84', '85', '86', '86 1/2', '87', '88', '88 a', '89', '8A', '8a', '9', '90', '91', '91C/', '92', '93', '93A', '94', '94C/', '95', '95(a)', '96', '96c', '97', '97,5', '98', '99', 'Feb-37', 'Jan-37', 'Misc. 10', 'Misc. 11', 'Misc. 12', 'Misc. 13', 'Misc. 2', 'Misc. 3', 'Misc. 5', 'Misc. 6', 'Misc. 7']</t>
         </is>
@@ -1295,12 +1365,18 @@
         </is>
       </c>
       <c r="T12" t="n">
+        <v>2770</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
         <v>499933</v>
       </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
         <v>437</v>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>['14', '46863-46866', 'C-1609', 'C-1610', 'C-1611', 'C-1612', 'C-1613', 'C-1614', 'C-1615', 'C-1616', 'C-1617', 'C-1618', 'C-1619', 'C-1620', 'C-1621', 'C-1622', 'C-1623', 'C-1624', 'C-1625', 'C-1626', 'C-1627', 'C-1628', 'C-1629', 'C-1630', 'C-1631', 'C-1632', 'C-1633', 'C-1634', 'C-1635', 'C-1636', 'C-1637', 'C-1638', 'C-1639', 'C-1640', 'C-1641', 'C-1642', 'C-1643', 'C-1643 &amp; C-1644', 'C-1644', 'C-1645', 'C-1646', 'C-1647', 'C-1648', 'C-1649', 'C-1650', 'C-1651', 'C-1652', 'C-1653', 'C-1723', 'C-1724', 'C-1725', 'C-1726', 'C-1727', 'C-1728', 'C-1729', 'C-1730', 'C-1731', 'C-1732', 'C-1733', 'C-1734', 'C-1735', 'C-1736', 'C-1737', 'C-1738', 'C-1739', 'C-1740', 'C-1741', 'C-1741, C-1742', 'C-1742', 'C-1743', 'C-1744', 'C-1745', 'C-1753', 'C-1818', 'C-1875', 'C-1876', 'C-1877', 'C-1878', 'C-1879', 'C-1880', 'C-1881', 'C-1882', 'C-1883', 'C-1884', 'C-1885', 'C-1886', 'C-1887', 'C-1888', 'C-1889', 'C-1890', 'C-1891', 'C-1892', 'C-1893', 'C-1894', 'C-1895', 'C-1896', 'C-1897', 'C-1898', 'C-1899', 'C-1900', 'C-2022', 'C-2023', 'C-2024', 'C-2025', 'C-2026', 'C-2027', 'C-2028', 'C-2029', 'C-2030', 'C-2031', 'C-2032', 'C-2033', 'C-2034', 'C-2035', 'C-2036', 'C-2037', 'C-2038', 'C-2039', 'C-2040', 'C-2041', 'C-2042', 'C-2043', 'C-2044', 'C-2045', 'C-2046', 'C-2047', 'C-2048', 'C-2049', 'C-2050', 'C-2051', 'C-2052', 'C-2053', 'C-2095', 'C-2096', 'C-2097', 'C-2098', 'C-2099', 'C-2100', 'C-2101', 'C-2102', 'C-2105', 'C-2106', 'C-2107', 'C-2108', 'C-2109', 'C-2110', 'C-2111', 'C-2112', 'C-2113', 'C-2114', 'C-2115', 'C-2116', 'C-2117', 'C-2118', 'C-2118A', 'C-2119', 'C-2120', 'C-2121', 'C-2122', 'C-2123', 'C-2124', 'C-2125', 'C-2126', 'C-2127', 'C-2128', 'C-2129', 'C-2130', 'C-2131', 'C-2132', 'C-2133', 'C-2134', 'C-2135', 'C-2136', 'C-2137', 'C-2138', 'C-2139', 'C-2140', 'C-2141', 'C-2142', 'C-2175', 'C-2181', 'C-2182', 'C-2183', 'C-2184', 'C-2185', 'C-2186', 'C-2187', 'C-2188', 'C-2189', 'C-2190', 'C-2191', 'C-2192', 'C-2193', 'C-2193*', 'C-2194', 'C-2195', 'C-2196', 'C-2197', 'C-2198', 'C-2199', 'C-2200', 'C-2201', 'C-2202', 'C-2203', 'C-2204', 'C-2206', 'C-2207', 'C-2208', 'C-2209', 'C-2210', 'C-2211', 'C-2212', 'C-2213', 'C-2214', 'C-2215', 'C-2216', 'C-2218', 'C-2219', 'C-2220', 'C-2221', 'C-2229', 'C-2230', 'C-2231', 'C-2232', 'C-2233', 'C-2234', 'C-2235', 'C-2236', 'C-2481', 'C-2482', 'C-2483', 'C-2484', 'C-2484l', 'C-2485', 'C-2486', 'C-2487', 'C-2488', 'C-2489', 'C-2489 &amp; C-2490', 'C-2490', 'C-2491', 'C-2492', 'C-2494', 'C-2731A', 'C-2732', 'C-2733', 'C-2734', 'C-2735', 'C-2736', 'C-2737', 'C-2738', 'C-2739', 'C-2740', 'C-2741', 'C-2742', 'C-2743', 'C-2744', 'C-2745', 'C-2746', 'C-2747', 'C-2748', 'C-2749', 'C-2750', 'C-2801', 'C-2802', 'C-2803', 'C-2804', 'C-2805', 'C-2806', 'C-2807', 'C-2808', 'C-2809', 'C-2810', 'C-2811', 'C-2812', 'C-2813', 'C-2814', 'C-2815', 'C-2816', 'C-2817', 'C-2818', 'C-2819', 'C-2820', 'C-2821', 'C-2822', 'C-2823', 'C-2824', 'C-2825', 'C-2826', 'C-2827', 'C-2828', 'C-2829', 'C-2830', 'C-2831', 'C-2832', 'C-2833', 'C-2834', 'C-2835', 'C-2836', 'C-2837', 'C-2838', 'C-2839', 'C-2840', 'C-2841', 'C-2842', 'C-2847', 'C-2914', 'C-2947', 'C-2948', 'C-2949', 'C-2950', 'C-2951', 'C-2952', 'C-2953', 'C-2954', 'C-2955', 'C-2956', 'C-2957', 'C-2958', 'C-2959', 'C-2960', 'C-2961', 'C-2962', 'C-2963', 'C-2964', 'C-2965', 'C-2966', 'C-2967', 'C-2968', 'C-2969', 'C-2980', 'C-2981', 'C-2982', 'C-2983', 'C-2984', 'C-3507', 'C-4212', 'C-4502', 'C-4503', 'C-4504', 'C-4505', 'C-4506', 'C-4507', 'C-4508', 'C-4543', 'C-4544', 'C-4545', 'C-4546', 'C-4547', 'C-4548', 'C-4549', 'C-4600', 'C-4601', 'C-4602', 'C-4603', 'C-4604', 'C-4605', 'C-4606', 'C-4607', 'C-4608', 'C-4609', 'C-4610', 'C-4611', 'C-4612', 'C-4613', 'C-4614', 'C-4615', 'C-4616', 'C-4617', 'C-4618', 'C-4745', 'C-4816', 'C-6776', 'C-6862', 'C-6863', 'C-6864', 'C-6865', 'C-6866', 'C-6867', 'C-6868', 'C-6869', 'C-6870', 'C-6871', 'C-6872', 'C-6873', 'C-6874', 'C-6875', 'C-6876', 'C-6877', 'C-6878', 'C-6879', 'C-6880', 'C-6881', 'C-6882', 'C-6883', 'C-6884', 'C-6885', 'C-6886', 'C-6887', 'C-6888', 'C-6889', 'C-6890', 'C-6891', 'C-6892', 'C-6893', 'C-6894', 'C-6895', 'C-6896', 'C-6897', 'C-6898', 'C-6899', 'C-6900', 'C-6901', 'C-6902', 'C-6903', 'C-6905', 'C-6906', 'C-6907', 'C-6908', 'C-6909', 'C-6910', 'C-6911', 'C-6912', 'C-6913', 'C-6914', 'C-6968', 'C-8888', 'C2739', 'c-1742', 'c-1892', 'c-2022', 'c-2027', 'c-2120', 'c-2484', 'c-2739', 'c-2842', 'c-2983']</t>
         </is>
@@ -1369,12 +1445,18 @@
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
+        <v>73726</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>71769</v>
       </c>
-      <c r="U13" t="n">
+      <c r="W13" t="n">
         <v>4588</v>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>['10', '10-10a', '100239-100242', '10025-10026', '10027-10030', '10047-10048', '10053-10055', '10061-10062', '10097-10099', '10104-10107', '10192-10195', '10328-10329', '103401-103403', '103868-103872', '103993-103996', '104090-104092', '104433-104435', '104584-104585', '10461-10462', '104873-104879', '1050-1052', '105316-105317', '105436-105438', '10577-10584', '10587-10588', '105981-105985', '106579-106581', '10660-10661', '106623-106624', '106924-106925', '106988-106990', '107200-107201', '107348-107349', '10762-10765', '107724-107725', '107872-107873', '10792-10795', '107934-107935', '108110-110111', '108110-180111', '108131-108132', '108180-108181', '108201-108202', '108275-108281', '108313-108314', '108313/108314', '10845-10846', '108452-108453', '10847-10848', '108517-108519', '108547-108548', '108625-108627', '108738-108742', '108839-108840', '108885-108887', '109082-109084', '10924-10926', '10937-10940', '10955-10956', '10967-10971', '11-11b', '110283-110284', '11043-11045', '1108-1109', '11088-11089', '110946-110948', '110949-110950', '110992-110994', '11112-11114', '11115-11117', '11134-11135', '11136-11138', '111714-111716', '11181-11184', '11187-11189', '11195', '1119939-119940', '11207-11208', '112095-112097', '112288-112292', '11229-11230', '11231-11232', '11237-11238', '113284-113285', '113324-113326', '113607-113608', '11374-11375', '11397-11399', '114123-114125', '11419-11422', '11423-11424', '114247-114250', '11425-11429', '11436-11438', '114387-114391', '11469-11470', '114715-114716', '11477-11478', '114782-114784', '11484-11486', '114854-114856', '114857-114858', '11491-11494', '11501-11502', '11506-11510', '11519-11521', '11522-11523', '11531-11533', '11536-11538', '115482-115484', '115728-115730', '11574-11575', '11576-11577', '11578-11581', '11582-11584', '11585-11588', '11589-11590', '11591-11592', '11609-11614', '11617-11619', '11626-11628', '11635-11642', '11645-11649', '11653-11659', '11699-11750', '11727-11729', '11740-11742', '11745-11746', '11747-11751', '11754-11756', '11767-11771', '11772-11774', '11781-11784', '11785-11789', '11790-11793', '11794-11796', '11806-11808', '118661-118666', '11876-11883', '11886-11888', '11953-11958', '11985-11995', '119939', '119939-119940', '11a-11b', '11c-11d', '11e-11f', '11g-11L', '11g-11h', '11i-11j', '11k-11L', '11k-11l', '11m', '11n', '11o', '12', '12/155-127161', '12011-12013', '12038-12044', '12053-12055', '120886-120887', '1209-1212', '120940-120943', '12133-12134', '121525-121527', '121625-121627', '12184-12188', '122227-122229', '12245-12248', '122482-122513', '12249-12250', '1226-1229', '12262-12264', '12271-12272', '122748-122751', '122761-122765', '122789-122793', '122851-122854', '122858-122861', '12289-12293', '122927-122930', '12296-12299', '123012-123014', '123068-123070', '12313-12316', '123132-123136', '123145-123147', '123440-123452', '123626-123635', '123658-123660', '123756-123761', '123814-123816', '12382-12383', '123866-123868', '12396-12397', '124018-124019', '124175-124176', '124345-124347', '124422-124425', '12444-12446', '124473-124475', '1245', '124623-124629', '124630-124631', '124632-124650', '124720-124722', '12480-12481', '12488-12490', '124884-124886', '12491-12493', '12494-12497', '125006-125008', '125100-125102', '125112-125125', '125247-125252', '12529-12531', '12532-12533', '12534-12539', '125349-125356', '12544-12546', '12547-12552', '125510-125512', '12565-12575', '12576-12581', '125860-125864', '125957-125962', '126020-126021', '126044-126046', '126047-126050', '126051-126054', '126055-126059', '126139-126141', '12618-12619', '12623-12625', '12634-12638', '126421-126427', '126436-126437', '126556-126558', '126589-126592', '126603-126605', '126608-126614', '12666-12667', '126744-126745', '12675-12676', '12685-12686', '12689-12694', '126901-126932', '127042-127045', '127076-127078', '12714-12715', '127155-127161', '127162-127164', '127192-127193', '12721-12722', '127255-127259', '127260-127261', '12728-12729', '127298-127300', '12743-12746', '127505-127508', '12760-12762', '127603-127604', '127624-127626', '12767-12770', '127716-127718', '127787-127790', '127797-127800', '127841-127845', '127923-127925', '1281-1284', '12810-12812', '12816-12817', '12825-12828', '12833-12835', '12835-12837', '12841-12842', '128474-128480', '12875-12878', '128755-128758', '128864-128867', '128886-128888', '129027-129032', '12933-12934', '129359-129365', '129483-129485', '129633-129636', '129647-129649', '129657-129658', '129676-129677', '12968-12969', '129820-129821', '129825-129830', '129833-129838', '129842-129844', '129892-129897', '129949-129958', '129975-129977', '12998-13000', '13-13b', '130020-130021', '130022-130025', '130259-130260', '13038-13042', '130424-130426', '130433-130435', '130507-130509', '130529-130531', '130551-130552', '130563-130564', '130578-130580', '13075-13077', '130883-130885', '130948-130950', '131133-131134', '131140-131148', '131159-131160', '131166-131167', '131199-132202', '131266-131268', '13133-13135', '13138-13139', '13163-13164', '131643-131644', '131661-131662', '13167-13169', '131684-131692', '13170-13172', '131731-131732', '131733-131735', '131853-131854', '131857-131863', '13190-13192', '13199-13201', '132003-132007', '132008-132010', '132023-132026', '13220-13222', '132203-132206', '132212-132217', '132321-132326', '132332-132334', '132335-132340', '132344-132349', '132423-132424', '132425-132426', '132451-132454', '132486-132487', '132503-132508', '132540-132542', '13255-13258', '13262-13263', '132630-132633', '132672-132674', '132716-132718', '13276-13278', '132768-132771', '13279-13281', '132808-132810', '132840-132841', '13285-13287', '132871-132874', '132915-132916', '132995-132997', '133010-133012', '13303-13304', '133151-133152', '133157-133159', '13318-13320', '133201-133204', '13332-13333', '13336-13338', '13339-13340', '133397-133398', '13341-13342', '13343-13345', '133438-133441', '13346-13347', '13348-13350', '13351-13352', '13353-13355', '133557-133562', '133565-133566', '133578-133580', '133585-133587', '13359-13364', '133654-133657', '13367-13368', '133670-133671', '133708-133711', '13371-13373', '133758-133760', '133801-133803', '13381-13384', '133856-133859', '133913-133915', '133916-133917', '13397-13402', '134060-134061', '13409-13413', '13417-13419', '13420-13423', '13424-13426', '134244-134245', '134361-134362', '134372-134373', '134428-134431', '13445-13446', '134451-134457', '134474-134476', '134477-134481', '13449-13450', '134529-134530', '13454-13456', '13459-13460', '13461-13462', '134651-134652', '13477-13479', '13492-13494', '134924-134930', '13498-13503', '13506-13507 13578-13580', '13508-13511', '135094-135095', '135127-135128', '13518-13519', '135227-135228', '13527-13529', '135286-135288', '135289-135290', '135295-135296', '135355-135657', '13538-13540', '135380-135381', '135382-135384', '13541-13543', '13548-13549', '135580-135581', '13564-13565', '13566-13567', '135667-135669', '135685-135688', '13592-13593', '13594-13595', '13601-13602', '13607-13608', '13609-13611', '13624-13627', '136252-136254', '13628-13630', '13641-13642', '13653-13654', '13666-13668', '13688-13689', '13713-13714', '13715-13716', '13735-13740', '13741-13743', '13767-13770', '13771-13773', '13783-13785', '13786-13788', '13789-13791', '13792-13794', '13821-13822', '13839-13846', '13857-13859', '13862-13866', '13884-13896', '13899-138901', '13936-13940', '13961-13963', '13964-13966', '13967-13968', '13969-13970 13978-13979', '13971-13973', '13979-13979', '13b', '13b-13c', '13c', '14000-14001', '14002-14005', '14006-14008', '14014-14015', '14016-14018', '14019-14022', '14023-14024', '14025-14029', '14032-14035', '14037-14039', '14040-14048', '14056-14061', '14081-14084', '14094-14096', '14101-14103', '14183-14184', '14185-14186', '14187-14188', '14196-14203', '14214-14216', '14217-14218', '14223-14224', '14226-14227', '14228-14229', '14230-14231', '14237-14238', '14239-14240', '14241-14242', '14245-14246', '1426-1435', '14313-14316', '14328-14332', '1436-1438', '14367-14371', '14388-14389', '14390-14398', '14399-14400', '14403-14404', '14419-14426', '14452-11454', '14452-14454', '14459-14464', '14465-14469', '14474-14475', '14491-14492', '14495-14497', '14498-14501', '14507-14508', '14515-14519', '14544-14545', '14546-14547', '14548-14549', '14550-14553', '14567-14570', '1458', '14592-14593', '1459214593', '14594-14595', '14621-14623', '14633-14635', '1464-1466', '14644-14649', '14672-14673', '14674-14675', '14676-14677', '14678-14684', '14685-14691', '14694-14698', '14699-14701', '14704-14705', '14709-14712', '14713-14716 14785-14791', '1473-1477', '14731-14732', '14733-14735', '14736-14737', '14738-14741', '14750-14753', '14756-14758', '14765-14757', '14768-14770', '14771-14773', '14774-14781', '14790-14792', '14795-14800', '14801-14802', '14807-14809', '14817-14818', '14822-14824', '1484-1485', '14855-14856', '1486-1490', '14867-14868', '14869-14870', '14871-14876', '14874-14876 &amp; 14871-14873', '14882-14885', '14900-14904', '14911-14912', '14919-14922', '14923-14927', '14933-14934', '14937-14938', '14974-14975', '14979-14980', '14981-14983', '14986-14989', '14994-14997', '14998-15000', '15001-15002', '15007-15009', '15031-15033', '15040-15042', '15053-15054', '15062-15063', '15068-15069', '15072-15074', '15081-15083', '15084-15086', '15087-15088', '15089-15091', '15092-15093', '15094-15095', '15099-15101', '15102-15104', '15109-15110', '15126-15127', '15131-15132', '15142-15143', '15144-15145', '15154-15160', '15165-15167', '15168-15170', '15171-15173', '15174-15175', '15191-15195', '15196-15198', '15233-15235', '15243-15246', '15247-15248', '15265-15266', '15287-15290', '15310-15312', '15318-15323', '15324-15325', '15328-15330', '15337-15339', '15343-15345', '15384-15385', '15404-15405', '15443-15444', '1546-1548', '15460-15461', '15462-15463', '15467-15470', '15481-15482', '15488-15489', '15491-15493', '15494-15497', '15500-15502', '15545-15547', '15555-15557', '15568-15569', '1557-1558', '15570-15571', '15572-15574', '15577-15581', '15608-15609', '15612-15615', '15625-15626', '15629-15634', '15639-15641', '15642-15644', '15647-15648', '15656-15658', '15661-15662', '15664-15665', '15672-15673', '15676-15677', '15678-15680', '15706-15707', '15708-15710', '15727-15730', '15735-15737', '15757', '15773-15775', '15796-15797', '15798-15800', '15801-15802', '15803-15811', '15823-15825', '15835-15836', '15842-15843', '15844-15845', '15846-15847', '15848-15852', '15853-15854', '15855-15857', '15858-15859', '15866-15868', '15873-15876', '15877-15878', '15897-15898', '15899-15900', '15922-15924', '15930-15931', '15936-15939', '15946-15952', '15946-15967', '15953-15955', '15956-15960 15963-15964', '15961-15962', '15965-15967', '15978-15979', '15983-15984', '15985-15987', '15b', '15c', '16-16e', '16012-16014', '16015-16016', '16017-16020', '16021-16023', '16024-16025', '16026-16027', '16036-16038', '16040-16043', '16048-16051', '16066-16070', '16076-16079', '16087-16088', '16130-16131', '16132-16133', '16143-16144', '16145-16146', '16157-16158', '16159-16160', '16165-16167', '16193-16199', '16223-16225', '16228-16229', '16236-16238', '16239-16241', '16251-16253', '16254-16255', '16258-16259', '16276-16281', '16290-16291', '16292-16294', '16295-16297', '16302-16304', '16310-16311', '16316-16320', '16324-16325', '16328-16333', '16334-16337', '16357-16359', '16363-16364', '16379-16380', '16390-16392', '16405-16407', '16418-16419', '16420-16421', '16422-16423', '16437-16441', '16442-16443', '16451-16453', '16456-16457', '16468-16472', '16473-16474', '16479-16480', '16481-16482', '16489-16490', '16513-16515', '16516-16518', '16541-16542', '16571-16572', '16940-76941', '17049-10750', '1711-1713', '1726-1731', '17427-71429', '17588-17589', '17611-17614', '17617-17619', '17620-17621', '17643-17644', '17653-17654', '17661-17664', '17691-17692', '17697-17699', '17705-17706', '17707-17708', '17721-17722', '17775-17777', '17782-17784', '17785-17786', '17787-17790', '17833-17835', '17853-17854', '17855-17857', '17872-17873', '17876-17877', '17893-17895', '17905-17908', '17909-17910', '17911-17913', '17914-17915', '17916-17917', '17928-17933', '17937-17939', '17965-17966', '17970-17971', '17982-17983', '17984-17985', '17990-17991', '17995-17997', '17a', '17b', '17c', '17d', '18013-18016', '18017-18018', '18019-18020', '18021-18024', '18030-18031', '18036-18041', '18063-18064', '18067-18069', '18070-18071', '18072-18073', '18106-18107', '18121-18122', '18146-18147', '18222-18223', '18226-18228', '18231-18233', '18254-18255', '18256-18257', '18258-18261', '18262-18263', '18269-18270', '18271-18272', '18273-18274', '18275-18276', '18291-18294', '18301-18302', '18311-18312', '18316-18317', '18337-18338', '18341-18343', '18344-18345', '18353-18354', '18358-18359', '18360-18361', '18362-18363', '18373-18374', '18375-18376', '18380-18382', '18388-18389', '18390-18392', '18401-18404', '18412-18413', '18417-18419', '18428-18429', '18430-18431', '18435-18438', '18439-18442', '18445-18446', '18447-18448', '18449-18450', '18468-18469', '18473-18474', '18478-18479', '18480-18483', '18495-18497', '18506-18508', '18509-18511', '18514-18515', '18521-18523', '18534-18535', '18536-18537', '18546-18554', '18547-18548', '18549-18550', '18551-18552', '18568-18569', '18573-18574', '18598-18599', '18600-18601', '18602-18603', '18604-18605', '18608-18609', '18617-18618', '18649-18652', '18658-18659', '18660-18661', '18692-18694', '18699-18701', '18704-18708', '18715-18716', '18723-18724', '18725-18729', '18741-18742', '18751-18753', '18754-18755', '18773-18776', '18777-18778', '18782-18785', '18782-18786', '18786-18788', '18791-18794', '18833-18835', '1888-1890', '18882-18886', '18902-18903', '18904-18906', '18907-18909', '18941-18942', '18946-18947', '18952-18953', '18993-18995', '18996-18998', '18b', '18c', '19 q, 19s', '19006-19009', '19035-19037', '19059-19062', '19131-19135', '19148-19150', '19151-19153', '19170-19171', '19172-19175', '19196-19199', '19200-19203', '19213-19214', '19217-19218', '19289-19290', '19329-19330', '19335-19336', '19375-19376', '19393-19394', '19395-19396', '19406-19408', '19417-19419', '19420-19421', '19440-19441', '19442-19443', '19444-19445', '19448-19477', '19485-19486', '19597-19598', '19599-19600', '19603-19604', '19630-19635', '19664-19667', '19712-19715', '19773-19774', '19792-19794', '19816-19817', '19825-19830', '19936-19948', '19L, 19q, 19s', '19a, 19q, 19s', '19b, 19q, 19s', '19c, 19q, 19s', '19d, 19q, 19s', '19e-19f, 19q, 19s', '19g', '19h-19i, 19q, 19s', '19j, 19q, 19s', '19k, 19q, 19s', '19m', '19n, 19q, 19s', '19q, 19s', '1b', '1c', '1d', '1e', '1e-1f', '1f', '1h', '1i', '1j', '1k', '1l', '1m', '1n', '1o', '1p', '1q', '1r', '1s', '1t', '1u', '1v', '1x', '2', '20-20g', '20017-20018', '20046-20047', '20092-20096', '20187-20190', '20191-20194', '20203-20205', '20215-20216', '20247-20248', '20249-20250', '20269-20270', '20279-20282', '20285-20288', '20334-20335', '20336-20337', '20340-20343', '20356', '20356-20356', '20357-20359', '20373-20374', '20405-20407', '20425-20427', '20444-20446', '20467-20471', '2052-2053', '20586-20588', '20595-20605', '20638-20640', '20653-20655', '20719-20729', '20763-20764', '20771-20773', '20781-20782', '20812-20814', '20834-20835', '20890-20893', '20913-20914', '20915-20916', '20943-20945', '20946-20947', '20971-20974', '20981-20984', '20985-20990', '21023-21024', '21039-21041', '21042-21045', '21081-21083', '21109-21110', '21128-21129', '21141-21143', '21151-21154', '21167-21170', '21173-21174', '21179-21180', '21190-21198', '21228-21229', '21243-21245', '21259-21262', '21266-21267', '21276-21277', '21306-21308', '21330-21332', '21343-21345', '21353-21354', '21373-21374', '21430-21433', '21434-21437', '21438-21439', '21483-21484', '21508-21510', '21511-21515', '21519-21521', '21529-21530', '21531-21535', '21536-21542', '21555-21556', '21561-21562', '21563-21566', '21567-21568', '21580-21581', '21614-21615', '21618-21621', '21642-21643', '21689-21694', '21735-21736', '21761-21764', '21765-21766', '21965-21968', '21975-21977', '21b', '22-22f', '22007-22012', '22036-22039', '22040-22048', '22060-22062', '22228-22229', '22236-22238', '22250-22252', '22320-22321', '22322-22323', '22327-22329', '22336', '22336-22338', '22343-22344', '22383-22385', '22397-22400', '22423-22426', '22436-22452', '22487-22489', '22544-22552', '22563-22564', '22577-22578', '22585-22586', '22616-22617', '22642-22643', '22644-22645', '22667-22669', '22730-22733', '22778-22780', '22788-22790', '22791-22792', '22799-22801', '22807-22812', '22830-22833', '22834-22835', '22844-22847', '22925-22928', '22976-22978 22987-22990', '22984-22985', '23', '23012', '23013-23015', '23044-23048', '23049-23050', '23073-23074', '23073-23078', '23127-23128', '23206-23208', '23245-23246', '23256-23258', '23323-23324', '23363-23365', '23378-23379', '2340-2342', '23508-23509', '23513-23519', '23559-23562', '23570-23571', '23578-23584', '2363-2368', '23645-23652', '23653-23654', '23660-23661', '23662-23668', '23700-23702', '23726-23727', '23759-23761', '23775-23778', '23782-23783', '23797-23799', '23831-23833', '23849-23852', '23853-23854', '23879-23880', '23922-23925', '23937-23938', '23939-23943 24205-24206', '23957-23959', '23978-23979', '23984-23986', '23K', '23L', '23a', '23c', '23c-23d', '23d', '23e', '23f', '23g', '23h', '23h, 23j', '23i', '23j', '23k', '23l', '23m', '23n', '23o', '23p', '23q', '23r', '23s', '23t', '23u', '23v', '24031-24033', '24037-24039', '24040-24041', '24052-24055', '24169-24171', '24201-24204', '24207-24209', '24227-24229', '24257-24260', '24267-24269', '24316-24319', '24320-24321', '24322-24325', '24343-24345', '24387-24388', '24389-24392', '24458-24460', '24501-24503', '24512-24513', '24583-24584', '24628-24632', '24712-24718', '24729-24731', '24737-24738', '2475-2478', '2475-2481', '2475-2485', '24766-24768', '2479-2481', '24818-24827', '24828-24831', '24842-24845', '24846', '24848-24849', '24953-24955', '24b', '24c', '24d', '24f', '24g', '25007-25008', '25023-25024', '25053-25054', '25154-25156', '25190-25193', '25203-25206', '25245-25247', '25300-25302', '25342-25344', '25342-25345', '254-258', '25429-25431', '25443-25445', '25453-25454', '25455-25456', '25464-25465', '25466-25468', '25481-25484', '25501-25503', '25511-25512', '25513-25515', '25541-25543', '25568-22569', '25591-25594', '25638-25644', '25682-25684', '25689-25691', '25707-25708', '25746-25747', '25844-25846', '25877-25879', '25894-25895', '25927-25929', '25b', '25c', '26-26vv', '26019-26020', '26110-26111', '26174-26175', '26176-26177', '26190-26197', '26242-26251', '26309-26310', '26311-26312', '26313-26314', '26335-26336', '26350-26365', '26396-26398', '26401-26402', '26425-26428', '26433-26436', '26445-26446', '26463-26465', '26463-62465', '26500-26502', '26513-26516', '26599-26603', '26689-26693', '267-270', '26731-26733', '26734-26737', '26752-26753', '26752-26773', '26753-26754', '26771-26774', '26784-26785', '26794-26796', '26825-26828', '26851-26854', '26870-26873', '26918-26926', '26932-26934', '27-27q', '27066-27068', '27093-27094', '27103-21704', '27126-27128', '27165-27166', '27167-27170', '27171-27172', '27218-27222', '27246-27249', '27260-27261', '27273-27279', '27280-27283', '27284-27285', '27295-27297', '27313-27314', '27319-27320', '27325-27327', '27336-27338', '27366-27369', '27381-27384', '27437-27438', '27441-27442', '27477-27479', '27522-27524', '27580-27582', '27583-27584', '27668-27669', '27668-27669 27695-27696', '27672-27673', '27684-27685', '27695-27696', '27734-27737', '27755-27757', '27821-27822', '27856-27858', '27903-27905', '27930-27932', '27933-27934', '27947-27949', '27950-27953', '27954-27967', '27987-27989', '27990-27992', '28007-28010', '28015-28017', '28038-28040', '28050-28051', '28052-28053', '28066-28067', '28105-28106', '28122-28125', '28153-28156', '28159-28161', '28172-28173', '28183-28184', '28185-28186', '28187-28188', '28194-28196', '28197-28198', '28209-28216', '28217-28220', '28221-28223', '28224-28226', '28227-28229', '28230-28231', '28232-28233', '28254-28255', '28256-28258', '28259-28262', '28292-28294', '2834-2836', '28380-28385', '2847-2848', '28485-28487', '28501-28502', '28522-28524', '28525-28527', '28554-28556', '28616-28618', '2863-2864', '28674-28677', '28688-28690', '28867-28868', '28914-28916', '28989-28990', '28a-28d', '28a-28e', '28e', '28f', '29001-29003', '2901-2903', '29032-29035', '2907-2912', '2913-2916', '29147-29149', '29221-29223', '29250-29251', '29289-29292', '29299-29301', '29387-29391', '29403-29404', '29418-29420', '29421-29423', '29450-29453', '29457-29459', '29463-29466', '29512-19513', '29517-29520', '29521-29523', '2954-2955', '29545-29550', '29597-29599', '2960-2965', '29600-29602', '29612-29616', '29711-29714', '29733-29736', '29814-29815', '29816-29817', '29876-29880', '29881-29884', '29885-29889', '29920-29924', '29938-29939', '29978-29979', '29a', '29b', '2a', '2aa', '2bb', '2c-2e', '2cc', '2dd', '2ee-2ii', '2f', '2g', '2h-2j', '2jj', '2k-2L', '2m', '2r-2s', '2t', '2u', '2v', '2w-2x', '2y', '2z', '3', '3-3c', '30075-30076', '30134-30137', '3016-3019', '30182-30187', '30212-30214', '30215-30217', '30218-30219', '30247-30251', '30292-30294', '30295-30298', '30303-30306', '30307-30308', '30336-30339', '30355-30358', '3036-3037', '30362-30365', '3038-3040', '30394-30397', '30516-30518', '30527-30528', '30553-30556', '30594-30597', '30638-30639', '30649-30651', '30685-30688', '30693-30695', '30705-30706', '30720-30721', '30817-30819', '30865-30867', '30882-30885', '30886-30889', '30913-30917', '30918-30919', '30944-30945', '30965-30967', '30977-30979', '30997-30999', '30b', '31-31e', '31026-31031', '31048-31050', '31113-31119', '31122-31124', '31129-31130', '31160-31162', '31163-31165', '31176-31177', '31178-31181', '3137-3138', '31370-31371', '3139-3141', '31407-31408', '31409-31410', '31624-31625', '31690-31692', '31717-31719', '31729-31733', '31812-31814', '31849-31853', '31866-31869', '31899-31901', '31955-31957', '31966-31967', '31984-31986', '31987-31989', '31995-31998', '32002-32004', '32018-32019', '3205-3206', '32072-32073', '32103-32109', '32158-32163', '32168-32174', '32183-32184', '32187-32189', '3219-3220', '32190-32192', '32213-32217', '32268-32269', '32287-32290', '3232-3233', '32335-32338', '3235-3236', '32354-32357', '3237-3239', '32374-32375', '3240-3241', '32423-32424', '32428-32430', '32451-32453', '32525-32528', '32529-32530', '32533-32535', '3254-3302', '32556-32557', '32584-32585', '32594-32595', '32613-32615', '32620-32621', '32629-32631', '32646-32649', '32676-32679', '32684-32685', '32694-32696', '32722-32724', '32741-32743', '32751-32753', '32801-32803', '3282-3284', '32821-32822', '32883-32888', '32921-32923', '32933-32934', '32991-32992', '32a', '33013-33015', '3303-3305', '33041-33043', '33044-33046', '33049-33052', '33101-33103', '33116-33117', '33167-33169', '33282-33284', '33285-33286', '33289-33292', '33306-33308', '33309-33312', '33354-33356', '33364-33366', '33367-33369', '3340-3342', '33426-33429', '33436-33437', '33459-33462', '33463-33465', '33490-33492', '33506-33511', '3352-3354', '33545-33546', '33547-33550', '33576-33577', '33605-33606', '33618-33625', '33626-33627', '3366-3367', '33692-33695', '33709-33712', '33723-33724', '33733-33734', '33753-33756', '33786-33789', '33838-33840', '3391-3392', '33975-33981', '33a', '33c', '33c, 33g', '33d', '33e', '3402-3404', '34021-34023', '34035-34037', '34092-34093', '34104-34106', '34107-34110', '3413-3415', '34190-34193', '34194-34196', '34221-34222', '34251-34257', '3430-3432', '34357-34358', '34400-34402', '34457-34459', '34490-34493', '34497-34498', '34528-34529', '34530-34532', '34578-34581', '34584-34586', '34587-34590', '34591-34594', '34612-34615', '3465-3467', '3465-3469', '34693-34695', '34707-34710', '34711-34712', '34738-34739', '34746-34749', '34764-34773', '34781-34783', '34796-34798', '34799-34801', '34820-34821', '34826-34828', '34872-34874', '34909-34910', '34914-34915', '3492-3493', '34923-34925', '34984-34985', '34b', '34c', '34d', '35000-35002', '35036-35037', '35045-35046', '35047-35048', '35053-35054', '35055-35056', '35057-35063', '35083-35084', '35107-35109', '35125-35126', '35127-35130', '3515-3516', '35154-35156', '35215-35217', '35227-35230', '35239-35241', '35242-35245', '35248-35250', '35259-35260', '35265-35272', '3532-3535', '35370-35371', '35372-35373', '35374-35379', '3542-3545', '35496-35498', '35556-35560', '35573-35575', '35578-35580', '35585-35588', '35609-35612', '35640-35641', '35651-35653', '35654-35655', '35713-35715', '3581-3582', '35840-35844', '3585-3586', '35850-35852', '35857-35860', '35883-35885', '35920-35921', '35972-35975', '35980-35983', '35986-35987', '35997-35998', '35a', '36002-36003', '36008-36009', '36019-36022', '36055-36057', '36058-36060', '36138-36139', '36153-36156', '36268-36271', '36315-36317', '36330-36331', '36340-36342', '36347-36350', '36387-36388', '36413-36414', '3646-3648', '36514-36515', '36550-36553', '36562-36563', '36564-36566', '365888', '36589-36591', '36623-36625', '36700-36703', '36704-36708', '36713-36715', '36731-36734', '36747-36748', '36756-36758', '36759-36762', '36763-36764', '36766-36767', '36768-36772', '36773-36776', '36784-36799', '36810-36811', '36815-36816', '3682-3685', '36835-36836', '36837-36838', '36877-36878', '36879-36880', '36918-36921', '36928-36931', '36973-36975', '36984-36989', '36a', '36a-36c', '37023-37024', '37029-37031', '37047-37049', '3705-3706', '3705-3708', '37062-37064', '3707-3708', '3709-3711', '37105-37107', '37124-37125', '37126-37128', '37133-37134', '37175-37177', '37178-37182', '37192-37194', '37227-37230', '37331-37332', '37347-37349', '37350-37351', '37359-37361', '37362-37365', '37405-37406', '3741-3742', '37416-37418', '37423-37430', '3743-3745', '37435-37437', '37490-37491', '37566-37567', '37574-37576', '3759-3760', '37592-37595', '37601-37603', '37604-37607', '37608-37609', '3761-3763', '37681-37683', '37764-37765', '37770-37771', '3778-3780', '37783-37786', '37833-37835', '37839-37840', '37841-37844', '37869-37871', '37895-37896', '37920-37922', '3795-3797', '37969-37971', '37a', '37b', '38018-38021', '38023-38028', '3803-3804', '38037-38038', '38043-38046', '38047-38049', '3805-3806', '38069-38070', '38074-38077', '38153-38156', '38157-38159', '38171-38172', '38196-38198', '38237-38240', '38253-38254', '38260-38261', '38277-38292', '38349-38350', '38354-38355', '38375-38376', '38393-38396', '38416-38418', '38421-38422', '38426-38427', '38480-38483', '38490-38491', '3850-3859', '38530-38538', '38603-38608', '38618-38620', '38640-38641', '38670-38671', '38672-38675', '38682-38683', '38763-38764', '38780-38783', '38784-38786', '38847-38850', '38853-38856', '38864-38865', '38905-38906', '38909-38911', '38922-38929', '38937-38938', '38958-38960', '38994-38995', '38a', '39032-39033', '39097-39098', '39120-39121', '39127-39129', '39130-39132', '39133-39135', '39138-39141', '39248-39249', '39257-39258', '39269-39271', '39312-39314', '39383-39384', '39413-39414', '39435-39440', '3945-3955', '39451-39453', '39483-39484', '39536-39537', '39547-39548', '39573-39575', '39611-39612', '39619-39621', '39638-39640', '39644-39645', '39646-39647', '39651-39661', '39762-39763', '3977-3979', '39812-39814', '39911-39912', '39926-39927', '39984-39986', '39991-39992', '39c', '39c-39d', '3a', '3b', '4', '40015-40017', '40159-40161', '40162-40163', '40170-40172', '40192-40194', '40203-40205', '40206-40208', '40221-40222', '40223-40224', '40232-40235', '4025-4027', '40302-40303', '40309-40312', '40315-40320', '40342-40343', '40381-40382', '40387-40390', '40444-40445', '40465-40466', '40481-40483', '40524-40525', '40615-40618', '40622-40623', '40710-40713', '40737-40739', '40746-40747', '40759-40760', '40778-40781', '40809-40810', '40828-40829', '4086-4088', '40882-40885', '40904-40905', '40906-40907', '40908-40911', '40964-40965', '40990-40992', '40993-40998', '40c-40e', '40e', '40e, 40g', '41', '41000-41005', '41020-41021', '41064-41068', '41085-41087', '4123-4125', '41246-41247', '41254-41256', '41284-41285', '41286-41288', '41298-41306', '41314-41315', '4132-4137', '41340-41341', '41467-41468', '41520-41521', '41529-41530', '41542-41543', '41549-41550', '41551-41552', '41582-41584', '41612-41614', '41625-41626', '41635-41636', '41664-41665', '41675-41676', '41708-41709', '41710-41712', '41726-41729', '41736-41737', '4174-4176', '41760-41762', '41770-41772', '41776-41777', '41781-41782', '4179-4181', '41802-41813', '41822-41829', '41870-41873', '41877-41879', '41880-41883', '41906-41908', '41942-41944', '41949-41951', '41969-41970', '41978-41990', '42-42e', '42008-42009', '4201-4202', '42035-42036', '42041-42046', '42053-42056', '4212-4214', '42138-42140', '42163-42165', '4219-4227', '42206-42210', '42211-42212', '42257-42258', '42261-42262', '42329-42330', '42379-42380', '4240-4243', '42409-42411', '42432-42433', '42448-42449', '42453-42454', '4248-4250', '42487-42488', '42492-42495', '42508-42509', '42510-42511', '42545-42546', '42547-42550', '42563-42564', '42650-42653', '42667-42669', '42670-42672', '42696-42698', '42715-42716', '42822-42823', '4285-4287', '42856-42857', '42940-42941', '42967-42969', '42983-42985', '42991-42992', '42993-42996', '42997-42998', '43-43b', '43046-43047', '43048-43049', '43119-43121', '4317-4319', '4320-4322', '43222-43224', '43311-43312', '43325-43326', '43327-43333', '43457-43459', '4347-4353', '4348-4350', '43559-43562', '4365-4367', '43686-43687', '43691-43693', '44 1/2 - 44 1/2 c', '44069-44070', '44106-44107', '44108-44109', '4411-4412', '44254-44255', '44326-44332', '44365-44367', '44375-44377', '44423-44425', '44494-44495', '4456-4458', '44569-44570', '44582-44583', '44641-44642', '44753-44754', '4477-4480', '44904-44906', '44912-44917', '44920-44921', '44922-44924', '44958-44961', '4497-4510', '449936-44939', '44a-44b', '45039-45042', '45047-45048', '45055-45057', '45103-45104', '45166-45167', '45180-45182', '45183-45187', '45215-45216', '4523-4528', '45261-45263', '45287-45289', '4534-4536', '45357-45359', '45402-45403', '45419-45426', '45493-45496', '45550-45551', '4557-4558', '4559-4560', '45637-45638', '45727-45730', '45739-45742', '45788-45791', '45809-45810', '45816-45817', '45829-45831', '45832-45833', '45847-45848', '45869-45870', '45966-45967', '45968-45970', '45978-45980', '45981-45982', '45983-45985', '45a', '45b', '46001-46003', '46016-46018', '4602-4604', '46032-46036', '46081-46083', '46098-46100', '46118-46119', '46130-46132', '46193-46196', '46200-46201', '46255-46259', '4627-4632', '46300-46303', '46378-46380', '46386-46387', '46443-46446', '4650-4652', '46513-46514', '46559-46562', '46565-46566', '46599-46601', '4665-4666', '46666-46674', '46675-46677', '46680-46684', '46709-46711', '46773-46777', '46801-46803', '46808-46813', '46863-46866', '46885-46886', '46916-46917', '46928-46929', '46933-46943', '46955-46957', '46966-46967', '46992-46995', '46a', '46c', '47013-47014', '4704-4707', '4708-4710', '47102-47104', '47123-47126', '4716-4717', '47160-41763', '47160-47163', '47220-47221', '47222-47223', '47238-47239', '47280-47283', '4734-4736', '47388-47390', '47426-47429', '47460-47462', '47463-47466', '47503-47505', '4751-4753', '4751-4756', '47542-47543', '47565-47567', '47639-47641', '47657-47658', '47659-47664', '4772-4774', '47732-47733', '47752-47754', '4780-4782', '47823-47824', '47825-47828', '47895-47896', '47925-47926', '47927-47930', '47957-47958', '47994-47996', '47a', '47e', '48', '48023-48026', '48048-48051', '48089-48092', '48104-48106', '48107-48109', '48123-48125', '48126-48127', '48139-48141', '48156-48159', '48171-48173', '48213-48214', '48220-48223', '48224-48225', '48228-48229', '48230-48231', '48261-48263', '48295-48301', '48364-48367', '48368-48373', '4838-4840', '48398-48401', '48473-48475', '48497-484500', '48516-48518', '48546-48548', '48554-48559', '48573-48574', '48577-48579', '48596-48599', '48627-48628', '48667-48670', '48673-48675', '48724-48728', '48734-48739', '48783-48785', '48786-48789', '4884-4888', '48886-48887', '48912-48914', '48954-48955', '48995-48996', '48b', '48d', '48e', '48f', '48g', '48h', '48i', '48j', '48k', '49', '49064-49067', '49081-49082', '49085-49086', '49087-49099', '49091-49093', '49145-49146', '4915-4917', '49183-49194', '49232-49234', '49251-49253', '49288-49291', '49292-49293', '49317-49320', '49324', '49476-49477', '49517-49518', '49523-49528', '49551-49553', '49560-49562', '4957-4958', '49633-49634', '4964-4967', '49653-49655', '49732-49734', '49742-49744', '4975-4978', '49772-49773', '49774-49775', '49819-49820', '4985-4988', '49853-49859', '4989-4991', '49908-49914', '49958-49960', '49977-49978', '49a', '49a, 49c', '49b', '49c', '49d', '49e', '49f'</t>
         </is>

--- a/examples/Canada OGD/upper Canada Land Petitions/profile.xlsx
+++ b/examples/Canada OGD/upper Canada Land Petitions/profile.xlsx
@@ -481,11 +481,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -561,11 +561,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -645,11 +645,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -708,7 +708,7 @@
         <v>9835</v>
       </c>
       <c r="U4" t="n">
-        <v>0.707</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>495737</v>
@@ -729,39 +729,39 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>83260</v>
       </c>
       <c r="E5" t="n">
-        <v>79827</v>
+        <v>83260</v>
       </c>
       <c r="F5" t="n">
-        <v>163508745</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2048.288736893532</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1824</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>63602.34434316756</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4045258205.946858</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>183</v>
+        <v>-1</v>
       </c>
       <c r="L5" t="n">
-        <v>17971797</v>
+        <v>-1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -813,11 +813,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -893,11 +893,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -956,7 +956,7 @@
         <v>83257</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>2247940</v>
@@ -977,11 +977,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1040,7 +1040,7 @@
         <v>77782</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>807275</v>
@@ -1061,11 +1061,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1124,7 +1124,7 @@
         <v>1834</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>252833</v>
@@ -1145,11 +1145,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1225,39 +1225,39 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>83260</v>
       </c>
       <c r="E11" t="n">
-        <v>76474</v>
+        <v>83260</v>
       </c>
       <c r="F11" t="n">
-        <v>6270908</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>82.00052305358685</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.76779039931758</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>7356.113869981273</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L11" t="n">
-        <v>6536</v>
+        <v>-1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1305,11 +1305,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1368,7 +1368,7 @@
         <v>2770</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>499933</v>
@@ -1389,11 +1389,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D13" t="n">
